--- a/LUSID Excel - Setting up your market data.xlsx
+++ b/LUSID Excel - Setting up your market data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://finbourne.sharepoint.com/Shared Documents/Product/CustomerProposition/Getting started tutorials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{B32354FE-22B9-454E-9DB0-CA4823A7F011}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9F843045-B59F-43B8-950A-2325F65DF894}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28A469E-386C-4456-8F6D-8235C1B74DB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datetime format" sheetId="18" r:id="rId1"/>
+    <sheet name="Datetime format" sheetId="21" r:id="rId1"/>
     <sheet name="List identifiers" sheetId="11" r:id="rId2"/>
     <sheet name="List instruments" sheetId="12" r:id="rId3"/>
     <sheet name="Get instrument definition" sheetId="10" r:id="rId4"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="333">
   <si>
     <t>Base Currency</t>
   </si>
@@ -936,33 +936,18 @@
     <t>or Contact us</t>
   </si>
   <si>
-    <t>Excel format</t>
-  </si>
-  <si>
-    <t>LUSID format</t>
-  </si>
-  <si>
     <t>Enter the date to convert</t>
   </si>
   <si>
-    <t>LUSID requires dates in the following format:</t>
-  </si>
-  <si>
     <t>This date has no time component</t>
   </si>
   <si>
-    <t>Convert into a string (no time component):</t>
-  </si>
-  <si>
     <t>Specify time component</t>
   </si>
   <si>
     <t>Add to your date and display the complete datetime</t>
   </si>
   <si>
-    <t>Convert into a string (time component):</t>
-  </si>
-  <si>
     <t>Although the date can still appears without time</t>
   </si>
   <si>
@@ -1113,54 +1098,12 @@
     <t>Instrument Ids</t>
   </si>
   <si>
-    <t>2019-04-15T00:00:00.00Z</t>
-  </si>
-  <si>
-    <t>2019-06-01T00:00:00.00Z</t>
-  </si>
-  <si>
-    <t>2019-06-02T00:00:00.00Z</t>
-  </si>
-  <si>
-    <t>2019-06-03T00:00:00.00Z</t>
-  </si>
-  <si>
-    <t>2019-06-04T00:00:00.00Z</t>
-  </si>
-  <si>
     <t>Client</t>
   </si>
   <si>
-    <t>2019-04-16T00:00:00.00Z</t>
-  </si>
-  <si>
-    <t>2019-04-17T00:00:00.00Z</t>
-  </si>
-  <si>
-    <t>2019-04-18T00:00:00.00Z</t>
-  </si>
-  <si>
-    <t>2019-04-19T00:00:00.00Z</t>
-  </si>
-  <si>
-    <t>2019-04-20T00:00:00.00Z</t>
-  </si>
-  <si>
-    <t>2019-04-21T00:00:00.00Z</t>
-  </si>
-  <si>
-    <t>2019-04-22T00:00:00.00Z</t>
-  </si>
-  <si>
-    <t>2019-04-23T00:00:00.00Z</t>
-  </si>
-  <si>
     <t>Limit</t>
   </si>
   <si>
-    <t>Today in LUSID format</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -1182,7 +1125,40 @@
     <t>2028/12/01T00:00:00.00</t>
   </si>
   <si>
-    <t>2018/01/01T00:00:00.00</t>
+    <t>LUSID accepts datetimes in any recognised Excel format</t>
+  </si>
+  <si>
+    <t>LUSID also accepts UTC, UTS offsets and cutlabels</t>
+  </si>
+  <si>
+    <t>Excel formats to show datetime</t>
+  </si>
+  <si>
+    <t>Additional formats</t>
+  </si>
+  <si>
+    <t>Standard UTC timestamp:</t>
+  </si>
+  <si>
+    <t>Convert date into a string</t>
+  </si>
+  <si>
+    <t>UTC offset (not recognised as an excel date)</t>
+  </si>
+  <si>
+    <t>2019-04-10T13:30:45+04:00</t>
+  </si>
+  <si>
+    <t>Cutlabel</t>
+  </si>
+  <si>
+    <t>Add an hour to your datetime</t>
+  </si>
+  <si>
+    <t>Subtract a minute from your datetime</t>
+  </si>
+  <si>
+    <t>Excel</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1478,6 +1454,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1506,355 +1486,345 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.a451133d7b174878998c0bed4b7b8852">
+    <main first="rtdsrv.c1066394fe78402db742926738641108">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>9df00e5b-0aca-4816-89e2-b83c524a13fe</stp>
-        <tr r="H30" s="10"/>
-        <tr r="F31" s="10"/>
-        <tr r="K26" s="10"/>
-        <tr r="I29" s="10"/>
-        <tr r="F28" s="10"/>
-        <tr r="K31" s="10"/>
-        <tr r="F25" s="10"/>
-        <tr r="G25" s="10"/>
-        <tr r="H24" s="10"/>
-        <tr r="K22" s="10"/>
-        <tr r="G30" s="10"/>
-        <tr r="I22" s="10"/>
-        <tr r="J27" s="10"/>
-        <tr r="I21" s="10"/>
-        <tr r="H27" s="10"/>
-        <tr r="F26" s="10"/>
-        <tr r="K24" s="10"/>
-        <tr r="F24" s="10"/>
-        <tr r="H23" s="10"/>
-        <tr r="I25" s="10"/>
-        <tr r="I27" s="10"/>
-        <tr r="G27" s="10"/>
-        <tr r="F30" s="10"/>
-        <tr r="J23" s="10"/>
-        <tr r="K27" s="10"/>
-        <tr r="I26" s="10"/>
-        <tr r="J30" s="10"/>
-        <tr r="G21" s="10"/>
-        <tr r="K23" s="10"/>
-        <tr r="I23" s="10"/>
-        <tr r="F27" s="10"/>
-        <tr r="I30" s="10"/>
-        <tr r="G28" s="10"/>
-        <tr r="G31" s="10"/>
-        <tr r="G26" s="10"/>
-        <tr r="G22" s="10"/>
-        <tr r="F22" s="10"/>
-        <tr r="J26" s="10"/>
-        <tr r="I31" s="10"/>
-        <tr r="J28" s="10"/>
-        <tr r="G23" s="10"/>
-        <tr r="K21" s="10"/>
-        <tr r="J29" s="10"/>
-        <tr r="K25" s="10"/>
-        <tr r="G29" s="10"/>
-        <tr r="H26" s="10"/>
-        <tr r="F23" s="10"/>
-        <tr r="J21" s="10"/>
-        <tr r="I28" s="10"/>
-        <tr r="J25" s="10"/>
-        <tr r="K28" s="10"/>
-        <tr r="K30" s="10"/>
-        <tr r="J22" s="10"/>
-        <tr r="J31" s="10"/>
-        <tr r="H21" s="10"/>
-        <tr r="K29" s="10"/>
-        <tr r="H29" s="10"/>
-        <tr r="G24" s="10"/>
-        <tr r="F29" s="10"/>
-        <tr r="H28" s="10"/>
-        <tr r="H31" s="10"/>
-        <tr r="J24" s="10"/>
-        <tr r="H25" s="10"/>
-        <tr r="I24" s="10"/>
-        <tr r="H22" s="10"/>
-        <tr r="F21" s="10"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c67b2fbc-8155-48e2-95a0-1483d1438fc5</stp>
-        <tr r="M23" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a451133d7b174878998c0bed4b7b8852">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>59b04c2c-3674-44eb-9460-801b75581a13</stp>
-        <tr r="E27" s="11"/>
-        <tr r="F17" s="11"/>
-        <tr r="E28" s="11"/>
-        <tr r="G23" s="11"/>
-        <tr r="G25" s="11"/>
-        <tr r="E26" s="11"/>
-        <tr r="G29" s="11"/>
-        <tr r="G17" s="11"/>
-        <tr r="G27" s="11"/>
-        <tr r="F25" s="11"/>
-        <tr r="E18" s="11"/>
-        <tr r="E22" s="11"/>
-        <tr r="F19" s="11"/>
-        <tr r="G22" s="11"/>
-        <tr r="E29" s="11"/>
-        <tr r="E21" s="11"/>
-        <tr r="F22" s="11"/>
-        <tr r="E20" s="11"/>
-        <tr r="F27" s="11"/>
-        <tr r="F26" s="11"/>
-        <tr r="F18" s="11"/>
-        <tr r="G19" s="11"/>
-        <tr r="E19" s="11"/>
-        <tr r="G26" s="11"/>
-        <tr r="E17" s="11"/>
-        <tr r="F29" s="11"/>
-        <tr r="E24" s="11"/>
-        <tr r="E23" s="11"/>
-        <tr r="F24" s="11"/>
-        <tr r="G24" s="11"/>
-        <tr r="F23" s="11"/>
-        <tr r="G20" s="11"/>
-        <tr r="F28" s="11"/>
-        <tr r="G28" s="11"/>
-        <tr r="E25" s="11"/>
-        <tr r="G18" s="11"/>
-        <tr r="F21" s="11"/>
-        <tr r="F20" s="11"/>
-        <tr r="G21" s="11"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>ba3b17ea-cafc-4caf-8423-75c21870757a</stp>
-        <tr r="M29" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a451133d7b174878998c0bed4b7b8852">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e1dfaffd-4d2f-4870-8544-0aa4fefc21af</stp>
-        <tr r="M26" s="16"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>eceaafb3-4b16-48c0-92c3-32e0375d8435</stp>
-        <tr r="M26" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a451133d7b174878998c0bed4b7b8852">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>64f37c6d-7fb6-4ceb-8cee-04f66a5bfc26</stp>
+        <stp>5d0f56f9-f4c2-4c5a-94a9-2d1f0b6d93d4</stp>
         <tr r="M24" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>371c4718-3781-4230-a86a-f7142cb860fa</stp>
+        <stp>1183e152-0db1-44a2-a5d6-a18c0f443034</stp>
+        <tr r="M27" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c1066394fe78402db742926738641108">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bef7f0fe-e638-4d05-a926-ffe23b5d107a</stp>
+        <tr r="M31" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c1066394fe78402db742926738641108">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>640283b9-62e1-4a6d-8b5d-d69ea050db43</stp>
         <tr r="M28" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>5949f5a1-47bb-4563-ac17-2f7518b7e33f</stp>
-        <tr r="M24" s="16"/>
+        <stp>2526ca4f-0263-477c-9521-5b5773a5caba</stp>
+        <tr r="I29" s="14"/>
+        <tr r="K29" s="14"/>
+        <tr r="F28" s="14"/>
+        <tr r="G29" s="14"/>
+        <tr r="F29" s="14"/>
+        <tr r="I28" s="14"/>
+        <tr r="F30" s="14"/>
+        <tr r="I30" s="14"/>
+        <tr r="J30" s="14"/>
+        <tr r="H30" s="14"/>
+        <tr r="H28" s="14"/>
+        <tr r="J28" s="14"/>
+        <tr r="J29" s="14"/>
+        <tr r="G30" s="14"/>
+        <tr r="K30" s="14"/>
+        <tr r="K28" s="14"/>
+        <tr r="H29" s="14"/>
+        <tr r="G28" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>9b07bf40-58c8-4721-98d7-82ef446c755e</stp>
-        <tr r="M25" s="16"/>
+        <stp>af95614e-0f89-4823-9402-5d9724906193</stp>
+        <tr r="N27" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c1066394fe78402db742926738641108">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4e51a5a6-a497-4888-aa07-44dea3f77633</stp>
+        <tr r="M23" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>2b3ca304-ec44-4af6-a014-a27b7547fc52</stp>
-        <tr r="M27" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a451133d7b174878998c0bed4b7b8852">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>01af2686-ec2f-4587-a098-a8fe103e0052</stp>
-        <tr r="M27" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a451133d7b174878998c0bed4b7b8852">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>730166ca-0720-4fa2-a2d3-b5908ed41903</stp>
-        <tr r="M25" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a451133d7b174878998c0bed4b7b8852">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5ed556f8-69cb-453b-9233-b9edf4ef33e7</stp>
-        <tr r="G29" s="14"/>
-        <tr r="K28" s="14"/>
-        <tr r="J28" s="14"/>
-        <tr r="H29" s="14"/>
-        <tr r="K30" s="14"/>
-        <tr r="I30" s="14"/>
-        <tr r="K29" s="14"/>
-        <tr r="I28" s="14"/>
-        <tr r="J29" s="14"/>
-        <tr r="J30" s="14"/>
-        <tr r="F28" s="14"/>
-        <tr r="F29" s="14"/>
-        <tr r="G30" s="14"/>
-        <tr r="H30" s="14"/>
-        <tr r="F30" s="14"/>
-        <tr r="H28" s="14"/>
-        <tr r="I29" s="14"/>
-        <tr r="G28" s="14"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a451133d7b174878998c0bed4b7b8852">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d9e2f73a-c2fe-4ad1-88d9-480d02289923</stp>
-        <tr r="J34" s="13"/>
-        <tr r="G34" s="13"/>
-        <tr r="I35" s="13"/>
-        <tr r="F34" s="13"/>
-        <tr r="K36" s="13"/>
-        <tr r="J36" s="13"/>
-        <tr r="H35" s="13"/>
-        <tr r="I34" s="13"/>
-        <tr r="F35" s="13"/>
-        <tr r="J35" s="13"/>
-        <tr r="K34" s="13"/>
-        <tr r="H36" s="13"/>
-        <tr r="K35" s="13"/>
-        <tr r="G35" s="13"/>
-        <tr r="I36" s="13"/>
-        <tr r="H34" s="13"/>
-        <tr r="F36" s="13"/>
-        <tr r="G36" s="13"/>
+        <stp>aa39ede4-dfc6-45d3-9eff-6d5cf8a2baeb</stp>
+        <tr r="N25" s="16"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>bcb83465-0021-4ece-ba2f-0a7f0a955823</stp>
-        <tr r="M29" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.a451133d7b174878998c0bed4b7b8852">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a8c86e4f-7bb8-46e7-b13c-6bb887f1d603</stp>
-        <tr r="M31" s="17"/>
+        <stp>2fc6ccee-f557-489b-9057-b3af262e3af2</stp>
+        <tr r="E29" s="11"/>
+        <tr r="G22" s="11"/>
+        <tr r="F28" s="11"/>
+        <tr r="E26" s="11"/>
+        <tr r="G20" s="11"/>
+        <tr r="G24" s="11"/>
+        <tr r="E19" s="11"/>
+        <tr r="F18" s="11"/>
+        <tr r="F21" s="11"/>
+        <tr r="F26" s="11"/>
+        <tr r="G23" s="11"/>
+        <tr r="G17" s="11"/>
+        <tr r="E22" s="11"/>
+        <tr r="G29" s="11"/>
+        <tr r="F29" s="11"/>
+        <tr r="F23" s="11"/>
+        <tr r="E24" s="11"/>
+        <tr r="F27" s="11"/>
+        <tr r="E28" s="11"/>
+        <tr r="F17" s="11"/>
+        <tr r="E18" s="11"/>
+        <tr r="G28" s="11"/>
+        <tr r="E25" s="11"/>
+        <tr r="G18" s="11"/>
+        <tr r="G21" s="11"/>
+        <tr r="G26" s="11"/>
+        <tr r="E23" s="11"/>
+        <tr r="E20" s="11"/>
+        <tr r="F19" s="11"/>
+        <tr r="F25" s="11"/>
+        <tr r="F22" s="11"/>
+        <tr r="F20" s="11"/>
+        <tr r="E27" s="11"/>
+        <tr r="E21" s="11"/>
+        <tr r="G27" s="11"/>
+        <tr r="E17" s="11"/>
+        <tr r="F24" s="11"/>
+        <tr r="G19" s="11"/>
+        <tr r="G25" s="11"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>b4b3d1ba-cf6a-4fff-8fb9-dc3977dcc43a</stp>
-        <tr r="M30" s="16"/>
+        <stp>45bb2e96-88fc-40c9-b440-49dbe9bdc57a</stp>
+        <tr r="F35" s="13"/>
+        <tr r="I36" s="13"/>
+        <tr r="G34" s="13"/>
+        <tr r="I35" s="13"/>
+        <tr r="H35" s="13"/>
+        <tr r="H34" s="13"/>
+        <tr r="G36" s="13"/>
+        <tr r="F36" s="13"/>
+        <tr r="G35" s="13"/>
+        <tr r="J34" s="13"/>
+        <tr r="H36" s="13"/>
+        <tr r="F34" s="13"/>
+        <tr r="K34" s="13"/>
+        <tr r="J35" s="13"/>
+        <tr r="K35" s="13"/>
+        <tr r="I34" s="13"/>
+        <tr r="J36" s="13"/>
+        <tr r="K36" s="13"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c1066394fe78402db742926738641108">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8f1191bb-f2f7-49b0-b69f-2e5f48e396fe</stp>
+        <tr r="M29" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>7b07e525-fa58-44cc-897a-8230168adc94</stp>
-        <tr r="G40" s="20"/>
-        <tr r="H39" s="20"/>
-        <tr r="G39" s="20"/>
-        <tr r="F39" s="20"/>
-        <tr r="I40" s="20"/>
-        <tr r="K39" s="20"/>
-        <tr r="L40" s="20"/>
-        <tr r="K40" s="20"/>
-        <tr r="J39" s="20"/>
-        <tr r="J40" s="20"/>
-        <tr r="H40" s="20"/>
-        <tr r="L39" s="20"/>
-        <tr r="I39" s="20"/>
-        <tr r="F40" s="20"/>
+        <stp>895f9df5-8a61-47b6-8d68-fecf2dee3704</stp>
+        <tr r="N26" s="16"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>a267f150-b8dc-4b11-b67c-ee26e6fe2754</stp>
-        <tr r="M28" s="16"/>
+        <stp>cbe24929-60f5-416a-ae87-b19f15f26d9c</stp>
+        <tr r="M25" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>96093ff9-abbb-4205-99e9-e162126b8a8d</stp>
-        <tr r="M23" s="16"/>
+        <stp>d51e9e18-460f-4650-8668-982376bb58d4</stp>
+        <tr r="G21" s="10"/>
+        <tr r="H21" s="10"/>
+        <tr r="I30" s="10"/>
+        <tr r="I31" s="10"/>
+        <tr r="K23" s="10"/>
+        <tr r="G28" s="10"/>
+        <tr r="K28" s="10"/>
+        <tr r="J25" s="10"/>
+        <tr r="G23" s="10"/>
+        <tr r="K22" s="10"/>
+        <tr r="F23" s="10"/>
+        <tr r="J22" s="10"/>
+        <tr r="G31" s="10"/>
+        <tr r="J28" s="10"/>
+        <tr r="H26" s="10"/>
+        <tr r="J26" s="10"/>
+        <tr r="K26" s="10"/>
+        <tr r="H27" s="10"/>
+        <tr r="K30" s="10"/>
+        <tr r="H29" s="10"/>
+        <tr r="H23" s="10"/>
+        <tr r="F21" s="10"/>
+        <tr r="I21" s="10"/>
+        <tr r="I24" s="10"/>
+        <tr r="I29" s="10"/>
+        <tr r="F30" s="10"/>
+        <tr r="I23" s="10"/>
+        <tr r="J30" s="10"/>
+        <tr r="I25" s="10"/>
+        <tr r="I22" s="10"/>
+        <tr r="H22" s="10"/>
+        <tr r="K29" s="10"/>
+        <tr r="H30" s="10"/>
+        <tr r="F24" s="10"/>
+        <tr r="I26" s="10"/>
+        <tr r="J23" s="10"/>
+        <tr r="F29" s="10"/>
+        <tr r="G25" s="10"/>
+        <tr r="K25" s="10"/>
+        <tr r="K27" s="10"/>
+        <tr r="H28" s="10"/>
+        <tr r="I28" s="10"/>
+        <tr r="G26" s="10"/>
+        <tr r="K31" s="10"/>
+        <tr r="J24" s="10"/>
+        <tr r="H31" s="10"/>
+        <tr r="H24" s="10"/>
+        <tr r="I27" s="10"/>
+        <tr r="K21" s="10"/>
+        <tr r="G29" s="10"/>
+        <tr r="J31" s="10"/>
+        <tr r="G30" s="10"/>
+        <tr r="K24" s="10"/>
+        <tr r="F31" s="10"/>
+        <tr r="J27" s="10"/>
+        <tr r="G24" s="10"/>
+        <tr r="F28" s="10"/>
+        <tr r="F22" s="10"/>
+        <tr r="F26" s="10"/>
+        <tr r="G22" s="10"/>
+        <tr r="F27" s="10"/>
+        <tr r="J21" s="10"/>
+        <tr r="J29" s="10"/>
+        <tr r="F25" s="10"/>
+        <tr r="G27" s="10"/>
+        <tr r="H25" s="10"/>
       </tp>
-    </main>
-    <main first="rtdsrv.a451133d7b174878998c0bed4b7b8852">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>3e309b10-765b-4cf5-9954-c0558606d071</stp>
-        <tr r="M22" s="16"/>
-        <tr r="M22" s="17"/>
+        <stp>4228cb2a-3307-4856-90cc-d4503b20a467</stp>
+        <tr r="M30" s="17"/>
       </tp>
-    </main>
-    <main first="rtdsrv.a451133d7b174878998c0bed4b7b8852">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>7e2b769e-a7f0-4dde-b4d9-0a0d7eb5d124</stp>
-        <tr r="M30" s="17"/>
+        <stp>a4edf342-50f5-4eef-aa2f-331fa2f8b221</stp>
+        <tr r="M22" s="17"/>
+        <tr r="N22" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.a451133d7b174878998c0bed4b7b8852">
+    <main first="rtdsrv.c1066394fe78402db742926738641108">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>07ff1651-663d-41ce-a831-61ef56dd9b2f</stp>
-        <tr r="G33" s="12"/>
+        <stp>05f639ab-f941-49ea-9358-2e11e38b4054</stp>
+        <tr r="M26" s="17"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1f6956f5-70ba-40c5-a2b8-95d9c9b5bdf3</stp>
+        <tr r="N28" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>be9da83e-258a-464f-bd50-93ef7b47b59d</stp>
+        <tr r="N29" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>684c7864-9e83-4d46-ad0b-56bc6c06a3f3</stp>
+        <tr r="N30" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.c1066394fe78402db742926738641108">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>990b63ef-1cdf-4a9f-ba60-4b34a2d1ba94</stp>
+        <tr r="N24" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a1d2269c-2c6b-4a07-898a-ce1ed317e62b</stp>
+        <tr r="E30" s="12"/>
+        <tr r="G28" s="12"/>
+        <tr r="G23" s="12"/>
+        <tr r="G24" s="12"/>
+        <tr r="F32" s="12"/>
         <tr r="F33" s="12"/>
-        <tr r="E33" s="12"/>
+        <tr r="F23" s="12"/>
+        <tr r="G26" s="12"/>
+        <tr r="E31" s="12"/>
         <tr r="G32" s="12"/>
-        <tr r="F32" s="12"/>
-        <tr r="E32" s="12"/>
-        <tr r="G31" s="12"/>
-        <tr r="F31" s="12"/>
-        <tr r="E31" s="12"/>
-        <tr r="G30" s="12"/>
-        <tr r="F30" s="12"/>
-        <tr r="E30" s="12"/>
-        <tr r="G29" s="12"/>
-        <tr r="F29" s="12"/>
-        <tr r="E29" s="12"/>
-        <tr r="G28" s="12"/>
-        <tr r="F28" s="12"/>
-        <tr r="E28" s="12"/>
-        <tr r="G27" s="12"/>
-        <tr r="F27" s="12"/>
-        <tr r="E27" s="12"/>
-        <tr r="G26" s="12"/>
-        <tr r="F26" s="12"/>
-        <tr r="E26" s="12"/>
-        <tr r="G25" s="12"/>
-        <tr r="F25" s="12"/>
-        <tr r="E25" s="12"/>
-        <tr r="G24" s="12"/>
         <tr r="F24" s="12"/>
         <tr r="E24" s="12"/>
-        <tr r="G23" s="12"/>
-        <tr r="F23" s="12"/>
+        <tr r="G31" s="12"/>
+        <tr r="E28" s="12"/>
+        <tr r="E25" s="12"/>
+        <tr r="F31" s="12"/>
+        <tr r="E27" s="12"/>
+        <tr r="E32" s="12"/>
+        <tr r="F27" s="12"/>
+        <tr r="G25" s="12"/>
         <tr r="E23" s="12"/>
+        <tr r="F26" s="12"/>
+        <tr r="E33" s="12"/>
+        <tr r="E26" s="12"/>
+        <tr r="G33" s="12"/>
+        <tr r="F30" s="12"/>
+        <tr r="F29" s="12"/>
+        <tr r="G27" s="12"/>
+        <tr r="G29" s="12"/>
+        <tr r="G30" s="12"/>
+        <tr r="F25" s="12"/>
+        <tr r="F28" s="12"/>
+        <tr r="E29" s="12"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>2abd65be-3451-48d8-80c7-8ba41241f749</stp>
+        <tr r="N23" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>793d53bd-4596-4c68-a3a0-c593d641885a</stp>
+        <tr r="I39" s="20"/>
+        <tr r="F40" s="20"/>
+        <tr r="I40" s="20"/>
+        <tr r="J39" s="20"/>
+        <tr r="H39" s="20"/>
+        <tr r="F39" s="20"/>
+        <tr r="J40" s="20"/>
+        <tr r="H40" s="20"/>
+        <tr r="L40" s="20"/>
+        <tr r="K40" s="20"/>
+        <tr r="G39" s="20"/>
+        <tr r="G40" s="20"/>
+        <tr r="K39" s="20"/>
+        <tr r="L39" s="20"/>
       </tp>
     </main>
   </volType>
@@ -1881,7 +1851,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2ED52D2-A341-4FDD-B366-B7D02A283EE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C85DD34-7D92-485A-8C32-1AA5D0B93616}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1874,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="17866099" y="324971"/>
+          <a:off x="17894674" y="324971"/>
           <a:ext cx="2122396" cy="1277309"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2465,8 +2435,8 @@
       <xdr:rowOff>33619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>235325</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190502</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>96210</xdr:rowOff>
     </xdr:to>
@@ -2599,8 +2569,8 @@
       <sheetName val="View Transactions"/>
       <sheetName val="Perform a reconciliation"/>
       <sheetName val="Upload Transactions"/>
+      <sheetName val="Set Holdings"/>
       <sheetName val="Create Portfolio"/>
-      <sheetName val="Set Holdings"/>
       <sheetName val="Inputs"/>
     </sheetNames>
     <sheetDataSet>
@@ -2916,14 +2886,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE2DA83-ACF2-4349-84B3-AF9C1F47D679}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94E7776-639F-42A4-B6AA-8D3309A3EB23}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:T26"/>
+  <dimension ref="B1:T31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:J24"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,8 +2905,8 @@
     <col min="5" max="5" width="50.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" style="23" customWidth="1"/>
     <col min="7" max="7" width="22" style="23" customWidth="1"/>
-    <col min="8" max="8" width="43.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" customWidth="1"/>
     <col min="12" max="14" width="24.28515625" style="23" customWidth="1"/>
@@ -3110,10 +3080,14 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>321</v>
+      </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>322</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -3126,14 +3100,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="9" t="s">
-        <v>258</v>
-      </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>259</v>
-      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -3142,14 +3112,18 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="E15" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>324</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -3159,26 +3133,16 @@
       <c r="O15" s="2"/>
       <c r="T15" s="27"/>
     </row>
-    <row r="16" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F16" s="25">
-        <v>43565</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -3186,16 +3150,26 @@
       <c r="O16" s="2"/>
       <c r="T16" s="27"/>
     </row>
-    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17" s="25">
+        <v>43565</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -3207,21 +3181,11 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" s="28">
-        <f>F16</f>
-        <v>43565</v>
-      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I18" s="25" t="str">
-        <f>TEXT(F16,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F16,"hh:mm:ss.00Z")</f>
-        <v>2019-04-10T00:00:00.00Z</v>
-      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3234,11 +3198,21 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F19" s="28">
+        <f>F17</f>
+        <v>43565</v>
+      </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I19" s="25" t="str">
+        <f>TEXT(F23,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F23," hh:mm:ss.00Z")</f>
+        <v>2019-04-10T 13:30:45.55Z</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -3247,24 +3221,15 @@
       <c r="O19" s="2"/>
       <c r="T19" s="27"/>
     </row>
-    <row r="20" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F20" s="29">
-        <v>0.56302719907407406</v>
-      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I20" s="25" t="str">
-        <f>TEXT(F18,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F18,"hh:mm:ss.00Z")</f>
-        <v>2019-04-10T00:00:00.00Z</v>
-      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -3277,12 +3242,20 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F21" s="29">
+        <v>0.56302719907407406</v>
+      </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="J21" s="51"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3294,37 +3267,38 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" s="30">
-        <f>F16 + F20</f>
-        <v>43565.563027199074</v>
-      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="I22" s="25" t="str">
-        <f>TEXT(F22,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F22,"hh:mm:ss.00Z")</f>
-        <v>2019-04-10T13:30:45.55Z</v>
-      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
+      <c r="T22" s="27"/>
     </row>
     <row r="23" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="30">
+        <f>F17 + F21</f>
+        <v>43565.563027199074</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I23" s="25" t="str">
+        <f>TEXT(F23,"yyyy-mm-dd")&amp;"NSingaporeClose"</f>
+        <v>2019-04-10NSingaporeClose</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -3336,21 +3310,11 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F24" s="31">
-        <f>F22</f>
-        <v>43565.563027199074</v>
-      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="I24" s="25" t="str">
-        <f ca="1">TEXT(NOW(),"yyyy-mm-dd")&amp;"T"&amp;TEXT(NOW(),"hh:mm:ss.00Z")</f>
-        <v>2019-08-20T15:01:44.10Z</v>
-      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3358,12 +3322,17 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="31">
+        <f>F23</f>
+        <v>43565.563027199074</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -3374,7 +3343,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="2:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3390,11 +3359,101 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
+    <row r="27" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F27" s="30">
+        <f>F23+1/24</f>
+        <v>43565.604693865738</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F29" s="30">
+        <f>F27-1/1440</f>
+        <v>43565.603999421292</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{CF85FD4A-F7A8-4952-BA30-59D23A483846}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{20ADEA89-BDA9-475C-850D-FE4616934C3E}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{3B31D428-C70D-4A25-ADA8-BB79AD0C4650}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{04DB46FB-6D1A-463C-9BFC-4C724D357CC3}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{08DD694B-05A4-451E-93AA-55AB189623A1}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{7B4C5A5A-871F-47CA-B31D-9ED042440010}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -3410,7 +3469,7 @@
   <dimension ref="A1:AD55"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,7 +3518,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3497,7 +3556,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3705,7 +3764,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -3811,7 +3870,7 @@
     <row r="19" spans="2:30" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3922,7 +3981,7 @@
         <v>208</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>209</v>
@@ -3940,16 +3999,16 @@
         <v>185</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>227</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22"/>
@@ -3973,7 +4032,9 @@
       <c r="E23" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18" t="s">
+        <v>332</v>
+      </c>
       <c r="G23" s="13" t="s">
         <v>204</v>
       </c>
@@ -3992,14 +4053,14 @@
       <c r="L23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="20" t="s">
-        <v>317</v>
+      <c r="M23" s="20">
+        <v>43570</v>
       </c>
       <c r="N23" s="48"/>
       <c r="O23" s="32"/>
       <c r="P23" s="32" t="str">
         <f>_xll.flQuotesAdd(F15,E22:O23)</f>
-        <v>Added 1 quote(s) as at time 2019-08-20 13:22:03Z</v>
+        <v>Added 1 quote(s) as at time 2019-09-03 16:02:48Z</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23"/>
@@ -4679,7 +4740,7 @@
   <dimension ref="B1:Y43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4726,7 +4787,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4764,7 +4825,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4966,7 +5027,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -5065,7 +5126,7 @@
     <row r="19" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -5113,7 +5174,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5181,7 +5242,7 @@
         <v>208</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>209</v>
@@ -5199,16 +5260,16 @@
         <v>185</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>227</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23"/>
@@ -5225,10 +5286,10 @@
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>215</v>
@@ -5248,14 +5309,14 @@
       <c r="L24" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M24" s="20" t="s">
-        <v>318</v>
+      <c r="M24" s="20">
+        <v>43617</v>
       </c>
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
       <c r="P24" s="32" t="str">
         <f>_xll.flQuotesAdd(F15,E23:O27)</f>
-        <v>Added 4 quote(s) as at time 2019-08-20 13:22:03Z</v>
+        <v>Added 4 quote(s) as at time 2019-09-03 16:02:48Z</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24"/>
@@ -5272,10 +5333,10 @@
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>215</v>
@@ -5295,8 +5356,9 @@
       <c r="L25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M25" s="20" t="s">
-        <v>319</v>
+      <c r="M25" s="20">
+        <f>M24+1</f>
+        <v>43618</v>
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
@@ -5316,10 +5378,10 @@
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>215</v>
@@ -5339,8 +5401,9 @@
       <c r="L26" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="20" t="s">
-        <v>320</v>
+      <c r="M26" s="20">
+        <f t="shared" ref="M26:M27" si="0">M25+1</f>
+        <v>43619</v>
       </c>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
@@ -5360,10 +5423,10 @@
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>215</v>
@@ -5383,8 +5446,9 @@
       <c r="L27" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="M27" s="20" t="s">
-        <v>321</v>
+      <c r="M27" s="20">
+        <f t="shared" si="0"/>
+        <v>43620</v>
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
@@ -6564,7 +6628,7 @@
   <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6755,7 +6819,7 @@
     <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6816,13 +6880,13 @@
       <c r="D17" s="2"/>
       <c r="E17" s="33" t="str">
         <f t="array" ref="E17:G29">_xll.flInstrumentTypesGet()</f>
-        <v>[More...]</v>
+        <v>IdentifierType</v>
       </c>
       <c r="F17" s="33" t="str">
-        <v>[More...]</v>
+        <v>PropertyKey</v>
       </c>
       <c r="G17" s="33" t="str">
-        <v>[More...]</v>
+        <v>IsUniqueIdentifierType</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -6838,13 +6902,13 @@
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="18" t="str">
-        <v>[More...]</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="F18" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G18" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/LusidInstrumentId</v>
+      </c>
+      <c r="G18" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -6860,13 +6924,13 @@
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
       <c r="E19" s="37" t="str">
-        <v>[More...]</v>
+        <v>Figi</v>
       </c>
       <c r="F19" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G19" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/Figi</v>
+      </c>
+      <c r="G19" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -6882,13 +6946,13 @@
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
       <c r="E20" s="37" t="str">
-        <v>[More...]</v>
+        <v>RIC</v>
       </c>
       <c r="F20" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G20" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/RIC</v>
+      </c>
+      <c r="G20" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -6904,13 +6968,13 @@
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="37" t="str">
-        <v>[More...]</v>
+        <v>Cusip</v>
       </c>
       <c r="F21" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G21" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/Cusip</v>
+      </c>
+      <c r="G21" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -6926,13 +6990,13 @@
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="37" t="str">
-        <v>[More...]</v>
+        <v>Ticker</v>
       </c>
       <c r="F22" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G22" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/Ticker</v>
+      </c>
+      <c r="G22" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -6948,13 +7012,13 @@
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="37" t="str">
-        <v>[More...]</v>
+        <v>Isin</v>
       </c>
       <c r="F23" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G23" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/Isin</v>
+      </c>
+      <c r="G23" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -6970,13 +7034,13 @@
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="37" t="str">
-        <v>[More...]</v>
+        <v>Wertpapier</v>
       </c>
       <c r="F24" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G24" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/Wertpapier</v>
+      </c>
+      <c r="G24" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -6991,13 +7055,13 @@
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="37" t="str">
-        <v>[More...]</v>
+        <v>QuotePermId</v>
       </c>
       <c r="F25" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G25" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/QuotePermId</v>
+      </c>
+      <c r="G25" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -7010,13 +7074,13 @@
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="37" t="str">
-        <v>[More...]</v>
+        <v>ShareClassFigi</v>
       </c>
       <c r="F26" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G26" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/ShareClassFigi</v>
+      </c>
+      <c r="G26" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -7029,13 +7093,13 @@
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="37" t="str">
-        <v>[More...]</v>
+        <v>CompositeFigi</v>
       </c>
       <c r="F27" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G27" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/CompositeFigi</v>
+      </c>
+      <c r="G27" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -7048,13 +7112,13 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="37" t="str">
-        <v>[More...]</v>
+        <v>ClientInternal</v>
       </c>
       <c r="F28" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G28" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/ClientInternal</v>
+      </c>
+      <c r="G28" s="18" t="b">
+        <v>1</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -7067,13 +7131,13 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="37" t="str">
-        <v>[More...]</v>
+        <v>Sedol</v>
       </c>
       <c r="F29" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G29" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/Sedol</v>
+      </c>
+      <c r="G29" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -7126,7 +7190,7 @@
   <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E23:E24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7288,7 +7352,7 @@
     <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7376,7 +7440,7 @@
         <v>198</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -7387,13 +7451,12 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="25" t="str">
-        <f ca="1">TEXT(NOW(),"yyyy-mm-dd")&amp;"T"&amp;TEXT(NOW(),"hh:mm:ss.00Z")</f>
-        <v>2019-08-20T15:01:44.10Z</v>
-      </c>
-      <c r="F21" s="25" t="str">
-        <f ca="1">TEXT(NOW(),"yyyy-mm-dd")&amp;"T"&amp;TEXT(NOW(),"hh:mm:ss.00Z")</f>
-        <v>2019-08-20T15:01:44.10Z</v>
+      <c r="E21" s="25">
+        <f ca="1">NOW()</f>
+        <v>43711.710300231483</v>
+      </c>
+      <c r="F21" s="25">
+        <v>43697</v>
       </c>
       <c r="G21" s="49">
         <v>5</v>
@@ -7420,7 +7483,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="33" t="str">
-        <f t="array" aca="1" ref="E23:G33" ca="1">_xll.flInstrumentsGetAll(E21,F21,G21)</f>
+        <f t="array" ref="E23:G33" ca="1">_xll.flInstrumentsGetAll(E21,F21,G21)</f>
         <v>State</v>
       </c>
       <c r="F23" s="33" t="str">
@@ -7557,17 +7620,17 @@
       <c r="D29" s="2">
         <v>6</v>
       </c>
-      <c r="E29" s="37" t="str">
+      <c r="E29" s="37" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F29" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="18" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="18" t="e">
         <f ca="1"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -7580,17 +7643,17 @@
       <c r="D30" s="2">
         <v>7</v>
       </c>
-      <c r="E30" s="37" t="str">
+      <c r="E30" s="37" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F30" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F30" s="18" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="18" t="e">
         <f ca="1"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -7603,17 +7666,17 @@
       <c r="D31" s="2">
         <v>8</v>
       </c>
-      <c r="E31" s="37" t="str">
+      <c r="E31" s="37" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F31" s="18" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="G31" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="18" t="e">
         <f ca="1"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -7626,17 +7689,17 @@
       <c r="D32" s="2">
         <v>9</v>
       </c>
-      <c r="E32" s="37" t="str">
+      <c r="E32" s="37" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F32" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" s="18" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G32" s="18" t="e">
         <f ca="1"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -7649,17 +7712,17 @@
       <c r="D33" s="2">
         <v>10</v>
       </c>
-      <c r="E33" s="37" t="str">
+      <c r="E33" s="37" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F33" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F33" s="18" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="G33" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G33" s="18" t="e">
         <f ca="1"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -7698,7 +7761,7 @@
   <dimension ref="B1:R32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7874,7 +7937,7 @@
     <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -7996,22 +8059,22 @@
       </c>
       <c r="F21" s="33" t="str">
         <f t="array" ref="F21:K31">_xll.flInstrumentsLookup(F19,E22:E31)</f>
-        <v>[More...]</v>
+        <v>State</v>
       </c>
       <c r="G21" s="33" t="str">
-        <v>[More...]</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H21" s="34" t="str">
-        <v>[More...]</v>
+        <v>Name</v>
       </c>
       <c r="I21" s="33" t="str">
-        <v>[More...]</v>
+        <v>Figi</v>
       </c>
       <c r="J21" s="33" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K21" s="33" t="str">
-        <v>[More...]</v>
+        <v>ClientInternal</v>
+      </c>
+      <c r="K21" s="33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L21" s="2"/>
       <c r="P21" s="19"/>
@@ -8028,22 +8091,22 @@
         <v>188</v>
       </c>
       <c r="F22" s="18" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G22" s="18" t="str">
-        <v>[More...]</v>
+        <v>LUID_RVXW0J4Z</v>
       </c>
       <c r="H22" s="35" t="str">
-        <v>[More...]</v>
+        <v>Apple</v>
       </c>
       <c r="I22" s="35" t="str">
-        <v>[More...]</v>
+        <v>BBG000B9XRY4</v>
       </c>
       <c r="J22" s="36" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K22" s="36" t="str">
-        <v>[More...]</v>
+        <v>ExcelID1</v>
+      </c>
+      <c r="K22" s="36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L22" s="2"/>
       <c r="P22" s="19"/>
@@ -8060,22 +8123,22 @@
         <v>189</v>
       </c>
       <c r="F23" s="18" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G23" s="18" t="str">
-        <v>[More...]</v>
+        <v>LUID_T2QB43BD</v>
       </c>
       <c r="H23" s="35" t="str">
-        <v>[More...]</v>
+        <v>JPMorgan Chase</v>
       </c>
       <c r="I23" s="35" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="J23" s="36" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K23" s="36" t="str">
-        <v>[More...]</v>
+        <v>BBG000DMBXR2</v>
+      </c>
+      <c r="J23" s="36">
+        <v>0</v>
+      </c>
+      <c r="K23" s="36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L23" s="2"/>
       <c r="P23" s="19"/>
@@ -8092,22 +8155,22 @@
         <v>190</v>
       </c>
       <c r="F24" s="18" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G24" s="18" t="str">
-        <v>[More...]</v>
+        <v>LUID_XUE1ELEX</v>
       </c>
       <c r="H24" s="35" t="str">
-        <v>[More...]</v>
+        <v>BP</v>
       </c>
       <c r="I24" s="35" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="J24" s="36" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K24" s="36" t="str">
-        <v>[More...]</v>
+        <v>BBG000C059M6</v>
+      </c>
+      <c r="J24" s="36">
+        <v>0</v>
+      </c>
+      <c r="K24" s="36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L24" s="2"/>
       <c r="P24" s="19"/>
@@ -8124,22 +8187,22 @@
         <v>191</v>
       </c>
       <c r="F25" s="18" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G25" s="18" t="str">
-        <v>[More...]</v>
+        <v>LUID_DDZQNCD6</v>
       </c>
       <c r="H25" s="35" t="str">
-        <v>[More...]</v>
+        <v>Anheuser-Busch InBev</v>
       </c>
       <c r="I25" s="35" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="J25" s="36" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K25" s="36" t="str">
-        <v>[More...]</v>
+        <v>BBG00DQ4YZ36</v>
+      </c>
+      <c r="J25" s="36">
+        <v>0</v>
+      </c>
+      <c r="K25" s="36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L25" s="2"/>
       <c r="P25" s="19"/>
@@ -8156,22 +8219,22 @@
         <v>192</v>
       </c>
       <c r="F26" s="18" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G26" s="18" t="str">
-        <v>[More...]</v>
+        <v>LUID_BVE0REZ5</v>
       </c>
       <c r="H26" s="35" t="str">
-        <v>[More...]</v>
+        <v>Toyota Motor</v>
       </c>
       <c r="I26" s="35" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="J26" s="36" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K26" s="36" t="str">
-        <v>[More...]</v>
+        <v>BBG000BCM915</v>
+      </c>
+      <c r="J26" s="36">
+        <v>0</v>
+      </c>
+      <c r="K26" s="36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L26" s="2"/>
       <c r="P26" s="19"/>
@@ -8188,22 +8251,22 @@
         <v>193</v>
       </c>
       <c r="F27" s="18" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G27" s="18" t="str">
-        <v>[More...]</v>
+        <v>LUID_UX4RG8N5</v>
       </c>
       <c r="H27" s="35" t="str">
-        <v>[More...]</v>
+        <v>Volkswagen</v>
       </c>
       <c r="I27" s="35" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="J27" s="36" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K27" s="36" t="str">
-        <v>[More...]</v>
+        <v>BBG000BCH458</v>
+      </c>
+      <c r="J27" s="36">
+        <v>0</v>
+      </c>
+      <c r="K27" s="36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L27" s="2"/>
       <c r="P27" s="19"/>
@@ -8220,22 +8283,22 @@
         <v>194</v>
       </c>
       <c r="F28" s="18" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G28" s="18" t="str">
-        <v>[More...]</v>
+        <v>LUID_HP2NME8I</v>
       </c>
       <c r="H28" s="35" t="str">
-        <v>[More...]</v>
+        <v>HSBC Holdings</v>
       </c>
       <c r="I28" s="35" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="J28" s="36" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K28" s="36" t="str">
-        <v>[More...]</v>
+        <v>BBG000BS1MT4</v>
+      </c>
+      <c r="J28" s="36">
+        <v>0</v>
+      </c>
+      <c r="K28" s="36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L28" s="2"/>
       <c r="Q28" s="19"/>
@@ -8251,22 +8314,22 @@
         <v>195</v>
       </c>
       <c r="F29" s="18" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G29" s="18" t="str">
-        <v>[More...]</v>
+        <v>LUID_9SBVLHHA</v>
       </c>
       <c r="H29" s="35" t="str">
-        <v>[More...]</v>
+        <v>Walt Disney</v>
       </c>
       <c r="I29" s="35" t="str">
-        <v>[More...]</v>
+        <v>BBG000BH4R78</v>
       </c>
       <c r="J29" s="36" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K29" s="36" t="str">
-        <v>[More...]</v>
+        <v>ExcelID22</v>
+      </c>
+      <c r="K29" s="36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L29" s="2"/>
     </row>
@@ -8280,22 +8343,22 @@
         <v>196</v>
       </c>
       <c r="F30" s="18" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G30" s="18" t="str">
-        <v>[More...]</v>
+        <v>LUID_JFJASSYO</v>
       </c>
       <c r="H30" s="35" t="str">
-        <v>[More...]</v>
+        <v>Microsoft</v>
       </c>
       <c r="I30" s="35" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="J30" s="36" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K30" s="36" t="str">
-        <v>[More...]</v>
+        <v>BBG000BPH459</v>
+      </c>
+      <c r="J30" s="36">
+        <v>0</v>
+      </c>
+      <c r="K30" s="36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L30" s="2"/>
     </row>
@@ -8309,22 +8372,22 @@
         <v>197</v>
       </c>
       <c r="F31" s="18" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G31" s="18" t="str">
-        <v>[More...]</v>
+        <v>LUID_0UK37N0H</v>
       </c>
       <c r="H31" s="35" t="str">
-        <v>[More...]</v>
+        <v>Softbank</v>
       </c>
       <c r="I31" s="35" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="J31" s="36" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K31" s="36" t="str">
-        <v>[More...]</v>
+        <v>BBG000CLY2D3</v>
+      </c>
+      <c r="J31" s="36">
+        <v>0</v>
+      </c>
+      <c r="K31" s="36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L31" s="2"/>
     </row>
@@ -8373,7 +8436,7 @@
   <dimension ref="B1:S48"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:H15"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8619,7 +8682,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8652,22 +8715,22 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>218</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="2"/>
@@ -8692,22 +8755,22 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>218</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>221</v>
@@ -8730,7 +8793,7 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="17" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15" t="str">
@@ -8759,22 +8822,22 @@
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>218</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>221</v>
@@ -8797,7 +8860,7 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="17" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15" t="str">
@@ -8936,22 +8999,22 @@
       </c>
       <c r="F34" s="8" t="str">
         <f t="array" ref="F34:K36">_xll.flInstrumentsLookup(F32,E35:E36)</f>
-        <v>[More...]</v>
+        <v>State</v>
       </c>
       <c r="G34" s="8" t="str">
-        <v>[More...]</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H34" s="7" t="str">
-        <v>[More...]</v>
+        <v>Name</v>
       </c>
       <c r="I34" s="8" t="str">
-        <v>[More...]</v>
+        <v>Figi</v>
       </c>
       <c r="J34" s="8" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K34" s="8" t="str">
-        <v>[More...]</v>
+        <v>ClientInternal</v>
+      </c>
+      <c r="K34" s="8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -8965,22 +9028,22 @@
         <v>BBG000B9XRY4</v>
       </c>
       <c r="F35" s="13" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G35" s="13" t="str">
-        <v>[More...]</v>
+        <v>LUID_RVXW0J4Z</v>
       </c>
       <c r="H35" s="16" t="str">
-        <v>[More...]</v>
+        <v>Apple</v>
       </c>
       <c r="I35" s="16" t="str">
-        <v>[More...]</v>
+        <v>BBG000B9XRY4</v>
       </c>
       <c r="J35" s="17" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K35" s="17" t="str">
-        <v>[More...]</v>
+        <v>ExcelID1</v>
+      </c>
+      <c r="K35" s="17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -8994,22 +9057,22 @@
         <v>BBG000BH4R78</v>
       </c>
       <c r="F36" s="13" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G36" s="13" t="str">
-        <v>[More...]</v>
+        <v>LUID_9SBVLHHA</v>
       </c>
       <c r="H36" s="16" t="str">
-        <v>[More...]</v>
+        <v>Walt Disney</v>
       </c>
       <c r="I36" s="16" t="str">
-        <v>[More...]</v>
+        <v>BBG000BH4R78</v>
       </c>
       <c r="J36" s="17" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K36" s="17" t="str">
-        <v>[More...]</v>
+        <v>ExcelID22</v>
+      </c>
+      <c r="K36" s="17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -9219,7 +9282,7 @@
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9265,7 +9328,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -9295,7 +9358,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -9480,22 +9543,22 @@
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>218</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>221</v>
@@ -9641,22 +9704,22 @@
       </c>
       <c r="F28" s="8" t="str">
         <f t="array" ref="F28:K30">_xll.flInstrumentsLookup(F26,E29,"Instrument/default/Ticker")</f>
-        <v>[More...]</v>
+        <v>State</v>
       </c>
       <c r="G28" s="8" t="str">
-        <v>[More...]</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H28" s="7" t="str">
-        <v>[More...]</v>
+        <v>Name</v>
       </c>
       <c r="I28" s="8" t="str">
-        <v>[More...]</v>
+        <v>Ticker</v>
       </c>
       <c r="J28" s="8" t="str">
-        <v>[More...]</v>
+        <v>Figi</v>
       </c>
       <c r="K28" s="8" t="str">
-        <v>[More...]</v>
+        <v>ClientInternal</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -9670,22 +9733,22 @@
         <v>BBG007FAKECO</v>
       </c>
       <c r="F29" s="13" t="str">
-        <v>[More...]</v>
+        <v>Active</v>
       </c>
       <c r="G29" s="13" t="str">
-        <v>[More...]</v>
+        <v>LUID_A9RLV8U6</v>
       </c>
       <c r="H29" s="16" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="I29" s="16" t="str">
-        <v>[More...]</v>
+        <v>Spectre</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
       </c>
       <c r="J29" s="17" t="str">
-        <v>[More...]</v>
+        <v>BBG007FAKECO</v>
       </c>
       <c r="K29" s="17" t="str">
-        <v>[More...]</v>
+        <v>NewInst14</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -9695,23 +9758,23 @@
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G30" s="2" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="H30" s="2" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="I30" s="2" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="J30" s="2" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="K30" s="2" t="str">
-        <v>[More...]</v>
+      <c r="F30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K30" s="2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -9726,7 +9789,7 @@
       <c r="L31" s="50"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="18">
+  <dataValidations count="18">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Client supplied instrument Id" sqref="O17 O24" xr:uid="{00DDB5B9-AB50-4EB6-A9D1-57ADC0761B97}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument name" sqref="P17 P24" xr:uid="{12ED80DD-1447-4270-897B-A4131EB9C93A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument Id Type" sqref="Q17" xr:uid="{02C3AC28-C26B-4014-94BB-541E43E04CCA}"/>
@@ -9764,9 +9827,7 @@
   </sheetPr>
   <dimension ref="B1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9812,7 +9873,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -9842,7 +9903,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -9858,7 +9919,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -9874,7 +9935,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -9952,7 +10013,7 @@
     <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -9970,7 +10031,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -9988,25 +10049,25 @@
       <c r="C15" s="2"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="K15" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="L15" s="6" t="str">
         <f t="array" ref="L15:L17">_xll.flPropertiesAdd(E15:K17)</f>
@@ -10022,10 +10083,10 @@
         <v>219</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H16" s="12" t="b">
         <v>0</v>
@@ -10035,10 +10096,10 @@
         <v>PlanType</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L16" s="32" t="str">
         <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/PlanType' because it already exists.</v>
@@ -10053,22 +10114,22 @@
         <v>219</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H17" s="43" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L17" s="32" t="str">
         <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/TakeOverWorldDate' because it already exists.</v>
@@ -10168,7 +10229,7 @@
     <row r="25" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -10186,7 +10247,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -10207,13 +10268,13 @@
         <v>221</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -10230,21 +10291,21 @@
       </c>
       <c r="E28" s="15" t="str">
         <f>'Add instrument'!G29</f>
-        <v>[More...]</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>340</v>
+        <v>LUID_A9RLV8U6</v>
+      </c>
+      <c r="F28" s="48">
+        <v>43101</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H28" s="46" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="47" t="str">
         <f>_xll.flInstrumentPropertiesAdd(E27:H28)</f>
-        <v>#ERROR: A LusidInstrumentId must start with 'LUID_', or 'CCY_'.</v>
+        <v>OK</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -10333,7 +10394,7 @@
     <row r="34" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -10351,7 +10412,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -10437,10 +10498,10 @@
         <v>PlanType</v>
       </c>
       <c r="K39" s="8" t="str">
-        <v/>
+        <v>Figi</v>
       </c>
       <c r="L39" s="8" t="str">
-        <v/>
+        <v>ClientInternal</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -10451,28 +10512,28 @@
       <c r="D40" s="9"/>
       <c r="E40" s="15" t="str">
         <f>E28</f>
-        <v>[More...]</v>
+        <v>LUID_A9RLV8U6</v>
       </c>
       <c r="F40" s="43" t="str">
-        <v/>
+        <v>Active</v>
       </c>
       <c r="G40" s="43" t="str">
-        <v/>
+        <v>LUID_A9RLV8U6</v>
       </c>
       <c r="H40" s="42" t="str">
-        <v/>
+        <v>Spectre</v>
       </c>
       <c r="I40" s="42" t="str">
-        <v/>
+        <v>2028/12/01T00:00:00.00</v>
       </c>
       <c r="J40" s="42" t="str">
-        <v/>
+        <v>Laser from satellite</v>
       </c>
       <c r="K40" s="42" t="str">
-        <v/>
+        <v>BBG007FAKECO</v>
       </c>
       <c r="L40" s="42" t="str">
-        <v/>
+        <v>NewInst14</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -10555,8 +10616,8 @@
   </sheetPr>
   <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10570,8 +10631,8 @@
     <col min="7" max="10" width="18.28515625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" style="23" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="23" customWidth="1"/>
     <col min="15" max="15" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
@@ -10830,7 +10891,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -10961,7 +11022,7 @@
       <c r="T20"/>
       <c r="U20"/>
     </row>
-    <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -10987,13 +11048,15 @@
         <v>198</v>
       </c>
       <c r="L21" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="N21" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21"/>
+      <c r="O21" s="2"/>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
@@ -11002,7 +11065,7 @@
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -11022,16 +11085,16 @@
       <c r="J22" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K22" s="20" t="s">
-        <v>317</v>
+      <c r="K22" s="20">
+        <v>43570</v>
       </c>
       <c r="L22" s="20"/>
-      <c r="M22" s="24">
-        <f>_xll.flQuoteGetForDate($F$15,E22,F22,G22,H22,I22,J22,K22)</f>
-        <v>199.23</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="25"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="52">
+        <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,L22,M22)</f>
+        <v>100</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
@@ -11060,16 +11123,17 @@
       <c r="J23" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K23" s="20" t="s">
-        <v>323</v>
+      <c r="K23" s="20">
+        <f>K22+1</f>
+        <v>43571</v>
       </c>
       <c r="L23" s="20"/>
-      <c r="M23" s="24">
-        <f>_xll.flQuoteGetForDate($F$15,E23,F23,G23,H23,I23,J23,K23)</f>
+      <c r="M23" s="20"/>
+      <c r="N23" s="52">
+        <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,L23,M23)</f>
         <v>199.25</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="27"/>
+      <c r="O23" s="2"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
@@ -11098,16 +11162,17 @@
       <c r="J24" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K24" s="20" t="s">
-        <v>324</v>
+      <c r="K24" s="20">
+        <f t="shared" ref="K24:K30" si="0">K23+1</f>
+        <v>43572</v>
       </c>
       <c r="L24" s="20"/>
-      <c r="M24" s="24">
-        <f>_xll.flQuoteGetForDate($F$15,E24,F24,G24,H24,I24,J24,K24)</f>
+      <c r="M24" s="20"/>
+      <c r="N24" s="52">
+        <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,L24,M24)</f>
         <v>203.13</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24"/>
+      <c r="O24" s="2"/>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
@@ -11136,16 +11201,17 @@
       <c r="J25" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K25" s="20" t="s">
-        <v>325</v>
+      <c r="K25" s="20">
+        <f t="shared" si="0"/>
+        <v>43573</v>
       </c>
       <c r="L25" s="20"/>
-      <c r="M25" s="24">
-        <f>_xll.flQuoteGetForDate($F$15,E25,F25,G25,H25,I25,J25,K25)</f>
+      <c r="M25" s="20"/>
+      <c r="N25" s="52">
+        <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,L25,M25)</f>
         <v>203.86</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25"/>
+      <c r="O25" s="2"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
@@ -11174,16 +11240,17 @@
       <c r="J26" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K26" s="20" t="s">
-        <v>326</v>
+      <c r="K26" s="20">
+        <f t="shared" si="0"/>
+        <v>43574</v>
       </c>
       <c r="L26" s="20"/>
-      <c r="M26" s="24">
-        <f>_xll.flQuoteGetForDate($F$15,E26,F26,G26,H26,I26,J26,K26)</f>
+      <c r="M26" s="20"/>
+      <c r="N26" s="52">
+        <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,L26,M26)</f>
         <v>203.86</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26"/>
+      <c r="O26" s="2"/>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
@@ -11209,16 +11276,17 @@
       <c r="J27" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K27" s="20" t="s">
-        <v>327</v>
+      <c r="K27" s="20">
+        <f t="shared" si="0"/>
+        <v>43575</v>
       </c>
       <c r="L27" s="20"/>
-      <c r="M27" s="24">
-        <f>_xll.flQuoteGetForDate($F$15,E27,F27,G27,H27,I27,J27,K27)</f>
+      <c r="M27" s="20"/>
+      <c r="N27" s="52">
+        <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,L27,M27)</f>
         <v>203.86</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27"/>
+      <c r="O27" s="2"/>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
@@ -11244,16 +11312,17 @@
       <c r="J28" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>328</v>
+      <c r="K28" s="20">
+        <f t="shared" si="0"/>
+        <v>43576</v>
       </c>
       <c r="L28" s="20"/>
-      <c r="M28" s="24">
-        <f>_xll.flQuoteGetForDate($F$15,E28,F28,G28,H28,I28,J28,K28)</f>
+      <c r="M28" s="20"/>
+      <c r="N28" s="52">
+        <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,L28,M28)</f>
         <v>203.86</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28"/>
+      <c r="O28" s="2"/>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
@@ -11279,16 +11348,17 @@
       <c r="J29" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K29" s="20" t="s">
-        <v>329</v>
+      <c r="K29" s="20">
+        <f t="shared" si="0"/>
+        <v>43577</v>
       </c>
       <c r="L29" s="20"/>
-      <c r="M29" s="24">
-        <f>_xll.flQuoteGetForDate($F$15,E29,F29,G29,H29,I29,J29,K29)</f>
+      <c r="M29" s="20"/>
+      <c r="N29" s="52">
+        <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,L29,M29)</f>
         <v>204.53</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29"/>
+      <c r="O29" s="2"/>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
@@ -11314,16 +11384,17 @@
       <c r="J30" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K30" s="20" t="s">
-        <v>330</v>
+      <c r="K30" s="20">
+        <f t="shared" si="0"/>
+        <v>43578</v>
       </c>
       <c r="L30" s="20"/>
-      <c r="M30" s="24">
-        <f>_xll.flQuoteGetForDate($F$15,E30,F30,G30,H30,I30,J30,K30)</f>
+      <c r="M30" s="20"/>
+      <c r="N30" s="52">
+        <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,L30,M30)</f>
         <v>207.48</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30"/>
+      <c r="O30" s="2"/>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
@@ -11341,9 +11412,9 @@
       <c r="J31" s="17"/>
       <c r="K31" s="20"/>
       <c r="L31" s="17"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="2"/>
-      <c r="O31"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="2"/>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
@@ -11363,7 +11434,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32"/>
+      <c r="O32" s="2"/>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
@@ -11412,8 +11483,8 @@
   </sheetPr>
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11641,7 +11712,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -11784,13 +11855,13 @@
       <c r="J22" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K22" s="20" t="s">
-        <v>317</v>
+      <c r="K22" s="20">
+        <v>43570</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="17">
-        <f>_xll.flQuoteGetForDate($F$15,E22,F22,G22,H22,I22,J22,K22)</f>
-        <v>199.23</v>
+        <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,F22,L22)</f>
+        <v>100</v>
       </c>
       <c r="N22" s="2"/>
       <c r="T22" s="19"/>
@@ -11817,13 +11888,13 @@
       <c r="J23" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K23" s="20" t="s">
-        <v>317</v>
+      <c r="K23" s="20">
+        <v>43571</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17">
-        <f>_xll.flQuoteGetForDate($F$15,E23,F23,G23,H23,I23,J23,K23)</f>
-        <v>109.94</v>
+        <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,F23,L23)</f>
+        <v>111.1</v>
       </c>
       <c r="N23" s="2"/>
       <c r="T23" s="19"/>
@@ -11850,13 +11921,13 @@
       <c r="J24" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K24" s="20" t="s">
-        <v>317</v>
+      <c r="K24" s="20">
+        <v>43572</v>
       </c>
       <c r="L24" s="17"/>
       <c r="M24" s="17">
-        <f>_xll.flQuoteGetForDate($F$15,E24,F24,G24,H24,I24,J24,K24)</f>
-        <v>78.63</v>
+        <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,F24,L24)</f>
+        <v>78.36</v>
       </c>
       <c r="N24" s="2"/>
       <c r="T24" s="19"/>
@@ -11883,13 +11954,13 @@
       <c r="J25" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K25" s="20" t="s">
-        <v>317</v>
+      <c r="K25" s="20">
+        <v>43573</v>
       </c>
       <c r="L25" s="17"/>
       <c r="M25" s="17">
-        <f>_xll.flQuoteGetForDate($F$15,E25,F25,G25,H25,I25,J25,K25)</f>
-        <v>158.5</v>
+        <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,F25,L25)</f>
+        <v>166.6</v>
       </c>
       <c r="N25" s="2"/>
       <c r="P25"/>
@@ -11917,13 +11988,13 @@
       <c r="J26" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K26" s="20" t="s">
-        <v>317</v>
+      <c r="K26" s="20">
+        <v>43574</v>
       </c>
       <c r="L26" s="17"/>
       <c r="M26" s="17">
-        <f>_xll.flQuoteGetForDate($F$15,E26,F26,G26,H26,I26,J26,K26)</f>
-        <v>655.9</v>
+        <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,F26,L26)</f>
+        <v>666.5</v>
       </c>
       <c r="N26" s="2"/>
       <c r="P26"/>
@@ -11948,13 +12019,13 @@
       <c r="J27" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K27" s="20" t="s">
-        <v>317</v>
+      <c r="K27" s="20">
+        <v>43575</v>
       </c>
       <c r="L27" s="17"/>
       <c r="M27" s="17">
-        <f>_xll.flQuoteGetForDate($F$15,E27,F27,G27,H27,I27,J27,K27)</f>
-        <v>132.04</v>
+        <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,F27,L27)</f>
+        <v>132.44999999999999</v>
       </c>
       <c r="N27" s="2"/>
       <c r="P27"/>
@@ -11979,13 +12050,13 @@
       <c r="J28" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>317</v>
+      <c r="K28" s="20">
+        <v>43576</v>
       </c>
       <c r="L28" s="17"/>
       <c r="M28" s="17">
-        <f>_xll.flQuoteGetForDate($F$15,E28,F28,G28,H28,I28,J28,K28)</f>
-        <v>121.05</v>
+        <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,F28,L28)</f>
+        <v>123.37</v>
       </c>
       <c r="N28" s="2"/>
       <c r="P28"/>
@@ -12010,13 +12081,13 @@
       <c r="J29" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K29" s="20" t="s">
-        <v>317</v>
+      <c r="K29" s="20">
+        <v>43577</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17">
-        <f>_xll.flQuoteGetForDate($F$15,E29,F29,G29,H29,I29,J29,K29)</f>
-        <v>6831</v>
+        <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,F29,L29)</f>
+        <v>6963</v>
       </c>
       <c r="N29" s="2"/>
       <c r="P29"/>
@@ -12041,13 +12112,13 @@
       <c r="J30" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K30" s="20" t="s">
-        <v>317</v>
+      <c r="K30" s="20">
+        <v>43578</v>
       </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17">
-        <f>_xll.flQuoteGetForDate($F$15,E30,F30,G30,H30,I30,J30,K30)</f>
-        <v>569.9</v>
+        <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,F30,L30)</f>
+        <v>582.5</v>
       </c>
       <c r="N30" s="2"/>
       <c r="P30"/>
@@ -12072,13 +12143,13 @@
       <c r="J31" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="K31" s="20" t="s">
-        <v>317</v>
+      <c r="K31" s="20">
+        <v>43579</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17">
-        <f>_xll.flQuoteGetForDate($F$15,E31,F31,G31,H31,I31,J31,K31)</f>
-        <v>11825</v>
+        <f>_xll.flQuoteGetForDate($F$15,E31,G31,H31,I31,J31,K31,F31,L31)</f>
+        <v>11550</v>
       </c>
       <c r="N31" s="2"/>
       <c r="P31"/>
@@ -12118,6 +12189,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F4F0FA1AC8B142BA5BFAEE01329AF1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51d44e6750016a81140edd9302933050">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7f1325bc-d786-4e92-924e-74ffe34b2b40" xmlns:ns3="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbbf5b69800df541767d824f3fbf5177" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12343,15 +12423,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -12363,6 +12434,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EDF347-3168-4BEB-9A6E-9322773C07F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12382,28 +12461,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LUSID Excel - Setting up your market data.xlsx
+++ b/LUSID Excel - Setting up your market data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28A469E-386C-4456-8F6D-8235C1B74DB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EB7FBF-3ACC-49D7-8111-6ACF3B5E5CF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" firstSheet="1" activeTab="5" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Datetime format" sheetId="21" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="335">
   <si>
     <t>Base Currency</t>
   </si>
@@ -1159,6 +1159,12 @@
   </si>
   <si>
     <t>Excel</t>
+  </si>
+  <si>
+    <t>IdentifierType</t>
+  </si>
+  <si>
+    <t>Identifier</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,6 +1286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9261"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,9 +1456,6 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1455,8 +1464,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1467,6 +1479,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9261"/>
+      <color rgb="FFFF783B"/>
       <color rgb="FFFF5100"/>
       <color rgb="FF3B4B58"/>
       <color rgb="FFFFE5D9"/>
@@ -1486,345 +1500,359 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.c1066394fe78402db742926738641108">
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>5d0f56f9-f4c2-4c5a-94a9-2d1f0b6d93d4</stp>
-        <tr r="M24" s="17"/>
+        <stp>a21dcc50-2da3-4263-80f8-751d4144b1f6</stp>
+        <tr r="M23" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>44531640-76af-4bae-a970-b5e1d2a0fa4f</stp>
+        <tr r="G29" s="14"/>
+        <tr r="K30" s="14"/>
+        <tr r="F28" s="14"/>
+        <tr r="I30" s="14"/>
+        <tr r="F29" s="14"/>
+        <tr r="H29" s="14"/>
+        <tr r="K28" s="14"/>
+        <tr r="H30" s="14"/>
+        <tr r="G28" s="14"/>
+        <tr r="I29" s="14"/>
+        <tr r="K29" s="14"/>
+        <tr r="J30" s="14"/>
+        <tr r="H28" s="14"/>
+        <tr r="J28" s="14"/>
+        <tr r="I28" s="14"/>
+        <tr r="J29" s="14"/>
+        <tr r="F30" s="14"/>
+        <tr r="G30" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>1183e152-0db1-44a2-a5d6-a18c0f443034</stp>
-        <tr r="M27" s="17"/>
+        <stp>96cf756f-cab3-499f-a8bb-8b67d68e911b</stp>
+        <tr r="M29" s="17"/>
       </tp>
     </main>
-    <main first="rtdsrv.c1066394fe78402db742926738641108">
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>bef7f0fe-e638-4d05-a926-ffe23b5d107a</stp>
-        <tr r="M31" s="17"/>
+        <stp>37951179-1d80-4f86-93b4-1f5f4cb35fe4</stp>
+        <tr r="G34" s="13"/>
+        <tr r="H35" s="13"/>
+        <tr r="I34" s="13"/>
+        <tr r="J34" s="13"/>
+        <tr r="F35" s="13"/>
+        <tr r="I36" s="13"/>
+        <tr r="H36" s="13"/>
+        <tr r="G36" s="13"/>
+        <tr r="F34" s="13"/>
+        <tr r="K34" s="13"/>
+        <tr r="F36" s="13"/>
+        <tr r="K35" s="13"/>
+        <tr r="J35" s="13"/>
+        <tr r="H34" s="13"/>
+        <tr r="J36" s="13"/>
+        <tr r="G35" s="13"/>
+        <tr r="I35" s="13"/>
+        <tr r="K36" s="13"/>
       </tp>
-    </main>
-    <main first="rtdsrv.c1066394fe78402db742926738641108">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>640283b9-62e1-4a6d-8b5d-d69ea050db43</stp>
+        <stp>e6218218-b205-4d18-b844-e944cbb63158</stp>
+        <tr r="M24" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4b12e51d-d5cb-4b0e-92f2-5571df7d6e69</stp>
+        <tr r="M22" s="17"/>
+        <tr r="N22" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d7709217-a847-4050-bf37-dfa215753290</stp>
+        <tr r="I27" s="10"/>
+        <tr r="H21" s="10"/>
+        <tr r="K30" s="10"/>
+        <tr r="H29" s="10"/>
+        <tr r="G24" s="10"/>
+        <tr r="J29" s="10"/>
+        <tr r="I29" s="10"/>
+        <tr r="G30" s="10"/>
+        <tr r="G22" s="10"/>
+        <tr r="I21" s="10"/>
+        <tr r="K21" s="10"/>
+        <tr r="F29" s="10"/>
+        <tr r="I24" s="10"/>
+        <tr r="I26" s="10"/>
+        <tr r="F24" s="10"/>
+        <tr r="F26" s="10"/>
+        <tr r="J22" s="10"/>
+        <tr r="K23" s="10"/>
+        <tr r="H26" s="10"/>
+        <tr r="G31" s="10"/>
+        <tr r="K25" s="10"/>
+        <tr r="F30" s="10"/>
+        <tr r="I23" s="10"/>
+        <tr r="H23" s="10"/>
+        <tr r="K29" s="10"/>
+        <tr r="K24" s="10"/>
+        <tr r="K31" s="10"/>
+        <tr r="J25" s="10"/>
+        <tr r="K28" s="10"/>
+        <tr r="I28" s="10"/>
+        <tr r="H25" s="10"/>
+        <tr r="I25" s="10"/>
+        <tr r="G28" s="10"/>
+        <tr r="J27" s="10"/>
+        <tr r="K26" s="10"/>
+        <tr r="F28" s="10"/>
+        <tr r="H28" s="10"/>
+        <tr r="H24" s="10"/>
+        <tr r="G27" s="10"/>
+        <tr r="H27" s="10"/>
+        <tr r="I22" s="10"/>
+        <tr r="G23" s="10"/>
+        <tr r="H31" s="10"/>
+        <tr r="H30" s="10"/>
+        <tr r="F22" s="10"/>
+        <tr r="J26" s="10"/>
+        <tr r="G26" s="10"/>
+        <tr r="F23" s="10"/>
+        <tr r="J31" s="10"/>
+        <tr r="F21" s="10"/>
+        <tr r="K22" s="10"/>
+        <tr r="J23" s="10"/>
+        <tr r="F27" s="10"/>
+        <tr r="G25" s="10"/>
+        <tr r="J21" s="10"/>
+        <tr r="G21" s="10"/>
+        <tr r="I30" s="10"/>
+        <tr r="F25" s="10"/>
+        <tr r="J28" s="10"/>
+        <tr r="K27" s="10"/>
+        <tr r="G29" s="10"/>
+        <tr r="I31" s="10"/>
+        <tr r="H22" s="10"/>
+        <tr r="J24" s="10"/>
+        <tr r="J30" s="10"/>
+        <tr r="F31" s="10"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>244bb2e4-23a6-46ae-b209-9d3c662f363f</stp>
+        <tr r="N23" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>7d2717eb-c97f-4176-b7cf-3c5436d9c596</stp>
+        <tr r="N30" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>16c0d930-6cf2-433a-8ed1-a422f5be84e8</stp>
+        <tr r="N24" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>62cf7019-35b3-4a4a-ba99-a0a67d2790ee</stp>
+        <tr r="M30" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5eb375fe-3a7b-4421-a118-eebbe1eecd0f</stp>
         <tr r="M28" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>2526ca4f-0263-477c-9521-5b5773a5caba</stp>
-        <tr r="I29" s="14"/>
-        <tr r="K29" s="14"/>
-        <tr r="F28" s="14"/>
-        <tr r="G29" s="14"/>
-        <tr r="F29" s="14"/>
-        <tr r="I28" s="14"/>
-        <tr r="F30" s="14"/>
-        <tr r="I30" s="14"/>
-        <tr r="J30" s="14"/>
-        <tr r="H30" s="14"/>
-        <tr r="H28" s="14"/>
-        <tr r="J28" s="14"/>
-        <tr r="J29" s="14"/>
-        <tr r="G30" s="14"/>
-        <tr r="K30" s="14"/>
-        <tr r="K28" s="14"/>
-        <tr r="H29" s="14"/>
-        <tr r="G28" s="14"/>
+        <stp>420da05c-b3a9-4db9-868f-8795024356e6</stp>
+        <tr r="M25" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>af95614e-0f89-4823-9402-5d9724906193</stp>
-        <tr r="N27" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c1066394fe78402db742926738641108">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4e51a5a6-a497-4888-aa07-44dea3f77633</stp>
-        <tr r="M23" s="17"/>
+        <stp>82a4b30f-137e-4aca-a0bb-2f56cffc6a77</stp>
+        <tr r="M27" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>aa39ede4-dfc6-45d3-9eff-6d5cf8a2baeb</stp>
+        <stp>b3cf1375-d7be-434a-8b0a-1604e65f3d69</stp>
+        <tr r="M26" s="17"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>ae3e063a-c168-4ff8-8088-fb37ce6d2fee</stp>
+        <tr r="N29" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c0363e30-9e1e-4d38-9b6c-6b4eeaf3b161</stp>
+        <tr r="H40" s="20"/>
+        <tr r="F39" s="20"/>
+        <tr r="L39" s="20"/>
+        <tr r="L40" s="20"/>
+        <tr r="K39" s="20"/>
+        <tr r="I40" s="20"/>
+        <tr r="H39" s="20"/>
+        <tr r="G40" s="20"/>
+        <tr r="F40" s="20"/>
+        <tr r="K40" s="20"/>
+        <tr r="G39" s="20"/>
+        <tr r="J39" s="20"/>
+        <tr r="I39" s="20"/>
+        <tr r="J40" s="20"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b0e72c9d-a4bd-4e04-a47d-d3881bf11772</stp>
         <tr r="N25" s="16"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>2fc6ccee-f557-489b-9057-b3af262e3af2</stp>
-        <tr r="E29" s="11"/>
-        <tr r="G22" s="11"/>
-        <tr r="F28" s="11"/>
+        <stp>8f35840b-2985-493e-85ff-251fa7001733</stp>
         <tr r="E26" s="11"/>
         <tr r="G20" s="11"/>
+        <tr r="G21" s="11"/>
+        <tr r="F25" s="11"/>
+        <tr r="F27" s="11"/>
+        <tr r="E17" s="11"/>
+        <tr r="E28" s="11"/>
+        <tr r="G27" s="11"/>
+        <tr r="G18" s="11"/>
+        <tr r="G22" s="11"/>
+        <tr r="G17" s="11"/>
+        <tr r="F24" s="11"/>
+        <tr r="G19" s="11"/>
+        <tr r="F18" s="11"/>
+        <tr r="G23" s="11"/>
+        <tr r="G26" s="11"/>
+        <tr r="F23" s="11"/>
+        <tr r="F28" s="11"/>
         <tr r="G24" s="11"/>
+        <tr r="E23" s="11"/>
+        <tr r="E20" s="11"/>
+        <tr r="F17" s="11"/>
+        <tr r="F26" s="11"/>
+        <tr r="F22" s="11"/>
+        <tr r="E29" s="11"/>
+        <tr r="E21" s="11"/>
+        <tr r="G28" s="11"/>
+        <tr r="F21" s="11"/>
+        <tr r="F19" s="11"/>
+        <tr r="E25" s="11"/>
+        <tr r="E18" s="11"/>
+        <tr r="G25" s="11"/>
+        <tr r="E24" s="11"/>
+        <tr r="E27" s="11"/>
         <tr r="E19" s="11"/>
-        <tr r="F18" s="11"/>
-        <tr r="F21" s="11"/>
-        <tr r="F26" s="11"/>
-        <tr r="G23" s="11"/>
-        <tr r="G17" s="11"/>
+        <tr r="F29" s="11"/>
         <tr r="E22" s="11"/>
         <tr r="G29" s="11"/>
-        <tr r="F29" s="11"/>
-        <tr r="F23" s="11"/>
-        <tr r="E24" s="11"/>
-        <tr r="F27" s="11"/>
-        <tr r="E28" s="11"/>
-        <tr r="F17" s="11"/>
-        <tr r="E18" s="11"/>
-        <tr r="G28" s="11"/>
-        <tr r="E25" s="11"/>
-        <tr r="G18" s="11"/>
-        <tr r="G21" s="11"/>
-        <tr r="G26" s="11"/>
-        <tr r="E23" s="11"/>
-        <tr r="E20" s="11"/>
-        <tr r="F19" s="11"/>
-        <tr r="F25" s="11"/>
-        <tr r="F22" s="11"/>
         <tr r="F20" s="11"/>
-        <tr r="E27" s="11"/>
-        <tr r="E21" s="11"/>
-        <tr r="G27" s="11"/>
-        <tr r="E17" s="11"/>
-        <tr r="F24" s="11"/>
-        <tr r="G19" s="11"/>
-        <tr r="G25" s="11"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>45bb2e96-88fc-40c9-b440-49dbe9bdc57a</stp>
-        <tr r="F35" s="13"/>
-        <tr r="I36" s="13"/>
-        <tr r="G34" s="13"/>
-        <tr r="I35" s="13"/>
-        <tr r="H35" s="13"/>
-        <tr r="H34" s="13"/>
-        <tr r="G36" s="13"/>
-        <tr r="F36" s="13"/>
-        <tr r="G35" s="13"/>
-        <tr r="J34" s="13"/>
-        <tr r="H36" s="13"/>
-        <tr r="F34" s="13"/>
-        <tr r="K34" s="13"/>
-        <tr r="J35" s="13"/>
-        <tr r="K35" s="13"/>
-        <tr r="I34" s="13"/>
-        <tr r="J36" s="13"/>
-        <tr r="K36" s="13"/>
+        <stp>19b75e0e-ea82-4fca-9c13-9582f8e1c1e4</stp>
+        <tr r="N27" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.c1066394fe78402db742926738641108">
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>8f1191bb-f2f7-49b0-b69f-2e5f48e396fe</stp>
-        <tr r="M29" s="17"/>
+        <stp>7dd92585-a569-455b-802e-f07393b52735</stp>
+        <tr r="F27" s="12"/>
+        <tr r="E25" s="12"/>
+        <tr r="G25" s="12"/>
+        <tr r="F23" s="12"/>
+        <tr r="G32" s="12"/>
+        <tr r="E23" s="12"/>
+        <tr r="G33" s="12"/>
+        <tr r="E33" s="12"/>
+        <tr r="G24" s="12"/>
+        <tr r="F26" s="12"/>
+        <tr r="F25" s="12"/>
+        <tr r="E24" s="12"/>
+        <tr r="F32" s="12"/>
+        <tr r="F29" s="12"/>
+        <tr r="E28" s="12"/>
+        <tr r="E27" s="12"/>
+        <tr r="G31" s="12"/>
+        <tr r="F31" s="12"/>
+        <tr r="G29" s="12"/>
+        <tr r="F33" s="12"/>
+        <tr r="G27" s="12"/>
+        <tr r="F28" s="12"/>
+        <tr r="E26" s="12"/>
+        <tr r="G26" s="12"/>
+        <tr r="G30" s="12"/>
+        <tr r="E32" s="12"/>
+        <tr r="E30" s="12"/>
+        <tr r="F24" s="12"/>
+        <tr r="E29" s="12"/>
+        <tr r="F30" s="12"/>
+        <tr r="E31" s="12"/>
+        <tr r="G28" s="12"/>
+        <tr r="G23" s="12"/>
       </tp>
+    </main>
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>895f9df5-8a61-47b6-8d68-fecf2dee3704</stp>
-        <tr r="N26" s="16"/>
+        <stp>0e94f185-2ca1-47c8-a339-5c93fdd7e222</stp>
+        <tr r="M31" s="17"/>
       </tp>
+    </main>
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>cbe24929-60f5-416a-ae87-b19f15f26d9c</stp>
-        <tr r="M25" s="17"/>
+        <stp>773b0084-37d8-480a-a7e3-5023681d3d42</stp>
+        <tr r="N26" s="16"/>
       </tp>
+    </main>
+    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>d51e9e18-460f-4650-8668-982376bb58d4</stp>
-        <tr r="G21" s="10"/>
-        <tr r="H21" s="10"/>
-        <tr r="I30" s="10"/>
-        <tr r="I31" s="10"/>
-        <tr r="K23" s="10"/>
-        <tr r="G28" s="10"/>
-        <tr r="K28" s="10"/>
-        <tr r="J25" s="10"/>
-        <tr r="G23" s="10"/>
-        <tr r="K22" s="10"/>
-        <tr r="F23" s="10"/>
-        <tr r="J22" s="10"/>
-        <tr r="G31" s="10"/>
-        <tr r="J28" s="10"/>
-        <tr r="H26" s="10"/>
-        <tr r="J26" s="10"/>
-        <tr r="K26" s="10"/>
-        <tr r="H27" s="10"/>
-        <tr r="K30" s="10"/>
-        <tr r="H29" s="10"/>
-        <tr r="H23" s="10"/>
-        <tr r="F21" s="10"/>
-        <tr r="I21" s="10"/>
-        <tr r="I24" s="10"/>
-        <tr r="I29" s="10"/>
-        <tr r="F30" s="10"/>
-        <tr r="I23" s="10"/>
-        <tr r="J30" s="10"/>
-        <tr r="I25" s="10"/>
-        <tr r="I22" s="10"/>
-        <tr r="H22" s="10"/>
-        <tr r="K29" s="10"/>
-        <tr r="H30" s="10"/>
-        <tr r="F24" s="10"/>
-        <tr r="I26" s="10"/>
-        <tr r="J23" s="10"/>
-        <tr r="F29" s="10"/>
-        <tr r="G25" s="10"/>
-        <tr r="K25" s="10"/>
-        <tr r="K27" s="10"/>
-        <tr r="H28" s="10"/>
-        <tr r="I28" s="10"/>
-        <tr r="G26" s="10"/>
-        <tr r="K31" s="10"/>
-        <tr r="J24" s="10"/>
-        <tr r="H31" s="10"/>
-        <tr r="H24" s="10"/>
-        <tr r="I27" s="10"/>
-        <tr r="K21" s="10"/>
-        <tr r="G29" s="10"/>
-        <tr r="J31" s="10"/>
-        <tr r="G30" s="10"/>
-        <tr r="K24" s="10"/>
-        <tr r="F31" s="10"/>
-        <tr r="J27" s="10"/>
-        <tr r="G24" s="10"/>
-        <tr r="F28" s="10"/>
-        <tr r="F22" s="10"/>
-        <tr r="F26" s="10"/>
-        <tr r="G22" s="10"/>
-        <tr r="F27" s="10"/>
-        <tr r="J21" s="10"/>
-        <tr r="J29" s="10"/>
-        <tr r="F25" s="10"/>
-        <tr r="G27" s="10"/>
-        <tr r="H25" s="10"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4228cb2a-3307-4856-90cc-d4503b20a467</stp>
-        <tr r="M30" s="17"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a4edf342-50f5-4eef-aa2f-331fa2f8b221</stp>
-        <tr r="M22" s="17"/>
-        <tr r="N22" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c1066394fe78402db742926738641108">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>05f639ab-f941-49ea-9358-2e11e38b4054</stp>
-        <tr r="M26" s="17"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>1f6956f5-70ba-40c5-a2b8-95d9c9b5bdf3</stp>
+        <stp>c22cd5cb-707d-4297-925f-a9ac2a54a6e2</stp>
         <tr r="N28" s="16"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>be9da83e-258a-464f-bd50-93ef7b47b59d</stp>
-        <tr r="N29" s="16"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>684c7864-9e83-4d46-ad0b-56bc6c06a3f3</stp>
-        <tr r="N30" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.c1066394fe78402db742926738641108">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>990b63ef-1cdf-4a9f-ba60-4b34a2d1ba94</stp>
-        <tr r="N24" s="16"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a1d2269c-2c6b-4a07-898a-ce1ed317e62b</stp>
-        <tr r="E30" s="12"/>
-        <tr r="G28" s="12"/>
-        <tr r="G23" s="12"/>
-        <tr r="G24" s="12"/>
-        <tr r="F32" s="12"/>
-        <tr r="F33" s="12"/>
-        <tr r="F23" s="12"/>
-        <tr r="G26" s="12"/>
-        <tr r="E31" s="12"/>
-        <tr r="G32" s="12"/>
-        <tr r="F24" s="12"/>
-        <tr r="E24" s="12"/>
-        <tr r="G31" s="12"/>
-        <tr r="E28" s="12"/>
-        <tr r="E25" s="12"/>
-        <tr r="F31" s="12"/>
-        <tr r="E27" s="12"/>
-        <tr r="E32" s="12"/>
-        <tr r="F27" s="12"/>
-        <tr r="G25" s="12"/>
-        <tr r="E23" s="12"/>
-        <tr r="F26" s="12"/>
-        <tr r="E33" s="12"/>
-        <tr r="E26" s="12"/>
-        <tr r="G33" s="12"/>
-        <tr r="F30" s="12"/>
-        <tr r="F29" s="12"/>
-        <tr r="G27" s="12"/>
-        <tr r="G29" s="12"/>
-        <tr r="G30" s="12"/>
-        <tr r="F25" s="12"/>
-        <tr r="F28" s="12"/>
-        <tr r="E29" s="12"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>2abd65be-3451-48d8-80c7-8ba41241f749</stp>
-        <tr r="N23" s="16"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>793d53bd-4596-4c68-a3a0-c593d641885a</stp>
-        <tr r="I39" s="20"/>
-        <tr r="F40" s="20"/>
-        <tr r="I40" s="20"/>
-        <tr r="J39" s="20"/>
-        <tr r="H39" s="20"/>
-        <tr r="F39" s="20"/>
-        <tr r="J40" s="20"/>
-        <tr r="H40" s="20"/>
-        <tr r="L40" s="20"/>
-        <tr r="K40" s="20"/>
-        <tr r="G39" s="20"/>
-        <tr r="G40" s="20"/>
-        <tr r="K39" s="20"/>
-        <tr r="L39" s="20"/>
       </tp>
     </main>
   </volType>
@@ -2574,17 +2602,17 @@
       <sheetName val="Inputs"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2892,8 +2920,8 @@
   </sheetPr>
   <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3255,7 +3283,7 @@
       <c r="I21" s="25" t="s">
         <v>328</v>
       </c>
-      <c r="J21" s="51"/>
+      <c r="J21" s="50"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -4056,9 +4084,9 @@
       <c r="M23" s="20">
         <v>43570</v>
       </c>
-      <c r="N23" s="48"/>
+      <c r="N23" s="47"/>
       <c r="O23" s="32"/>
-      <c r="P23" s="32" t="str">
+      <c r="P23" s="51" t="str">
         <f>_xll.flQuotesAdd(F15,E22:O23)</f>
         <v>Added 1 quote(s) as at time 2019-09-03 16:02:48Z</v>
       </c>
@@ -4092,7 +4120,7 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
+      <c r="P24" s="51"/>
       <c r="Q24" s="2"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -4123,7 +4151,7 @@
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
+      <c r="P25" s="51"/>
       <c r="Q25" s="2"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -4154,7 +4182,7 @@
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
+      <c r="P26" s="51"/>
       <c r="Q26" s="2"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -4185,7 +4213,7 @@
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
+      <c r="P27" s="51"/>
       <c r="Q27" s="2"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -4216,7 +4244,7 @@
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
+      <c r="P28" s="51"/>
       <c r="Q28" s="2"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -4247,7 +4275,7 @@
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+      <c r="P29" s="51"/>
       <c r="Q29" s="2"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -4740,7 +4768,7 @@
   <dimension ref="B1:Y43"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,7 +5342,7 @@
       </c>
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
-      <c r="P24" s="32" t="str">
+      <c r="P24" s="51" t="str">
         <f>_xll.flQuotesAdd(F15,E23:O27)</f>
         <v>Added 4 quote(s) as at time 2019-09-03 16:02:48Z</v>
       </c>
@@ -5362,7 +5390,7 @@
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
+      <c r="P25" s="51"/>
       <c r="Q25" s="2"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -5407,7 +5435,7 @@
       </c>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
+      <c r="P26" s="51"/>
       <c r="Q26" s="2"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -5452,7 +5480,7 @@
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
+      <c r="P27" s="51"/>
       <c r="Q27" s="2"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -6902,13 +6930,13 @@
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="18" t="str">
-        <v>LusidInstrumentId</v>
+        <v>Sedol</v>
       </c>
       <c r="F18" s="18" t="str">
-        <v>Instrument/default/LusidInstrumentId</v>
+        <v>Instrument/default/Sedol</v>
       </c>
       <c r="G18" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -6946,10 +6974,10 @@
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
       <c r="E20" s="37" t="str">
-        <v>RIC</v>
+        <v>Cusip</v>
       </c>
       <c r="F20" s="18" t="str">
-        <v>Instrument/default/RIC</v>
+        <v>Instrument/default/Cusip</v>
       </c>
       <c r="G20" s="18" t="b">
         <v>0</v>
@@ -6968,10 +6996,10 @@
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="37" t="str">
-        <v>Cusip</v>
+        <v>RIC</v>
       </c>
       <c r="F21" s="18" t="str">
-        <v>Instrument/default/Cusip</v>
+        <v>Instrument/default/RIC</v>
       </c>
       <c r="G21" s="18" t="b">
         <v>0</v>
@@ -7012,13 +7040,13 @@
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="37" t="str">
-        <v>Isin</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="F23" s="18" t="str">
-        <v>Instrument/default/Isin</v>
+        <v>Instrument/default/LusidInstrumentId</v>
       </c>
       <c r="G23" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -7034,13 +7062,13 @@
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="37" t="str">
-        <v>Wertpapier</v>
+        <v>ClientInternal</v>
       </c>
       <c r="F24" s="18" t="str">
-        <v>Instrument/default/Wertpapier</v>
+        <v>Instrument/default/ClientInternal</v>
       </c>
       <c r="G24" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -7055,13 +7083,13 @@
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="37" t="str">
-        <v>QuotePermId</v>
+        <v>ShareClassFigi</v>
       </c>
       <c r="F25" s="18" t="str">
-        <v>Instrument/default/QuotePermId</v>
+        <v>Instrument/default/ShareClassFigi</v>
       </c>
       <c r="G25" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -7074,13 +7102,13 @@
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="37" t="str">
-        <v>ShareClassFigi</v>
+        <v>QuotePermId</v>
       </c>
       <c r="F26" s="18" t="str">
-        <v>Instrument/default/ShareClassFigi</v>
+        <v>Instrument/default/QuotePermId</v>
       </c>
       <c r="G26" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -7112,13 +7140,13 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="37" t="str">
-        <v>ClientInternal</v>
+        <v>Wertpapier</v>
       </c>
       <c r="F28" s="18" t="str">
-        <v>Instrument/default/ClientInternal</v>
+        <v>Instrument/default/Wertpapier</v>
       </c>
       <c r="G28" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -7131,10 +7159,10 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="37" t="str">
-        <v>Sedol</v>
+        <v>Isin</v>
       </c>
       <c r="F29" s="18" t="str">
-        <v>Instrument/default/Sedol</v>
+        <v>Instrument/default/Isin</v>
       </c>
       <c r="G29" s="18" t="b">
         <v>0</v>
@@ -7453,12 +7481,12 @@
       <c r="D21" s="9"/>
       <c r="E21" s="25">
         <f ca="1">NOW()</f>
-        <v>43711.710300231483</v>
+        <v>43712.699978009259</v>
       </c>
       <c r="F21" s="25">
         <v>43697</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="48">
         <v>5</v>
       </c>
       <c r="H21" s="2"/>
@@ -7761,7 +7789,7 @@
   <dimension ref="B1:R32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8436,7 +8464,7 @@
   <dimension ref="B1:S48"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8796,7 +8824,7 @@
         <v>317</v>
       </c>
       <c r="J21" s="15"/>
-      <c r="K21" s="15" t="str">
+      <c r="K21" s="51" t="str">
         <f>_xll.flInstrumentsAdd(E20:J21)</f>
         <v>LUID_RVXW0J4Z</v>
       </c>
@@ -8863,7 +8891,7 @@
         <v>317</v>
       </c>
       <c r="J24" s="15"/>
-      <c r="K24" s="15" t="str">
+      <c r="K24" s="51" t="str">
         <f>_xll.flInstrumentsAdd(E23:J24)</f>
         <v>LUID_9SBVLHHA</v>
       </c>
@@ -9281,8 +9309,8 @@
   </sheetPr>
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9582,7 +9610,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="32" t="str">
+      <c r="K19" s="51" t="str">
         <f>_xll.flInstrumentsAdd(E18:J19)</f>
         <v>LUID_A9RLV8U6</v>
       </c>
@@ -9716,10 +9744,10 @@
         <v>Ticker</v>
       </c>
       <c r="J28" s="8" t="str">
+        <v>ClientInternal</v>
+      </c>
+      <c r="K28" s="8" t="str">
         <v>Figi</v>
-      </c>
-      <c r="K28" s="8" t="str">
-        <v>ClientInternal</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -9745,10 +9773,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="17" t="str">
+        <v>NewInst14</v>
+      </c>
+      <c r="K29" s="51" t="str">
         <v>BBG007FAKECO</v>
-      </c>
-      <c r="K29" s="17" t="str">
-        <v>NewInst14</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -9780,13 +9808,13 @@
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
     </row>
   </sheetData>
   <dataValidations count="18">
@@ -9827,7 +9855,9 @@
   </sheetPr>
   <dimension ref="B1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40:L42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10101,7 +10131,7 @@
       <c r="K16" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="L16" s="32" t="str">
+      <c r="L16" s="51" t="str">
         <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/PlanType' because it already exists.</v>
       </c>
       <c r="M16" s="15"/>
@@ -10131,7 +10161,7 @@
       <c r="K17" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="L17" s="32" t="str">
+      <c r="L17" s="51" t="str">
         <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/TakeOverWorldDate' because it already exists.</v>
       </c>
       <c r="M17" s="15"/>
@@ -10147,7 +10177,7 @@
       <c r="I18" s="42"/>
       <c r="J18" s="44"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="L18" s="52"/>
       <c r="M18" s="15"/>
       <c r="N18" s="2"/>
     </row>
@@ -10162,7 +10192,7 @@
       <c r="I19" s="42"/>
       <c r="J19" s="44"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="52"/>
       <c r="M19" s="15"/>
       <c r="N19" s="2"/>
     </row>
@@ -10177,7 +10207,7 @@
       <c r="I20" s="42"/>
       <c r="J20" s="44"/>
       <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="L20" s="51"/>
       <c r="M20" s="15"/>
       <c r="N20" s="2"/>
     </row>
@@ -10192,7 +10222,7 @@
       <c r="I21" s="42"/>
       <c r="J21" s="44"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="L21" s="52"/>
       <c r="M21" s="15"/>
       <c r="N21" s="2"/>
     </row>
@@ -10207,7 +10237,7 @@
       <c r="I22" s="42"/>
       <c r="J22" s="44"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="L22" s="52"/>
       <c r="M22" s="15"/>
       <c r="N22" s="2"/>
     </row>
@@ -10265,20 +10295,22 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="8" t="s">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c r="F27" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="H27" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="I27" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="8"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -10289,25 +10321,27 @@
       <c r="D28" s="9">
         <v>1</v>
       </c>
-      <c r="E28" s="15" t="str">
-        <f>'Add instrument'!G29</f>
+      <c r="E28" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="15" t="str">
+        <f>'Add instrument'!K19</f>
         <v>LUID_A9RLV8U6</v>
       </c>
-      <c r="F28" s="48">
+      <c r="G28" s="47">
         <v>43101</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="H28" s="43" t="s">
         <v>302</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="I28" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="47" t="str">
-        <f>_xll.flInstrumentPropertiesAdd(E27:H28)</f>
+      <c r="J28" s="42"/>
+      <c r="K28" s="51" t="str">
+        <f>_xll.flInstrumentPropertiesAdd(E27:I28)</f>
         <v>OK</v>
       </c>
-      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -10319,12 +10353,12 @@
         <v>2</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="2"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="51"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -10336,12 +10370,12 @@
         <v>3</v>
       </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="2"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="51"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -10353,10 +10387,10 @@
       <c r="E31" s="43"/>
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
-      <c r="H31" s="42"/>
+      <c r="H31" s="43"/>
       <c r="I31" s="42"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="2"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="51"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -10482,7 +10516,7 @@
         <v>202</v>
       </c>
       <c r="F39" s="8" t="str">
-        <f t="array" ref="F39:L40">_xll.flInstrumentsLookup(F37,E40:E41,G27&amp;","&amp;H27)</f>
+        <f t="array" ref="F39:L40">_xll.flInstrumentsLookup(F37,E40:E41,H27&amp;","&amp;I27)</f>
         <v>State</v>
       </c>
       <c r="G39" s="8" t="str">
@@ -10511,7 +10545,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="9"/>
       <c r="E40" s="15" t="str">
-        <f>E28</f>
+        <f>F28</f>
         <v>LUID_A9RLV8U6</v>
       </c>
       <c r="F40" s="43" t="str">
@@ -10532,7 +10566,7 @@
       <c r="K40" s="42" t="str">
         <v>BBG007FAKECO</v>
       </c>
-      <c r="L40" s="42" t="str">
+      <c r="L40" s="51" t="str">
         <v>NewInst14</v>
       </c>
       <c r="M40" s="2"/>
@@ -10549,7 +10583,7 @@
       <c r="I41" s="42"/>
       <c r="J41" s="44"/>
       <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
+      <c r="L41" s="51"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
@@ -10564,7 +10598,7 @@
       <c r="I42" s="42"/>
       <c r="J42" s="44"/>
       <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
+      <c r="L42" s="51"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
@@ -10584,7 +10618,7 @@
       <c r="N43" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="LifeTime" sqref="K15" xr:uid="{E7540E92-E5BE-4552-BF9C-DBFEE096FB3D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DataTypeId" sqref="J15" xr:uid="{9DF3B153-0F3B-469A-9200-5B6DE7B37C11}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DisplayName" sqref="I15" xr:uid="{B4F6905F-0F6E-454B-8D5A-DE90891032B9}"/>
@@ -10597,6 +10631,10 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The unique Lusid Instrument Identifier (LUID) of the instrument to update or insert properties on." sqref="L32 O33" xr:uid="{5F7002E7-75EE-451D-8512-06F52438E5BA}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime from which the property is valid" sqref="M32 P33" xr:uid="{5461AD21-5889-4A6D-9EF8-C2F9E2313963}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Replace this with your custom properties; here and in the columns to the right [Set of unique instrument properties and associated values to store with the instrument. Each property must be from the 'Instrument' domain.]" sqref="N32 Q33" xr:uid="{2A9A010A-6017-49BD-AEE0-081D3CADD4D4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The instrument identifier type." sqref="E33" xr:uid="{4374EB16-DCB5-4C88-87AB-2DEDE8518DD5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The unique instrument identifier of the instrument to update or insert properties on." sqref="F33" xr:uid="{4CC13194-FA28-4F34-A9A8-89FE1E4D6517}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime from which the property is valid" sqref="G33" xr:uid="{3DCACC70-6565-46CC-B179-11E4D4ADB398}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Replace this with your custom properties; here and in the columns to the right [Set of unique instrument properties and associated values to store with the instrument. Each property must be from the 'Instrument' domain.]" sqref="H33" xr:uid="{D7729818-3906-4D67-A751-4600C40FD1E4}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{D5E1FEFA-AE04-4FB3-8E4A-D3598E42A3B1}"/>
@@ -10617,7 +10655,7 @@
   <dimension ref="B1:V37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="N22" sqref="N22:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11484,7 +11522,7 @@
   <dimension ref="B1:V34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:M31"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11859,7 +11897,7 @@
         <v>43570</v>
       </c>
       <c r="L22" s="20"/>
-      <c r="M22" s="17">
+      <c r="M22" s="52">
         <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,F22,L22)</f>
         <v>100</v>
       </c>
@@ -11892,7 +11930,7 @@
         <v>43571</v>
       </c>
       <c r="L23" s="17"/>
-      <c r="M23" s="17">
+      <c r="M23" s="52">
         <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,F23,L23)</f>
         <v>111.1</v>
       </c>
@@ -11925,7 +11963,7 @@
         <v>43572</v>
       </c>
       <c r="L24" s="17"/>
-      <c r="M24" s="17">
+      <c r="M24" s="52">
         <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,F24,L24)</f>
         <v>78.36</v>
       </c>
@@ -11958,7 +11996,7 @@
         <v>43573</v>
       </c>
       <c r="L25" s="17"/>
-      <c r="M25" s="17">
+      <c r="M25" s="52">
         <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,F25,L25)</f>
         <v>166.6</v>
       </c>
@@ -11992,7 +12030,7 @@
         <v>43574</v>
       </c>
       <c r="L26" s="17"/>
-      <c r="M26" s="17">
+      <c r="M26" s="52">
         <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,F26,L26)</f>
         <v>666.5</v>
       </c>
@@ -12023,7 +12061,7 @@
         <v>43575</v>
       </c>
       <c r="L27" s="17"/>
-      <c r="M27" s="17">
+      <c r="M27" s="52">
         <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,F27,L27)</f>
         <v>132.44999999999999</v>
       </c>
@@ -12054,7 +12092,7 @@
         <v>43576</v>
       </c>
       <c r="L28" s="17"/>
-      <c r="M28" s="17">
+      <c r="M28" s="52">
         <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,F28,L28)</f>
         <v>123.37</v>
       </c>
@@ -12085,7 +12123,7 @@
         <v>43577</v>
       </c>
       <c r="L29" s="17"/>
-      <c r="M29" s="17">
+      <c r="M29" s="52">
         <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,F29,L29)</f>
         <v>6963</v>
       </c>
@@ -12116,7 +12154,7 @@
         <v>43578</v>
       </c>
       <c r="L30" s="17"/>
-      <c r="M30" s="17">
+      <c r="M30" s="52">
         <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,F30,L30)</f>
         <v>582.5</v>
       </c>
@@ -12147,7 +12185,7 @@
         <v>43579</v>
       </c>
       <c r="L31" s="17"/>
-      <c r="M31" s="17">
+      <c r="M31" s="52">
         <f>_xll.flQuoteGetForDate($F$15,E31,G31,H31,I31,J31,K31,F31,L31)</f>
         <v>11550</v>
       </c>
@@ -12189,15 +12227,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F4F0FA1AC8B142BA5BFAEE01329AF1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51d44e6750016a81140edd9302933050">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7f1325bc-d786-4e92-924e-74ffe34b2b40" xmlns:ns3="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbbf5b69800df541767d824f3fbf5177" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12423,7 +12452,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -12433,15 +12462,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EDF347-3168-4BEB-9A6E-9322773C07F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12461,20 +12491,28 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LUSID Excel - Setting up your market data.xlsx
+++ b/LUSID Excel - Setting up your market data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EB7FBF-3ACC-49D7-8111-6ACF3B5E5CF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47717318-48EF-4C7A-9258-F8C5613B5CB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" firstSheet="1" activeTab="5" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" tabRatio="798" activeTab="6" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Datetime format" sheetId="21" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <definedName name="fbnHoldings_Template_ref" localSheetId="8">'List prices 2'!#REF!</definedName>
     <definedName name="fbnHoldings_Template_ref" localSheetId="9">'Update prices'!$E$20:$L$20</definedName>
     <definedName name="fbnInstrumentProperties_Template_ref" localSheetId="5">'Add instrument'!$G$42:$H$42</definedName>
-    <definedName name="fbnInstrumentProperties_Template_ref" localSheetId="6">'Add property definition'!$G$22:$H$22</definedName>
+    <definedName name="fbnInstrumentProperties_Template_ref" localSheetId="6">'Add property definition'!$G$23:$H$23</definedName>
     <definedName name="fbnInstrumentProperties_Template_ref" localSheetId="4">'Edit instrument'!$E$44:$F$44</definedName>
     <definedName name="fbnInstrumentProperties_Template_ref" localSheetId="3">'Get instrument definition'!#REF!</definedName>
     <definedName name="fbnInstrumentProperties_Template_ref" localSheetId="1">'List identifiers'!#REF!</definedName>
@@ -85,7 +85,7 @@
     <definedName name="fbnInstruments_Template_ref" localSheetId="1">'List identifiers'!#REF!</definedName>
     <definedName name="fbnInstruments_Template_ref" localSheetId="2">'List instruments'!#REF!</definedName>
     <definedName name="fbnPropertiesAdd_Template_ref" localSheetId="5">'Add instrument'!$G$38:$M$38</definedName>
-    <definedName name="fbnPropertiesAdd_Template_ref" localSheetId="6">'Add property definition'!$G$18:$M$18</definedName>
+    <definedName name="fbnPropertiesAdd_Template_ref" localSheetId="6">'Add property definition'!$G$19:$M$19</definedName>
     <definedName name="fbnPropertiesAdd_Template_ref" localSheetId="4">'Edit instrument'!#REF!</definedName>
     <definedName name="fbnPropertiesAdd_Template_ref" localSheetId="3">'Get instrument definition'!$N$32:$U$32</definedName>
     <definedName name="fbnPropertiesAdd_Template_ref" localSheetId="1">'List identifiers'!$N$28:$U$28</definedName>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="337">
   <si>
     <t>Base Currency</t>
   </si>
@@ -1116,9 +1116,6 @@
     <t>some-format</t>
   </si>
   <si>
-    <t>In this case we are adding an instrument definition format. Don’t forget you can use the flInstrumentsAdd_Template to see a list of the required fields</t>
-  </si>
-  <si>
     <t>Effective From</t>
   </si>
   <si>
@@ -1165,6 +1162,15 @@
   </si>
   <si>
     <t>Identifier</t>
+  </si>
+  <si>
+    <t>Properties...</t>
+  </si>
+  <si>
+    <t>In this case we are adding instrument properties. Don’t forget you can use the template to see a list of the required fields. Click on the returned cells to see tooltips</t>
+  </si>
+  <si>
+    <t>In this case we are adding an instrument definition format. Don’t forget you can use the flInstrumentsAdd_Template to see a list of the required fields. Click on the returned cells to see tooltips</t>
   </si>
 </sst>
 </file>
@@ -1425,9 +1431,6 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1470,6 +1473,9 @@
     <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1500,359 +1506,344 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
+    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>a21dcc50-2da3-4263-80f8-751d4144b1f6</stp>
-        <tr r="M23" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>44531640-76af-4bae-a970-b5e1d2a0fa4f</stp>
-        <tr r="G29" s="14"/>
-        <tr r="K30" s="14"/>
-        <tr r="F28" s="14"/>
-        <tr r="I30" s="14"/>
-        <tr r="F29" s="14"/>
-        <tr r="H29" s="14"/>
-        <tr r="K28" s="14"/>
-        <tr r="H30" s="14"/>
-        <tr r="G28" s="14"/>
-        <tr r="I29" s="14"/>
-        <tr r="K29" s="14"/>
-        <tr r="J30" s="14"/>
-        <tr r="H28" s="14"/>
-        <tr r="J28" s="14"/>
-        <tr r="I28" s="14"/>
-        <tr r="J29" s="14"/>
-        <tr r="F30" s="14"/>
-        <tr r="G30" s="14"/>
+        <stp>c50cb65d-7357-4bba-925b-0e6f6a96cb6e</stp>
+        <tr r="N25" s="16"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>96cf756f-cab3-499f-a8bb-8b67d68e911b</stp>
-        <tr r="M29" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>37951179-1d80-4f86-93b4-1f5f4cb35fe4</stp>
-        <tr r="G34" s="13"/>
-        <tr r="H35" s="13"/>
-        <tr r="I34" s="13"/>
-        <tr r="J34" s="13"/>
-        <tr r="F35" s="13"/>
-        <tr r="I36" s="13"/>
-        <tr r="H36" s="13"/>
-        <tr r="G36" s="13"/>
-        <tr r="F34" s="13"/>
-        <tr r="K34" s="13"/>
-        <tr r="F36" s="13"/>
-        <tr r="K35" s="13"/>
-        <tr r="J35" s="13"/>
-        <tr r="H34" s="13"/>
-        <tr r="J36" s="13"/>
-        <tr r="G35" s="13"/>
-        <tr r="I35" s="13"/>
-        <tr r="K36" s="13"/>
+        <stp>b435a4aa-6a55-4e9c-b311-b75536b39cfc</stp>
+        <tr r="M31" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>e6218218-b205-4d18-b844-e944cbb63158</stp>
+        <stp>ca279f9c-3e0c-4fb7-b7c5-1e093a6d1bcb</stp>
         <tr r="M24" s="17"/>
       </tp>
     </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
+    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>4b12e51d-d5cb-4b0e-92f2-5571df7d6e69</stp>
+        <stp>60b5e063-bb7a-4e71-b272-dc94ce5daa98</stp>
         <tr r="M22" s="17"/>
         <tr r="N22" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
+    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>d7709217-a847-4050-bf37-dfa215753290</stp>
-        <tr r="I27" s="10"/>
-        <tr r="H21" s="10"/>
-        <tr r="K30" s="10"/>
-        <tr r="H29" s="10"/>
-        <tr r="G24" s="10"/>
-        <tr r="J29" s="10"/>
-        <tr r="I29" s="10"/>
-        <tr r="G30" s="10"/>
-        <tr r="G22" s="10"/>
-        <tr r="I21" s="10"/>
-        <tr r="K21" s="10"/>
-        <tr r="F29" s="10"/>
-        <tr r="I24" s="10"/>
-        <tr r="I26" s="10"/>
-        <tr r="F24" s="10"/>
-        <tr r="F26" s="10"/>
-        <tr r="J22" s="10"/>
-        <tr r="K23" s="10"/>
-        <tr r="H26" s="10"/>
-        <tr r="G31" s="10"/>
-        <tr r="K25" s="10"/>
-        <tr r="F30" s="10"/>
-        <tr r="I23" s="10"/>
-        <tr r="H23" s="10"/>
-        <tr r="K29" s="10"/>
-        <tr r="K24" s="10"/>
-        <tr r="K31" s="10"/>
-        <tr r="J25" s="10"/>
-        <tr r="K28" s="10"/>
-        <tr r="I28" s="10"/>
-        <tr r="H25" s="10"/>
-        <tr r="I25" s="10"/>
-        <tr r="G28" s="10"/>
-        <tr r="J27" s="10"/>
-        <tr r="K26" s="10"/>
-        <tr r="F28" s="10"/>
-        <tr r="H28" s="10"/>
-        <tr r="H24" s="10"/>
-        <tr r="G27" s="10"/>
-        <tr r="H27" s="10"/>
-        <tr r="I22" s="10"/>
-        <tr r="G23" s="10"/>
-        <tr r="H31" s="10"/>
-        <tr r="H30" s="10"/>
-        <tr r="F22" s="10"/>
-        <tr r="J26" s="10"/>
-        <tr r="G26" s="10"/>
-        <tr r="F23" s="10"/>
-        <tr r="J31" s="10"/>
-        <tr r="F21" s="10"/>
-        <tr r="K22" s="10"/>
-        <tr r="J23" s="10"/>
-        <tr r="F27" s="10"/>
-        <tr r="G25" s="10"/>
-        <tr r="J21" s="10"/>
-        <tr r="G21" s="10"/>
-        <tr r="I30" s="10"/>
-        <tr r="F25" s="10"/>
-        <tr r="J28" s="10"/>
-        <tr r="K27" s="10"/>
-        <tr r="G29" s="10"/>
-        <tr r="I31" s="10"/>
-        <tr r="H22" s="10"/>
-        <tr r="J24" s="10"/>
-        <tr r="J30" s="10"/>
-        <tr r="F31" s="10"/>
+        <stp>8522b8df-70ef-42e9-b230-53d7812b918d</stp>
+        <tr r="M28" s="17"/>
       </tp>
-    </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>244bb2e4-23a6-46ae-b209-9d3c662f363f</stp>
+        <stp>c5240d04-6a2a-412a-9ce9-45651707aa35</stp>
+        <tr r="M27" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>254a7417-71c0-4d0b-97da-4ef09baf164c</stp>
+        <tr r="M26" s="17"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>8fc2746e-0bc6-4fb4-88f5-28b9c04f4935</stp>
         <tr r="N23" s="16"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>7d2717eb-c97f-4176-b7cf-3c5436d9c596</stp>
-        <tr r="N30" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>16c0d930-6cf2-433a-8ed1-a422f5be84e8</stp>
-        <tr r="N24" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>62cf7019-35b3-4a4a-ba99-a0a67d2790ee</stp>
-        <tr r="M30" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>5eb375fe-3a7b-4421-a118-eebbe1eecd0f</stp>
-        <tr r="M28" s="17"/>
+        <stp>1b851d24-d423-40d8-a07d-cb22e791d9c2</stp>
+        <tr r="F29" s="14"/>
+        <tr r="G28" s="14"/>
+        <tr r="J30" s="14"/>
+        <tr r="K30" s="14"/>
+        <tr r="F28" s="14"/>
+        <tr r="I28" s="14"/>
+        <tr r="F30" s="14"/>
+        <tr r="G30" s="14"/>
+        <tr r="I30" s="14"/>
+        <tr r="I29" s="14"/>
+        <tr r="K28" s="14"/>
+        <tr r="K29" s="14"/>
+        <tr r="H28" s="14"/>
+        <tr r="H30" s="14"/>
+        <tr r="H29" s="14"/>
+        <tr r="J28" s="14"/>
+        <tr r="J29" s="14"/>
+        <tr r="G29" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>420da05c-b3a9-4db9-868f-8795024356e6</stp>
+        <stp>fabdc791-bebd-4068-a5f3-7587f67fff9d</stp>
+        <tr r="N30" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f8a64455-60f3-4705-ab8d-60f78647c960</stp>
+        <tr r="N28" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e0573e3b-e627-4647-ac21-19e443c88713</stp>
+        <tr r="N24" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>859dfc47-66cd-4db0-addb-10021f8ee460</stp>
+        <tr r="M29" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>47da3280-4fb8-4c80-bce1-505230dbd39a</stp>
+        <tr r="N29" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>39ad07fe-cb1c-414a-9b70-e94230d34f0c</stp>
         <tr r="M25" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>82a4b30f-137e-4aca-a0bb-2f56cffc6a77</stp>
-        <tr r="M27" s="17"/>
+        <stp>4cc8c981-9216-4d17-a471-1afb36919abc</stp>
+        <tr r="M30" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>93b03581-da2f-4af5-9a54-e7acf3fb730f</stp>
+        <tr r="N27" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b4ab096c-c194-4d70-9688-cf60a5d03e48</stp>
+        <tr r="L42" s="20"/>
+        <tr r="F43" s="20"/>
+        <tr r="H43" s="20"/>
+        <tr r="F42" s="20"/>
+        <tr r="K43" s="20"/>
+        <tr r="G42" s="20"/>
+        <tr r="L43" s="20"/>
+        <tr r="J42" s="20"/>
+        <tr r="K42" s="20"/>
+        <tr r="I42" s="20"/>
+        <tr r="I43" s="20"/>
+        <tr r="J43" s="20"/>
+        <tr r="H42" s="20"/>
+        <tr r="G43" s="20"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e9cde9fb-7f17-4338-82b5-1c0c22738bb5</stp>
+        <tr r="F26" s="12"/>
+        <tr r="E28" s="12"/>
+        <tr r="G33" s="12"/>
+        <tr r="F25" s="12"/>
+        <tr r="F23" s="12"/>
+        <tr r="E30" s="12"/>
+        <tr r="G28" s="12"/>
+        <tr r="F29" s="12"/>
+        <tr r="E27" s="12"/>
+        <tr r="F28" s="12"/>
+        <tr r="F24" s="12"/>
+        <tr r="G23" s="12"/>
+        <tr r="G31" s="12"/>
+        <tr r="G30" s="12"/>
+        <tr r="G29" s="12"/>
+        <tr r="E29" s="12"/>
+        <tr r="E33" s="12"/>
+        <tr r="F31" s="12"/>
+        <tr r="G24" s="12"/>
+        <tr r="E24" s="12"/>
+        <tr r="G27" s="12"/>
+        <tr r="F27" s="12"/>
+        <tr r="F33" s="12"/>
+        <tr r="E26" s="12"/>
+        <tr r="E32" s="12"/>
+        <tr r="F30" s="12"/>
+        <tr r="G32" s="12"/>
+        <tr r="G26" s="12"/>
+        <tr r="E25" s="12"/>
+        <tr r="E31" s="12"/>
+        <tr r="E23" s="12"/>
+        <tr r="G25" s="12"/>
+        <tr r="F32" s="12"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>b3cf1375-d7be-434a-8b0a-1604e65f3d69</stp>
-        <tr r="M26" s="17"/>
+        <stp>9e485a87-4f72-4786-8c89-1fccc11b466b</stp>
+        <tr r="N26" s="16"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>ae3e063a-c168-4ff8-8088-fb37ce6d2fee</stp>
-        <tr r="N29" s="16"/>
+        <stp>393ee071-10f6-429b-a08e-084623a825c0</stp>
+        <tr r="H36" s="13"/>
+        <tr r="J35" s="13"/>
+        <tr r="J34" s="13"/>
+        <tr r="G36" s="13"/>
+        <tr r="F34" s="13"/>
+        <tr r="G35" s="13"/>
+        <tr r="K35" s="13"/>
+        <tr r="H34" s="13"/>
+        <tr r="I35" s="13"/>
+        <tr r="F35" s="13"/>
+        <tr r="H35" s="13"/>
+        <tr r="G34" s="13"/>
+        <tr r="I34" s="13"/>
+        <tr r="K36" s="13"/>
+        <tr r="K34" s="13"/>
+        <tr r="I36" s="13"/>
+        <tr r="F36" s="13"/>
+        <tr r="J36" s="13"/>
       </tp>
     </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
+    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>c0363e30-9e1e-4d38-9b6c-6b4eeaf3b161</stp>
-        <tr r="H40" s="20"/>
-        <tr r="F39" s="20"/>
-        <tr r="L39" s="20"/>
-        <tr r="L40" s="20"/>
-        <tr r="K39" s="20"/>
-        <tr r="I40" s="20"/>
-        <tr r="H39" s="20"/>
-        <tr r="G40" s="20"/>
-        <tr r="F40" s="20"/>
-        <tr r="K40" s="20"/>
-        <tr r="G39" s="20"/>
-        <tr r="J39" s="20"/>
-        <tr r="I39" s="20"/>
-        <tr r="J40" s="20"/>
+        <stp>7300f696-9d56-4190-920c-6f3605c31494</stp>
+        <tr r="I31" s="10"/>
+        <tr r="J28" s="10"/>
+        <tr r="I26" s="10"/>
+        <tr r="H29" s="10"/>
+        <tr r="I29" s="10"/>
+        <tr r="I27" s="10"/>
+        <tr r="J31" s="10"/>
+        <tr r="F30" s="10"/>
+        <tr r="G27" s="10"/>
+        <tr r="F25" s="10"/>
+        <tr r="G26" s="10"/>
+        <tr r="H26" s="10"/>
+        <tr r="I30" s="10"/>
+        <tr r="G30" s="10"/>
+        <tr r="H28" s="10"/>
+        <tr r="I25" s="10"/>
+        <tr r="H23" s="10"/>
+        <tr r="H21" s="10"/>
+        <tr r="G23" s="10"/>
+        <tr r="F29" s="10"/>
+        <tr r="I28" s="10"/>
+        <tr r="J26" s="10"/>
+        <tr r="F24" s="10"/>
+        <tr r="J21" s="10"/>
+        <tr r="G29" s="10"/>
+        <tr r="F31" s="10"/>
+        <tr r="H27" s="10"/>
+        <tr r="F27" s="10"/>
+        <tr r="G25" s="10"/>
+        <tr r="H22" s="10"/>
+        <tr r="G31" s="10"/>
+        <tr r="F26" s="10"/>
+        <tr r="J27" s="10"/>
+        <tr r="J25" s="10"/>
+        <tr r="H25" s="10"/>
+        <tr r="I23" s="10"/>
+        <tr r="H31" s="10"/>
+        <tr r="F28" s="10"/>
+        <tr r="H24" s="10"/>
+        <tr r="I24" s="10"/>
+        <tr r="G24" s="10"/>
+        <tr r="J23" s="10"/>
+        <tr r="F22" s="10"/>
+        <tr r="J29" s="10"/>
+        <tr r="J24" s="10"/>
+        <tr r="J22" s="10"/>
+        <tr r="F23" s="10"/>
+        <tr r="I22" s="10"/>
+        <tr r="G22" s="10"/>
+        <tr r="H30" s="10"/>
+        <tr r="G28" s="10"/>
+        <tr r="I21" s="10"/>
+        <tr r="G21" s="10"/>
+        <tr r="J30" s="10"/>
+        <tr r="F21" s="10"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>b0e72c9d-a4bd-4e04-a47d-d3881bf11772</stp>
-        <tr r="N25" s="16"/>
+        <stp>9ab13324-b31f-4966-ac8e-b12b7101de1b</stp>
+        <tr r="M23" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>8f35840b-2985-493e-85ff-251fa7001733</stp>
+        <stp>dd32a6f0-62af-473d-8919-4bf2c3de2829</stp>
+        <tr r="F27" s="11"/>
+        <tr r="F21" s="11"/>
+        <tr r="G19" s="11"/>
+        <tr r="G24" s="11"/>
+        <tr r="F19" s="11"/>
+        <tr r="F25" s="11"/>
+        <tr r="G22" s="11"/>
+        <tr r="E23" s="11"/>
+        <tr r="F26" s="11"/>
+        <tr r="E18" s="11"/>
+        <tr r="E28" s="11"/>
+        <tr r="F22" s="11"/>
+        <tr r="G27" s="11"/>
+        <tr r="E22" s="11"/>
+        <tr r="G20" s="11"/>
+        <tr r="G17" s="11"/>
+        <tr r="E29" s="11"/>
         <tr r="E26" s="11"/>
-        <tr r="G20" s="11"/>
+        <tr r="F18" s="11"/>
+        <tr r="E25" s="11"/>
         <tr r="G21" s="11"/>
-        <tr r="F25" s="11"/>
-        <tr r="F27" s="11"/>
+        <tr r="E20" s="11"/>
+        <tr r="E21" s="11"/>
+        <tr r="G18" s="11"/>
+        <tr r="F24" s="11"/>
+        <tr r="G23" s="11"/>
+        <tr r="F23" s="11"/>
+        <tr r="G28" s="11"/>
+        <tr r="G25" s="11"/>
+        <tr r="E19" s="11"/>
+        <tr r="G29" s="11"/>
+        <tr r="F28" s="11"/>
+        <tr r="E24" s="11"/>
+        <tr r="F20" s="11"/>
+        <tr r="F17" s="11"/>
         <tr r="E17" s="11"/>
-        <tr r="E28" s="11"/>
-        <tr r="G27" s="11"/>
-        <tr r="G18" s="11"/>
-        <tr r="G22" s="11"/>
-        <tr r="G17" s="11"/>
-        <tr r="F24" s="11"/>
-        <tr r="G19" s="11"/>
-        <tr r="F18" s="11"/>
-        <tr r="G23" s="11"/>
         <tr r="G26" s="11"/>
-        <tr r="F23" s="11"/>
-        <tr r="F28" s="11"/>
-        <tr r="G24" s="11"/>
-        <tr r="E23" s="11"/>
-        <tr r="E20" s="11"/>
-        <tr r="F17" s="11"/>
-        <tr r="F26" s="11"/>
-        <tr r="F22" s="11"/>
-        <tr r="E29" s="11"/>
-        <tr r="E21" s="11"/>
-        <tr r="G28" s="11"/>
-        <tr r="F21" s="11"/>
-        <tr r="F19" s="11"/>
-        <tr r="E25" s="11"/>
-        <tr r="E18" s="11"/>
-        <tr r="G25" s="11"/>
-        <tr r="E24" s="11"/>
         <tr r="E27" s="11"/>
-        <tr r="E19" s="11"/>
         <tr r="F29" s="11"/>
-        <tr r="E22" s="11"/>
-        <tr r="G29" s="11"/>
-        <tr r="F20" s="11"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>19b75e0e-ea82-4fca-9c13-9582f8e1c1e4</stp>
-        <tr r="N27" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>7dd92585-a569-455b-802e-f07393b52735</stp>
-        <tr r="F27" s="12"/>
-        <tr r="E25" s="12"/>
-        <tr r="G25" s="12"/>
-        <tr r="F23" s="12"/>
-        <tr r="G32" s="12"/>
-        <tr r="E23" s="12"/>
-        <tr r="G33" s="12"/>
-        <tr r="E33" s="12"/>
-        <tr r="G24" s="12"/>
-        <tr r="F26" s="12"/>
-        <tr r="F25" s="12"/>
-        <tr r="E24" s="12"/>
-        <tr r="F32" s="12"/>
-        <tr r="F29" s="12"/>
-        <tr r="E28" s="12"/>
-        <tr r="E27" s="12"/>
-        <tr r="G31" s="12"/>
-        <tr r="F31" s="12"/>
-        <tr r="G29" s="12"/>
-        <tr r="F33" s="12"/>
-        <tr r="G27" s="12"/>
-        <tr r="F28" s="12"/>
-        <tr r="E26" s="12"/>
-        <tr r="G26" s="12"/>
-        <tr r="G30" s="12"/>
-        <tr r="E32" s="12"/>
-        <tr r="E30" s="12"/>
-        <tr r="F24" s="12"/>
-        <tr r="E29" s="12"/>
-        <tr r="F30" s="12"/>
-        <tr r="E31" s="12"/>
-        <tr r="G28" s="12"/>
-        <tr r="G23" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0e94f185-2ca1-47c8-a339-5c93fdd7e222</stp>
-        <tr r="M31" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>773b0084-37d8-480a-a7e3-5023681d3d42</stp>
-        <tr r="N26" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.5c3b0217e56b442aa347c26aae01a01e">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c22cd5cb-707d-4297-925f-a9ac2a54a6e2</stp>
-        <tr r="N28" s="16"/>
       </tp>
     </main>
   </volType>
@@ -2921,7 +2912,7 @@
   <dimension ref="B1:T31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,12 +3100,12 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3145,12 +3136,12 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3190,7 +3181,7 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>308</v>
@@ -3235,7 +3226,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I19" s="25" t="str">
         <f>TEXT(F23,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F23," hh:mm:ss.00Z")</f>
@@ -3278,12 +3269,12 @@
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="I21" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3321,7 +3312,7 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I23" s="25" t="str">
         <f>TEXT(F23,"yyyy-mm-dd")&amp;"NSingaporeClose"</f>
@@ -3392,7 +3383,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F27" s="30">
         <f>F23+1/24</f>
@@ -3429,7 +3420,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F29" s="30">
         <f>F27-1/1440</f>
@@ -4061,7 +4052,7 @@
         <v>213</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>204</v>
@@ -4084,9 +4075,9 @@
       <c r="M23" s="20">
         <v>43570</v>
       </c>
-      <c r="N23" s="47"/>
+      <c r="N23" s="46"/>
       <c r="O23" s="32"/>
-      <c r="P23" s="51" t="str">
+      <c r="P23" s="50" t="str">
         <f>_xll.flQuotesAdd(F15,E22:O23)</f>
         <v>Added 1 quote(s) as at time 2019-09-03 16:02:48Z</v>
       </c>
@@ -4120,7 +4111,7 @@
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
-      <c r="P24" s="51"/>
+      <c r="P24" s="50"/>
       <c r="Q24" s="2"/>
       <c r="R24"/>
       <c r="S24"/>
@@ -4151,7 +4142,7 @@
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
-      <c r="P25" s="51"/>
+      <c r="P25" s="50"/>
       <c r="Q25" s="2"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -4182,7 +4173,7 @@
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
-      <c r="P26" s="51"/>
+      <c r="P26" s="50"/>
       <c r="Q26" s="2"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -4213,7 +4204,7 @@
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
-      <c r="P27" s="51"/>
+      <c r="P27" s="50"/>
       <c r="Q27" s="2"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -4244,7 +4235,7 @@
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
-      <c r="P28" s="51"/>
+      <c r="P28" s="50"/>
       <c r="Q28" s="2"/>
       <c r="R28"/>
       <c r="S28"/>
@@ -4275,7 +4266,7 @@
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
-      <c r="P29" s="51"/>
+      <c r="P29" s="50"/>
       <c r="Q29" s="2"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -4401,10 +4392,10 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
@@ -5342,7 +5333,7 @@
       </c>
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
-      <c r="P24" s="51" t="str">
+      <c r="P24" s="50" t="str">
         <f>_xll.flQuotesAdd(F15,E23:O27)</f>
         <v>Added 4 quote(s) as at time 2019-09-03 16:02:48Z</v>
       </c>
@@ -5390,7 +5381,7 @@
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
-      <c r="P25" s="51"/>
+      <c r="P25" s="50"/>
       <c r="Q25" s="2"/>
       <c r="R25"/>
       <c r="S25"/>
@@ -5435,7 +5426,7 @@
       </c>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
-      <c r="P26" s="51"/>
+      <c r="P26" s="50"/>
       <c r="Q26" s="2"/>
       <c r="R26"/>
       <c r="S26"/>
@@ -5480,7 +5471,7 @@
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
-      <c r="P27" s="51"/>
+      <c r="P27" s="50"/>
       <c r="Q27" s="2"/>
       <c r="R27"/>
       <c r="S27"/>
@@ -6656,7 +6647,7 @@
   <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6859,7 +6850,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6872,16 +6863,12 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>204</v>
-      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -6951,14 +6938,14 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="37" t="str">
-        <v>Figi</v>
+      <c r="E19" s="36" t="str">
+        <v>ShareClassFigi</v>
       </c>
       <c r="F19" s="18" t="str">
-        <v>Instrument/default/Figi</v>
+        <v>Instrument/default/ShareClassFigi</v>
       </c>
       <c r="G19" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -6973,11 +6960,11 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="37" t="str">
-        <v>Cusip</v>
+      <c r="E20" s="36" t="str">
+        <v>CompositeFigi</v>
       </c>
       <c r="F20" s="18" t="str">
-        <v>Instrument/default/Cusip</v>
+        <v>Instrument/default/CompositeFigi</v>
       </c>
       <c r="G20" s="18" t="b">
         <v>0</v>
@@ -6995,14 +6982,14 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="37" t="str">
-        <v>RIC</v>
+      <c r="E21" s="36" t="str">
+        <v>QuotePermId</v>
       </c>
       <c r="F21" s="18" t="str">
-        <v>Instrument/default/RIC</v>
+        <v>Instrument/default/QuotePermId</v>
       </c>
       <c r="G21" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -7017,14 +7004,14 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="37" t="str">
-        <v>Ticker</v>
+      <c r="E22" s="36" t="str">
+        <v>LusidInstrumentId</v>
       </c>
       <c r="F22" s="18" t="str">
-        <v>Instrument/default/Ticker</v>
+        <v>Instrument/default/LusidInstrumentId</v>
       </c>
       <c r="G22" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -7039,14 +7026,14 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="37" t="str">
-        <v>LusidInstrumentId</v>
+      <c r="E23" s="36" t="str">
+        <v>RIC</v>
       </c>
       <c r="F23" s="18" t="str">
-        <v>Instrument/default/LusidInstrumentId</v>
+        <v>Instrument/default/RIC</v>
       </c>
       <c r="G23" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -7061,14 +7048,14 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="37" t="str">
-        <v>ClientInternal</v>
+      <c r="E24" s="36" t="str">
+        <v>Ticker</v>
       </c>
       <c r="F24" s="18" t="str">
-        <v>Instrument/default/ClientInternal</v>
+        <v>Instrument/default/Ticker</v>
       </c>
       <c r="G24" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -7082,11 +7069,11 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="37" t="str">
-        <v>ShareClassFigi</v>
+      <c r="E25" s="36" t="str">
+        <v>Cusip</v>
       </c>
       <c r="F25" s="18" t="str">
-        <v>Instrument/default/ShareClassFigi</v>
+        <v>Instrument/default/Cusip</v>
       </c>
       <c r="G25" s="18" t="b">
         <v>0</v>
@@ -7101,11 +7088,11 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="37" t="str">
-        <v>QuotePermId</v>
+      <c r="E26" s="36" t="str">
+        <v>Figi</v>
       </c>
       <c r="F26" s="18" t="str">
-        <v>Instrument/default/QuotePermId</v>
+        <v>Instrument/default/Figi</v>
       </c>
       <c r="G26" s="18" t="b">
         <v>1</v>
@@ -7120,14 +7107,14 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="37" t="str">
-        <v>CompositeFigi</v>
+      <c r="E27" s="36" t="str">
+        <v>ClientInternal</v>
       </c>
       <c r="F27" s="18" t="str">
-        <v>Instrument/default/CompositeFigi</v>
+        <v>Instrument/default/ClientInternal</v>
       </c>
       <c r="G27" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -7139,7 +7126,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="37" t="str">
+      <c r="E28" s="36" t="str">
         <v>Wertpapier</v>
       </c>
       <c r="F28" s="18" t="str">
@@ -7158,7 +7145,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="37" t="str">
+      <c r="E29" s="36" t="str">
         <v>Isin</v>
       </c>
       <c r="F29" s="18" t="str">
@@ -7481,12 +7468,12 @@
       <c r="D21" s="9"/>
       <c r="E21" s="25">
         <f ca="1">NOW()</f>
-        <v>43712.699978009259</v>
+        <v>43718.477425925928</v>
       </c>
       <c r="F21" s="25">
         <v>43697</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="47">
         <v>5</v>
       </c>
       <c r="H21" s="2"/>
@@ -7556,7 +7543,7 @@
       <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="E25" s="37" t="str">
+      <c r="E25" s="36" t="str">
         <f ca="1"/>
         <v>Active</v>
       </c>
@@ -7579,7 +7566,7 @@
       <c r="D26" s="2">
         <v>3</v>
       </c>
-      <c r="E26" s="37" t="str">
+      <c r="E26" s="36" t="str">
         <f ca="1"/>
         <v>Active</v>
       </c>
@@ -7602,7 +7589,7 @@
       <c r="D27" s="2">
         <v>4</v>
       </c>
-      <c r="E27" s="37" t="str">
+      <c r="E27" s="36" t="str">
         <f ca="1"/>
         <v>Active</v>
       </c>
@@ -7625,7 +7612,7 @@
       <c r="D28" s="2">
         <v>5</v>
       </c>
-      <c r="E28" s="37" t="str">
+      <c r="E28" s="36" t="str">
         <f ca="1"/>
         <v>Active</v>
       </c>
@@ -7648,7 +7635,7 @@
       <c r="D29" s="2">
         <v>6</v>
       </c>
-      <c r="E29" s="37" t="e">
+      <c r="E29" s="36" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
@@ -7671,7 +7658,7 @@
       <c r="D30" s="2">
         <v>7</v>
       </c>
-      <c r="E30" s="37" t="e">
+      <c r="E30" s="36" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
@@ -7694,7 +7681,7 @@
       <c r="D31" s="2">
         <v>8</v>
       </c>
-      <c r="E31" s="37" t="e">
+      <c r="E31" s="36" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
@@ -7717,7 +7704,7 @@
       <c r="D32" s="2">
         <v>9</v>
       </c>
-      <c r="E32" s="37" t="e">
+      <c r="E32" s="36" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
@@ -7740,7 +7727,7 @@
       <c r="D33" s="2">
         <v>10</v>
       </c>
-      <c r="E33" s="37" t="e">
+      <c r="E33" s="36" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
@@ -7789,7 +7776,7 @@
   <dimension ref="B1:R32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8086,7 +8073,7 @@
         <v>202</v>
       </c>
       <c r="F21" s="33" t="str">
-        <f t="array" ref="F21:K31">_xll.flInstrumentsLookup(F19,E22:E31)</f>
+        <f t="array" ref="F21:J31">_xll.flInstrumentsLookup(F19,E22:E31)</f>
         <v>State</v>
       </c>
       <c r="G21" s="33" t="str">
@@ -8101,9 +8088,7 @@
       <c r="J21" s="33" t="str">
         <v>ClientInternal</v>
       </c>
-      <c r="K21" s="33" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
@@ -8130,12 +8115,10 @@
       <c r="I22" s="35" t="str">
         <v>BBG000B9XRY4</v>
       </c>
-      <c r="J22" s="36" t="str">
+      <c r="J22" s="52" t="str">
         <v>ExcelID1</v>
       </c>
-      <c r="K22" s="36" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
@@ -8147,7 +8130,7 @@
       <c r="D23" s="9">
         <v>2</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="36" t="s">
         <v>189</v>
       </c>
       <c r="F23" s="18" t="str">
@@ -8162,12 +8145,10 @@
       <c r="I23" s="35" t="str">
         <v>BBG000DMBXR2</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="52">
         <v>0</v>
       </c>
-      <c r="K23" s="36" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
@@ -8179,7 +8160,7 @@
       <c r="D24" s="9">
         <v>3</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="36" t="s">
         <v>190</v>
       </c>
       <c r="F24" s="18" t="str">
@@ -8194,12 +8175,10 @@
       <c r="I24" s="35" t="str">
         <v>BBG000C059M6</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="52">
         <v>0</v>
       </c>
-      <c r="K24" s="36" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
@@ -8211,7 +8190,7 @@
       <c r="D25" s="9">
         <v>4</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="36" t="s">
         <v>191</v>
       </c>
       <c r="F25" s="18" t="str">
@@ -8226,12 +8205,10 @@
       <c r="I25" s="35" t="str">
         <v>BBG00DQ4YZ36</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="52">
         <v>0</v>
       </c>
-      <c r="K25" s="36" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
@@ -8243,7 +8220,7 @@
       <c r="D26" s="9">
         <v>5</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="36" t="s">
         <v>192</v>
       </c>
       <c r="F26" s="18" t="str">
@@ -8258,12 +8235,10 @@
       <c r="I26" s="35" t="str">
         <v>BBG000BCM915</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="52">
         <v>0</v>
       </c>
-      <c r="K26" s="36" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
@@ -8275,7 +8250,7 @@
       <c r="D27" s="9">
         <v>6</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="36" t="s">
         <v>193</v>
       </c>
       <c r="F27" s="18" t="str">
@@ -8290,12 +8265,10 @@
       <c r="I27" s="35" t="str">
         <v>BBG000BCH458</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="52">
         <v>0</v>
       </c>
-      <c r="K27" s="36" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
@@ -8307,7 +8280,7 @@
       <c r="D28" s="9">
         <v>7</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E28" s="36" t="s">
         <v>194</v>
       </c>
       <c r="F28" s="18" t="str">
@@ -8322,12 +8295,10 @@
       <c r="I28" s="35" t="str">
         <v>BBG000BS1MT4</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="52">
         <v>0</v>
       </c>
-      <c r="K28" s="36" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
@@ -8338,7 +8309,7 @@
       <c r="D29" s="9">
         <v>8</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="36" t="s">
         <v>195</v>
       </c>
       <c r="F29" s="18" t="str">
@@ -8353,12 +8324,10 @@
       <c r="I29" s="35" t="str">
         <v>BBG000BH4R78</v>
       </c>
-      <c r="J29" s="36" t="str">
+      <c r="J29" s="52" t="str">
         <v>ExcelID22</v>
       </c>
-      <c r="K29" s="36" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
@@ -8367,7 +8336,7 @@
       <c r="D30" s="9">
         <v>9</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="36" t="s">
         <v>196</v>
       </c>
       <c r="F30" s="18" t="str">
@@ -8382,12 +8351,10 @@
       <c r="I30" s="35" t="str">
         <v>BBG000BPH459</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="52">
         <v>0</v>
       </c>
-      <c r="K30" s="36" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
@@ -8396,7 +8363,7 @@
       <c r="D31" s="9">
         <v>10</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="36" t="s">
         <v>197</v>
       </c>
       <c r="F31" s="18" t="str">
@@ -8411,12 +8378,10 @@
       <c r="I31" s="35" t="str">
         <v>BBG000CLY2D3</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="52">
         <v>0</v>
       </c>
-      <c r="K31" s="36" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
@@ -8464,7 +8429,7 @@
   <dimension ref="B1:S48"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8710,7 +8675,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8824,7 +8789,7 @@
         <v>317</v>
       </c>
       <c r="J21" s="15"/>
-      <c r="K21" s="51" t="str">
+      <c r="K21" s="50" t="str">
         <f>_xll.flInstrumentsAdd(E20:J21)</f>
         <v>LUID_RVXW0J4Z</v>
       </c>
@@ -8891,7 +8856,7 @@
         <v>317</v>
       </c>
       <c r="J24" s="15"/>
-      <c r="K24" s="51" t="str">
+      <c r="K24" s="50" t="str">
         <f>_xll.flInstrumentsAdd(E23:J24)</f>
         <v>LUID_9SBVLHHA</v>
       </c>
@@ -9122,7 +9087,7 @@
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="38"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -9262,7 +9227,7 @@
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="38"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -9309,8 +9274,8 @@
   </sheetPr>
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9610,7 +9575,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="51" t="str">
+      <c r="K19" s="50" t="str">
         <f>_xll.flInstrumentsAdd(E18:J19)</f>
         <v>LUID_A9RLV8U6</v>
       </c>
@@ -9775,7 +9740,7 @@
       <c r="J29" s="17" t="str">
         <v>NewInst14</v>
       </c>
-      <c r="K29" s="51" t="str">
+      <c r="K29" s="50" t="str">
         <v>BBG007FAKECO</v>
       </c>
       <c r="L29" s="2"/>
@@ -9808,13 +9773,13 @@
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
     </row>
   </sheetData>
   <dataValidations count="18">
@@ -9853,10 +9818,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:N43"/>
+  <dimension ref="B1:N46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40:L42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10029,8 +9994,13 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="8" t="str">
+        <f>_xll.flPropertiesAdd_Template()</f>
+        <v>OK</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -10040,29 +10010,41 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>306</v>
-      </c>
+      <c r="C14" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -10077,64 +10059,51 @@
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="L15" s="6" t="str">
-        <f t="array" ref="L15:L17">_xll.flPropertiesAdd(E15:K17)</f>
-        <v>Keys</v>
-      </c>
-      <c r="M15" s="8"/>
+      <c r="D15" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="H16" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="16" t="str">
-        <f>G16</f>
-        <v>PlanType</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" s="51" t="str">
-        <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/PlanType' because it already exists.</v>
-      </c>
-      <c r="M16" s="15"/>
+      <c r="E16" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="L16" s="6" t="str">
+        <f t="array" ref="L16:L18">_xll.flPropertiesAdd(E16:K18)</f>
+        <v>Keys</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
@@ -10147,38 +10116,56 @@
         <v>296</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="H17" s="43" t="b">
+        <v>297</v>
+      </c>
+      <c r="H17" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>290</v>
+      <c r="I17" s="16" t="str">
+        <f>G17</f>
+        <v>PlanType</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="L17" s="51" t="str">
-        <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/TakeOverWorldDate' because it already exists.</v>
-      </c>
-      <c r="M17" s="15"/>
+      <c r="L17" s="50" t="str">
+        <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/PlanType' because it already exists.</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="15"/>
+      <c r="E18" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" s="50" t="str">
+        <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/TakeOverWorldDate' because it already exists.</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -10186,14 +10173,14 @@
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="42"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="15"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="15"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -10201,14 +10188,14 @@
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="44"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="43"/>
       <c r="K20" s="15"/>
       <c r="L20" s="51"/>
-      <c r="M20" s="15"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
@@ -10216,14 +10203,14 @@
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="42"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="44"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="43"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="15"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -10231,56 +10218,57 @@
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="42"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="13"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="44"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="43"/>
       <c r="K22" s="15"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="15"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="51"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="25" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
-      <c r="C25" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="8" t="str">
+        <f>_xll.flInstrumentPropertiesAdd_Template()</f>
+        <v>OK</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -10293,55 +10281,39 @@
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="J27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="8"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F28" s="15" t="str">
-        <f>'Add instrument'!K19</f>
-        <v>LUID_A9RLV8U6</v>
-      </c>
-      <c r="G28" s="47">
-        <v>43101</v>
-      </c>
-      <c r="H28" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="I28" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="J28" s="42"/>
-      <c r="K28" s="51" t="str">
-        <f>_xll.flInstrumentPropertiesAdd(E27:I28)</f>
-        <v>OK</v>
-      </c>
+      <c r="C28" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -10349,16 +10321,16 @@
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="9">
-        <v>2</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="51"/>
+      <c r="D29" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -10366,16 +10338,24 @@
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="9">
-        <v>3</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="51"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -10383,14 +10363,30 @@
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="51"/>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="15" t="str">
+        <f>'Add instrument'!K19</f>
+        <v>LUID_A9RLV8U6</v>
+      </c>
+      <c r="G31" s="46">
+        <v>43101</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="I31" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="J31" s="41"/>
+      <c r="K31" s="50" t="str">
+        <f>_xll.flInstrumentPropertiesAdd(E30:I31)</f>
+        <v>OK</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -10398,14 +10394,16 @@
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="D32" s="9">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="50"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -10413,31 +10411,31 @@
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="D33" s="9">
+        <v>3</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="50"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
-      <c r="C34" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="50"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -10445,9 +10443,7 @@
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>307</v>
-      </c>
+      <c r="D35" s="9"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -10459,7 +10455,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -10474,16 +10470,14 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="10" t="s">
+        <v>303</v>
+      </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>221</v>
-      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -10496,8 +10490,10 @@
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="9"/>
+      <c r="D38" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -10508,97 +10504,84 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F39" s="8" t="str">
-        <f t="array" ref="F39:L40">_xll.flInstrumentsLookup(F37,E40:E41,H27&amp;","&amp;I27)</f>
-        <v>State</v>
-      </c>
-      <c r="G39" s="8" t="str">
-        <v>LusidInstrumentId</v>
-      </c>
-      <c r="H39" s="8" t="str">
-        <v>Name</v>
-      </c>
-      <c r="I39" s="8" t="str">
-        <v>TakeOverDate</v>
-      </c>
-      <c r="J39" s="8" t="str">
-        <v>PlanType</v>
-      </c>
-      <c r="K39" s="8" t="str">
-        <v>Figi</v>
-      </c>
-      <c r="L39" s="8" t="str">
-        <v>ClientInternal</v>
-      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="15" t="str">
-        <f>F28</f>
-        <v>LUID_A9RLV8U6</v>
-      </c>
-      <c r="F40" s="43" t="str">
-        <v>Active</v>
-      </c>
-      <c r="G40" s="43" t="str">
-        <v>LUID_A9RLV8U6</v>
-      </c>
-      <c r="H40" s="42" t="str">
-        <v>Spectre</v>
-      </c>
-      <c r="I40" s="42" t="str">
-        <v>2028/12/01T00:00:00.00</v>
-      </c>
-      <c r="J40" s="42" t="str">
-        <v>Laser from satellite</v>
-      </c>
-      <c r="K40" s="42" t="str">
-        <v>BBG007FAKECO</v>
-      </c>
-      <c r="L40" s="51" t="str">
-        <v>NewInst14</v>
-      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="51"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="51"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="8" t="str">
+        <f t="array" ref="F42:L43">_xll.flInstrumentsLookup(F40,E43:E44,H30&amp;","&amp;I30)</f>
+        <v>State</v>
+      </c>
+      <c r="G42" s="8" t="str">
+        <v>LusidInstrumentId</v>
+      </c>
+      <c r="H42" s="8" t="str">
+        <v>Name</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <v>TakeOverDate</v>
+      </c>
+      <c r="J42" s="8" t="str">
+        <v>PlanType</v>
+      </c>
+      <c r="K42" s="8" t="str">
+        <v>ClientInternal</v>
+      </c>
+      <c r="L42" s="8" t="str">
+        <v>Figi</v>
+      </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
@@ -10606,35 +10589,108 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="E43" s="15" t="str">
+        <f>F31</f>
+        <v>LUID_A9RLV8U6</v>
+      </c>
+      <c r="F43" s="42" t="str">
+        <v>Active</v>
+      </c>
+      <c r="G43" s="42" t="str">
+        <v>LUID_A9RLV8U6</v>
+      </c>
+      <c r="H43" s="41" t="str">
+        <v>Spectre</v>
+      </c>
+      <c r="I43" s="41" t="str">
+        <v>2028/12/01T00:00:00.00</v>
+      </c>
+      <c r="J43" s="41" t="str">
+        <v>Laser from satellite</v>
+      </c>
+      <c r="K43" s="41" t="str">
+        <v>NewInst14</v>
+      </c>
+      <c r="L43" s="50" t="str">
+        <v>BBG007FAKECO</v>
+      </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+    </row>
   </sheetData>
-  <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="LifeTime" sqref="K15" xr:uid="{E7540E92-E5BE-4552-BF9C-DBFEE096FB3D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DataTypeId" sqref="J15" xr:uid="{9DF3B153-0F3B-469A-9200-5B6DE7B37C11}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DisplayName" sqref="I15" xr:uid="{B4F6905F-0F6E-454B-8D5A-DE90891032B9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ValueRequired" sqref="H15" xr:uid="{7DD8BA18-A28C-4E41-A74B-A6C2DAB47D7E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Code" sqref="G15" xr:uid="{4B063AB7-7753-4C5D-8D43-C8FF9EF43328}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Scope" sqref="F15" xr:uid="{7B2DCFD6-DE2A-4DD9-91A8-A03CF34D8212}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Domain" sqref="E15" xr:uid="{D6668F53-E37A-4C9A-8F06-9EFDC70FF4B2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="EffectiveFrom" sqref="Q16" xr:uid="{24A97234-1260-44ED-B57D-A9A5CDFE549A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="SecurityUid" sqref="P16" xr:uid="{98DF1528-AB19-418D-8363-FCCF64C101A6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The unique Lusid Instrument Identifier (LUID) of the instrument to update or insert properties on." sqref="L32 O33" xr:uid="{5F7002E7-75EE-451D-8512-06F52438E5BA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime from which the property is valid" sqref="M32 P33" xr:uid="{5461AD21-5889-4A6D-9EF8-C2F9E2313963}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Replace this with your custom properties; here and in the columns to the right [Set of unique instrument properties and associated values to store with the instrument. Each property must be from the 'Instrument' domain.]" sqref="N32 Q33" xr:uid="{2A9A010A-6017-49BD-AEE0-081D3CADD4D4}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The instrument identifier type." sqref="E33" xr:uid="{4374EB16-DCB5-4C88-87AB-2DEDE8518DD5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The unique instrument identifier of the instrument to update or insert properties on." sqref="F33" xr:uid="{4CC13194-FA28-4F34-A9A8-89FE1E4D6517}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime from which the property is valid" sqref="G33" xr:uid="{3DCACC70-6565-46CC-B179-11E4D4ADB398}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Replace this with your custom properties; here and in the columns to the right [Set of unique instrument properties and associated values to store with the instrument. Each property must be from the 'Instrument' domain.]" sqref="H33" xr:uid="{D7729818-3906-4D67-A751-4600C40FD1E4}"/>
+  <dataValidations count="27">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="LifeTime" sqref="K16" xr:uid="{E7540E92-E5BE-4552-BF9C-DBFEE096FB3D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DataTypeId" sqref="J16" xr:uid="{9DF3B153-0F3B-469A-9200-5B6DE7B37C11}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DisplayName" sqref="I16" xr:uid="{B4F6905F-0F6E-454B-8D5A-DE90891032B9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ValueRequired" sqref="H16" xr:uid="{7DD8BA18-A28C-4E41-A74B-A6C2DAB47D7E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Code" sqref="G16" xr:uid="{4B063AB7-7753-4C5D-8D43-C8FF9EF43328}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Scope" sqref="F16" xr:uid="{7B2DCFD6-DE2A-4DD9-91A8-A03CF34D8212}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Domain" sqref="E16" xr:uid="{D6668F53-E37A-4C9A-8F06-9EFDC70FF4B2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="EffectiveFrom" sqref="Q17" xr:uid="{24A97234-1260-44ED-B57D-A9A5CDFE549A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="SecurityUid" sqref="P17" xr:uid="{98DF1528-AB19-418D-8363-FCCF64C101A6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The unique Lusid Instrument Identifier (LUID) of the instrument to update or insert properties on." sqref="L35 O36" xr:uid="{5F7002E7-75EE-451D-8512-06F52438E5BA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime from which the property is valid" sqref="M35 P36 G36" xr:uid="{5461AD21-5889-4A6D-9EF8-C2F9E2313963}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Replace this with your custom properties; here and in the columns to the right [Set of unique instrument properties and associated values to store with the instrument. Each property must be from the 'Instrument' domain.]" sqref="N35 Q36 H36" xr:uid="{2A9A010A-6017-49BD-AEE0-081D3CADD4D4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The instrument identifier type." sqref="E36" xr:uid="{4374EB16-DCB5-4C88-87AB-2DEDE8518DD5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The unique instrument identifier of the instrument to update or insert properties on." sqref="F36" xr:uid="{4CC13194-FA28-4F34-A9A8-89FE1E4D6517}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The content of the expanded definition. There is no validation on the format of this." sqref="J27" xr:uid="{B17764F2-0C34-422E-BE14-227E429FB3CB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The format of the expanded definition." sqref="I27" xr:uid="{82F01F84-21EF-4F43-A9D7-A6A394AE18BB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The instrument identifier type." sqref="E27" xr:uid="{C58E0E4E-4CE0-408E-8ACE-90D2FD3DAAF0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The unique instrument identifier of the instrument to update or insert properties on." sqref="F27" xr:uid="{7AD6046B-EABB-4A6B-A667-50450DD3207D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime from which the property is valid" sqref="G27" xr:uid="{02E2C89D-A54E-4478-AD8E-E1609667735A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Replace this with your custom properties; here and in the columns to the right [Set of unique instrument properties and associated values to store with the instrument. Each property must be from the 'Instrument' domain.]" sqref="H27" xr:uid="{38C3D282-32C5-47B2-8F8A-DD0114CD64DC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Domain" sqref="E13" xr:uid="{D52AB31C-C372-4BA4-9B91-60ED7BE937D9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Scope" sqref="F13" xr:uid="{E17E1A74-67FD-4259-AA6D-43A4F125D65F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Code" sqref="G13" xr:uid="{F8387888-3242-4EBF-B814-3CEC89BA1939}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ValueRequired" sqref="H13" xr:uid="{5A37A396-448B-4925-B797-2084F8FDA6FC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DisplayName" sqref="I13" xr:uid="{B2D0A61E-A1EF-475D-8099-E5572A527286}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DataTypeId" sqref="J13" xr:uid="{EA368FFF-F58E-4FBB-9234-06D15EB562AB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="LifeTime" sqref="K13" xr:uid="{E37AADCD-69AA-46EB-8FFD-1C620AF704DA}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{D5E1FEFA-AE04-4FB3-8E4A-D3598E42A3B1}"/>
@@ -10655,7 +10711,7 @@
   <dimension ref="B1:V37"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22:N30"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11128,7 +11184,7 @@
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
-      <c r="N22" s="52">
+      <c r="N22" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,L22,M22)</f>
         <v>100</v>
       </c>
@@ -11167,7 +11223,7 @@
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
-      <c r="N23" s="52">
+      <c r="N23" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,L23,M23)</f>
         <v>199.25</v>
       </c>
@@ -11206,7 +11262,7 @@
       </c>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
-      <c r="N24" s="52">
+      <c r="N24" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,L24,M24)</f>
         <v>203.13</v>
       </c>
@@ -11245,7 +11301,7 @@
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="52">
+      <c r="N25" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,L25,M25)</f>
         <v>203.86</v>
       </c>
@@ -11284,7 +11340,7 @@
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
-      <c r="N26" s="52">
+      <c r="N26" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,L26,M26)</f>
         <v>203.86</v>
       </c>
@@ -11320,7 +11376,7 @@
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
-      <c r="N27" s="52">
+      <c r="N27" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,L27,M27)</f>
         <v>203.86</v>
       </c>
@@ -11356,7 +11412,7 @@
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
-      <c r="N28" s="52">
+      <c r="N28" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,L28,M28)</f>
         <v>203.86</v>
       </c>
@@ -11392,7 +11448,7 @@
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
-      <c r="N29" s="52">
+      <c r="N29" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,L29,M29)</f>
         <v>204.53</v>
       </c>
@@ -11428,7 +11484,7 @@
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
-      <c r="N30" s="52">
+      <c r="N30" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,L30,M30)</f>
         <v>207.48</v>
       </c>
@@ -11897,7 +11953,7 @@
         <v>43570</v>
       </c>
       <c r="L22" s="20"/>
-      <c r="M22" s="52">
+      <c r="M22" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,F22,L22)</f>
         <v>100</v>
       </c>
@@ -11930,7 +11986,7 @@
         <v>43571</v>
       </c>
       <c r="L23" s="17"/>
-      <c r="M23" s="52">
+      <c r="M23" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,F23,L23)</f>
         <v>111.1</v>
       </c>
@@ -11963,7 +12019,7 @@
         <v>43572</v>
       </c>
       <c r="L24" s="17"/>
-      <c r="M24" s="52">
+      <c r="M24" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,F24,L24)</f>
         <v>78.36</v>
       </c>
@@ -11996,7 +12052,7 @@
         <v>43573</v>
       </c>
       <c r="L25" s="17"/>
-      <c r="M25" s="52">
+      <c r="M25" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,F25,L25)</f>
         <v>166.6</v>
       </c>
@@ -12030,7 +12086,7 @@
         <v>43574</v>
       </c>
       <c r="L26" s="17"/>
-      <c r="M26" s="52">
+      <c r="M26" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,F26,L26)</f>
         <v>666.5</v>
       </c>
@@ -12061,7 +12117,7 @@
         <v>43575</v>
       </c>
       <c r="L27" s="17"/>
-      <c r="M27" s="52">
+      <c r="M27" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,F27,L27)</f>
         <v>132.44999999999999</v>
       </c>
@@ -12092,7 +12148,7 @@
         <v>43576</v>
       </c>
       <c r="L28" s="17"/>
-      <c r="M28" s="52">
+      <c r="M28" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,F28,L28)</f>
         <v>123.37</v>
       </c>
@@ -12123,7 +12179,7 @@
         <v>43577</v>
       </c>
       <c r="L29" s="17"/>
-      <c r="M29" s="52">
+      <c r="M29" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,F29,L29)</f>
         <v>6963</v>
       </c>
@@ -12154,7 +12210,7 @@
         <v>43578</v>
       </c>
       <c r="L30" s="17"/>
-      <c r="M30" s="52">
+      <c r="M30" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,F30,L30)</f>
         <v>582.5</v>
       </c>
@@ -12185,7 +12241,7 @@
         <v>43579</v>
       </c>
       <c r="L31" s="17"/>
-      <c r="M31" s="52">
+      <c r="M31" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E31,G31,H31,I31,J31,K31,F31,L31)</f>
         <v>11550</v>
       </c>
@@ -12453,6 +12509,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -12460,15 +12525,6 @@
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12492,9 +12548,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -12503,16 +12566,9 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
     <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LUSID Excel - Setting up your market data.xlsx
+++ b/LUSID Excel - Setting up your market data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47717318-48EF-4C7A-9258-F8C5613B5CB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F7AC6C-CB33-4EE6-BCEE-5E4F42A0890F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" tabRatio="798" activeTab="6" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="-5047" yWindow="-16297" windowWidth="28995" windowHeight="15794" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Datetime format" sheetId="21" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="341">
   <si>
     <t>Base Currency</t>
   </si>
@@ -1171,6 +1171,18 @@
   </si>
   <si>
     <t>In this case we are adding an instrument definition format. Don’t forget you can use the flInstrumentsAdd_Template to see a list of the required fields. Click on the returned cells to see tooltips</t>
+  </si>
+  <si>
+    <t>Finbourne-Examples</t>
+  </si>
+  <si>
+    <t>IsThisATestTrade</t>
+  </si>
+  <si>
+    <t>Perpetual</t>
+  </si>
+  <si>
+    <t>In this case we are adding instrument and transaction properties. Don’t forget you can use the template to see a list of the required fields. Click on the returned cells to see tooltips</t>
   </si>
 </sst>
 </file>
@@ -1506,344 +1518,342 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>c50cb65d-7357-4bba-925b-0e6f6a96cb6e</stp>
-        <tr r="N25" s="16"/>
+        <stp>026a2182-e451-49ce-9f5c-af98b56f792a</stp>
+        <tr r="N23" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>7e1ca5cc-f1d6-48e6-ab5b-1ff1e929d405</stp>
+        <tr r="M30" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>b435a4aa-6a55-4e9c-b311-b75536b39cfc</stp>
+        <stp>b9e59655-355b-47fd-a249-1299a29c92bd</stp>
+        <tr r="E30" s="12"/>
+        <tr r="F25" s="12"/>
+        <tr r="G28" s="12"/>
+        <tr r="F28" s="12"/>
+        <tr r="E33" s="12"/>
+        <tr r="F33" s="12"/>
+        <tr r="F27" s="12"/>
+        <tr r="E31" s="12"/>
+        <tr r="F32" s="12"/>
+        <tr r="G30" s="12"/>
+        <tr r="F24" s="12"/>
+        <tr r="F31" s="12"/>
+        <tr r="F29" s="12"/>
+        <tr r="G23" s="12"/>
+        <tr r="E26" s="12"/>
+        <tr r="E25" s="12"/>
+        <tr r="G29" s="12"/>
+        <tr r="F26" s="12"/>
+        <tr r="F23" s="12"/>
+        <tr r="E27" s="12"/>
+        <tr r="G24" s="12"/>
+        <tr r="E32" s="12"/>
+        <tr r="E23" s="12"/>
+        <tr r="E28" s="12"/>
+        <tr r="E29" s="12"/>
+        <tr r="E24" s="12"/>
+        <tr r="F30" s="12"/>
+        <tr r="G31" s="12"/>
+        <tr r="G33" s="12"/>
+        <tr r="G27" s="12"/>
+        <tr r="G32" s="12"/>
+        <tr r="G26" s="12"/>
+        <tr r="G25" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>5cd26bab-7eec-43c7-80a2-1f37fbca85d7</stp>
+        <tr r="G27" s="11"/>
+        <tr r="E18" s="11"/>
+        <tr r="E25" s="11"/>
+        <tr r="G18" s="11"/>
+        <tr r="G25" s="11"/>
+        <tr r="E24" s="11"/>
+        <tr r="E17" s="11"/>
+        <tr r="E28" s="11"/>
+        <tr r="G17" s="11"/>
+        <tr r="E20" s="11"/>
+        <tr r="E19" s="11"/>
+        <tr r="E21" s="11"/>
+        <tr r="G29" s="11"/>
+        <tr r="F20" s="11"/>
+        <tr r="G26" s="11"/>
+        <tr r="G21" s="11"/>
+        <tr r="F27" s="11"/>
+        <tr r="F19" s="11"/>
+        <tr r="E23" s="11"/>
+        <tr r="E22" s="11"/>
+        <tr r="E29" s="11"/>
+        <tr r="E26" s="11"/>
+        <tr r="G23" s="11"/>
+        <tr r="G19" s="11"/>
+        <tr r="G24" s="11"/>
+        <tr r="F24" s="11"/>
+        <tr r="F26" s="11"/>
+        <tr r="F23" s="11"/>
+        <tr r="E27" s="11"/>
+        <tr r="F25" s="11"/>
+        <tr r="F21" s="11"/>
+        <tr r="F18" s="11"/>
+        <tr r="G28" s="11"/>
+        <tr r="F28" s="11"/>
+        <tr r="F17" s="11"/>
+        <tr r="F29" s="11"/>
+        <tr r="G22" s="11"/>
+        <tr r="F22" s="11"/>
+        <tr r="G20" s="11"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>1977b163-c445-48f5-be77-f0873399e881</stp>
+        <tr r="N26" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>67793043-3234-447d-94ee-eecac677d5ca</stp>
+        <tr r="K35" s="13"/>
+        <tr r="H34" s="13"/>
+        <tr r="H35" s="13"/>
+        <tr r="G36" s="13"/>
+        <tr r="G35" s="13"/>
+        <tr r="H36" s="13"/>
+        <tr r="I35" s="13"/>
+        <tr r="G34" s="13"/>
+        <tr r="F36" s="13"/>
+        <tr r="J34" s="13"/>
+        <tr r="I34" s="13"/>
+        <tr r="J36" s="13"/>
+        <tr r="F35" s="13"/>
+        <tr r="K34" s="13"/>
+        <tr r="I36" s="13"/>
+        <tr r="F34" s="13"/>
+        <tr r="K36" s="13"/>
+        <tr r="J35" s="13"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0ba07f47-31c5-4307-a550-8ca47ad7fd0b</stp>
+        <tr r="M27" s="17"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>3185fd14-5361-423e-856c-5d765066938e</stp>
+        <tr r="N24" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>e8e91820-d060-437b-bb46-a214ee9f0079</stp>
+        <tr r="N29" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c961da18-0352-4010-8432-6ff469fc4b19</stp>
+        <tr r="N27" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>27dcb340-0803-4419-9268-c97550a06e5d</stp>
+        <tr r="M24" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>18a070c6-9d63-4f30-a2c0-e55dfce8a98e</stp>
+        <tr r="M25" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>048ed6a5-9a68-4d9c-8e7f-ede1a0ead4d4</stp>
+        <tr r="M28" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c3513c8c-606b-4e53-81c1-1b8326309c8d</stp>
+        <tr r="N28" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c1867b72-f5c5-459f-8bee-025817dd11b1</stp>
+        <tr r="G30" s="14"/>
+        <tr r="I30" s="14"/>
+        <tr r="G28" s="14"/>
+        <tr r="H30" s="14"/>
+        <tr r="J30" s="14"/>
+        <tr r="G29" s="14"/>
+        <tr r="I29" s="14"/>
+        <tr r="K30" s="14"/>
+        <tr r="F28" s="14"/>
+        <tr r="F30" s="14"/>
+        <tr r="H29" s="14"/>
+        <tr r="K28" s="14"/>
+        <tr r="J28" s="14"/>
+        <tr r="I28" s="14"/>
+        <tr r="K29" s="14"/>
+        <tr r="F29" s="14"/>
+        <tr r="H28" s="14"/>
+        <tr r="J29" s="14"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d9aa6c9c-fb11-4bab-b73d-bdd22841c357</stp>
+        <tr r="M22" s="17"/>
+        <tr r="N22" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>05775c0c-3209-4385-a86f-b29f8b105505</stp>
+        <tr r="N30" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>56693399-3a20-498f-8548-143b4e2226f0</stp>
+        <tr r="G28" s="10"/>
+        <tr r="J25" s="10"/>
+        <tr r="G24" s="10"/>
+        <tr r="J22" s="10"/>
+        <tr r="I21" s="10"/>
+        <tr r="J27" s="10"/>
+        <tr r="I28" s="10"/>
+        <tr r="G30" s="10"/>
+        <tr r="J26" s="10"/>
+        <tr r="F23" s="10"/>
+        <tr r="G21" s="10"/>
+        <tr r="H26" s="10"/>
+        <tr r="I24" s="10"/>
+        <tr r="I26" s="10"/>
+        <tr r="I30" s="10"/>
+        <tr r="H29" s="10"/>
+        <tr r="I29" s="10"/>
+        <tr r="J31" s="10"/>
+        <tr r="F24" s="10"/>
+        <tr r="H25" s="10"/>
+        <tr r="J30" s="10"/>
+        <tr r="F29" s="10"/>
+        <tr r="J24" s="10"/>
+        <tr r="H28" s="10"/>
+        <tr r="F27" s="10"/>
+        <tr r="I22" s="10"/>
+        <tr r="I27" s="10"/>
+        <tr r="F30" s="10"/>
+        <tr r="I25" s="10"/>
+        <tr r="J21" s="10"/>
+        <tr r="G25" s="10"/>
+        <tr r="I23" s="10"/>
+        <tr r="F21" s="10"/>
+        <tr r="G27" s="10"/>
+        <tr r="H23" s="10"/>
+        <tr r="G29" s="10"/>
+        <tr r="H22" s="10"/>
+        <tr r="H31" s="10"/>
+        <tr r="J23" s="10"/>
+        <tr r="F25" s="10"/>
+        <tr r="H21" s="10"/>
+        <tr r="F31" s="10"/>
+        <tr r="G31" s="10"/>
+        <tr r="F28" s="10"/>
+        <tr r="F22" s="10"/>
+        <tr r="G22" s="10"/>
+        <tr r="J28" s="10"/>
+        <tr r="I31" s="10"/>
+        <tr r="G26" s="10"/>
+        <tr r="G23" s="10"/>
+        <tr r="H27" s="10"/>
+        <tr r="F26" s="10"/>
+        <tr r="H24" s="10"/>
+        <tr r="J29" s="10"/>
+        <tr r="H30" s="10"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>cc8ab410-dc0f-45b8-b4df-3254e8ad1a65</stp>
+        <tr r="M26" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c4790b82-17cf-488e-8f14-7d2b1fa3f470</stp>
+        <tr r="M23" s="17"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b571f5f8-c662-4064-8e10-61553b29508c</stp>
         <tr r="M31" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>ca279f9c-3e0c-4fb7-b7c5-1e093a6d1bcb</stp>
-        <tr r="M24" s="17"/>
+        <stp>cd787768-734b-45b4-8025-449fee2ab6eb</stp>
+        <tr r="F42" s="20"/>
+        <tr r="L43" s="20"/>
+        <tr r="F43" s="20"/>
+        <tr r="J42" s="20"/>
+        <tr r="H42" s="20"/>
+        <tr r="G42" s="20"/>
+        <tr r="K42" s="20"/>
+        <tr r="G43" s="20"/>
+        <tr r="K43" s="20"/>
+        <tr r="L42" s="20"/>
+        <tr r="I42" s="20"/>
+        <tr r="J43" s="20"/>
+        <tr r="H43" s="20"/>
+        <tr r="I43" s="20"/>
       </tp>
     </main>
-    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>60b5e063-bb7a-4e71-b272-dc94ce5daa98</stp>
-        <tr r="M22" s="17"/>
-        <tr r="N22" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8522b8df-70ef-42e9-b230-53d7812b918d</stp>
-        <tr r="M28" s="17"/>
+        <stp>689f1921-d976-4d2a-98e0-dd790362f0ec</stp>
+        <tr r="M29" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>c5240d04-6a2a-412a-9ce9-45651707aa35</stp>
-        <tr r="M27" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>254a7417-71c0-4d0b-97da-4ef09baf164c</stp>
-        <tr r="M26" s="17"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>8fc2746e-0bc6-4fb4-88f5-28b9c04f4935</stp>
-        <tr r="N23" s="16"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>1b851d24-d423-40d8-a07d-cb22e791d9c2</stp>
-        <tr r="F29" s="14"/>
-        <tr r="G28" s="14"/>
-        <tr r="J30" s="14"/>
-        <tr r="K30" s="14"/>
-        <tr r="F28" s="14"/>
-        <tr r="I28" s="14"/>
-        <tr r="F30" s="14"/>
-        <tr r="G30" s="14"/>
-        <tr r="I30" s="14"/>
-        <tr r="I29" s="14"/>
-        <tr r="K28" s="14"/>
-        <tr r="K29" s="14"/>
-        <tr r="H28" s="14"/>
-        <tr r="H30" s="14"/>
-        <tr r="H29" s="14"/>
-        <tr r="J28" s="14"/>
-        <tr r="J29" s="14"/>
-        <tr r="G29" s="14"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>fabdc791-bebd-4068-a5f3-7587f67fff9d</stp>
-        <tr r="N30" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f8a64455-60f3-4705-ab8d-60f78647c960</stp>
-        <tr r="N28" s="16"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e0573e3b-e627-4647-ac21-19e443c88713</stp>
-        <tr r="N24" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>859dfc47-66cd-4db0-addb-10021f8ee460</stp>
-        <tr r="M29" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>47da3280-4fb8-4c80-bce1-505230dbd39a</stp>
-        <tr r="N29" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>39ad07fe-cb1c-414a-9b70-e94230d34f0c</stp>
-        <tr r="M25" s="17"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>4cc8c981-9216-4d17-a471-1afb36919abc</stp>
-        <tr r="M30" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>93b03581-da2f-4af5-9a54-e7acf3fb730f</stp>
-        <tr r="N27" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b4ab096c-c194-4d70-9688-cf60a5d03e48</stp>
-        <tr r="L42" s="20"/>
-        <tr r="F43" s="20"/>
-        <tr r="H43" s="20"/>
-        <tr r="F42" s="20"/>
-        <tr r="K43" s="20"/>
-        <tr r="G42" s="20"/>
-        <tr r="L43" s="20"/>
-        <tr r="J42" s="20"/>
-        <tr r="K42" s="20"/>
-        <tr r="I42" s="20"/>
-        <tr r="I43" s="20"/>
-        <tr r="J43" s="20"/>
-        <tr r="H42" s="20"/>
-        <tr r="G43" s="20"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e9cde9fb-7f17-4338-82b5-1c0c22738bb5</stp>
-        <tr r="F26" s="12"/>
-        <tr r="E28" s="12"/>
-        <tr r="G33" s="12"/>
-        <tr r="F25" s="12"/>
-        <tr r="F23" s="12"/>
-        <tr r="E30" s="12"/>
-        <tr r="G28" s="12"/>
-        <tr r="F29" s="12"/>
-        <tr r="E27" s="12"/>
-        <tr r="F28" s="12"/>
-        <tr r="F24" s="12"/>
-        <tr r="G23" s="12"/>
-        <tr r="G31" s="12"/>
-        <tr r="G30" s="12"/>
-        <tr r="G29" s="12"/>
-        <tr r="E29" s="12"/>
-        <tr r="E33" s="12"/>
-        <tr r="F31" s="12"/>
-        <tr r="G24" s="12"/>
-        <tr r="E24" s="12"/>
-        <tr r="G27" s="12"/>
-        <tr r="F27" s="12"/>
-        <tr r="F33" s="12"/>
-        <tr r="E26" s="12"/>
-        <tr r="E32" s="12"/>
-        <tr r="F30" s="12"/>
-        <tr r="G32" s="12"/>
-        <tr r="G26" s="12"/>
-        <tr r="E25" s="12"/>
-        <tr r="E31" s="12"/>
-        <tr r="E23" s="12"/>
-        <tr r="G25" s="12"/>
-        <tr r="F32" s="12"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9e485a87-4f72-4786-8c89-1fccc11b466b</stp>
-        <tr r="N26" s="16"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>393ee071-10f6-429b-a08e-084623a825c0</stp>
-        <tr r="H36" s="13"/>
-        <tr r="J35" s="13"/>
-        <tr r="J34" s="13"/>
-        <tr r="G36" s="13"/>
-        <tr r="F34" s="13"/>
-        <tr r="G35" s="13"/>
-        <tr r="K35" s="13"/>
-        <tr r="H34" s="13"/>
-        <tr r="I35" s="13"/>
-        <tr r="F35" s="13"/>
-        <tr r="H35" s="13"/>
-        <tr r="G34" s="13"/>
-        <tr r="I34" s="13"/>
-        <tr r="K36" s="13"/>
-        <tr r="K34" s="13"/>
-        <tr r="I36" s="13"/>
-        <tr r="F36" s="13"/>
-        <tr r="J36" s="13"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.779f36d3706147749a58e1383e92c483">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>7300f696-9d56-4190-920c-6f3605c31494</stp>
-        <tr r="I31" s="10"/>
-        <tr r="J28" s="10"/>
-        <tr r="I26" s="10"/>
-        <tr r="H29" s="10"/>
-        <tr r="I29" s="10"/>
-        <tr r="I27" s="10"/>
-        <tr r="J31" s="10"/>
-        <tr r="F30" s="10"/>
-        <tr r="G27" s="10"/>
-        <tr r="F25" s="10"/>
-        <tr r="G26" s="10"/>
-        <tr r="H26" s="10"/>
-        <tr r="I30" s="10"/>
-        <tr r="G30" s="10"/>
-        <tr r="H28" s="10"/>
-        <tr r="I25" s="10"/>
-        <tr r="H23" s="10"/>
-        <tr r="H21" s="10"/>
-        <tr r="G23" s="10"/>
-        <tr r="F29" s="10"/>
-        <tr r="I28" s="10"/>
-        <tr r="J26" s="10"/>
-        <tr r="F24" s="10"/>
-        <tr r="J21" s="10"/>
-        <tr r="G29" s="10"/>
-        <tr r="F31" s="10"/>
-        <tr r="H27" s="10"/>
-        <tr r="F27" s="10"/>
-        <tr r="G25" s="10"/>
-        <tr r="H22" s="10"/>
-        <tr r="G31" s="10"/>
-        <tr r="F26" s="10"/>
-        <tr r="J27" s="10"/>
-        <tr r="J25" s="10"/>
-        <tr r="H25" s="10"/>
-        <tr r="I23" s="10"/>
-        <tr r="H31" s="10"/>
-        <tr r="F28" s="10"/>
-        <tr r="H24" s="10"/>
-        <tr r="I24" s="10"/>
-        <tr r="G24" s="10"/>
-        <tr r="J23" s="10"/>
-        <tr r="F22" s="10"/>
-        <tr r="J29" s="10"/>
-        <tr r="J24" s="10"/>
-        <tr r="J22" s="10"/>
-        <tr r="F23" s="10"/>
-        <tr r="I22" s="10"/>
-        <tr r="G22" s="10"/>
-        <tr r="H30" s="10"/>
-        <tr r="G28" s="10"/>
-        <tr r="I21" s="10"/>
-        <tr r="G21" s="10"/>
-        <tr r="J30" s="10"/>
-        <tr r="F21" s="10"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9ab13324-b31f-4966-ac8e-b12b7101de1b</stp>
-        <tr r="M23" s="17"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>dd32a6f0-62af-473d-8919-4bf2c3de2829</stp>
-        <tr r="F27" s="11"/>
-        <tr r="F21" s="11"/>
-        <tr r="G19" s="11"/>
-        <tr r="G24" s="11"/>
-        <tr r="F19" s="11"/>
-        <tr r="F25" s="11"/>
-        <tr r="G22" s="11"/>
-        <tr r="E23" s="11"/>
-        <tr r="F26" s="11"/>
-        <tr r="E18" s="11"/>
-        <tr r="E28" s="11"/>
-        <tr r="F22" s="11"/>
-        <tr r="G27" s="11"/>
-        <tr r="E22" s="11"/>
-        <tr r="G20" s="11"/>
-        <tr r="G17" s="11"/>
-        <tr r="E29" s="11"/>
-        <tr r="E26" s="11"/>
-        <tr r="F18" s="11"/>
-        <tr r="E25" s="11"/>
-        <tr r="G21" s="11"/>
-        <tr r="E20" s="11"/>
-        <tr r="E21" s="11"/>
-        <tr r="G18" s="11"/>
-        <tr r="F24" s="11"/>
-        <tr r="G23" s="11"/>
-        <tr r="F23" s="11"/>
-        <tr r="G28" s="11"/>
-        <tr r="G25" s="11"/>
-        <tr r="E19" s="11"/>
-        <tr r="G29" s="11"/>
-        <tr r="F28" s="11"/>
-        <tr r="E24" s="11"/>
-        <tr r="F20" s="11"/>
-        <tr r="F17" s="11"/>
-        <tr r="E17" s="11"/>
-        <tr r="G26" s="11"/>
-        <tr r="E27" s="11"/>
-        <tr r="F29" s="11"/>
+        <stp>611ab6f3-d69c-4207-8730-d33441079cab</stp>
+        <tr r="N25" s="16"/>
       </tp>
     </main>
   </volType>
@@ -2911,35 +2921,35 @@
   </sheetPr>
   <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="50.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.73046875" style="23" customWidth="1"/>
     <col min="7" max="7" width="22" style="23" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" style="23" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="40.73046875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.59765625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" customWidth="1"/>
-    <col min="12" max="14" width="24.28515625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" style="23" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="23"/>
+    <col min="12" max="14" width="24.265625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="3.3984375" style="23" customWidth="1"/>
+    <col min="16" max="16" width="23.59765625" style="23" customWidth="1"/>
+    <col min="17" max="17" width="29.73046875" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.73046875" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.73046875" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2955,7 +2965,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
@@ -2973,7 +2983,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2989,7 +2999,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
@@ -3007,7 +3017,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
@@ -3025,7 +3035,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3043,7 +3053,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3061,7 +3071,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3079,7 +3089,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3095,7 +3105,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3115,7 +3125,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3131,7 +3141,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3152,7 +3162,7 @@
       <c r="O15" s="2"/>
       <c r="T15" s="27"/>
     </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3169,7 +3179,7 @@
       <c r="O16" s="2"/>
       <c r="T16" s="27"/>
     </row>
-    <row r="17" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3196,7 +3206,7 @@
       <c r="O17" s="2"/>
       <c r="T17" s="27"/>
     </row>
-    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3213,7 +3223,7 @@
       <c r="O18" s="2"/>
       <c r="T18" s="27"/>
     </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3240,7 +3250,7 @@
       <c r="O19" s="2"/>
       <c r="T19" s="27"/>
     </row>
-    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3257,7 +3267,7 @@
       <c r="O20" s="2"/>
       <c r="T20" s="27"/>
     </row>
-    <row r="21" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3282,7 +3292,7 @@
       <c r="O21" s="2"/>
       <c r="T21" s="27"/>
     </row>
-    <row r="22" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3299,7 +3309,7 @@
       <c r="O22" s="2"/>
       <c r="T22" s="27"/>
     </row>
-    <row r="23" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3325,7 +3335,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3341,7 +3351,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3362,7 +3372,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3378,7 +3388,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3399,7 +3409,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3415,7 +3425,7 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3436,7 +3446,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3452,7 +3462,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3491,31 +3501,31 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="23" customWidth="1"/>
-    <col min="7" max="11" width="18.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" style="23" customWidth="1"/>
+    <col min="7" max="11" width="18.265625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="23" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="23" customWidth="1"/>
-    <col min="18" max="19" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="23"/>
+    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" style="23" customWidth="1"/>
+    <col min="18" max="19" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3533,7 +3543,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
@@ -3553,7 +3563,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3571,7 +3581,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
@@ -3591,7 +3601,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
@@ -3611,7 +3621,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3631,7 +3641,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3651,7 +3661,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3671,7 +3681,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3694,7 +3704,7 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -3704,7 +3714,7 @@
       <c r="U11"/>
       <c r="V11"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3727,7 +3737,7 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="2:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:22" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
         <v>229</v>
@@ -3752,7 +3762,7 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3775,7 +3785,7 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3804,7 +3814,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3827,7 +3837,7 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3855,7 +3865,7 @@
       <c r="AC17"/>
       <c r="AD17"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3886,7 +3896,7 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="2:30" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:30" ht="21" x14ac:dyDescent="0.65">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
         <v>270</v>
@@ -3919,7 +3929,7 @@
       <c r="AC19"/>
       <c r="AD19"/>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3950,7 +3960,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3989,7 +3999,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4044,7 +4054,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
@@ -4096,7 +4106,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -4127,7 +4137,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
@@ -4158,7 +4168,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
@@ -4189,7 +4199,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
@@ -4220,7 +4230,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
@@ -4251,7 +4261,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -4282,7 +4292,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4313,7 +4323,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B31" s="5"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -4343,7 +4353,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.45">
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
@@ -4363,7 +4373,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
@@ -4378,7 +4388,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4410,7 +4420,7 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
@@ -4425,7 +4435,7 @@
       <c r="AC35"/>
       <c r="AD35"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -4440,7 +4450,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
@@ -4455,7 +4465,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
@@ -4470,7 +4480,7 @@
       <c r="AC38"/>
       <c r="AD38"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39"/>
@@ -4485,7 +4495,7 @@
       <c r="AC39"/>
       <c r="AD39"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
@@ -4500,7 +4510,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
@@ -4515,7 +4525,7 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
@@ -4530,7 +4540,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
@@ -4545,7 +4555,7 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R44"/>
       <c r="S44"/>
       <c r="T44"/>
@@ -4560,7 +4570,7 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
@@ -4575,7 +4585,7 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46"/>
@@ -4590,7 +4600,7 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47"/>
@@ -4605,7 +4615,7 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
@@ -4620,7 +4630,7 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
@@ -4635,7 +4645,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R50"/>
       <c r="S50"/>
       <c r="T50"/>
@@ -4650,7 +4660,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51"/>
@@ -4665,7 +4675,7 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R52"/>
       <c r="S52"/>
       <c r="T52"/>
@@ -4680,7 +4690,7 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
@@ -4695,7 +4705,7 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
@@ -4710,7 +4720,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55"/>
@@ -4762,29 +4772,29 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="18.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="18.265625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="14" max="14" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.59765625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4802,7 +4812,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
@@ -4822,7 +4832,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="2:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4840,7 +4850,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
@@ -4860,7 +4870,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
@@ -4880,7 +4890,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -4900,7 +4910,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -4920,7 +4930,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4940,7 +4950,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4958,7 +4968,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4984,7 +4994,7 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:25" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
         <v>229</v>
@@ -5012,7 +5022,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5038,7 +5048,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5070,7 +5080,7 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5096,7 +5106,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -5116,7 +5126,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -5142,7 +5152,7 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:25" ht="21" x14ac:dyDescent="0.65">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
         <v>271</v>
@@ -5170,7 +5180,7 @@
       <c r="X19"/>
       <c r="Y19"/>
     </row>
-    <row r="20" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:25" ht="21" x14ac:dyDescent="0.65">
       <c r="B20" s="2"/>
       <c r="C20" s="10"/>
       <c r="D20" s="2"/>
@@ -5188,7 +5198,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -5216,7 +5226,7 @@
       <c r="X21"/>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5250,7 +5260,7 @@
       <c r="X22"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5300,7 +5310,7 @@
       <c r="X23"/>
       <c r="Y23"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -5347,7 +5357,7 @@
       <c r="X24"/>
       <c r="Y24"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
@@ -5392,7 +5402,7 @@
       <c r="X25"/>
       <c r="Y25"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
@@ -5437,7 +5447,7 @@
       <c r="X26"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
@@ -5482,7 +5492,7 @@
       <c r="X27"/>
       <c r="Y27"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
@@ -5508,7 +5518,7 @@
       <c r="X28"/>
       <c r="Y28"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -5534,7 +5544,7 @@
       <c r="X29"/>
       <c r="Y29"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
@@ -5560,7 +5570,7 @@
       <c r="X30"/>
       <c r="Y30"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
@@ -5586,7 +5596,7 @@
       <c r="X31"/>
       <c r="Y31"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="9"/>
@@ -5612,7 +5622,7 @@
       <c r="X32"/>
       <c r="Y32"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="9"/>
@@ -5638,7 +5648,7 @@
       <c r="X33"/>
       <c r="Y33"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5664,7 +5674,7 @@
       <c r="X34"/>
       <c r="Y34"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B35" s="5"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -5675,7 +5685,7 @@
       <c r="X35"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.45">
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -5685,7 +5695,7 @@
       <c r="X36"/>
       <c r="Y36"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.45">
       <c r="Q43" s="22"/>
     </row>
   </sheetData>
@@ -5724,13 +5734,13 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5738,7 +5748,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -5746,7 +5756,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -5754,882 +5764,882 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B180" t="s">
         <v>179</v>
       </c>
@@ -6650,32 +6660,32 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.86328125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="23"/>
-    <col min="14" max="14" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.86328125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" style="23"/>
+    <col min="14" max="14" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.265625" style="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6688,7 +6698,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
@@ -6703,7 +6713,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6716,7 +6726,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
@@ -6731,7 +6741,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
@@ -6746,7 +6756,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -6761,7 +6771,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -6776,7 +6786,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -6791,7 +6801,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6804,7 +6814,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6819,7 +6829,7 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6835,7 +6845,7 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
         <v>267</v>
@@ -6850,7 +6860,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6863,7 +6873,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6876,7 +6886,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6889,7 +6899,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6912,18 +6922,18 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="18" t="str">
-        <v>Sedol</v>
+        <v>Figi</v>
       </c>
       <c r="F18" s="18" t="str">
-        <v>Instrument/default/Sedol</v>
+        <v>Instrument/default/Figi</v>
       </c>
       <c r="G18" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -6934,15 +6944,15 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
       <c r="E19" s="36" t="str">
-        <v>ShareClassFigi</v>
+        <v>RIC</v>
       </c>
       <c r="F19" s="18" t="str">
-        <v>Instrument/default/ShareClassFigi</v>
+        <v>Instrument/default/RIC</v>
       </c>
       <c r="G19" s="18" t="b">
         <v>0</v>
@@ -6956,18 +6966,18 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
       <c r="E20" s="36" t="str">
-        <v>CompositeFigi</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="F20" s="18" t="str">
-        <v>Instrument/default/CompositeFigi</v>
+        <v>Instrument/default/LusidInstrumentId</v>
       </c>
       <c r="G20" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -6978,7 +6988,7 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
@@ -7000,18 +7010,18 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="36" t="str">
-        <v>LusidInstrumentId</v>
+        <v>Sedol</v>
       </c>
       <c r="F22" s="18" t="str">
-        <v>Instrument/default/LusidInstrumentId</v>
+        <v>Instrument/default/Sedol</v>
       </c>
       <c r="G22" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -7022,15 +7032,15 @@
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="36" t="str">
-        <v>RIC</v>
+        <v>Wertpapier</v>
       </c>
       <c r="F23" s="18" t="str">
-        <v>Instrument/default/RIC</v>
+        <v>Instrument/default/Wertpapier</v>
       </c>
       <c r="G23" s="18" t="b">
         <v>0</v>
@@ -7044,18 +7054,18 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="36" t="str">
-        <v>Ticker</v>
+        <v>ClientInternal</v>
       </c>
       <c r="F24" s="18" t="str">
-        <v>Instrument/default/Ticker</v>
+        <v>Instrument/default/ClientInternal</v>
       </c>
       <c r="G24" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -7065,15 +7075,15 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="36" t="str">
-        <v>Cusip</v>
+        <v>ShareClassFigi</v>
       </c>
       <c r="F25" s="18" t="str">
-        <v>Instrument/default/Cusip</v>
+        <v>Instrument/default/ShareClassFigi</v>
       </c>
       <c r="G25" s="18" t="b">
         <v>0</v>
@@ -7084,18 +7094,18 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="36" t="str">
-        <v>Figi</v>
+        <v>Isin</v>
       </c>
       <c r="F26" s="18" t="str">
-        <v>Instrument/default/Figi</v>
+        <v>Instrument/default/Isin</v>
       </c>
       <c r="G26" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -7103,18 +7113,18 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="36" t="str">
-        <v>ClientInternal</v>
+        <v>Ticker</v>
       </c>
       <c r="F27" s="18" t="str">
-        <v>Instrument/default/ClientInternal</v>
+        <v>Instrument/default/Ticker</v>
       </c>
       <c r="G27" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -7122,15 +7132,15 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="36" t="str">
-        <v>Wertpapier</v>
+        <v>CompositeFigi</v>
       </c>
       <c r="F28" s="18" t="str">
-        <v>Instrument/default/Wertpapier</v>
+        <v>Instrument/default/CompositeFigi</v>
       </c>
       <c r="G28" s="18" t="b">
         <v>0</v>
@@ -7141,15 +7151,15 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="36" t="str">
-        <v>Isin</v>
+        <v>Cusip</v>
       </c>
       <c r="F29" s="18" t="str">
-        <v>Instrument/default/Isin</v>
+        <v>Instrument/default/Cusip</v>
       </c>
       <c r="G29" s="18" t="b">
         <v>0</v>
@@ -7160,7 +7170,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -7208,31 +7218,31 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" style="23" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="23"/>
-    <col min="13" max="13" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="23"/>
+    <col min="13" max="13" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="23"/>
+    <col min="20" max="23" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7244,7 +7254,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
@@ -7258,7 +7268,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7270,7 +7280,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
@@ -7284,7 +7294,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
@@ -7298,7 +7308,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -7312,7 +7322,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -7326,7 +7336,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -7340,7 +7350,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7352,7 +7362,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -7364,7 +7374,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.65">
       <c r="B14" s="2"/>
       <c r="C14" s="10" t="s">
         <v>266</v>
@@ -7378,7 +7388,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B15" s="2"/>
       <c r="C15" s="10"/>
       <c r="D15" s="2"/>
@@ -7390,7 +7400,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -7404,7 +7414,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -7418,7 +7428,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -7432,7 +7442,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -7444,7 +7454,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -7462,13 +7472,13 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="25">
         <f ca="1">NOW()</f>
-        <v>43718.477425925928</v>
+        <v>43739.51511388889</v>
       </c>
       <c r="F21" s="25">
         <v>43697</v>
@@ -7481,7 +7491,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -7493,7 +7503,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -7514,7 +7524,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
@@ -7526,18 +7536,18 @@
       </c>
       <c r="F24" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_0E6TTHI3</v>
+        <v>LUID_1IDOGL5H</v>
       </c>
       <c r="G24" s="18" t="str">
         <f ca="1"/>
-        <v>Whitebread_LondonStockEx_WTB</v>
+        <v>T 2.25% Apr 30, 2021</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
@@ -7549,18 +7559,18 @@
       </c>
       <c r="F25" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_0UK37N0H</v>
+        <v>LUID_2C7J9UP8</v>
       </c>
       <c r="G25" s="18" t="str">
         <f ca="1"/>
-        <v>Softbank</v>
+        <v>T 2.875% Nov 15, 2046</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
@@ -7572,18 +7582,18 @@
       </c>
       <c r="F26" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_121GQ8BO</v>
+        <v>LUID_388AOHMF</v>
       </c>
       <c r="G26" s="18" t="str">
         <f ca="1"/>
-        <v>EKFDiagnostics_LondonStockEx_EKF</v>
+        <v>GE 4.418% Nov 15, 2035</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
@@ -7595,18 +7605,18 @@
       </c>
       <c r="F27" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_1S3BM6W6</v>
+        <v>LUID_3IPLDPSN</v>
       </c>
       <c r="G27" s="18" t="str">
         <f ca="1"/>
-        <v>WHITBREAD</v>
+        <v>Walt Disney</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
@@ -7618,18 +7628,18 @@
       </c>
       <c r="F28" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_29EPTT74</v>
+        <v>LUID_3MI5BPOM</v>
       </c>
       <c r="G28" s="18" t="str">
         <f ca="1"/>
-        <v>CVS 5.05% Mar 25, 2048</v>
+        <v>NATIONAL GRID</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
@@ -7652,7 +7662,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
@@ -7675,7 +7685,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
@@ -7698,7 +7708,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
@@ -7721,7 +7731,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
@@ -7744,7 +7754,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -7779,32 +7789,32 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="23"/>
-    <col min="14" max="14" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.86328125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" style="23"/>
+    <col min="14" max="14" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.265625" style="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7817,7 +7827,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
@@ -7832,7 +7842,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7845,7 +7855,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
@@ -7860,7 +7870,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
@@ -7875,7 +7885,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -7890,7 +7900,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -7905,7 +7915,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -7920,7 +7930,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7933,7 +7943,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -7949,7 +7959,7 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
         <v>265</v>
@@ -7964,7 +7974,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -7977,7 +7987,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -7992,7 +8002,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -8007,7 +8017,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -8022,7 +8032,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -8035,7 +8045,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -8052,7 +8062,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -8065,7 +8075,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -8085,8 +8095,8 @@
       <c r="I21" s="33" t="str">
         <v>Figi</v>
       </c>
-      <c r="J21" s="33" t="str">
-        <v>ClientInternal</v>
+      <c r="J21" s="33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -8094,7 +8104,7 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9">
@@ -8107,7 +8117,7 @@
         <v>Active</v>
       </c>
       <c r="G22" s="18" t="str">
-        <v>LUID_RVXW0J4Z</v>
+        <v>LUID_52QAWPO6</v>
       </c>
       <c r="H22" s="35" t="str">
         <v>Apple</v>
@@ -8115,8 +8125,8 @@
       <c r="I22" s="35" t="str">
         <v>BBG000B9XRY4</v>
       </c>
-      <c r="J22" s="52" t="str">
-        <v>ExcelID1</v>
+      <c r="J22" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -8124,7 +8134,7 @@
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9">
@@ -8137,7 +8147,7 @@
         <v>Active</v>
       </c>
       <c r="G23" s="18" t="str">
-        <v>LUID_T2QB43BD</v>
+        <v>LUID_8M11ADAC</v>
       </c>
       <c r="H23" s="35" t="str">
         <v>JPMorgan Chase</v>
@@ -8145,8 +8155,8 @@
       <c r="I23" s="35" t="str">
         <v>BBG000DMBXR2</v>
       </c>
-      <c r="J23" s="52">
-        <v>0</v>
+      <c r="J23" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -8154,7 +8164,7 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9">
@@ -8167,7 +8177,7 @@
         <v>Active</v>
       </c>
       <c r="G24" s="18" t="str">
-        <v>LUID_XUE1ELEX</v>
+        <v>LUID_4JZB9MLP</v>
       </c>
       <c r="H24" s="35" t="str">
         <v>BP</v>
@@ -8175,8 +8185,8 @@
       <c r="I24" s="35" t="str">
         <v>BBG000C059M6</v>
       </c>
-      <c r="J24" s="52">
-        <v>0</v>
+      <c r="J24" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -8184,7 +8194,7 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9">
@@ -8197,7 +8207,7 @@
         <v>Active</v>
       </c>
       <c r="G25" s="18" t="str">
-        <v>LUID_DDZQNCD6</v>
+        <v>LUID_Z03VAEWV</v>
       </c>
       <c r="H25" s="35" t="str">
         <v>Anheuser-Busch InBev</v>
@@ -8205,8 +8215,8 @@
       <c r="I25" s="35" t="str">
         <v>BBG00DQ4YZ36</v>
       </c>
-      <c r="J25" s="52">
-        <v>0</v>
+      <c r="J25" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -8214,7 +8224,7 @@
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9">
@@ -8227,7 +8237,7 @@
         <v>Active</v>
       </c>
       <c r="G26" s="18" t="str">
-        <v>LUID_BVE0REZ5</v>
+        <v>LUID_WYX0SDPX</v>
       </c>
       <c r="H26" s="35" t="str">
         <v>Toyota Motor</v>
@@ -8235,8 +8245,8 @@
       <c r="I26" s="35" t="str">
         <v>BBG000BCM915</v>
       </c>
-      <c r="J26" s="52">
-        <v>0</v>
+      <c r="J26" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -8244,7 +8254,7 @@
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9">
@@ -8257,7 +8267,7 @@
         <v>Active</v>
       </c>
       <c r="G27" s="18" t="str">
-        <v>LUID_UX4RG8N5</v>
+        <v>LUID_F9FDBWL0</v>
       </c>
       <c r="H27" s="35" t="str">
         <v>Volkswagen</v>
@@ -8265,8 +8275,8 @@
       <c r="I27" s="35" t="str">
         <v>BBG000BCH458</v>
       </c>
-      <c r="J27" s="52">
-        <v>0</v>
+      <c r="J27" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -8274,7 +8284,7 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9">
@@ -8287,7 +8297,7 @@
         <v>Active</v>
       </c>
       <c r="G28" s="18" t="str">
-        <v>LUID_HP2NME8I</v>
+        <v>LUID_816OBQZV</v>
       </c>
       <c r="H28" s="35" t="str">
         <v>HSBC Holdings</v>
@@ -8295,15 +8305,15 @@
       <c r="I28" s="35" t="str">
         <v>BBG000BS1MT4</v>
       </c>
-      <c r="J28" s="52">
-        <v>0</v>
+      <c r="J28" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9">
@@ -8316,7 +8326,7 @@
         <v>Active</v>
       </c>
       <c r="G29" s="18" t="str">
-        <v>LUID_9SBVLHHA</v>
+        <v>LUID_3IPLDPSN</v>
       </c>
       <c r="H29" s="35" t="str">
         <v>Walt Disney</v>
@@ -8324,13 +8334,13 @@
       <c r="I29" s="35" t="str">
         <v>BBG000BH4R78</v>
       </c>
-      <c r="J29" s="52" t="str">
-        <v>ExcelID22</v>
+      <c r="J29" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9">
@@ -8343,7 +8353,7 @@
         <v>Active</v>
       </c>
       <c r="G30" s="18" t="str">
-        <v>LUID_JFJASSYO</v>
+        <v>LUID_UW1XTP85</v>
       </c>
       <c r="H30" s="35" t="str">
         <v>Microsoft</v>
@@ -8351,13 +8361,13 @@
       <c r="I30" s="35" t="str">
         <v>BBG000BPH459</v>
       </c>
-      <c r="J30" s="52">
-        <v>0</v>
+      <c r="J30" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9">
@@ -8370,7 +8380,7 @@
         <v>Active</v>
       </c>
       <c r="G31" s="18" t="str">
-        <v>LUID_0UK37N0H</v>
+        <v>LUID_A18IZK18</v>
       </c>
       <c r="H31" s="35" t="str">
         <v>Softbank</v>
@@ -8378,13 +8388,13 @@
       <c r="I31" s="35" t="str">
         <v>BBG000CLY2D3</v>
       </c>
-      <c r="J31" s="52">
-        <v>0</v>
+      <c r="J31" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -8432,32 +8442,32 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
     <col min="11" max="12" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="23"/>
-    <col min="15" max="15" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.73046875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" style="23"/>
+    <col min="15" max="15" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.265625" style="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="23"/>
+    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8471,7 +8481,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
@@ -8487,7 +8497,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -8501,7 +8511,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
@@ -8517,7 +8527,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
@@ -8533,7 +8543,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -8549,7 +8559,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -8565,7 +8575,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -8581,7 +8591,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8595,7 +8605,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -8610,7 +8620,7 @@
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -8624,7 +8634,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
         <v>246</v>
@@ -8640,7 +8650,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B14" s="2"/>
       <c r="C14" s="10"/>
       <c r="D14" s="2"/>
@@ -8654,7 +8664,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="21" x14ac:dyDescent="0.65">
       <c r="B15" s="2"/>
       <c r="C15" s="10"/>
       <c r="D15" s="2"/>
@@ -8670,7 +8680,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B16" s="2"/>
       <c r="C16" s="10"/>
       <c r="D16" s="2"/>
@@ -8686,7 +8696,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -8703,7 +8713,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -8729,7 +8739,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -8743,7 +8753,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -8771,7 +8781,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
@@ -8796,7 +8806,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -8810,7 +8820,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
@@ -8838,7 +8848,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -8863,7 +8873,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
@@ -8877,7 +8887,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -8891,7 +8901,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" ht="21" x14ac:dyDescent="0.65">
       <c r="B28" s="2"/>
       <c r="C28" s="10" t="s">
         <v>247</v>
@@ -8907,7 +8917,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B29" s="2"/>
       <c r="C29" s="10"/>
       <c r="D29" s="2"/>
@@ -8921,7 +8931,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -8937,7 +8947,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -8951,7 +8961,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -8969,7 +8979,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -8983,7 +8993,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -9003,8 +9013,8 @@
       <c r="I34" s="8" t="str">
         <v>Figi</v>
       </c>
-      <c r="J34" s="8" t="str">
-        <v>ClientInternal</v>
+      <c r="J34" s="8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K34" s="8" t="e">
         <v>#N/A</v>
@@ -9012,7 +9022,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="9"/>
@@ -9024,7 +9034,7 @@
         <v>Active</v>
       </c>
       <c r="G35" s="13" t="str">
-        <v>LUID_RVXW0J4Z</v>
+        <v>LUID_52QAWPO6</v>
       </c>
       <c r="H35" s="16" t="str">
         <v>Apple</v>
@@ -9032,8 +9042,8 @@
       <c r="I35" s="16" t="str">
         <v>BBG000B9XRY4</v>
       </c>
-      <c r="J35" s="17" t="str">
-        <v>ExcelID1</v>
+      <c r="J35" s="17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K35" s="17" t="e">
         <v>#N/A</v>
@@ -9041,7 +9051,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="9"/>
@@ -9053,7 +9063,7 @@
         <v>Active</v>
       </c>
       <c r="G36" s="13" t="str">
-        <v>LUID_9SBVLHHA</v>
+        <v>LUID_3IPLDPSN</v>
       </c>
       <c r="H36" s="16" t="str">
         <v>Walt Disney</v>
@@ -9061,8 +9071,8 @@
       <c r="I36" s="16" t="str">
         <v>BBG000BH4R78</v>
       </c>
-      <c r="J36" s="17" t="str">
-        <v>ExcelID22</v>
+      <c r="J36" s="17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K36" s="17" t="e">
         <v>#N/A</v>
@@ -9070,7 +9080,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="9"/>
@@ -9084,7 +9094,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="37"/>
@@ -9098,7 +9108,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -9112,7 +9122,7 @@
       <c r="L39"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -9126,7 +9136,7 @@
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -9140,7 +9150,7 @@
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -9154,7 +9164,7 @@
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -9168,7 +9178,7 @@
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -9182,7 +9192,7 @@
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -9196,7 +9206,7 @@
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -9210,7 +9220,7 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -9224,7 +9234,7 @@
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="37"/>
@@ -9278,32 +9288,32 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
     <col min="11" max="12" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="23"/>
-    <col min="15" max="15" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.59765625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" style="23"/>
+    <col min="15" max="15" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.265625" style="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="23"/>
+    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9317,7 +9327,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
@@ -9333,7 +9343,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9347,7 +9357,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
@@ -9363,7 +9373,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
@@ -9379,7 +9389,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -9395,7 +9405,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -9411,7 +9421,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -9427,7 +9437,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -9441,7 +9451,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9455,7 +9465,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
         <v>240</v>
@@ -9471,7 +9481,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9487,7 +9497,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9501,7 +9511,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -9517,7 +9527,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
@@ -9531,7 +9541,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
@@ -9559,7 +9569,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
@@ -9582,7 +9592,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
@@ -9596,7 +9606,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -9610,7 +9620,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.65">
       <c r="B23" s="2"/>
       <c r="C23" s="10" t="s">
         <v>242</v>
@@ -9626,7 +9636,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -9642,7 +9652,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -9656,7 +9666,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -9674,7 +9684,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -9688,7 +9698,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -9708,16 +9718,16 @@
       <c r="I28" s="8" t="str">
         <v>Ticker</v>
       </c>
-      <c r="J28" s="8" t="str">
-        <v>ClientInternal</v>
-      </c>
-      <c r="K28" s="8" t="str">
-        <v>Figi</v>
+      <c r="J28" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K28" s="8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -9726,42 +9736,42 @@
         <v>BBG007FAKECO</v>
       </c>
       <c r="F29" s="13" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G29" s="13" t="str">
-        <v>LUID_A9RLV8U6</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H29" s="16" t="str">
-        <v>Spectre</v>
-      </c>
-      <c r="I29" s="16">
-        <v>0</v>
-      </c>
-      <c r="J29" s="17" t="str">
-        <v>NewInst14</v>
-      </c>
-      <c r="K29" s="50" t="str">
-        <v>BBG007FAKECO</v>
+        <v>Name</v>
+      </c>
+      <c r="I29" s="16" t="str">
+        <v>Ticker</v>
+      </c>
+      <c r="J29" s="17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K29" s="50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I30" s="2" t="e">
-        <v>#N/A</v>
+      <c r="F30" s="2" t="str">
+        <v>State</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <v>LusidInstrumentId</v>
+      </c>
+      <c r="H30" s="2" t="str">
+        <v>Name</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <v>Ticker</v>
       </c>
       <c r="J30" s="2" t="e">
         <v>#N/A</v>
@@ -9772,7 +9782,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
@@ -9820,37 +9830,37 @@
   </sheetPr>
   <dimension ref="B1:N46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.265625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="23"/>
-    <col min="15" max="15" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.59765625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" style="23"/>
+    <col min="15" max="15" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.265625" style="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="23"/>
+    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9864,7 +9874,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
@@ -9880,7 +9890,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9894,7 +9904,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
@@ -9910,7 +9920,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
@@ -9926,7 +9936,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
@@ -9942,7 +9952,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -9958,7 +9968,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -9974,7 +9984,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -9990,7 +10000,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9"/>
@@ -9999,7 +10009,7 @@
         <v>OK</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -10010,7 +10020,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="9"/>
@@ -10039,7 +10049,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.65">
       <c r="B14" s="2"/>
       <c r="C14" s="10" t="s">
         <v>295</v>
@@ -10056,7 +10066,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
@@ -10073,7 +10083,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="9"/>
@@ -10099,13 +10109,13 @@
         <v>287</v>
       </c>
       <c r="L16" s="6" t="str">
-        <f t="array" ref="L16:L18">_xll.flPropertiesAdd(E16:K18)</f>
+        <f t="array" ref="L16:L19">_xll.flPropertiesAdd(E16:K19)</f>
         <v>Keys</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
@@ -10137,7 +10147,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
@@ -10168,22 +10178,38 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="51"/>
+      <c r="E19" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="H19" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="L19" s="51" t="str">
+        <v>Error creating Property Definition 'Transaction/Finbourne-Examples/IsThisATestTrade' because it already exists.</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
@@ -10198,7 +10224,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
@@ -10213,7 +10239,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -10228,7 +10254,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
@@ -10243,7 +10269,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -10258,7 +10284,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
@@ -10278,7 +10304,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
@@ -10301,7 +10327,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.65">
       <c r="B28" s="2"/>
       <c r="C28" s="10" t="s">
         <v>304</v>
@@ -10318,7 +10344,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -10335,7 +10361,7 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10360,7 +10386,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9">
@@ -10391,7 +10417,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="9">
@@ -10408,7 +10434,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="9">
@@ -10425,7 +10451,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="9"/>
@@ -10440,7 +10466,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="9"/>
@@ -10455,7 +10481,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -10470,7 +10496,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.65">
       <c r="B37" s="2"/>
       <c r="C37" s="10" t="s">
         <v>303</v>
@@ -10487,7 +10513,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
@@ -10504,7 +10530,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -10519,7 +10545,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -10538,7 +10564,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -10553,7 +10579,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -10571,21 +10597,21 @@
         <v>Name</v>
       </c>
       <c r="I42" s="8" t="str">
+        <v>PlanType</v>
+      </c>
+      <c r="J42" s="8" t="str">
         <v>TakeOverDate</v>
       </c>
-      <c r="J42" s="8" t="str">
-        <v>PlanType</v>
-      </c>
-      <c r="K42" s="8" t="str">
-        <v>ClientInternal</v>
-      </c>
-      <c r="L42" s="8" t="str">
-        <v>Figi</v>
+      <c r="K42" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L42" s="8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="9"/>
@@ -10594,30 +10620,30 @@
         <v>LUID_A9RLV8U6</v>
       </c>
       <c r="F43" s="42" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G43" s="42" t="str">
-        <v>LUID_A9RLV8U6</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H43" s="41" t="str">
-        <v>Spectre</v>
+        <v>Name</v>
       </c>
       <c r="I43" s="41" t="str">
-        <v>2028/12/01T00:00:00.00</v>
+        <v>PlanType</v>
       </c>
       <c r="J43" s="41" t="str">
-        <v>Laser from satellite</v>
-      </c>
-      <c r="K43" s="41" t="str">
-        <v>NewInst14</v>
-      </c>
-      <c r="L43" s="50" t="str">
-        <v>BBG007FAKECO</v>
+        <v>TakeOverDate</v>
+      </c>
+      <c r="K43" s="41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L43" s="50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="9"/>
@@ -10632,7 +10658,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="9"/>
@@ -10647,7 +10673,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="9"/>
@@ -10663,34 +10689,23 @@
       <c r="N46" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="27">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="LifeTime" sqref="K16" xr:uid="{E7540E92-E5BE-4552-BF9C-DBFEE096FB3D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DataTypeId" sqref="J16" xr:uid="{9DF3B153-0F3B-469A-9200-5B6DE7B37C11}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DisplayName" sqref="I16" xr:uid="{B4F6905F-0F6E-454B-8D5A-DE90891032B9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ValueRequired" sqref="H16" xr:uid="{7DD8BA18-A28C-4E41-A74B-A6C2DAB47D7E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Code" sqref="G16" xr:uid="{4B063AB7-7753-4C5D-8D43-C8FF9EF43328}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Scope" sqref="F16" xr:uid="{7B2DCFD6-DE2A-4DD9-91A8-A03CF34D8212}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Domain" sqref="E16" xr:uid="{D6668F53-E37A-4C9A-8F06-9EFDC70FF4B2}"/>
+  <dataValidations count="16">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="LifeTime" sqref="K16 K13" xr:uid="{E7540E92-E5BE-4552-BF9C-DBFEE096FB3D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DataTypeId" sqref="J16 J13" xr:uid="{9DF3B153-0F3B-469A-9200-5B6DE7B37C11}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DisplayName" sqref="I16 I13" xr:uid="{B4F6905F-0F6E-454B-8D5A-DE90891032B9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ValueRequired" sqref="H16 H13" xr:uid="{7DD8BA18-A28C-4E41-A74B-A6C2DAB47D7E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Code" sqref="G16 G13" xr:uid="{4B063AB7-7753-4C5D-8D43-C8FF9EF43328}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Scope" sqref="F16 F13" xr:uid="{7B2DCFD6-DE2A-4DD9-91A8-A03CF34D8212}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Domain" sqref="E16 E13" xr:uid="{D6668F53-E37A-4C9A-8F06-9EFDC70FF4B2}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="EffectiveFrom" sqref="Q17" xr:uid="{24A97234-1260-44ED-B57D-A9A5CDFE549A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="SecurityUid" sqref="P17" xr:uid="{98DF1528-AB19-418D-8363-FCCF64C101A6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The unique Lusid Instrument Identifier (LUID) of the instrument to update or insert properties on." sqref="L35 O36" xr:uid="{5F7002E7-75EE-451D-8512-06F52438E5BA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime from which the property is valid" sqref="M35 P36 G36" xr:uid="{5461AD21-5889-4A6D-9EF8-C2F9E2313963}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Replace this with your custom properties; here and in the columns to the right [Set of unique instrument properties and associated values to store with the instrument. Each property must be from the 'Instrument' domain.]" sqref="N35 Q36 H36" xr:uid="{2A9A010A-6017-49BD-AEE0-081D3CADD4D4}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The instrument identifier type." sqref="E36" xr:uid="{4374EB16-DCB5-4C88-87AB-2DEDE8518DD5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The unique instrument identifier of the instrument to update or insert properties on." sqref="F36" xr:uid="{4CC13194-FA28-4F34-A9A8-89FE1E4D6517}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime from which the property is valid" sqref="M35 P36 G36 G27" xr:uid="{5461AD21-5889-4A6D-9EF8-C2F9E2313963}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Replace this with your custom properties; here and in the columns to the right [Set of unique instrument properties and associated values to store with the instrument. Each property must be from the 'Instrument' domain.]" sqref="N35 Q36 H36 H27" xr:uid="{2A9A010A-6017-49BD-AEE0-081D3CADD4D4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The instrument identifier type." sqref="E36 E27" xr:uid="{4374EB16-DCB5-4C88-87AB-2DEDE8518DD5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The unique instrument identifier of the instrument to update or insert properties on." sqref="F36 F27" xr:uid="{4CC13194-FA28-4F34-A9A8-89FE1E4D6517}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The content of the expanded definition. There is no validation on the format of this." sqref="J27" xr:uid="{B17764F2-0C34-422E-BE14-227E429FB3CB}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The format of the expanded definition." sqref="I27" xr:uid="{82F01F84-21EF-4F43-A9D7-A6A394AE18BB}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The instrument identifier type." sqref="E27" xr:uid="{C58E0E4E-4CE0-408E-8ACE-90D2FD3DAAF0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The unique instrument identifier of the instrument to update or insert properties on." sqref="F27" xr:uid="{7AD6046B-EABB-4A6B-A667-50450DD3207D}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime from which the property is valid" sqref="G27" xr:uid="{02E2C89D-A54E-4478-AD8E-E1609667735A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Replace this with your custom properties; here and in the columns to the right [Set of unique instrument properties and associated values to store with the instrument. Each property must be from the 'Instrument' domain.]" sqref="H27" xr:uid="{38C3D282-32C5-47B2-8F8A-DD0114CD64DC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Domain" sqref="E13" xr:uid="{D52AB31C-C372-4BA4-9B91-60ED7BE937D9}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Scope" sqref="F13" xr:uid="{E17E1A74-67FD-4259-AA6D-43A4F125D65F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Code" sqref="G13" xr:uid="{F8387888-3242-4EBF-B814-3CEC89BA1939}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ValueRequired" sqref="H13" xr:uid="{5A37A396-448B-4925-B797-2084F8FDA6FC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DisplayName" sqref="I13" xr:uid="{B2D0A61E-A1EF-475D-8099-E5572A527286}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="DataTypeId" sqref="J13" xr:uid="{EA368FFF-F58E-4FBB-9234-06D15EB562AB}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="LifeTime" sqref="K13" xr:uid="{E37AADCD-69AA-46EB-8FFD-1C620AF704DA}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{D5E1FEFA-AE04-4FB3-8E4A-D3598E42A3B1}"/>
@@ -10714,30 +10729,30 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="23" customWidth="1"/>
-    <col min="7" max="10" width="18.28515625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" style="23" customWidth="1"/>
+    <col min="7" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="22.73046875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="11.265625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -10752,7 +10767,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
@@ -10769,7 +10784,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -10784,7 +10799,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
@@ -10801,7 +10816,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
@@ -10818,7 +10833,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -10835,7 +10850,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -10852,7 +10867,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -10876,7 +10891,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -10898,7 +10913,7 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -10909,7 +10924,7 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -10931,7 +10946,7 @@
       <c r="T12"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
         <v>229</v>
@@ -10955,7 +10970,7 @@
       <c r="T13"/>
       <c r="U13"/>
     </row>
-    <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -10977,7 +10992,7 @@
       <c r="T14"/>
       <c r="U14"/>
     </row>
-    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11005,7 +11020,7 @@
       <c r="T15"/>
       <c r="U15"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -11027,7 +11042,7 @@
       <c r="T16"/>
       <c r="U16"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -11048,7 +11063,7 @@
       <c r="T17"/>
       <c r="U17"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -11070,7 +11085,7 @@
       <c r="T18"/>
       <c r="U18"/>
     </row>
-    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.65">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
         <v>217</v>
@@ -11094,7 +11109,7 @@
       <c r="T19"/>
       <c r="U19"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -11116,7 +11131,7 @@
       <c r="T20"/>
       <c r="U20"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -11159,7 +11174,7 @@
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -11184,9 +11199,9 @@
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
-      <c r="N22" s="51">
+      <c r="N22" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,L22,M22)</f>
-        <v>100</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22"/>
@@ -11197,7 +11212,7 @@
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
@@ -11223,9 +11238,9 @@
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
-      <c r="N23" s="51">
+      <c r="N23" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,L23,M23)</f>
-        <v>199.25</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23"/>
@@ -11236,7 +11251,7 @@
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -11262,9 +11277,9 @@
       </c>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
-      <c r="N24" s="51">
+      <c r="N24" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,L24,M24)</f>
-        <v>203.13</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24"/>
@@ -11275,7 +11290,7 @@
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
@@ -11301,9 +11316,9 @@
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="51">
+      <c r="N25" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,L25,M25)</f>
-        <v>203.86</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25"/>
@@ -11314,7 +11329,7 @@
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
@@ -11340,9 +11355,9 @@
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
-      <c r="N26" s="51">
+      <c r="N26" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,L26,M26)</f>
-        <v>203.86</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26"/>
@@ -11350,7 +11365,7 @@
       <c r="R26"/>
       <c r="S26"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
@@ -11376,9 +11391,9 @@
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
-      <c r="N27" s="51">
+      <c r="N27" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,L27,M27)</f>
-        <v>203.86</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27"/>
@@ -11386,7 +11401,7 @@
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
@@ -11412,9 +11427,9 @@
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
-      <c r="N28" s="51">
+      <c r="N28" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,L28,M28)</f>
-        <v>203.86</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28"/>
@@ -11422,7 +11437,7 @@
       <c r="R28"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -11448,9 +11463,9 @@
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
-      <c r="N29" s="51">
+      <c r="N29" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,L29,M29)</f>
-        <v>204.53</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29"/>
@@ -11458,7 +11473,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
@@ -11484,9 +11499,9 @@
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
-      <c r="N30" s="51">
+      <c r="N30" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,L30,M30)</f>
-        <v>207.48</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30"/>
@@ -11494,7 +11509,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
@@ -11514,7 +11529,7 @@
       <c r="R31"/>
       <c r="S31"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -11534,25 +11549,25 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="34" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
     </row>
-    <row r="37" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
@@ -11581,30 +11596,30 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="23" customWidth="1"/>
-    <col min="7" max="10" width="18.28515625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="20.86328125" style="23" customWidth="1"/>
+    <col min="7" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="22.73046875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1328125" style="23" customWidth="1"/>
     <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="23" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="14" max="14" width="4.59765625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -11619,7 +11634,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
@@ -11636,7 +11651,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -11651,7 +11666,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
@@ -11668,7 +11683,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
@@ -11685,7 +11700,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -11702,7 +11717,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -11719,7 +11734,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -11736,7 +11751,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -11751,7 +11766,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -11766,7 +11781,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
         <v>229</v>
@@ -11783,7 +11798,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -11798,7 +11813,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11819,7 +11834,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -11834,7 +11849,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -11846,7 +11861,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -11861,7 +11876,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.65">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
         <v>217</v>
@@ -11878,7 +11893,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -11893,7 +11908,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -11929,7 +11944,7 @@
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -11953,16 +11968,16 @@
         <v>43570</v>
       </c>
       <c r="L22" s="20"/>
-      <c r="M22" s="51">
+      <c r="M22" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,F22,L22)</f>
-        <v>100</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N22" s="2"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
@@ -11986,16 +12001,16 @@
         <v>43571</v>
       </c>
       <c r="L23" s="17"/>
-      <c r="M23" s="51">
+      <c r="M23" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,F23,L23)</f>
-        <v>111.1</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N23" s="2"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -12019,16 +12034,16 @@
         <v>43572</v>
       </c>
       <c r="L24" s="17"/>
-      <c r="M24" s="51">
+      <c r="M24" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,F24,L24)</f>
-        <v>78.36</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N24" s="2"/>
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
@@ -12052,9 +12067,9 @@
         <v>43573</v>
       </c>
       <c r="L25" s="17"/>
-      <c r="M25" s="51">
+      <c r="M25" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,F25,L25)</f>
-        <v>166.6</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N25" s="2"/>
       <c r="P25"/>
@@ -12062,7 +12077,7 @@
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
@@ -12086,14 +12101,14 @@
         <v>43574</v>
       </c>
       <c r="L26" s="17"/>
-      <c r="M26" s="51">
+      <c r="M26" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,F26,L26)</f>
-        <v>666.5</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N26" s="2"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
@@ -12117,14 +12132,14 @@
         <v>43575</v>
       </c>
       <c r="L27" s="17"/>
-      <c r="M27" s="51">
+      <c r="M27" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,F27,L27)</f>
-        <v>132.44999999999999</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N27" s="2"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
@@ -12148,14 +12163,14 @@
         <v>43576</v>
       </c>
       <c r="L28" s="17"/>
-      <c r="M28" s="51">
+      <c r="M28" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,F28,L28)</f>
-        <v>123.37</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N28" s="2"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -12179,14 +12194,14 @@
         <v>43577</v>
       </c>
       <c r="L29" s="17"/>
-      <c r="M29" s="51">
+      <c r="M29" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,F29,L29)</f>
-        <v>6963</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N29" s="2"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
@@ -12210,14 +12225,14 @@
         <v>43578</v>
       </c>
       <c r="L30" s="17"/>
-      <c r="M30" s="51">
+      <c r="M30" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,F30,L30)</f>
-        <v>582.5</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N30" s="2"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
@@ -12241,14 +12256,14 @@
         <v>43579</v>
       </c>
       <c r="L31" s="17"/>
-      <c r="M31" s="51">
+      <c r="M31" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E31,G31,H31,I31,J31,K31,F31,L31)</f>
-        <v>11550</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N31" s="2"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -12264,10 +12279,10 @@
       <c r="N32" s="2"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P33"/>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P34"/>
     </row>
   </sheetData>
@@ -12283,6 +12298,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F4F0FA1AC8B142BA5BFAEE01329AF1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51d44e6750016a81140edd9302933050">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7f1325bc-d786-4e92-924e-74ffe34b2b40" xmlns:ns3="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbbf5b69800df541767d824f3fbf5177" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12508,26 +12542,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
+    <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EDF347-3168-4BEB-9A6E-9322773C07F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12545,30 +12586,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
-    <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LUSID Excel - Setting up your market data.xlsx
+++ b/LUSID Excel - Setting up your market data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F7AC6C-CB33-4EE6-BCEE-5E4F42A0890F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445D62FA-1A9F-41EC-9D3C-AF9FC39F8181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5047" yWindow="-16297" windowWidth="28995" windowHeight="15794" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Datetime format" sheetId="21" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="345">
   <si>
     <t>Base Currency</t>
   </si>
@@ -834,355 +834,367 @@
     <t>Spectre</t>
   </si>
   <si>
+    <t>Here we can load back our created instrument from LUSID</t>
+  </si>
+  <si>
+    <t>This function returns all instruments created before a specified AsAt or EffectiveDate</t>
+  </si>
+  <si>
+    <t>AsAt</t>
+  </si>
+  <si>
+    <t>N.B AsAt is the system datetime when you last changed an instrument, EffectiveDate needs to have been specified at the instrument level to be searchable</t>
+  </si>
+  <si>
+    <t>Step 1: Specify the scope</t>
+  </si>
+  <si>
+    <t>As part of the instrument mastering, the name of the instrument has been added as</t>
+  </si>
+  <si>
+    <t>Instrument identifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to view instrument identifiers</t>
+  </si>
+  <si>
+    <t>View instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to view all mastered instruments</t>
+  </si>
+  <si>
+    <t>A limit to the size of the results set will be available soon</t>
+  </si>
+  <si>
+    <t>View instrument reference data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to view instrument reference data</t>
+  </si>
+  <si>
+    <t>an instrument property, as a Instrument/default/Ticker. This is recoverable when you ask for instruments</t>
+  </si>
+  <si>
+    <t>We will add more instrument properties here as they are available</t>
+  </si>
+  <si>
+    <t>Step 1: Add an instrument</t>
+  </si>
+  <si>
+    <t>In this step we are adding a new instrument</t>
+  </si>
+  <si>
+    <t>Step 2: View created instrument</t>
+  </si>
+  <si>
+    <t>Here we can load our created instrument from LUSID</t>
+  </si>
+  <si>
+    <t>Amend instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to amend your instrument data</t>
+  </si>
+  <si>
+    <t>Step 1: Amend an instrument</t>
+  </si>
+  <si>
+    <t>Step 2: View amended instrument</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>View market quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet shows you how to view quotes on an instrument by date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet shows you how to view quotes on a date for various instruments</t>
+  </si>
+  <si>
+    <t>Datetimes in LUSID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to format datetimes for use with LUSID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you have any questions please visit our:</t>
+  </si>
+  <si>
+    <t>Getting Started tutorials</t>
+  </si>
+  <si>
+    <t>Knowledge Base articles</t>
+  </si>
+  <si>
+    <t>or Contact us</t>
+  </si>
+  <si>
+    <t>Enter the date to convert</t>
+  </si>
+  <si>
+    <t>This date has no time component</t>
+  </si>
+  <si>
+    <t>Specify time component</t>
+  </si>
+  <si>
+    <t>Add to your date and display the complete datetime</t>
+  </si>
+  <si>
+    <t>Although the date can still appears without time</t>
+  </si>
+  <si>
+    <t>Amend market data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to amend market data in LUSID</t>
+  </si>
+  <si>
+    <t>Get a selection of instruments and their reference data</t>
+  </si>
+  <si>
+    <t>Get all instruments from your LUSID domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Get a list of instrument identifiers</t>
+  </si>
+  <si>
+    <t>Create market data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to add in your own market data in LUSID</t>
+  </si>
+  <si>
+    <t>Step 2: Amend some of the quotes from previous tabs</t>
+  </si>
+  <si>
+    <t>Step 2: Add in your own market data</t>
+  </si>
+  <si>
+    <t>InstrumentType</t>
+  </si>
+  <si>
+    <t>EffectiveAt</t>
+  </si>
+  <si>
+    <t>Lineage</t>
+  </si>
+  <si>
+    <t>AddQuote</t>
+  </si>
+  <si>
+    <t>LiveSource</t>
+  </si>
+  <si>
+    <t>The function fbnQuotesAdd allows for a table of quotes to be added with one call</t>
+  </si>
+  <si>
+    <t>FinbourneMarketData</t>
+  </si>
+  <si>
+    <t>Then populate the property, before recovering the property</t>
+  </si>
+  <si>
+    <t>If you have any questions please visit our:</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>ValueRequired</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>DataTypeId</t>
+  </si>
+  <si>
+    <t>LifeTime</t>
+  </si>
+  <si>
+    <t>system:string</t>
+  </si>
+  <si>
+    <t>TimeVariant</t>
+  </si>
+  <si>
+    <t>system:date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to create and add an instrument</t>
+  </si>
+  <si>
+    <t>Add a new instrument</t>
+  </si>
+  <si>
+    <t>Add a property definition</t>
+  </si>
+  <si>
+    <t>This sheet allows you to create and add a property definition to LUSID, add it to an instrument (to extend its definition), set its value and then view the result</t>
+  </si>
+  <si>
+    <t>Step 1: Add property definitions</t>
+  </si>
+  <si>
+    <t>FinbourneBondVillains</t>
+  </si>
+  <si>
+    <t>PlanType</t>
+  </si>
+  <si>
+    <t>TakeOverWorldDate</t>
+  </si>
+  <si>
+    <t>TakeOverDate</t>
+  </si>
+  <si>
+    <t>Instrument/FinbourneBondVillains/PlanType</t>
+  </si>
+  <si>
+    <t>Instrument/FinbourneBondVillains/TakeOverWorldDate</t>
+  </si>
+  <si>
+    <t>Laser from satellite</t>
+  </si>
+  <si>
+    <t>Step 3: View created instrument</t>
+  </si>
+  <si>
+    <t>Step 2: Add properties to instrument</t>
+  </si>
+  <si>
+    <t>In this step we add the property definitions to the instrument and set values</t>
+  </si>
+  <si>
+    <t>In this step we create new property definitions and add them to LUSID</t>
+  </si>
+  <si>
+    <t>Here we load back our instrument, specifically asking to decorate our property definitions</t>
+  </si>
+  <si>
+    <t>"YYYY-MM-DDTHH:MM:SS.00Z"</t>
+  </si>
+  <si>
+    <t>Where Z indicates Zulu time (UTC+0), and is equivalent to +00:00</t>
+  </si>
+  <si>
+    <t>Instrument Id Types</t>
+  </si>
+  <si>
+    <t>Instrument Ids</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Definition - InstrumentFormat</t>
+  </si>
+  <si>
+    <t>Definition - Content</t>
+  </si>
+  <si>
+    <t>some-format</t>
+  </si>
+  <si>
+    <t>Effective From</t>
+  </si>
+  <si>
+    <t>2028/12/01T00:00:00.00</t>
+  </si>
+  <si>
+    <t>LUSID accepts datetimes in any recognised Excel format</t>
+  </si>
+  <si>
+    <t>LUSID also accepts UTC, UTS offsets and cutlabels</t>
+  </si>
+  <si>
+    <t>Excel formats to show datetime</t>
+  </si>
+  <si>
+    <t>Additional formats</t>
+  </si>
+  <si>
+    <t>Standard UTC timestamp:</t>
+  </si>
+  <si>
+    <t>Convert date into a string</t>
+  </si>
+  <si>
+    <t>UTC offset (not recognised as an excel date)</t>
+  </si>
+  <si>
+    <t>2019-04-10T13:30:45+04:00</t>
+  </si>
+  <si>
+    <t>Cutlabel</t>
+  </si>
+  <si>
+    <t>Add an hour to your datetime</t>
+  </si>
+  <si>
+    <t>Subtract a minute from your datetime</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>IdentifierType</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Properties...</t>
+  </si>
+  <si>
+    <t>In this case we are adding instrument properties. Don’t forget you can use the template to see a list of the required fields. Click on the returned cells to see tooltips</t>
+  </si>
+  <si>
+    <t>In this case we are adding an instrument definition format. Don’t forget you can use the flInstrumentsAdd_Template to see a list of the required fields. Click on the returned cells to see tooltips</t>
+  </si>
+  <si>
+    <t>Finbourne-Examples</t>
+  </si>
+  <si>
+    <t>IsThisATestTrade</t>
+  </si>
+  <si>
+    <t>Perpetual</t>
+  </si>
+  <si>
+    <t>In this case we are adding instrument and transaction properties. Don’t forget you can use the template to see a list of the required fields. Click on the returned cells to see tooltips</t>
+  </si>
+  <si>
+    <t>BBG007FAKECO, GB007007007B</t>
+  </si>
+  <si>
+    <t>GB007007007B</t>
+  </si>
+  <si>
+    <t>Figi,Isin</t>
+  </si>
+  <si>
+    <t>Isin</t>
+  </si>
+  <si>
     <t>BBG007FAKECO</t>
-  </si>
-  <si>
-    <t>Here we can load back our created instrument from LUSID</t>
-  </si>
-  <si>
-    <t>This function returns all instruments created before a specified AsAt or EffectiveDate</t>
-  </si>
-  <si>
-    <t>AsAt</t>
-  </si>
-  <si>
-    <t>N.B AsAt is the system datetime when you last changed an instrument, EffectiveDate needs to have been specified at the instrument level to be searchable</t>
-  </si>
-  <si>
-    <t>Step 1: Specify the scope</t>
-  </si>
-  <si>
-    <t>As part of the instrument mastering, the name of the instrument has been added as</t>
-  </si>
-  <si>
-    <t>Instrument identifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to view instrument identifiers</t>
-  </si>
-  <si>
-    <t>View instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to view all mastered instruments</t>
-  </si>
-  <si>
-    <t>A limit to the size of the results set will be available soon</t>
-  </si>
-  <si>
-    <t>View instrument reference data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to view instrument reference data</t>
-  </si>
-  <si>
-    <t>an instrument property, as a Instrument/default/Ticker. This is recoverable when you ask for instruments</t>
-  </si>
-  <si>
-    <t>We will add more instrument properties here as they are available</t>
-  </si>
-  <si>
-    <t>Step 1: Add an instrument</t>
-  </si>
-  <si>
-    <t>In this step we are adding a new instrument</t>
-  </si>
-  <si>
-    <t>Step 2: View created instrument</t>
-  </si>
-  <si>
-    <t>Here we can load our created instrument from LUSID</t>
-  </si>
-  <si>
-    <t>Amend instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to amend your instrument data</t>
-  </si>
-  <si>
-    <t>Step 1: Amend an instrument</t>
-  </si>
-  <si>
-    <t>Step 2: View amended instrument</t>
-  </si>
-  <si>
-    <t>Prices</t>
-  </si>
-  <si>
-    <t>View market quotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet shows you how to view quotes on an instrument by date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet shows you how to view quotes on a date for various instruments</t>
-  </si>
-  <si>
-    <t>Datetimes in LUSID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to format datetimes for use with LUSID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If you have any questions please visit our:</t>
-  </si>
-  <si>
-    <t>Getting Started tutorials</t>
-  </si>
-  <si>
-    <t>Knowledge Base articles</t>
-  </si>
-  <si>
-    <t>or Contact us</t>
-  </si>
-  <si>
-    <t>Enter the date to convert</t>
-  </si>
-  <si>
-    <t>This date has no time component</t>
-  </si>
-  <si>
-    <t>Specify time component</t>
-  </si>
-  <si>
-    <t>Add to your date and display the complete datetime</t>
-  </si>
-  <si>
-    <t>Although the date can still appears without time</t>
-  </si>
-  <si>
-    <t>Amend market data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to amend market data in LUSID</t>
-  </si>
-  <si>
-    <t>Get a selection of instruments and their reference data</t>
-  </si>
-  <si>
-    <t>Get all instruments from your LUSID domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Get a list of instrument identifiers</t>
-  </si>
-  <si>
-    <t>Create market data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to add in your own market data in LUSID</t>
-  </si>
-  <si>
-    <t>Step 2: Amend some of the quotes from previous tabs</t>
-  </si>
-  <si>
-    <t>Step 2: Add in your own market data</t>
-  </si>
-  <si>
-    <t>InstrumentType</t>
-  </si>
-  <si>
-    <t>EffectiveAt</t>
-  </si>
-  <si>
-    <t>Lineage</t>
-  </si>
-  <si>
-    <t>AddQuote</t>
-  </si>
-  <si>
-    <t>LiveSource</t>
-  </si>
-  <si>
-    <t>The function fbnQuotesAdd allows for a table of quotes to be added with one call</t>
-  </si>
-  <si>
-    <t>FinbourneMarketData</t>
-  </si>
-  <si>
-    <t>Then populate the property, before recovering the property</t>
-  </si>
-  <si>
-    <t>If you have any questions please visit our:</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>ValueRequired</t>
-  </si>
-  <si>
-    <t>DisplayName</t>
-  </si>
-  <si>
-    <t>DataTypeId</t>
-  </si>
-  <si>
-    <t>LifeTime</t>
-  </si>
-  <si>
-    <t>system:string</t>
-  </si>
-  <si>
-    <t>TimeVariant</t>
-  </si>
-  <si>
-    <t>system:date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to create and add an instrument</t>
-  </si>
-  <si>
-    <t>Add a new instrument</t>
-  </si>
-  <si>
-    <t>Add a property definition</t>
-  </si>
-  <si>
-    <t>This sheet allows you to create and add a property definition to LUSID, add it to an instrument (to extend its definition), set its value and then view the result</t>
-  </si>
-  <si>
-    <t>Step 1: Add property definitions</t>
-  </si>
-  <si>
-    <t>FinbourneBondVillains</t>
-  </si>
-  <si>
-    <t>PlanType</t>
-  </si>
-  <si>
-    <t>TakeOverWorldDate</t>
-  </si>
-  <si>
-    <t>TakeOverDate</t>
-  </si>
-  <si>
-    <t>Instrument/FinbourneBondVillains/PlanType</t>
-  </si>
-  <si>
-    <t>Instrument/FinbourneBondVillains/TakeOverWorldDate</t>
-  </si>
-  <si>
-    <t>Laser from satellite</t>
-  </si>
-  <si>
-    <t>Step 3: View created instrument</t>
-  </si>
-  <si>
-    <t>Step 2: Add properties to instrument</t>
-  </si>
-  <si>
-    <t>In this step we add the property definitions to the instrument and set values</t>
-  </si>
-  <si>
-    <t>In this step we create new property definitions and add them to LUSID</t>
-  </si>
-  <si>
-    <t>Here we load back our instrument, specifically asking to decorate our property definitions</t>
-  </si>
-  <si>
-    <t>"YYYY-MM-DDTHH:MM:SS.00Z"</t>
-  </si>
-  <si>
-    <t>Where Z indicates Zulu time (UTC+0), and is equivalent to +00:00</t>
-  </si>
-  <si>
-    <t>Instrument Id Types</t>
-  </si>
-  <si>
-    <t>Instrument Ids</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Limit</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Definition - InstrumentFormat</t>
-  </si>
-  <si>
-    <t>Definition - Content</t>
-  </si>
-  <si>
-    <t>some-format</t>
-  </si>
-  <si>
-    <t>Effective From</t>
-  </si>
-  <si>
-    <t>2028/12/01T00:00:00.00</t>
-  </si>
-  <si>
-    <t>LUSID accepts datetimes in any recognised Excel format</t>
-  </si>
-  <si>
-    <t>LUSID also accepts UTC, UTS offsets and cutlabels</t>
-  </si>
-  <si>
-    <t>Excel formats to show datetime</t>
-  </si>
-  <si>
-    <t>Additional formats</t>
-  </si>
-  <si>
-    <t>Standard UTC timestamp:</t>
-  </si>
-  <si>
-    <t>Convert date into a string</t>
-  </si>
-  <si>
-    <t>UTC offset (not recognised as an excel date)</t>
-  </si>
-  <si>
-    <t>2019-04-10T13:30:45+04:00</t>
-  </si>
-  <si>
-    <t>Cutlabel</t>
-  </si>
-  <si>
-    <t>Add an hour to your datetime</t>
-  </si>
-  <si>
-    <t>Subtract a minute from your datetime</t>
-  </si>
-  <si>
-    <t>Excel</t>
-  </si>
-  <si>
-    <t>IdentifierType</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Properties...</t>
-  </si>
-  <si>
-    <t>In this case we are adding instrument properties. Don’t forget you can use the template to see a list of the required fields. Click on the returned cells to see tooltips</t>
-  </si>
-  <si>
-    <t>In this case we are adding an instrument definition format. Don’t forget you can use the flInstrumentsAdd_Template to see a list of the required fields. Click on the returned cells to see tooltips</t>
-  </si>
-  <si>
-    <t>Finbourne-Examples</t>
-  </si>
-  <si>
-    <t>IsThisATestTrade</t>
-  </si>
-  <si>
-    <t>Perpetual</t>
-  </si>
-  <si>
-    <t>In this case we are adding instrument and transaction properties. Don’t forget you can use the template to see a list of the required fields. Click on the returned cells to see tooltips</t>
   </si>
 </sst>
 </file>
@@ -1518,342 +1530,364 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>026a2182-e451-49ce-9f5c-af98b56f792a</stp>
-        <tr r="N23" s="16"/>
+        <stp>e33b658a-70cf-4d5b-a585-87d33bd850dd</stp>
+        <tr r="H26" s="10"/>
+        <tr r="F28" s="10"/>
+        <tr r="G31" s="10"/>
+        <tr r="I28" s="10"/>
+        <tr r="F22" s="10"/>
+        <tr r="I25" s="10"/>
+        <tr r="F31" s="10"/>
+        <tr r="F26" s="10"/>
+        <tr r="G24" s="10"/>
+        <tr r="I26" s="10"/>
+        <tr r="I24" s="10"/>
+        <tr r="I22" s="10"/>
+        <tr r="H23" s="10"/>
+        <tr r="F27" s="10"/>
+        <tr r="J21" s="10"/>
+        <tr r="J30" s="10"/>
+        <tr r="I30" s="10"/>
+        <tr r="G22" s="10"/>
+        <tr r="G21" s="10"/>
+        <tr r="G23" s="10"/>
+        <tr r="I31" s="10"/>
+        <tr r="J28" s="10"/>
+        <tr r="F29" s="10"/>
+        <tr r="J31" s="10"/>
+        <tr r="G29" s="10"/>
+        <tr r="I21" s="10"/>
+        <tr r="G27" s="10"/>
+        <tr r="G26" s="10"/>
+        <tr r="F30" s="10"/>
+        <tr r="J27" s="10"/>
+        <tr r="H29" s="10"/>
+        <tr r="H31" s="10"/>
+        <tr r="H24" s="10"/>
+        <tr r="H30" s="10"/>
+        <tr r="F24" s="10"/>
+        <tr r="H28" s="10"/>
+        <tr r="H25" s="10"/>
+        <tr r="J26" s="10"/>
+        <tr r="I23" s="10"/>
+        <tr r="G25" s="10"/>
+        <tr r="F23" s="10"/>
+        <tr r="I29" s="10"/>
+        <tr r="H22" s="10"/>
+        <tr r="H27" s="10"/>
+        <tr r="J22" s="10"/>
+        <tr r="I27" s="10"/>
+        <tr r="G28" s="10"/>
+        <tr r="J24" s="10"/>
+        <tr r="J25" s="10"/>
+        <tr r="G30" s="10"/>
+        <tr r="F25" s="10"/>
+        <tr r="J23" s="10"/>
+        <tr r="H21" s="10"/>
+        <tr r="J29" s="10"/>
+        <tr r="F21" s="10"/>
       </tp>
     </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>7e1ca5cc-f1d6-48e6-ab5b-1ff1e929d405</stp>
-        <tr r="M30" s="17"/>
+        <stp>dda1fa4d-a546-4508-a1bb-09c7c78f8964</stp>
+        <tr r="N29" s="16"/>
       </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>b9e59655-355b-47fd-a249-1299a29c92bd</stp>
-        <tr r="E30" s="12"/>
-        <tr r="F25" s="12"/>
-        <tr r="G28" s="12"/>
-        <tr r="F28" s="12"/>
-        <tr r="E33" s="12"/>
-        <tr r="F33" s="12"/>
-        <tr r="F27" s="12"/>
-        <tr r="E31" s="12"/>
-        <tr r="F32" s="12"/>
-        <tr r="G30" s="12"/>
-        <tr r="F24" s="12"/>
-        <tr r="F31" s="12"/>
-        <tr r="F29" s="12"/>
-        <tr r="G23" s="12"/>
-        <tr r="E26" s="12"/>
-        <tr r="E25" s="12"/>
-        <tr r="G29" s="12"/>
-        <tr r="F26" s="12"/>
-        <tr r="F23" s="12"/>
-        <tr r="E27" s="12"/>
-        <tr r="G24" s="12"/>
-        <tr r="E32" s="12"/>
-        <tr r="E23" s="12"/>
-        <tr r="E28" s="12"/>
-        <tr r="E29" s="12"/>
-        <tr r="E24" s="12"/>
-        <tr r="F30" s="12"/>
-        <tr r="G31" s="12"/>
-        <tr r="G33" s="12"/>
-        <tr r="G27" s="12"/>
-        <tr r="G32" s="12"/>
-        <tr r="G26" s="12"/>
-        <tr r="G25" s="12"/>
+        <stp>b2552618-2b29-45a5-bd89-61e7efd8fd32</stp>
+        <tr r="F43" s="20"/>
+        <tr r="L43" s="20"/>
+        <tr r="I43" s="20"/>
+        <tr r="G42" s="20"/>
+        <tr r="H42" s="20"/>
+        <tr r="I42" s="20"/>
+        <tr r="J43" s="20"/>
+        <tr r="L42" s="20"/>
+        <tr r="H43" s="20"/>
+        <tr r="J42" s="20"/>
+        <tr r="K42" s="20"/>
+        <tr r="F42" s="20"/>
+        <tr r="G43" s="20"/>
+        <tr r="K43" s="20"/>
       </tp>
     </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>5cd26bab-7eec-43c7-80a2-1f37fbca85d7</stp>
+        <stp>4afcd1e3-b73e-41e8-82a8-f2b303e64ae0</stp>
+        <tr r="G25" s="11"/>
+        <tr r="F19" s="11"/>
+        <tr r="E23" s="11"/>
+        <tr r="E20" s="11"/>
+        <tr r="E22" s="11"/>
+        <tr r="E28" s="11"/>
+        <tr r="F27" s="11"/>
+        <tr r="F28" s="11"/>
+        <tr r="F20" s="11"/>
+        <tr r="G29" s="11"/>
+        <tr r="G19" s="11"/>
+        <tr r="G22" s="11"/>
+        <tr r="G20" s="11"/>
+        <tr r="E26" s="11"/>
+        <tr r="F17" s="11"/>
+        <tr r="F18" s="11"/>
+        <tr r="G23" s="11"/>
+        <tr r="F21" s="11"/>
+        <tr r="F24" s="11"/>
+        <tr r="E17" s="11"/>
+        <tr r="E29" s="11"/>
+        <tr r="E24" s="11"/>
+        <tr r="F26" s="11"/>
+        <tr r="G24" s="11"/>
+        <tr r="E25" s="11"/>
+        <tr r="G28" s="11"/>
+        <tr r="G26" s="11"/>
+        <tr r="F29" s="11"/>
+        <tr r="E19" s="11"/>
         <tr r="G27" s="11"/>
         <tr r="E18" s="11"/>
-        <tr r="E25" s="11"/>
+        <tr r="E21" s="11"/>
+        <tr r="G17" s="11"/>
+        <tr r="F23" s="11"/>
+        <tr r="F25" s="11"/>
         <tr r="G18" s="11"/>
-        <tr r="G25" s="11"/>
-        <tr r="E24" s="11"/>
-        <tr r="E17" s="11"/>
-        <tr r="E28" s="11"/>
-        <tr r="G17" s="11"/>
-        <tr r="E20" s="11"/>
-        <tr r="E19" s="11"/>
-        <tr r="E21" s="11"/>
-        <tr r="G29" s="11"/>
-        <tr r="F20" s="11"/>
-        <tr r="G26" s="11"/>
         <tr r="G21" s="11"/>
-        <tr r="F27" s="11"/>
-        <tr r="F19" s="11"/>
-        <tr r="E23" s="11"/>
-        <tr r="E22" s="11"/>
-        <tr r="E29" s="11"/>
-        <tr r="E26" s="11"/>
-        <tr r="G23" s="11"/>
-        <tr r="G19" s="11"/>
-        <tr r="G24" s="11"/>
-        <tr r="F24" s="11"/>
-        <tr r="F26" s="11"/>
-        <tr r="F23" s="11"/>
+        <tr r="F22" s="11"/>
         <tr r="E27" s="11"/>
-        <tr r="F25" s="11"/>
-        <tr r="F21" s="11"/>
-        <tr r="F18" s="11"/>
-        <tr r="G28" s="11"/>
-        <tr r="F28" s="11"/>
-        <tr r="F17" s="11"/>
-        <tr r="F29" s="11"/>
-        <tr r="G22" s="11"/>
-        <tr r="F22" s="11"/>
-        <tr r="G20" s="11"/>
       </tp>
     </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>1977b163-c445-48f5-be77-f0873399e881</stp>
-        <tr r="N26" s="16"/>
+        <stp>b790a6e4-9ea1-4eab-8863-e50dfd86a895</stp>
+        <tr r="M29" s="17"/>
       </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>67793043-3234-447d-94ee-eecac677d5ca</stp>
-        <tr r="K35" s="13"/>
-        <tr r="H34" s="13"/>
-        <tr r="H35" s="13"/>
-        <tr r="G36" s="13"/>
-        <tr r="G35" s="13"/>
-        <tr r="H36" s="13"/>
-        <tr r="I35" s="13"/>
-        <tr r="G34" s="13"/>
-        <tr r="F36" s="13"/>
-        <tr r="J34" s="13"/>
-        <tr r="I34" s="13"/>
-        <tr r="J36" s="13"/>
-        <tr r="F35" s="13"/>
-        <tr r="K34" s="13"/>
-        <tr r="I36" s="13"/>
-        <tr r="F34" s="13"/>
-        <tr r="K36" s="13"/>
-        <tr r="J35" s="13"/>
+        <stp>9b2bb666-0a64-482c-8c19-dc703cd797d4</stp>
+        <tr r="N26" s="16"/>
       </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>0ba07f47-31c5-4307-a550-8ca47ad7fd0b</stp>
+        <stp>aff45025-cfb2-417a-a894-e9f102138f05</stp>
+        <tr r="N24" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bcbbe081-7d49-4bc3-b94a-9d7ac27016f2</stp>
+        <tr r="I28" s="14"/>
+        <tr r="I29" s="14"/>
+        <tr r="K28" s="14"/>
+        <tr r="L28" s="14"/>
+        <tr r="L29" s="14"/>
+        <tr r="H28" s="14"/>
+        <tr r="G28" s="14"/>
+        <tr r="J29" s="14"/>
+        <tr r="K29" s="14"/>
+        <tr r="G29" s="14"/>
+        <tr r="H29" s="14"/>
+        <tr r="J28" s="14"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0e4e69d4-96d2-4315-86e0-1f32970b7960</stp>
+        <tr r="M30" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>18a23769-bbad-46dc-b5be-4655e7d7b057</stp>
+        <tr r="N25" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>29a8c027-0f0d-462b-886e-ee7f5dcdd0b8</stp>
+        <tr r="M25" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d8ecb491-5dad-43b6-bc58-a5cebd83b59d</stp>
+        <tr r="M28" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>780ef6dd-86df-4df1-96d9-49a2de7bbfe0</stp>
+        <tr r="E23" s="12"/>
+        <tr r="F23" s="12"/>
+        <tr r="E32" s="12"/>
+        <tr r="E33" s="12"/>
+        <tr r="G24" s="12"/>
+        <tr r="E29" s="12"/>
+        <tr r="G27" s="12"/>
+        <tr r="F32" s="12"/>
+        <tr r="F29" s="12"/>
+        <tr r="G30" s="12"/>
+        <tr r="E24" s="12"/>
+        <tr r="E28" s="12"/>
+        <tr r="G33" s="12"/>
+        <tr r="G29" s="12"/>
+        <tr r="G25" s="12"/>
+        <tr r="G28" s="12"/>
+        <tr r="G26" s="12"/>
+        <tr r="F27" s="12"/>
+        <tr r="F24" s="12"/>
+        <tr r="F30" s="12"/>
+        <tr r="E30" s="12"/>
+        <tr r="F31" s="12"/>
+        <tr r="G23" s="12"/>
+        <tr r="F26" s="12"/>
+        <tr r="F25" s="12"/>
+        <tr r="F28" s="12"/>
+        <tr r="E26" s="12"/>
+        <tr r="E25" s="12"/>
+        <tr r="F33" s="12"/>
+        <tr r="G32" s="12"/>
+        <tr r="E27" s="12"/>
+        <tr r="E31" s="12"/>
+        <tr r="G31" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>832c58fa-bd86-46c6-b87b-06306299d4a3</stp>
+        <tr r="N30" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f7498c14-cc42-4591-ba33-531f28b5dd0c</stp>
+        <tr r="N28" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a38e6fb0-8db8-4e39-941b-a4ebdf1abbcf</stp>
+        <tr r="M24" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>2554ffcc-f379-4e90-a145-0c0d55cf9298</stp>
+        <tr r="N27" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>39a96072-66d6-4982-b332-39dc8540feeb</stp>
         <tr r="M27" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>3185fd14-5361-423e-856c-5d765066938e</stp>
-        <tr r="N24" s="16"/>
+        <stp>131692bd-9d1e-4279-bbca-5a4f90d8edbc</stp>
+        <tr r="M26" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>e8e91820-d060-437b-bb46-a214ee9f0079</stp>
-        <tr r="N29" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c961da18-0352-4010-8432-6ff469fc4b19</stp>
-        <tr r="N27" s="16"/>
+        <stp>82ae3128-2a5e-43ee-b3f4-f0a5042d4a19</stp>
+        <tr r="G36" s="13"/>
+        <tr r="J34" s="13"/>
+        <tr r="I34" s="13"/>
+        <tr r="G35" s="13"/>
+        <tr r="I36" s="13"/>
+        <tr r="H36" s="13"/>
+        <tr r="H34" s="13"/>
+        <tr r="I35" s="13"/>
+        <tr r="K34" s="13"/>
+        <tr r="H35" s="13"/>
+        <tr r="K35" s="13"/>
+        <tr r="F34" s="13"/>
+        <tr r="J36" s="13"/>
+        <tr r="J35" s="13"/>
+        <tr r="G34" s="13"/>
+        <tr r="F36" s="13"/>
+        <tr r="K36" s="13"/>
+        <tr r="F35" s="13"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>27dcb340-0803-4419-9268-c97550a06e5d</stp>
-        <tr r="M24" s="17"/>
+        <stp>d5e958b0-0550-4cd2-9fc4-a9186c66aaa6</stp>
+        <tr r="M22" s="17"/>
+        <tr r="N22" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>18a070c6-9d63-4f30-a2c0-e55dfce8a98e</stp>
-        <tr r="M25" s="17"/>
+        <stp>1addcb2f-7372-4280-88b1-9a20249e1bda</stp>
+        <tr r="M31" s="17"/>
       </tp>
     </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>048ed6a5-9a68-4d9c-8e7f-ede1a0ead4d4</stp>
-        <tr r="M28" s="17"/>
+        <stp>9e8ec426-bebe-4960-b842-8bfb971bd2c2</stp>
+        <tr r="G31" s="14"/>
       </tp>
     </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>c3513c8c-606b-4e53-81c1-1b8326309c8d</stp>
-        <tr r="N28" s="16"/>
+        <stp>532dc68a-d3b6-4641-b10f-64ebf58ae289</stp>
+        <tr r="N23" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>c1867b72-f5c5-459f-8bee-025817dd11b1</stp>
-        <tr r="G30" s="14"/>
-        <tr r="I30" s="14"/>
-        <tr r="G28" s="14"/>
-        <tr r="H30" s="14"/>
-        <tr r="J30" s="14"/>
-        <tr r="G29" s="14"/>
-        <tr r="I29" s="14"/>
-        <tr r="K30" s="14"/>
-        <tr r="F28" s="14"/>
-        <tr r="F30" s="14"/>
-        <tr r="H29" s="14"/>
-        <tr r="K28" s="14"/>
-        <tr r="J28" s="14"/>
-        <tr r="I28" s="14"/>
-        <tr r="K29" s="14"/>
-        <tr r="F29" s="14"/>
-        <tr r="H28" s="14"/>
-        <tr r="J29" s="14"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d9aa6c9c-fb11-4bab-b73d-bdd22841c357</stp>
-        <tr r="M22" s="17"/>
-        <tr r="N22" s="16"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>05775c0c-3209-4385-a86f-b29f8b105505</stp>
-        <tr r="N30" s="16"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>56693399-3a20-498f-8548-143b4e2226f0</stp>
-        <tr r="G28" s="10"/>
-        <tr r="J25" s="10"/>
-        <tr r="G24" s="10"/>
-        <tr r="J22" s="10"/>
-        <tr r="I21" s="10"/>
-        <tr r="J27" s="10"/>
-        <tr r="I28" s="10"/>
-        <tr r="G30" s="10"/>
-        <tr r="J26" s="10"/>
-        <tr r="F23" s="10"/>
-        <tr r="G21" s="10"/>
-        <tr r="H26" s="10"/>
-        <tr r="I24" s="10"/>
-        <tr r="I26" s="10"/>
-        <tr r="I30" s="10"/>
-        <tr r="H29" s="10"/>
-        <tr r="I29" s="10"/>
-        <tr r="J31" s="10"/>
-        <tr r="F24" s="10"/>
-        <tr r="H25" s="10"/>
-        <tr r="J30" s="10"/>
-        <tr r="F29" s="10"/>
-        <tr r="J24" s="10"/>
-        <tr r="H28" s="10"/>
-        <tr r="F27" s="10"/>
-        <tr r="I22" s="10"/>
-        <tr r="I27" s="10"/>
-        <tr r="F30" s="10"/>
-        <tr r="I25" s="10"/>
-        <tr r="J21" s="10"/>
-        <tr r="G25" s="10"/>
-        <tr r="I23" s="10"/>
-        <tr r="F21" s="10"/>
-        <tr r="G27" s="10"/>
-        <tr r="H23" s="10"/>
-        <tr r="G29" s="10"/>
-        <tr r="H22" s="10"/>
-        <tr r="H31" s="10"/>
-        <tr r="J23" s="10"/>
-        <tr r="F25" s="10"/>
-        <tr r="H21" s="10"/>
-        <tr r="F31" s="10"/>
-        <tr r="G31" s="10"/>
-        <tr r="F28" s="10"/>
-        <tr r="F22" s="10"/>
-        <tr r="G22" s="10"/>
-        <tr r="J28" s="10"/>
-        <tr r="I31" s="10"/>
-        <tr r="G26" s="10"/>
-        <tr r="G23" s="10"/>
-        <tr r="H27" s="10"/>
-        <tr r="F26" s="10"/>
-        <tr r="H24" s="10"/>
-        <tr r="J29" s="10"/>
-        <tr r="H30" s="10"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>cc8ab410-dc0f-45b8-b4df-3254e8ad1a65</stp>
-        <tr r="M26" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c4790b82-17cf-488e-8f14-7d2b1fa3f470</stp>
+        <stp>aa333e50-389a-49bc-a4cd-eec2a8e2b84a</stp>
         <tr r="M23" s="17"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b571f5f8-c662-4064-8e10-61553b29508c</stp>
-        <tr r="M31" s="17"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>cd787768-734b-45b4-8025-449fee2ab6eb</stp>
-        <tr r="F42" s="20"/>
-        <tr r="L43" s="20"/>
-        <tr r="F43" s="20"/>
-        <tr r="J42" s="20"/>
-        <tr r="H42" s="20"/>
-        <tr r="G42" s="20"/>
-        <tr r="K42" s="20"/>
-        <tr r="G43" s="20"/>
-        <tr r="K43" s="20"/>
-        <tr r="L42" s="20"/>
-        <tr r="I42" s="20"/>
-        <tr r="J43" s="20"/>
-        <tr r="H43" s="20"/>
-        <tr r="I43" s="20"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>689f1921-d976-4d2a-98e0-dd790362f0ec</stp>
-        <tr r="M29" s="17"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>611ab6f3-d69c-4207-8730-d33441079cab</stp>
-        <tr r="N25" s="16"/>
       </tp>
     </main>
   </volType>
@@ -2922,34 +2956,34 @@
   <dimension ref="B1:T31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="50.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.73046875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="23" customWidth="1"/>
     <col min="7" max="7" width="22" style="23" customWidth="1"/>
-    <col min="8" max="8" width="40.73046875" style="23" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.59765625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" customWidth="1"/>
-    <col min="12" max="14" width="24.265625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="3.3984375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="23.59765625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="29.73046875" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.73046875" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.73046875" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1328125" style="23"/>
+    <col min="12" max="14" width="24.28515625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" style="23" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2965,11 +2999,11 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2983,7 +3017,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2999,11 +3033,11 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3017,11 +3051,11 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3035,12 +3069,12 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3053,12 +3087,12 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3071,12 +3105,12 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3089,7 +3123,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3105,17 +3139,17 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3125,7 +3159,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3141,17 +3175,17 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3162,7 +3196,7 @@
       <c r="O15" s="2"/>
       <c r="T15" s="27"/>
     </row>
-    <row r="16" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3179,25 +3213,25 @@
       <c r="O16" s="2"/>
       <c r="T16" s="27"/>
     </row>
-    <row r="17" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F17" s="25">
         <v>43565</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I17" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -3206,7 +3240,7 @@
       <c r="O17" s="2"/>
       <c r="T17" s="27"/>
     </row>
-    <row r="18" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3223,12 +3257,12 @@
       <c r="O18" s="2"/>
       <c r="T18" s="27"/>
     </row>
-    <row r="19" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F19" s="28">
         <f>F17</f>
@@ -3236,7 +3270,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I19" s="25" t="str">
         <f>TEXT(F23,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F23," hh:mm:ss.00Z")</f>
@@ -3250,7 +3284,7 @@
       <c r="O19" s="2"/>
       <c r="T19" s="27"/>
     </row>
-    <row r="20" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3267,22 +3301,22 @@
       <c r="O20" s="2"/>
       <c r="T20" s="27"/>
     </row>
-    <row r="21" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F21" s="29">
         <v>0.56302719907407406</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>326</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>327</v>
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="2"/>
@@ -3292,7 +3326,7 @@
       <c r="O21" s="2"/>
       <c r="T21" s="27"/>
     </row>
-    <row r="22" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3309,12 +3343,12 @@
       <c r="O22" s="2"/>
       <c r="T22" s="27"/>
     </row>
-    <row r="23" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F23" s="30">
         <f>F17 + F21</f>
@@ -3322,7 +3356,7 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I23" s="25" t="str">
         <f>TEXT(F23,"yyyy-mm-dd")&amp;"NSingaporeClose"</f>
@@ -3335,7 +3369,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3351,12 +3385,12 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F25" s="31">
         <f>F23</f>
@@ -3372,7 +3406,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3388,12 +3422,12 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F27" s="30">
         <f>F23+1/24</f>
@@ -3409,7 +3443,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3425,12 +3459,12 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F29" s="30">
         <f>F27-1/1440</f>
@@ -3446,7 +3480,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3462,7 +3496,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3497,35 +3531,33 @@
   </sheetPr>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" style="23" customWidth="1"/>
-    <col min="7" max="11" width="18.265625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="23" customWidth="1"/>
+    <col min="7" max="11" width="18.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="23" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" style="23" customWidth="1"/>
-    <col min="18" max="19" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1328125" style="23"/>
+    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="23" customWidth="1"/>
+    <col min="18" max="19" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3543,11 +3575,11 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3563,7 +3595,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3581,11 +3613,11 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3601,11 +3633,11 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3621,12 +3653,12 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3641,12 +3673,12 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3661,12 +3693,12 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3681,7 +3713,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3704,7 +3736,7 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -3714,7 +3746,7 @@
       <c r="U11"/>
       <c r="V11"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3737,10 +3769,10 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="2:22" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:22" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -3762,7 +3794,7 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3785,7 +3817,7 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3793,7 +3825,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -3814,7 +3846,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3837,7 +3869,7 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3865,7 +3897,7 @@
       <c r="AC17"/>
       <c r="AD17"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3896,10 +3928,10 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="2:30" ht="21" x14ac:dyDescent="0.65">
+    <row r="19" spans="2:30" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3929,7 +3961,7 @@
       <c r="AC19"/>
       <c r="AD19"/>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3960,7 +3992,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3999,7 +4031,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4010,7 +4042,7 @@
         <v>208</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>209</v>
@@ -4028,16 +4060,16 @@
         <v>185</v>
       </c>
       <c r="M22" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="O22" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="O22" s="6" t="s">
+      <c r="P22" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22"/>
@@ -4054,7 +4086,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
@@ -4062,7 +4094,7 @@
         <v>213</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>204</v>
@@ -4089,7 +4121,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="50" t="str">
         <f>_xll.flQuotesAdd(F15,E22:O23)</f>
-        <v>Added 1 quote(s) as at time 2019-09-03 16:02:48Z</v>
+        <v>Added 1 quote(s) as at time 2019-12-04 10:30:48Z</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23"/>
@@ -4106,7 +4138,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -4137,7 +4169,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
@@ -4168,7 +4200,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
@@ -4199,7 +4231,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
@@ -4230,7 +4262,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
@@ -4261,7 +4293,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -4292,7 +4324,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4323,7 +4355,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -4353,7 +4385,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
@@ -4373,7 +4405,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
@@ -4388,7 +4420,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4420,7 +4452,7 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
@@ -4435,7 +4467,7 @@
       <c r="AC35"/>
       <c r="AD35"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -4450,7 +4482,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
@@ -4465,7 +4497,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
@@ -4480,7 +4512,7 @@
       <c r="AC38"/>
       <c r="AD38"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39"/>
@@ -4495,7 +4527,7 @@
       <c r="AC39"/>
       <c r="AD39"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
@@ -4510,7 +4542,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
@@ -4525,7 +4557,7 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
@@ -4540,7 +4572,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
@@ -4555,7 +4587,7 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R44"/>
       <c r="S44"/>
       <c r="T44"/>
@@ -4570,7 +4602,7 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
@@ -4585,7 +4617,7 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46"/>
@@ -4600,7 +4632,7 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47"/>
@@ -4615,7 +4647,7 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
@@ -4630,7 +4662,7 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="49" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
@@ -4645,7 +4677,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="50" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R50"/>
       <c r="S50"/>
       <c r="T50"/>
@@ -4660,7 +4692,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="51" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51"/>
@@ -4675,7 +4707,7 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="52" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R52"/>
       <c r="S52"/>
       <c r="T52"/>
@@ -4690,7 +4722,7 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="53" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
@@ -4705,7 +4737,7 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="54" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
@@ -4720,7 +4752,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="55" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55"/>
@@ -4768,33 +4800,31 @@
   </sheetPr>
   <dimension ref="B1:Y43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="18.265625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="18.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.59765625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="23"/>
+    <col min="14" max="14" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4812,11 +4842,11 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:25" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4832,7 +4862,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="2:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4850,11 +4880,11 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4870,11 +4900,11 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4890,12 +4920,12 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4910,12 +4940,12 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4930,12 +4960,12 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4950,7 +4980,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4968,7 +4998,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4994,10 +5024,10 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="2:25" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -5022,7 +5052,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="2:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5048,7 +5078,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="2:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5056,7 +5086,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -5080,7 +5110,7 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5106,7 +5136,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -5126,7 +5156,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -5152,10 +5182,10 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="2:25" ht="21" x14ac:dyDescent="0.65">
+    <row r="19" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -5180,7 +5210,7 @@
       <c r="X19"/>
       <c r="Y19"/>
     </row>
-    <row r="20" spans="2:25" ht="21" x14ac:dyDescent="0.65">
+    <row r="20" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="10"/>
       <c r="D20" s="2"/>
@@ -5198,12 +5228,12 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5226,7 +5256,7 @@
       <c r="X21"/>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5260,7 +5290,7 @@
       <c r="X22"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -5271,7 +5301,7 @@
         <v>208</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>209</v>
@@ -5289,16 +5319,16 @@
         <v>185</v>
       </c>
       <c r="M23" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="N23" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="O23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23"/>
@@ -5310,15 +5340,15 @@
       <c r="X23"/>
       <c r="Y23"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>215</v>
@@ -5345,7 +5375,7 @@
       <c r="O24" s="32"/>
       <c r="P24" s="50" t="str">
         <f>_xll.flQuotesAdd(F15,E23:O27)</f>
-        <v>Added 4 quote(s) as at time 2019-09-03 16:02:48Z</v>
+        <v>Added 4 quote(s) as at time 2019-12-04 10:30:48Z</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24"/>
@@ -5357,15 +5387,15 @@
       <c r="X24"/>
       <c r="Y24"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>215</v>
@@ -5402,15 +5432,15 @@
       <c r="X25"/>
       <c r="Y25"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>215</v>
@@ -5447,15 +5477,15 @@
       <c r="X26"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>215</v>
@@ -5492,7 +5522,7 @@
       <c r="X27"/>
       <c r="Y27"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
@@ -5518,7 +5548,7 @@
       <c r="X28"/>
       <c r="Y28"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -5544,7 +5574,7 @@
       <c r="X29"/>
       <c r="Y29"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
@@ -5570,7 +5600,7 @@
       <c r="X30"/>
       <c r="Y30"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
@@ -5596,7 +5626,7 @@
       <c r="X31"/>
       <c r="Y31"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="9"/>
@@ -5622,7 +5652,7 @@
       <c r="X32"/>
       <c r="Y32"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="9"/>
@@ -5648,7 +5678,7 @@
       <c r="X33"/>
       <c r="Y33"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5674,7 +5704,7 @@
       <c r="X34"/>
       <c r="Y34"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -5685,7 +5715,7 @@
       <c r="X35"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -5695,7 +5725,7 @@
       <c r="X36"/>
       <c r="Y36"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q43" s="22"/>
     </row>
   </sheetData>
@@ -5734,13 +5764,13 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5748,7 +5778,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -5756,7 +5786,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -5764,882 +5794,882 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>179</v>
       </c>
@@ -6660,32 +6690,32 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.86328125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.86328125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9.1328125" style="23"/>
-    <col min="14" max="14" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="23"/>
+    <col min="14" max="14" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="23"/>
+    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6698,11 +6728,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6713,7 +6743,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6726,11 +6756,11 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6741,11 +6771,11 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6756,12 +6786,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -6771,12 +6801,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6786,12 +6816,12 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -6801,7 +6831,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6814,7 +6844,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6829,7 +6859,7 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6845,10 +6875,10 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6860,7 +6890,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6873,7 +6903,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6886,7 +6916,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6899,7 +6929,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6922,18 +6952,18 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="18" t="str">
-        <v>Figi</v>
+        <v>Sedol</v>
       </c>
       <c r="F18" s="18" t="str">
-        <v>Instrument/default/Figi</v>
+        <v>Instrument/default/Sedol</v>
       </c>
       <c r="G18" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -6944,15 +6974,15 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
       <c r="E19" s="36" t="str">
-        <v>RIC</v>
+        <v>CompositeFigi</v>
       </c>
       <c r="F19" s="18" t="str">
-        <v>Instrument/default/RIC</v>
+        <v>Instrument/default/CompositeFigi</v>
       </c>
       <c r="G19" s="18" t="b">
         <v>0</v>
@@ -6966,18 +6996,18 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
       <c r="E20" s="36" t="str">
-        <v>LusidInstrumentId</v>
+        <v>Ticker</v>
       </c>
       <c r="F20" s="18" t="str">
-        <v>Instrument/default/LusidInstrumentId</v>
+        <v>Instrument/default/Ticker</v>
       </c>
       <c r="G20" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -6988,18 +7018,18 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="36" t="str">
-        <v>QuotePermId</v>
+        <v>Isin</v>
       </c>
       <c r="F21" s="18" t="str">
-        <v>Instrument/default/QuotePermId</v>
+        <v>Instrument/default/Isin</v>
       </c>
       <c r="G21" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -7010,15 +7040,15 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="36" t="str">
-        <v>Sedol</v>
+        <v>Cusip</v>
       </c>
       <c r="F22" s="18" t="str">
-        <v>Instrument/default/Sedol</v>
+        <v>Instrument/default/Cusip</v>
       </c>
       <c r="G22" s="18" t="b">
         <v>0</v>
@@ -7032,7 +7062,7 @@
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
@@ -7054,15 +7084,15 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="36" t="str">
-        <v>ClientInternal</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="F24" s="18" t="str">
-        <v>Instrument/default/ClientInternal</v>
+        <v>Instrument/default/LusidInstrumentId</v>
       </c>
       <c r="G24" s="18" t="b">
         <v>1</v>
@@ -7075,18 +7105,18 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="36" t="str">
-        <v>ShareClassFigi</v>
+        <v>QuotePermId</v>
       </c>
       <c r="F25" s="18" t="str">
-        <v>Instrument/default/ShareClassFigi</v>
+        <v>Instrument/default/QuotePermId</v>
       </c>
       <c r="G25" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -7094,18 +7124,18 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="36" t="str">
-        <v>Isin</v>
+        <v>ClientInternal</v>
       </c>
       <c r="F26" s="18" t="str">
-        <v>Instrument/default/Isin</v>
+        <v>Instrument/default/ClientInternal</v>
       </c>
       <c r="G26" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -7113,18 +7143,18 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="36" t="str">
-        <v>Ticker</v>
+        <v>Figi</v>
       </c>
       <c r="F27" s="18" t="str">
-        <v>Instrument/default/Ticker</v>
+        <v>Instrument/default/Figi</v>
       </c>
       <c r="G27" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -7132,15 +7162,15 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="36" t="str">
-        <v>CompositeFigi</v>
+        <v>RIC</v>
       </c>
       <c r="F28" s="18" t="str">
-        <v>Instrument/default/CompositeFigi</v>
+        <v>Instrument/default/RIC</v>
       </c>
       <c r="G28" s="18" t="b">
         <v>0</v>
@@ -7151,18 +7181,18 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="36" t="str">
-        <v>Cusip</v>
+        <v>EdiKey</v>
       </c>
       <c r="F29" s="18" t="str">
-        <v>Instrument/default/Cusip</v>
+        <v>Instrument/default/EdiKey</v>
       </c>
       <c r="G29" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -7170,7 +7200,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -7218,31 +7248,31 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="23.3984375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="23" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1328125" style="23"/>
-    <col min="13" max="13" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="23"/>
+    <col min="13" max="13" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1328125" style="23"/>
+    <col min="20" max="23" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7254,11 +7284,11 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7268,7 +7298,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7280,11 +7310,11 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7294,11 +7324,11 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7308,12 +7338,12 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7322,12 +7352,12 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7336,12 +7366,12 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7350,7 +7380,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7362,7 +7392,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -7374,10 +7404,10 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7388,7 +7418,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="10"/>
       <c r="D15" s="2"/>
@@ -7400,12 +7430,12 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -7414,12 +7444,12 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -7428,12 +7458,12 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -7442,7 +7472,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -7454,31 +7484,31 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>198</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="25">
         <f ca="1">NOW()</f>
-        <v>43739.51511388889</v>
+        <v>43803.438066550923</v>
       </c>
       <c r="F21" s="25">
         <v>43697</v>
@@ -7491,7 +7521,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -7503,7 +7533,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -7524,7 +7554,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
@@ -7536,18 +7566,18 @@
       </c>
       <c r="F24" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_1IDOGL5H</v>
+        <v>CCY_ZZZ</v>
       </c>
       <c r="G24" s="18" t="str">
         <f ca="1"/>
-        <v>T 2.25% Apr 30, 2021</v>
+        <v>ZZZ</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
@@ -7559,18 +7589,18 @@
       </c>
       <c r="F25" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_2C7J9UP8</v>
+        <v>CCY_ALL</v>
       </c>
       <c r="G25" s="18" t="str">
         <f ca="1"/>
-        <v>T 2.875% Nov 15, 2046</v>
+        <v>ALL</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
@@ -7582,18 +7612,18 @@
       </c>
       <c r="F26" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_388AOHMF</v>
+        <v>CCY_DZD</v>
       </c>
       <c r="G26" s="18" t="str">
         <f ca="1"/>
-        <v>GE 4.418% Nov 15, 2035</v>
+        <v>DZD</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
@@ -7605,18 +7635,18 @@
       </c>
       <c r="F27" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_3IPLDPSN</v>
+        <v>CCY_ARS</v>
       </c>
       <c r="G27" s="18" t="str">
         <f ca="1"/>
-        <v>Walt Disney</v>
+        <v>ARS</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
@@ -7628,18 +7658,18 @@
       </c>
       <c r="F28" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_3MI5BPOM</v>
+        <v>CCY_AUD</v>
       </c>
       <c r="G28" s="18" t="str">
         <f ca="1"/>
-        <v>NATIONAL GRID</v>
+        <v>AUD</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
@@ -7662,7 +7692,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
@@ -7685,7 +7715,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
@@ -7708,7 +7738,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
@@ -7731,7 +7761,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
@@ -7754,7 +7784,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -7789,32 +7819,32 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.86328125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9.1328125" style="23"/>
-    <col min="14" max="14" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="23"/>
+    <col min="14" max="14" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="23"/>
+    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7827,11 +7857,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7842,7 +7872,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7855,11 +7885,11 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7870,11 +7900,11 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7885,12 +7915,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7900,12 +7930,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7915,12 +7945,12 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7930,7 +7960,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7943,7 +7973,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -7959,10 +7989,10 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -7974,7 +8004,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -7987,12 +8017,12 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8002,12 +8032,12 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8017,12 +8047,12 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -8032,7 +8062,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -8045,7 +8075,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -8062,7 +8092,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -8075,7 +8105,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -8104,7 +8134,7 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9">
@@ -8134,7 +8164,7 @@
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9">
@@ -8164,7 +8194,7 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9">
@@ -8194,7 +8224,7 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9">
@@ -8224,7 +8254,7 @@
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9">
@@ -8254,7 +8284,7 @@
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9">
@@ -8284,7 +8314,7 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9">
@@ -8313,7 +8343,7 @@
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9">
@@ -8340,7 +8370,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9">
@@ -8367,7 +8397,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9">
@@ -8394,7 +8424,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -8442,32 +8472,32 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
     <col min="11" max="12" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.73046875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.1328125" style="23"/>
-    <col min="15" max="15" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="23"/>
+    <col min="15" max="15" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1328125" style="23"/>
+    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8481,11 +8511,11 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -8497,7 +8527,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -8511,11 +8541,11 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -8527,11 +8557,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -8543,12 +8573,12 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -8559,12 +8589,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8575,12 +8605,12 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8591,7 +8621,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8605,7 +8635,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -8620,7 +8650,7 @@
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -8634,10 +8664,10 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8650,7 +8680,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="10"/>
       <c r="D14" s="2"/>
@@ -8664,7 +8694,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="10"/>
       <c r="D15" s="2"/>
@@ -8680,12 +8710,12 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="10"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8696,7 +8726,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -8713,33 +8743,33 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>218</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -8753,27 +8783,27 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>218</v>
       </c>
       <c r="I20" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>221</v>
@@ -8781,7 +8811,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
@@ -8796,7 +8826,7 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="50" t="str">
@@ -8806,7 +8836,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -8820,27 +8850,27 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F23" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>218</v>
       </c>
       <c r="I23" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>221</v>
@@ -8848,7 +8878,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -8863,7 +8893,7 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="50" t="str">
@@ -8873,7 +8903,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
@@ -8887,7 +8917,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -8901,10 +8931,10 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" ht="21" x14ac:dyDescent="0.65">
+    <row r="28" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -8917,7 +8947,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="10"/>
       <c r="D29" s="2"/>
@@ -8931,12 +8961,12 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -8947,7 +8977,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -8961,7 +8991,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -8979,7 +9009,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -8993,7 +9023,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -9022,7 +9052,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="9"/>
@@ -9051,7 +9081,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="9"/>
@@ -9080,7 +9110,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="9"/>
@@ -9094,7 +9124,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="37"/>
@@ -9108,7 +9138,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -9122,7 +9152,7 @@
       <c r="L39"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -9136,7 +9166,7 @@
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -9150,7 +9180,7 @@
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -9164,7 +9194,7 @@
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -9178,7 +9208,7 @@
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -9192,7 +9222,7 @@
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -9206,7 +9236,7 @@
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -9220,7 +9250,7 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -9234,7 +9264,7 @@
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="37"/>
@@ -9282,38 +9312,38 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:M31"/>
+  <dimension ref="B1:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
     <col min="11" max="12" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.59765625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.1328125" style="23"/>
-    <col min="15" max="15" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="23"/>
+    <col min="15" max="15" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1328125" style="23"/>
+    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9327,11 +9357,11 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -9343,7 +9373,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9357,11 +9387,11 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -9373,11 +9403,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -9389,12 +9419,12 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -9405,12 +9435,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -9421,12 +9451,12 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -9437,7 +9467,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -9451,7 +9481,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9465,10 +9495,10 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -9481,12 +9511,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -9497,7 +9527,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9511,7 +9541,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -9527,7 +9557,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
@@ -9541,27 +9571,27 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>218</v>
       </c>
       <c r="I18" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>221</v>
@@ -9569,7 +9599,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
@@ -9577,22 +9607,22 @@
         <v>223</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>204</v>
+        <v>342</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
       <c r="K19" s="50" t="str">
         <f>_xll.flInstrumentsAdd(E18:J19)</f>
-        <v>LUID_A9RLV8U6</v>
+        <v>LUID_SVI3RKHJ</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
@@ -9606,7 +9636,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -9620,10 +9650,10 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.65">
+    <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -9636,12 +9666,12 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -9652,7 +9682,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -9666,16 +9696,14 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>204</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -9684,7 +9712,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -9698,101 +9726,112 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="8" t="str">
-        <f t="array" ref="F28:K30">_xll.flInstrumentsLookup(F26,E29,"Instrument/default/Ticker")</f>
+      <c r="F28" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G28" s="8" t="str">
+        <f t="array" ref="G28:L29">_xll.flInstrumentsLookup(F29,E29,"Instrument/default/Ticker")</f>
         <v>State</v>
       </c>
-      <c r="G28" s="8" t="str">
+      <c r="H28" s="8" t="str">
         <v>LusidInstrumentId</v>
       </c>
-      <c r="H28" s="7" t="str">
+      <c r="I28" s="8" t="str">
         <v>Name</v>
       </c>
-      <c r="I28" s="8" t="str">
+      <c r="J28" s="7" t="str">
         <v>Ticker</v>
       </c>
-      <c r="J28" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K28" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L28" s="2"/>
+      <c r="K28" s="8" t="str">
+        <v>Figi</v>
+      </c>
+      <c r="L28" s="8" t="str">
+        <v>Isin</v>
+      </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="12" t="str">
-        <f>G19</f>
+      <c r="E29" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="13" t="str">
+        <v>Active</v>
+      </c>
+      <c r="H29" s="13" t="str">
+        <v>LUID_SVI3RKHJ</v>
+      </c>
+      <c r="I29" s="13" t="str">
+        <v>Spectre</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16" t="str">
         <v>BBG007FAKECO</v>
       </c>
-      <c r="F29" s="13" t="str">
-        <v>State</v>
-      </c>
-      <c r="G29" s="13" t="str">
-        <v>LusidInstrumentId</v>
-      </c>
-      <c r="H29" s="16" t="str">
-        <v>Name</v>
-      </c>
-      <c r="I29" s="16" t="str">
-        <v>Ticker</v>
-      </c>
-      <c r="J29" s="17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K29" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="17" t="str">
+        <v>GB007007007B</v>
+      </c>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="str">
-        <v>State</v>
-      </c>
-      <c r="G30" s="2" t="str">
-        <v>LusidInstrumentId</v>
-      </c>
-      <c r="H30" s="2" t="str">
-        <v>Name</v>
-      </c>
-      <c r="I30" s="2" t="str">
-        <v>Ticker</v>
-      </c>
-      <c r="J30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="G31" s="18" t="str">
+        <f>_xll.flInstrumentsLookup(F31,E31,"Instrument/default/Ticker")</f>
+        <v>#ERROR: The identifier type of 'Isin' is not configured to be a unique alias on this system. If you think this is an error, please contact your system administrator.</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
     </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations disablePrompts="1" count="18">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Client supplied instrument Id" sqref="O17 O24" xr:uid="{00DDB5B9-AB50-4EB6-A9D1-57ADC0761B97}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument name" sqref="P17 P24" xr:uid="{12ED80DD-1447-4270-897B-A4131EB9C93A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument Id Type" sqref="Q17" xr:uid="{02C3AC28-C26B-4014-94BB-541E43E04CCA}"/>
@@ -9830,37 +9869,35 @@
   </sheetPr>
   <dimension ref="B1:N46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.265625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.59765625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.1328125" style="23"/>
-    <col min="15" max="15" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="23"/>
+    <col min="15" max="15" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1328125" style="23"/>
+    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9874,11 +9911,11 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -9890,7 +9927,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9904,11 +9941,11 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -9920,11 +9957,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -9936,11 +9973,11 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -9952,12 +9989,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -9968,12 +10005,12 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -9984,12 +10021,12 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -10000,7 +10037,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9"/>
@@ -10009,7 +10046,7 @@
         <v>OK</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -10020,39 +10057,39 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -10066,11 +10103,11 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -10083,30 +10120,30 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="L16" s="6" t="str">
         <f t="array" ref="L16:L19">_xll.flPropertiesAdd(E16:K19)</f>
@@ -10115,7 +10152,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
@@ -10123,10 +10160,10 @@
         <v>219</v>
       </c>
       <c r="F17" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>297</v>
       </c>
       <c r="H17" s="12" t="b">
         <v>0</v>
@@ -10136,10 +10173,10 @@
         <v>PlanType</v>
       </c>
       <c r="J17" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>288</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>289</v>
       </c>
       <c r="L17" s="50" t="str">
         <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/PlanType' because it already exists.</v>
@@ -10147,7 +10184,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
@@ -10155,22 +10192,22 @@
         <v>219</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H18" s="42" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L18" s="50" t="str">
         <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/TakeOverWorldDate' because it already exists.</v>
@@ -10178,7 +10215,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
@@ -10186,22 +10223,22 @@
         <v>180</v>
       </c>
       <c r="F19" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>337</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>338</v>
       </c>
       <c r="H19" s="42" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>338</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>339</v>
       </c>
       <c r="L19" s="51" t="str">
         <v>Error creating Property Definition 'Transaction/Finbourne-Examples/IsThisATestTrade' because it already exists.</v>
@@ -10209,7 +10246,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
@@ -10224,7 +10261,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
@@ -10239,7 +10276,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -10254,7 +10291,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
@@ -10269,7 +10306,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -10284,7 +10321,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
@@ -10293,7 +10330,7 @@
         <v>OK</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -10304,21 +10341,21 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="6"/>
@@ -10327,10 +10364,10 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.65">
+    <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -10344,11 +10381,11 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -10361,24 +10398,24 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>333</v>
-      </c>
       <c r="G30" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H30" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="I30" s="33" t="s">
         <v>300</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>301</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -10386,7 +10423,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9">
@@ -10397,16 +10434,16 @@
       </c>
       <c r="F31" s="15" t="str">
         <f>'Add instrument'!K19</f>
-        <v>LUID_A9RLV8U6</v>
+        <v>LUID_SVI3RKHJ</v>
       </c>
       <c r="G31" s="46">
         <v>43101</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J31" s="41"/>
       <c r="K31" s="50" t="str">
@@ -10417,7 +10454,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="9">
@@ -10434,7 +10471,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="9">
@@ -10451,7 +10488,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="9"/>
@@ -10466,7 +10503,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="9"/>
@@ -10481,7 +10518,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -10496,10 +10533,10 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.65">
+    <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -10513,11 +10550,11 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -10530,7 +10567,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -10545,7 +10582,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -10564,7 +10601,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -10579,7 +10616,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -10602,48 +10639,48 @@
       <c r="J42" s="8" t="str">
         <v>TakeOverDate</v>
       </c>
-      <c r="K42" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L42" s="8" t="e">
-        <v>#N/A</v>
+      <c r="K42" s="8" t="str">
+        <v>Isin</v>
+      </c>
+      <c r="L42" s="8" t="str">
+        <v>Figi</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="9"/>
       <c r="E43" s="15" t="str">
         <f>F31</f>
-        <v>LUID_A9RLV8U6</v>
+        <v>LUID_SVI3RKHJ</v>
       </c>
       <c r="F43" s="42" t="str">
-        <v>State</v>
+        <v>Active</v>
       </c>
       <c r="G43" s="42" t="str">
-        <v>LusidInstrumentId</v>
+        <v>LUID_SVI3RKHJ</v>
       </c>
       <c r="H43" s="41" t="str">
-        <v>Name</v>
+        <v>Spectre</v>
       </c>
       <c r="I43" s="41" t="str">
-        <v>PlanType</v>
+        <v>Laser from satellite</v>
       </c>
       <c r="J43" s="41" t="str">
-        <v>TakeOverDate</v>
-      </c>
-      <c r="K43" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L43" s="50" t="e">
-        <v>#N/A</v>
+        <v>2028/12/01T00:00:00.00</v>
+      </c>
+      <c r="K43" s="41" t="str">
+        <v>GB007007007B</v>
+      </c>
+      <c r="L43" s="50" t="str">
+        <v>BBG007FAKECO</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="9"/>
@@ -10658,7 +10695,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="9"/>
@@ -10673,7 +10710,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="9"/>
@@ -10725,34 +10762,32 @@
   </sheetPr>
   <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.265625" style="23" customWidth="1"/>
-    <col min="7" max="10" width="18.265625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="22.73046875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="11.265625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="15.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="23"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="23" customWidth="1"/>
+    <col min="7" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -10767,11 +10802,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -10784,7 +10819,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -10799,11 +10834,11 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -10816,11 +10851,11 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -10833,12 +10868,12 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -10850,12 +10885,12 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -10867,12 +10902,12 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -10891,7 +10926,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -10913,7 +10948,7 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -10924,7 +10959,7 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -10946,10 +10981,10 @@
       <c r="T12"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="2:21" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:21" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -10970,7 +11005,7 @@
       <c r="T13"/>
       <c r="U13"/>
     </row>
-    <row r="14" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -10992,7 +11027,7 @@
       <c r="T14"/>
       <c r="U14"/>
     </row>
-    <row r="15" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11000,7 +11035,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -11020,7 +11055,7 @@
       <c r="T15"/>
       <c r="U15"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -11042,7 +11077,7 @@
       <c r="T16"/>
       <c r="U16"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -11063,7 +11098,7 @@
       <c r="T17"/>
       <c r="U17"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -11085,7 +11120,7 @@
       <c r="T18"/>
       <c r="U18"/>
     </row>
-    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.65">
+    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
         <v>217</v>
@@ -11109,7 +11144,7 @@
       <c r="T19"/>
       <c r="U19"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -11131,7 +11166,7 @@
       <c r="T20"/>
       <c r="U20"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -11163,7 +11198,7 @@
         <v>216</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21"/>
@@ -11174,12 +11209,12 @@
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="16" t="s">
@@ -11199,9 +11234,9 @@
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
-      <c r="N22" s="51" t="str">
+      <c r="N22" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,L22,M22)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>199.23</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22"/>
@@ -11212,12 +11247,12 @@
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="16" t="s">
@@ -11238,9 +11273,9 @@
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
-      <c r="N23" s="51" t="str">
+      <c r="N23" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,L23,M23)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>199.25</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23"/>
@@ -11251,12 +11286,12 @@
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="16" t="s">
@@ -11277,9 +11312,9 @@
       </c>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
-      <c r="N24" s="51" t="str">
+      <c r="N24" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,L24,M24)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>203.13</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24"/>
@@ -11290,12 +11325,12 @@
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="16" t="s">
@@ -11316,9 +11351,9 @@
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="51" t="str">
+      <c r="N25" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,L25,M25)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>203.86</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25"/>
@@ -11329,12 +11364,12 @@
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="16" t="s">
@@ -11355,9 +11390,9 @@
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
-      <c r="N26" s="51" t="str">
+      <c r="N26" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,L26,M26)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>203.86</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26"/>
@@ -11365,12 +11400,12 @@
       <c r="R26"/>
       <c r="S26"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="16" t="s">
@@ -11391,9 +11426,9 @@
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
-      <c r="N27" s="51" t="str">
+      <c r="N27" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,L27,M27)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>203.86</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27"/>
@@ -11401,12 +11436,12 @@
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
       <c r="E28" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="16" t="s">
@@ -11427,9 +11462,9 @@
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
-      <c r="N28" s="51" t="str">
+      <c r="N28" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,L28,M28)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>203.86</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28"/>
@@ -11437,12 +11472,12 @@
       <c r="R28"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
       <c r="E29" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="16" t="s">
@@ -11463,9 +11498,9 @@
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
-      <c r="N29" s="51" t="str">
+      <c r="N29" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,L29,M29)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>204.53</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29"/>
@@ -11473,12 +11508,12 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16" t="s">
@@ -11499,9 +11534,9 @@
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
-      <c r="N30" s="51" t="str">
+      <c r="N30" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,L30,M30)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>207.48</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30"/>
@@ -11509,7 +11544,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
@@ -11529,7 +11564,7 @@
       <c r="R31"/>
       <c r="S31"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -11549,25 +11584,25 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="34" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
     </row>
-    <row r="37" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
@@ -11592,34 +11627,32 @@
   </sheetPr>
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="20.86328125" style="23" customWidth="1"/>
-    <col min="7" max="10" width="18.265625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="22.73046875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1328125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="23" customWidth="1"/>
+    <col min="7" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="23" customWidth="1"/>
     <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.59765625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="15.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="23"/>
+    <col min="14" max="14" width="4.5703125" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -11634,11 +11667,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -11651,7 +11684,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -11666,11 +11699,11 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -11683,11 +11716,11 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -11700,12 +11733,12 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -11717,12 +11750,12 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -11734,12 +11767,12 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -11751,7 +11784,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -11766,7 +11799,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -11781,10 +11814,10 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -11798,7 +11831,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -11813,7 +11846,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11821,7 +11854,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -11834,7 +11867,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -11849,7 +11882,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -11861,7 +11894,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -11876,7 +11909,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.65">
+    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
         <v>217</v>
@@ -11893,7 +11926,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -11908,7 +11941,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -11937,19 +11970,19 @@
         <v>216</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N21" s="2"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="16" t="s">
@@ -11968,21 +12001,21 @@
         <v>43570</v>
       </c>
       <c r="L22" s="20"/>
-      <c r="M22" s="51" t="str">
+      <c r="M22" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,F22,L22)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>199.23</v>
       </c>
       <c r="N22" s="2"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="16" t="s">
@@ -12001,21 +12034,21 @@
         <v>43571</v>
       </c>
       <c r="L23" s="17"/>
-      <c r="M23" s="51" t="str">
+      <c r="M23" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,F23,L23)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>111.1</v>
       </c>
       <c r="N23" s="2"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="16" t="s">
@@ -12034,21 +12067,21 @@
         <v>43572</v>
       </c>
       <c r="L24" s="17"/>
-      <c r="M24" s="51" t="str">
+      <c r="M24" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,F24,L24)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>78.36</v>
       </c>
       <c r="N24" s="2"/>
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="16" t="s">
@@ -12067,9 +12100,9 @@
         <v>43573</v>
       </c>
       <c r="L25" s="17"/>
-      <c r="M25" s="51" t="str">
+      <c r="M25" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,F25,L25)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>166.6</v>
       </c>
       <c r="N25" s="2"/>
       <c r="P25"/>
@@ -12077,12 +12110,12 @@
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="16" t="s">
@@ -12101,19 +12134,19 @@
         <v>43574</v>
       </c>
       <c r="L26" s="17"/>
-      <c r="M26" s="51" t="str">
+      <c r="M26" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,F26,L26)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>666.5</v>
       </c>
       <c r="N26" s="2"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="16" t="s">
@@ -12132,19 +12165,19 @@
         <v>43575</v>
       </c>
       <c r="L27" s="17"/>
-      <c r="M27" s="51" t="str">
+      <c r="M27" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,F27,L27)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>132.44999999999999</v>
       </c>
       <c r="N27" s="2"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
       <c r="E28" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="16" t="s">
@@ -12163,19 +12196,19 @@
         <v>43576</v>
       </c>
       <c r="L28" s="17"/>
-      <c r="M28" s="51" t="str">
+      <c r="M28" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,F28,L28)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>123.37</v>
       </c>
       <c r="N28" s="2"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
       <c r="E29" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="16" t="s">
@@ -12194,19 +12227,19 @@
         <v>43577</v>
       </c>
       <c r="L29" s="17"/>
-      <c r="M29" s="51" t="str">
+      <c r="M29" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,F29,L29)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>6963</v>
       </c>
       <c r="N29" s="2"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16" t="s">
@@ -12225,19 +12258,19 @@
         <v>43578</v>
       </c>
       <c r="L30" s="17"/>
-      <c r="M30" s="51" t="str">
+      <c r="M30" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,F30,L30)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>582.5</v>
       </c>
       <c r="N30" s="2"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
       <c r="E31" s="13" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="16" t="s">
@@ -12256,14 +12289,14 @@
         <v>43579</v>
       </c>
       <c r="L31" s="17"/>
-      <c r="M31" s="51" t="str">
+      <c r="M31" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E31,G31,H31,I31,J31,K31,F31,L31)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>11550</v>
       </c>
       <c r="N31" s="2"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -12279,10 +12312,10 @@
       <c r="N32" s="2"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P33"/>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P34"/>
     </row>
   </sheetData>
@@ -12298,16 +12331,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -12316,7 +12339,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F4F0FA1AC8B142BA5BFAEE01329AF1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51d44e6750016a81140edd9302933050">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7f1325bc-d786-4e92-924e-74ffe34b2b40" xmlns:ns3="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbbf5b69800df541767d824f3fbf5177" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12542,25 +12565,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
-    <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -12568,7 +12583,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EDF347-3168-4BEB-9A6E-9322773C07F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12586,4 +12601,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
+    <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LUSID Excel - Setting up your market data.xlsx
+++ b/LUSID Excel - Setting up your market data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445D62FA-1A9F-41EC-9D3C-AF9FC39F8181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFC1CE-CA95-4937-AB06-E20B7FB6F6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" firstSheet="1" activeTab="10" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Datetime format" sheetId="21" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="345">
   <si>
     <t>Base Currency</t>
   </si>
@@ -777,9 +777,6 @@
     <t>Figi</t>
   </si>
   <si>
-    <t>Mid</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scope: </t>
   </si>
   <si>
@@ -1195,6 +1192,9 @@
   </si>
   <si>
     <t>BBG007FAKECO</t>
+  </si>
+  <si>
+    <t>mid</t>
   </si>
 </sst>
 </file>
@@ -1530,364 +1530,371 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>e33b658a-70cf-4d5b-a585-87d33bd850dd</stp>
-        <tr r="H26" s="10"/>
-        <tr r="F28" s="10"/>
-        <tr r="G31" s="10"/>
-        <tr r="I28" s="10"/>
-        <tr r="F22" s="10"/>
-        <tr r="I25" s="10"/>
-        <tr r="F31" s="10"/>
-        <tr r="F26" s="10"/>
-        <tr r="G24" s="10"/>
-        <tr r="I26" s="10"/>
-        <tr r="I24" s="10"/>
-        <tr r="I22" s="10"/>
-        <tr r="H23" s="10"/>
-        <tr r="F27" s="10"/>
-        <tr r="J21" s="10"/>
-        <tr r="J30" s="10"/>
-        <tr r="I30" s="10"/>
-        <tr r="G22" s="10"/>
-        <tr r="G21" s="10"/>
-        <tr r="G23" s="10"/>
-        <tr r="I31" s="10"/>
-        <tr r="J28" s="10"/>
-        <tr r="F29" s="10"/>
-        <tr r="J31" s="10"/>
-        <tr r="G29" s="10"/>
-        <tr r="I21" s="10"/>
-        <tr r="G27" s="10"/>
-        <tr r="G26" s="10"/>
-        <tr r="F30" s="10"/>
-        <tr r="J27" s="10"/>
-        <tr r="H29" s="10"/>
-        <tr r="H31" s="10"/>
-        <tr r="H24" s="10"/>
-        <tr r="H30" s="10"/>
-        <tr r="F24" s="10"/>
-        <tr r="H28" s="10"/>
-        <tr r="H25" s="10"/>
-        <tr r="J26" s="10"/>
-        <tr r="I23" s="10"/>
-        <tr r="G25" s="10"/>
-        <tr r="F23" s="10"/>
-        <tr r="I29" s="10"/>
-        <tr r="H22" s="10"/>
-        <tr r="H27" s="10"/>
-        <tr r="J22" s="10"/>
-        <tr r="I27" s="10"/>
-        <tr r="G28" s="10"/>
-        <tr r="J24" s="10"/>
-        <tr r="J25" s="10"/>
-        <tr r="G30" s="10"/>
-        <tr r="F25" s="10"/>
-        <tr r="J23" s="10"/>
-        <tr r="H21" s="10"/>
-        <tr r="J29" s="10"/>
-        <tr r="F21" s="10"/>
+        <stp>9c58753e-ee55-431c-bc50-24f145f51a03</stp>
+        <tr r="M23" s="17"/>
       </tp>
     </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>dda1fa4d-a546-4508-a1bb-09c7c78f8964</stp>
-        <tr r="N29" s="16"/>
+        <stp>50b35d4b-128c-497b-ae21-079eb40bb2dd</stp>
+        <tr r="N25" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>b2552618-2b29-45a5-bd89-61e7efd8fd32</stp>
-        <tr r="F43" s="20"/>
-        <tr r="L43" s="20"/>
-        <tr r="I43" s="20"/>
-        <tr r="G42" s="20"/>
-        <tr r="H42" s="20"/>
-        <tr r="I42" s="20"/>
-        <tr r="J43" s="20"/>
-        <tr r="L42" s="20"/>
-        <tr r="H43" s="20"/>
-        <tr r="J42" s="20"/>
-        <tr r="K42" s="20"/>
-        <tr r="F42" s="20"/>
-        <tr r="G43" s="20"/>
-        <tr r="K43" s="20"/>
+        <stp>11165e86-7c93-4b5c-b92b-1766822d54a1</stp>
+        <tr r="H26" s="10"/>
+        <tr r="G24" s="10"/>
+        <tr r="I30" s="10"/>
+        <tr r="G29" s="10"/>
+        <tr r="H24" s="10"/>
+        <tr r="F23" s="10"/>
+        <tr r="J25" s="10"/>
+        <tr r="F28" s="10"/>
+        <tr r="I26" s="10"/>
+        <tr r="G22" s="10"/>
+        <tr r="I21" s="10"/>
+        <tr r="H30" s="10"/>
+        <tr r="I29" s="10"/>
+        <tr r="G30" s="10"/>
+        <tr r="G31" s="10"/>
+        <tr r="I24" s="10"/>
+        <tr r="G21" s="10"/>
+        <tr r="G27" s="10"/>
+        <tr r="F24" s="10"/>
+        <tr r="H22" s="10"/>
+        <tr r="F25" s="10"/>
+        <tr r="I28" s="10"/>
+        <tr r="I22" s="10"/>
+        <tr r="G23" s="10"/>
+        <tr r="G26" s="10"/>
+        <tr r="H28" s="10"/>
+        <tr r="H27" s="10"/>
+        <tr r="J23" s="10"/>
+        <tr r="F22" s="10"/>
+        <tr r="H23" s="10"/>
+        <tr r="I31" s="10"/>
+        <tr r="F30" s="10"/>
+        <tr r="H25" s="10"/>
+        <tr r="J22" s="10"/>
+        <tr r="H21" s="10"/>
+        <tr r="I25" s="10"/>
+        <tr r="F27" s="10"/>
+        <tr r="J28" s="10"/>
+        <tr r="J27" s="10"/>
+        <tr r="J26" s="10"/>
+        <tr r="I27" s="10"/>
+        <tr r="J29" s="10"/>
+        <tr r="F31" s="10"/>
+        <tr r="J21" s="10"/>
+        <tr r="F29" s="10"/>
+        <tr r="H29" s="10"/>
+        <tr r="I23" s="10"/>
+        <tr r="G28" s="10"/>
+        <tr r="F21" s="10"/>
+        <tr r="F26" s="10"/>
+        <tr r="J30" s="10"/>
+        <tr r="J31" s="10"/>
+        <tr r="H31" s="10"/>
+        <tr r="G25" s="10"/>
+        <tr r="J24" s="10"/>
       </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>4afcd1e3-b73e-41e8-82a8-f2b303e64ae0</stp>
-        <tr r="G25" s="11"/>
-        <tr r="F19" s="11"/>
-        <tr r="E23" s="11"/>
-        <tr r="E20" s="11"/>
-        <tr r="E22" s="11"/>
-        <tr r="E28" s="11"/>
-        <tr r="F27" s="11"/>
-        <tr r="F28" s="11"/>
-        <tr r="F20" s="11"/>
-        <tr r="G29" s="11"/>
-        <tr r="G19" s="11"/>
-        <tr r="G22" s="11"/>
-        <tr r="G20" s="11"/>
-        <tr r="E26" s="11"/>
-        <tr r="F17" s="11"/>
-        <tr r="F18" s="11"/>
-        <tr r="G23" s="11"/>
-        <tr r="F21" s="11"/>
-        <tr r="F24" s="11"/>
-        <tr r="E17" s="11"/>
-        <tr r="E29" s="11"/>
-        <tr r="E24" s="11"/>
-        <tr r="F26" s="11"/>
-        <tr r="G24" s="11"/>
-        <tr r="E25" s="11"/>
-        <tr r="G28" s="11"/>
-        <tr r="G26" s="11"/>
-        <tr r="F29" s="11"/>
-        <tr r="E19" s="11"/>
-        <tr r="G27" s="11"/>
-        <tr r="E18" s="11"/>
-        <tr r="E21" s="11"/>
-        <tr r="G17" s="11"/>
-        <tr r="F23" s="11"/>
-        <tr r="F25" s="11"/>
-        <tr r="G18" s="11"/>
-        <tr r="G21" s="11"/>
-        <tr r="F22" s="11"/>
-        <tr r="E27" s="11"/>
+        <stp>56155feb-ba1d-4596-a41d-94f46d127f5d</stp>
+        <tr r="N24" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>b790a6e4-9ea1-4eab-8863-e50dfd86a895</stp>
-        <tr r="M29" s="17"/>
+        <stp>10e5e319-55db-4ef0-b5b8-71c55264fef4</stp>
+        <tr r="J42" s="20"/>
+        <tr r="J43" s="20"/>
+        <tr r="I42" s="20"/>
+        <tr r="F43" s="20"/>
+        <tr r="K43" s="20"/>
+        <tr r="H42" s="20"/>
+        <tr r="L42" s="20"/>
+        <tr r="I43" s="20"/>
+        <tr r="L43" s="20"/>
+        <tr r="K42" s="20"/>
+        <tr r="H43" s="20"/>
+        <tr r="G42" s="20"/>
+        <tr r="G43" s="20"/>
+        <tr r="F42" s="20"/>
       </tp>
     </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>9b2bb666-0a64-482c-8c19-dc703cd797d4</stp>
-        <tr r="N26" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>aff45025-cfb2-417a-a894-e9f102138f05</stp>
-        <tr r="N24" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>bcbbe081-7d49-4bc3-b94a-9d7ac27016f2</stp>
-        <tr r="I28" s="14"/>
-        <tr r="I29" s="14"/>
-        <tr r="K28" s="14"/>
-        <tr r="L28" s="14"/>
-        <tr r="L29" s="14"/>
-        <tr r="H28" s="14"/>
-        <tr r="G28" s="14"/>
-        <tr r="J29" s="14"/>
-        <tr r="K29" s="14"/>
-        <tr r="G29" s="14"/>
-        <tr r="H29" s="14"/>
-        <tr r="J28" s="14"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0e4e69d4-96d2-4315-86e0-1f32970b7960</stp>
-        <tr r="M30" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>18a23769-bbad-46dc-b5be-4655e7d7b057</stp>
-        <tr r="N25" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>29a8c027-0f0d-462b-886e-ee7f5dcdd0b8</stp>
-        <tr r="M25" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>d8ecb491-5dad-43b6-bc58-a5cebd83b59d</stp>
-        <tr r="M28" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>780ef6dd-86df-4df1-96d9-49a2de7bbfe0</stp>
-        <tr r="E23" s="12"/>
-        <tr r="F23" s="12"/>
-        <tr r="E32" s="12"/>
-        <tr r="E33" s="12"/>
-        <tr r="G24" s="12"/>
-        <tr r="E29" s="12"/>
-        <tr r="G27" s="12"/>
-        <tr r="F32" s="12"/>
-        <tr r="F29" s="12"/>
-        <tr r="G30" s="12"/>
-        <tr r="E24" s="12"/>
-        <tr r="E28" s="12"/>
-        <tr r="G33" s="12"/>
-        <tr r="G29" s="12"/>
-        <tr r="G25" s="12"/>
-        <tr r="G28" s="12"/>
-        <tr r="G26" s="12"/>
-        <tr r="F27" s="12"/>
-        <tr r="F24" s="12"/>
-        <tr r="F30" s="12"/>
-        <tr r="E30" s="12"/>
-        <tr r="F31" s="12"/>
-        <tr r="G23" s="12"/>
-        <tr r="F26" s="12"/>
-        <tr r="F25" s="12"/>
-        <tr r="F28" s="12"/>
-        <tr r="E26" s="12"/>
-        <tr r="E25" s="12"/>
-        <tr r="F33" s="12"/>
-        <tr r="G32" s="12"/>
-        <tr r="E27" s="12"/>
-        <tr r="E31" s="12"/>
-        <tr r="G31" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>832c58fa-bd86-46c6-b87b-06306299d4a3</stp>
-        <tr r="N30" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f7498c14-cc42-4591-ba33-531f28b5dd0c</stp>
-        <tr r="N28" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a38e6fb0-8db8-4e39-941b-a4ebdf1abbcf</stp>
-        <tr r="M24" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>2554ffcc-f379-4e90-a145-0c0d55cf9298</stp>
-        <tr r="N27" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>39a96072-66d6-4982-b332-39dc8540feeb</stp>
+        <stp>1ca87041-1cfb-4cd6-b637-b23a3a2bf5c8</stp>
         <tr r="M27" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>131692bd-9d1e-4279-bbca-5a4f90d8edbc</stp>
-        <tr r="M26" s="17"/>
+        <stp>4564e3bb-89a7-416d-994c-4e1ba39698b9</stp>
+        <tr r="E28" s="11"/>
+        <tr r="G24" s="11"/>
+        <tr r="G25" s="11"/>
+        <tr r="F20" s="11"/>
+        <tr r="G23" s="11"/>
+        <tr r="E25" s="11"/>
+        <tr r="G17" s="11"/>
+        <tr r="F19" s="11"/>
+        <tr r="G29" s="11"/>
+        <tr r="F21" s="11"/>
+        <tr r="G28" s="11"/>
+        <tr r="F23" s="11"/>
+        <tr r="E21" s="11"/>
+        <tr r="E23" s="11"/>
+        <tr r="G26" s="11"/>
+        <tr r="E20" s="11"/>
+        <tr r="G22" s="11"/>
+        <tr r="E17" s="11"/>
+        <tr r="F29" s="11"/>
+        <tr r="G18" s="11"/>
+        <tr r="F28" s="11"/>
+        <tr r="F18" s="11"/>
+        <tr r="G19" s="11"/>
+        <tr r="F24" s="11"/>
+        <tr r="F25" s="11"/>
+        <tr r="E22" s="11"/>
+        <tr r="G20" s="11"/>
+        <tr r="E29" s="11"/>
+        <tr r="E19" s="11"/>
+        <tr r="G21" s="11"/>
+        <tr r="E26" s="11"/>
+        <tr r="E24" s="11"/>
+        <tr r="G27" s="11"/>
+        <tr r="F22" s="11"/>
+        <tr r="F27" s="11"/>
+        <tr r="F17" s="11"/>
+        <tr r="F26" s="11"/>
+        <tr r="E18" s="11"/>
+        <tr r="E27" s="11"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>82ae3128-2a5e-43ee-b3f4-f0a5042d4a19</stp>
+        <stp>660ce0c5-0169-4e77-9fa0-33f5bf05d52b</stp>
+        <tr r="N29" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>61a72f8a-8ffe-4f30-a9b7-836981e231d9</stp>
+        <tr r="G34" s="13"/>
+        <tr r="I36" s="13"/>
+        <tr r="H36" s="13"/>
+        <tr r="I35" s="13"/>
+        <tr r="F36" s="13"/>
+        <tr r="K36" s="13"/>
+        <tr r="G35" s="13"/>
+        <tr r="J36" s="13"/>
+        <tr r="H34" s="13"/>
+        <tr r="K34" s="13"/>
+        <tr r="H35" s="13"/>
+        <tr r="F35" s="13"/>
+        <tr r="F34" s="13"/>
+        <tr r="J35" s="13"/>
         <tr r="G36" s="13"/>
         <tr r="J34" s="13"/>
         <tr r="I34" s="13"/>
-        <tr r="G35" s="13"/>
-        <tr r="I36" s="13"/>
-        <tr r="H36" s="13"/>
-        <tr r="H34" s="13"/>
-        <tr r="I35" s="13"/>
-        <tr r="K34" s="13"/>
-        <tr r="H35" s="13"/>
         <tr r="K35" s="13"/>
-        <tr r="F34" s="13"/>
-        <tr r="J36" s="13"/>
-        <tr r="J35" s="13"/>
-        <tr r="G34" s="13"/>
-        <tr r="F36" s="13"/>
-        <tr r="K36" s="13"/>
-        <tr r="F35" s="13"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>d5e958b0-0550-4cd2-9fc4-a9186c66aaa6</stp>
+        <stp>ff50d9be-8796-46cf-809c-61c9412c7478</stp>
+        <tr r="N23" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>14023d12-416e-49cf-9df2-55334d6cf913</stp>
+        <tr r="G32" s="14"/>
+        <tr r="J33" s="14"/>
+        <tr r="L32" s="14"/>
+        <tr r="K32" s="14"/>
+        <tr r="H33" s="14"/>
+        <tr r="L33" s="14"/>
+        <tr r="G33" s="14"/>
+        <tr r="J32" s="14"/>
+        <tr r="I33" s="14"/>
+        <tr r="K33" s="14"/>
+        <tr r="I32" s="14"/>
+        <tr r="H32" s="14"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f6fee0f4-bc85-448a-8fd6-bc8471611814</stp>
+        <tr r="N27" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b277a61a-67f2-491e-a8fc-4929196ea86d</stp>
+        <tr r="N26" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>41f95d4e-098d-4ff3-9d2c-3506fd4b6b02</stp>
+        <tr r="M28" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>52bb8e15-0bca-4d46-a9e1-40c4fc50e3db</stp>
         <tr r="M22" s="17"/>
         <tr r="N22" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>1addcb2f-7372-4280-88b1-9a20249e1bda</stp>
-        <tr r="M31" s="17"/>
+        <stp>9a339039-083f-4dbc-9488-cb2af9e842e2</stp>
+        <tr r="G31" s="14"/>
       </tp>
-    </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>9e8ec426-bebe-4960-b842-8bfb971bd2c2</stp>
-        <tr r="G31" s="14"/>
+        <stp>3f89804c-f833-451d-86ae-079bdb523285</stp>
+        <tr r="N28" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>532dc68a-d3b6-4641-b10f-64ebf58ae289</stp>
-        <tr r="N23" s="16"/>
+        <stp>b9ad75ad-4b4f-4eda-9fce-7945bbc6a14b</stp>
+        <tr r="M24" s="17"/>
       </tp>
     </main>
-    <main first="rtdsrv.e1fe7aaab8fa4ccebcac0abf432fa1f9">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>aa333e50-389a-49bc-a4cd-eec2a8e2b84a</stp>
-        <tr r="M23" s="17"/>
+        <stp>0f8f61c8-c051-41b3-b230-925142abdd92</stp>
+        <tr r="M26" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bd9bf7cf-40da-4972-9975-ba101e1cb9e8</stp>
+        <tr r="H28" s="14"/>
+        <tr r="I29" s="14"/>
+        <tr r="K28" s="14"/>
+        <tr r="G28" s="14"/>
+        <tr r="L28" s="14"/>
+        <tr r="I28" s="14"/>
+        <tr r="J29" s="14"/>
+        <tr r="L29" s="14"/>
+        <tr r="H29" s="14"/>
+        <tr r="J28" s="14"/>
+        <tr r="G29" s="14"/>
+        <tr r="K29" s="14"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0193442e-14bb-43c2-9db1-f13cc82ad37f</stp>
+        <tr r="N30" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>58e2aceb-df0b-4d23-bace-2a5b664d1f57</stp>
+        <tr r="M29" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>792a52a0-2195-4176-8b26-4f0bb6fab0d2</stp>
+        <tr r="F32" s="12"/>
+        <tr r="F26" s="12"/>
+        <tr r="F29" s="12"/>
+        <tr r="G31" s="12"/>
+        <tr r="F27" s="12"/>
+        <tr r="E32" s="12"/>
+        <tr r="E26" s="12"/>
+        <tr r="E33" s="12"/>
+        <tr r="E28" s="12"/>
+        <tr r="F30" s="12"/>
+        <tr r="E25" s="12"/>
+        <tr r="E31" s="12"/>
+        <tr r="G26" s="12"/>
+        <tr r="F23" s="12"/>
+        <tr r="F28" s="12"/>
+        <tr r="E24" s="12"/>
+        <tr r="G24" s="12"/>
+        <tr r="E30" s="12"/>
+        <tr r="E29" s="12"/>
+        <tr r="G29" s="12"/>
+        <tr r="F31" s="12"/>
+        <tr r="G32" s="12"/>
+        <tr r="G28" s="12"/>
+        <tr r="E23" s="12"/>
+        <tr r="F25" s="12"/>
+        <tr r="G30" s="12"/>
+        <tr r="F24" s="12"/>
+        <tr r="G33" s="12"/>
+        <tr r="F33" s="12"/>
+        <tr r="G27" s="12"/>
+        <tr r="G25" s="12"/>
+        <tr r="G23" s="12"/>
+        <tr r="E27" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6d0dca38-6a98-4b85-9b63-aef7e9afb695</stp>
+        <tr r="M30" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f3cf562f-667e-474c-b027-4588f991f62c</stp>
+        <tr r="M25" s="17"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>d75cdde3-3501-4cf9-9646-55d03a2c1a7e</stp>
+        <tr r="M31" s="17"/>
       </tp>
     </main>
   </volType>
@@ -2955,8 +2962,8 @@
   </sheetPr>
   <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,7 +3010,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3037,7 +3044,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3055,7 +3062,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3074,7 +3081,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3092,7 +3099,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3110,7 +3117,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3144,12 +3151,12 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3180,12 +3187,12 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3218,20 +3225,20 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F17" s="25">
         <v>43565</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I17" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -3262,7 +3269,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F19" s="28">
         <f>F17</f>
@@ -3270,7 +3277,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I19" s="25" t="str">
         <f>TEXT(F23,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F23," hh:mm:ss.00Z")</f>
@@ -3306,17 +3313,17 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F21" s="29">
         <v>0.56302719907407406</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>325</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>326</v>
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="2"/>
@@ -3348,7 +3355,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F23" s="30">
         <f>F17 + F21</f>
@@ -3356,7 +3363,7 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I23" s="25" t="str">
         <f>TEXT(F23,"yyyy-mm-dd")&amp;"NSingaporeClose"</f>
@@ -3390,7 +3397,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F25" s="31">
         <f>F23</f>
@@ -3427,7 +3434,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F27" s="30">
         <f>F23+1/24</f>
@@ -3464,7 +3471,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F29" s="30">
         <f>F27-1/1440</f>
@@ -3531,7 +3538,9 @@
   </sheetPr>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3579,7 +3588,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3617,7 +3626,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3637,7 +3646,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3658,7 +3667,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3678,7 +3687,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3698,7 +3707,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3772,7 +3781,7 @@
     <row r="13" spans="2:22" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -3825,7 +3834,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -3931,7 +3940,7 @@
     <row r="19" spans="2:30" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4036,22 +4045,22 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="I22" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>187</v>
@@ -4060,16 +4069,16 @@
         <v>185</v>
       </c>
       <c r="M22" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="O22" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="O22" s="6" t="s">
+      <c r="P22" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22"/>
@@ -4091,10 +4100,10 @@
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>204</v>
@@ -4106,7 +4115,7 @@
         <v>186</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K23" s="17">
         <v>100</v>
@@ -4121,7 +4130,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="50" t="str">
         <f>_xll.flQuotesAdd(F15,E22:O23)</f>
-        <v>Added 1 quote(s) as at time 2019-12-04 10:30:48Z</v>
+        <v>Added 1 quote(s) as at time 2020-01-03 14:13:07Z</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23"/>
@@ -4800,7 +4809,9 @@
   </sheetPr>
   <dimension ref="B1:Y43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4846,7 +4857,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4884,7 +4895,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4904,7 +4915,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4925,7 +4936,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4945,7 +4956,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4965,7 +4976,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -5027,7 +5038,7 @@
     <row r="13" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -5086,7 +5097,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -5185,7 +5196,7 @@
     <row r="19" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -5233,7 +5244,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5295,22 +5306,22 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="I23" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>187</v>
@@ -5319,16 +5330,16 @@
         <v>185</v>
       </c>
       <c r="M23" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="N23" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="O23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23"/>
@@ -5345,22 +5356,22 @@
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>186</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K24" s="17">
         <v>1.3</v>
@@ -5375,7 +5386,7 @@
       <c r="O24" s="32"/>
       <c r="P24" s="50" t="str">
         <f>_xll.flQuotesAdd(F15,E23:O27)</f>
-        <v>Added 4 quote(s) as at time 2019-12-04 10:30:48Z</v>
+        <v>Added 4 quote(s) as at time 2020-01-03 14:13:07Z</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24"/>
@@ -5392,22 +5403,22 @@
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>186</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K25" s="17">
         <v>1.29</v>
@@ -5437,22 +5448,22 @@
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>186</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K26" s="17">
         <v>1.28</v>
@@ -5482,22 +5493,22 @@
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>186</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K27" s="17">
         <v>1.27</v>
@@ -6687,7 +6698,7 @@
   <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6732,7 +6743,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6760,7 +6771,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6775,7 +6786,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6791,7 +6802,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -6806,7 +6817,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6821,7 +6832,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -6878,7 +6889,7 @@
     <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6979,13 +6990,13 @@
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
       <c r="E19" s="36" t="str">
-        <v>CompositeFigi</v>
+        <v>EdiKey</v>
       </c>
       <c r="F19" s="18" t="str">
-        <v>Instrument/default/CompositeFigi</v>
+        <v>Instrument/default/EdiKey</v>
       </c>
       <c r="G19" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -7001,10 +7012,10 @@
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
       <c r="E20" s="36" t="str">
-        <v>Ticker</v>
+        <v>ShareClassFigi</v>
       </c>
       <c r="F20" s="18" t="str">
-        <v>Instrument/default/Ticker</v>
+        <v>Instrument/default/ShareClassFigi</v>
       </c>
       <c r="G20" s="18" t="b">
         <v>0</v>
@@ -7045,10 +7056,10 @@
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="36" t="str">
-        <v>Cusip</v>
+        <v>Ticker</v>
       </c>
       <c r="F22" s="18" t="str">
-        <v>Instrument/default/Cusip</v>
+        <v>Instrument/default/Ticker</v>
       </c>
       <c r="G22" s="18" t="b">
         <v>0</v>
@@ -7067,13 +7078,13 @@
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="36" t="str">
-        <v>Wertpapier</v>
+        <v>Figi</v>
       </c>
       <c r="F23" s="18" t="str">
-        <v>Instrument/default/Wertpapier</v>
+        <v>Instrument/default/Figi</v>
       </c>
       <c r="G23" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -7089,13 +7100,13 @@
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="36" t="str">
-        <v>LusidInstrumentId</v>
+        <v>RIC</v>
       </c>
       <c r="F24" s="18" t="str">
-        <v>Instrument/default/LusidInstrumentId</v>
+        <v>Instrument/default/RIC</v>
       </c>
       <c r="G24" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -7110,10 +7121,10 @@
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="36" t="str">
-        <v>QuotePermId</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="F25" s="18" t="str">
-        <v>Instrument/default/QuotePermId</v>
+        <v>Instrument/default/LusidInstrumentId</v>
       </c>
       <c r="G25" s="18" t="b">
         <v>1</v>
@@ -7148,10 +7159,10 @@
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="36" t="str">
-        <v>Figi</v>
+        <v>Currency</v>
       </c>
       <c r="F27" s="18" t="str">
-        <v>Instrument/default/Figi</v>
+        <v>Instrument/default/Currency</v>
       </c>
       <c r="G27" s="18" t="b">
         <v>1</v>
@@ -7167,13 +7178,13 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="36" t="str">
-        <v>RIC</v>
+        <v>QuotePermId</v>
       </c>
       <c r="F28" s="18" t="str">
-        <v>Instrument/default/RIC</v>
+        <v>Instrument/default/QuotePermId</v>
       </c>
       <c r="G28" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -7186,13 +7197,13 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="36" t="str">
-        <v>EdiKey</v>
+        <v>[More...]</v>
       </c>
       <c r="F29" s="18" t="str">
-        <v>Instrument/default/EdiKey</v>
-      </c>
-      <c r="G29" s="18" t="b">
-        <v>1</v>
+        <v>[More...]</v>
+      </c>
+      <c r="G29" s="18" t="str">
+        <v>[More...]</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -7245,7 +7256,7 @@
   <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7288,7 +7299,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7314,7 +7325,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7328,7 +7339,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7343,7 +7354,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7357,7 +7368,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7371,7 +7382,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7407,7 +7418,7 @@
     <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7435,7 +7446,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -7449,7 +7460,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -7463,7 +7474,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -7489,13 +7500,13 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>198</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -7507,8 +7518,8 @@
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="25">
-        <f ca="1">NOW()</f>
-        <v>43803.438066550923</v>
+        <f ca="1">TODAY()</f>
+        <v>43833</v>
       </c>
       <c r="F21" s="25">
         <v>43697</v>
@@ -7566,11 +7577,11 @@
       </c>
       <c r="F24" s="18" t="str">
         <f ca="1"/>
-        <v>CCY_ZZZ</v>
+        <v>CCY_AED</v>
       </c>
       <c r="G24" s="18" t="str">
         <f ca="1"/>
-        <v>ZZZ</v>
+        <v>AED</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -7589,11 +7600,11 @@
       </c>
       <c r="F25" s="18" t="str">
         <f ca="1"/>
-        <v>CCY_ALL</v>
+        <v>CCY_AFN</v>
       </c>
       <c r="G25" s="18" t="str">
         <f ca="1"/>
-        <v>ALL</v>
+        <v>AFN</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -7612,11 +7623,11 @@
       </c>
       <c r="F26" s="18" t="str">
         <f ca="1"/>
-        <v>CCY_DZD</v>
+        <v>CCY_ALL</v>
       </c>
       <c r="G26" s="18" t="str">
         <f ca="1"/>
-        <v>DZD</v>
+        <v>ALL</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -7635,11 +7646,11 @@
       </c>
       <c r="F27" s="18" t="str">
         <f ca="1"/>
-        <v>CCY_ARS</v>
+        <v>CCY_AMD</v>
       </c>
       <c r="G27" s="18" t="str">
         <f ca="1"/>
-        <v>ARS</v>
+        <v>AMD</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -7658,11 +7669,11 @@
       </c>
       <c r="F28" s="18" t="str">
         <f ca="1"/>
-        <v>CCY_AUD</v>
+        <v>CCY_ANG</v>
       </c>
       <c r="G28" s="18" t="str">
         <f ca="1"/>
-        <v>AUD</v>
+        <v>ANG</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -7675,17 +7686,17 @@
       <c r="D29" s="2">
         <v>6</v>
       </c>
-      <c r="E29" s="36" t="e">
+      <c r="E29" s="36" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F29" s="18" t="e">
+        <v/>
+      </c>
+      <c r="F29" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G29" s="18" t="e">
+        <v/>
+      </c>
+      <c r="G29" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -7698,17 +7709,17 @@
       <c r="D30" s="2">
         <v>7</v>
       </c>
-      <c r="E30" s="36" t="e">
+      <c r="E30" s="36" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F30" s="18" t="e">
+        <v/>
+      </c>
+      <c r="F30" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="18" t="e">
+        <v/>
+      </c>
+      <c r="G30" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -7721,17 +7732,17 @@
       <c r="D31" s="2">
         <v>8</v>
       </c>
-      <c r="E31" s="36" t="e">
+      <c r="E31" s="36" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F31" s="18" t="e">
+        <v/>
+      </c>
+      <c r="F31" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G31" s="18" t="e">
+        <v/>
+      </c>
+      <c r="G31" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -7744,17 +7755,17 @@
       <c r="D32" s="2">
         <v>9</v>
       </c>
-      <c r="E32" s="36" t="e">
+      <c r="E32" s="36" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F32" s="18" t="e">
+        <v/>
+      </c>
+      <c r="F32" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G32" s="18" t="e">
+        <v/>
+      </c>
+      <c r="G32" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -7767,17 +7778,17 @@
       <c r="D33" s="2">
         <v>10</v>
       </c>
-      <c r="E33" s="36" t="e">
+      <c r="E33" s="36" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="18" t="e">
+        <v/>
+      </c>
+      <c r="F33" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G33" s="18" t="e">
+        <v/>
+      </c>
+      <c r="G33" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -7861,7 +7872,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7889,7 +7900,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7904,7 +7915,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7920,7 +7931,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7935,7 +7946,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7950,7 +7961,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7992,7 +8003,7 @@
     <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8022,7 +8033,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8037,7 +8048,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8052,7 +8063,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -8125,8 +8136,8 @@
       <c r="I21" s="33" t="str">
         <v>Figi</v>
       </c>
-      <c r="J21" s="33" t="e">
-        <v>#N/A</v>
+      <c r="J21" s="33" t="str">
+        <v/>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -8147,7 +8158,7 @@
         <v>Active</v>
       </c>
       <c r="G22" s="18" t="str">
-        <v>LUID_52QAWPO6</v>
+        <v>LUID_JENBWO5H</v>
       </c>
       <c r="H22" s="35" t="str">
         <v>Apple</v>
@@ -8155,8 +8166,8 @@
       <c r="I22" s="35" t="str">
         <v>BBG000B9XRY4</v>
       </c>
-      <c r="J22" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J22" s="52" t="str">
+        <v/>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -8177,7 +8188,7 @@
         <v>Active</v>
       </c>
       <c r="G23" s="18" t="str">
-        <v>LUID_8M11ADAC</v>
+        <v>LUID_6IOL49Q5</v>
       </c>
       <c r="H23" s="35" t="str">
         <v>JPMorgan Chase</v>
@@ -8185,8 +8196,8 @@
       <c r="I23" s="35" t="str">
         <v>BBG000DMBXR2</v>
       </c>
-      <c r="J23" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J23" s="52" t="str">
+        <v/>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -8207,7 +8218,7 @@
         <v>Active</v>
       </c>
       <c r="G24" s="18" t="str">
-        <v>LUID_4JZB9MLP</v>
+        <v>LUID_AHX7SPIA</v>
       </c>
       <c r="H24" s="35" t="str">
         <v>BP</v>
@@ -8215,8 +8226,8 @@
       <c r="I24" s="35" t="str">
         <v>BBG000C059M6</v>
       </c>
-      <c r="J24" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J24" s="52" t="str">
+        <v/>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -8237,7 +8248,7 @@
         <v>Active</v>
       </c>
       <c r="G25" s="18" t="str">
-        <v>LUID_Z03VAEWV</v>
+        <v>LUID_LNXBDXBB</v>
       </c>
       <c r="H25" s="35" t="str">
         <v>Anheuser-Busch InBev</v>
@@ -8245,8 +8256,8 @@
       <c r="I25" s="35" t="str">
         <v>BBG00DQ4YZ36</v>
       </c>
-      <c r="J25" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J25" s="52" t="str">
+        <v/>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -8267,7 +8278,7 @@
         <v>Active</v>
       </c>
       <c r="G26" s="18" t="str">
-        <v>LUID_WYX0SDPX</v>
+        <v>LUID_OQEOT1JY</v>
       </c>
       <c r="H26" s="35" t="str">
         <v>Toyota Motor</v>
@@ -8275,8 +8286,8 @@
       <c r="I26" s="35" t="str">
         <v>BBG000BCM915</v>
       </c>
-      <c r="J26" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J26" s="52" t="str">
+        <v/>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -8297,7 +8308,7 @@
         <v>Active</v>
       </c>
       <c r="G27" s="18" t="str">
-        <v>LUID_F9FDBWL0</v>
+        <v>LUID_L5UE01IN</v>
       </c>
       <c r="H27" s="35" t="str">
         <v>Volkswagen</v>
@@ -8305,8 +8316,8 @@
       <c r="I27" s="35" t="str">
         <v>BBG000BCH458</v>
       </c>
-      <c r="J27" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J27" s="52" t="str">
+        <v/>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -8327,7 +8338,7 @@
         <v>Active</v>
       </c>
       <c r="G28" s="18" t="str">
-        <v>LUID_816OBQZV</v>
+        <v>LUID_V9OX6CRE</v>
       </c>
       <c r="H28" s="35" t="str">
         <v>HSBC Holdings</v>
@@ -8335,8 +8346,8 @@
       <c r="I28" s="35" t="str">
         <v>BBG000BS1MT4</v>
       </c>
-      <c r="J28" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J28" s="52" t="str">
+        <v/>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -8356,7 +8367,7 @@
         <v>Active</v>
       </c>
       <c r="G29" s="18" t="str">
-        <v>LUID_3IPLDPSN</v>
+        <v>LUID_58EHIPFX</v>
       </c>
       <c r="H29" s="35" t="str">
         <v>Walt Disney</v>
@@ -8364,8 +8375,8 @@
       <c r="I29" s="35" t="str">
         <v>BBG000BH4R78</v>
       </c>
-      <c r="J29" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J29" s="52" t="str">
+        <v/>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -8383,7 +8394,7 @@
         <v>Active</v>
       </c>
       <c r="G30" s="18" t="str">
-        <v>LUID_UW1XTP85</v>
+        <v>LUID_230PNNYD</v>
       </c>
       <c r="H30" s="35" t="str">
         <v>Microsoft</v>
@@ -8391,8 +8402,8 @@
       <c r="I30" s="35" t="str">
         <v>BBG000BPH459</v>
       </c>
-      <c r="J30" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J30" s="52" t="str">
+        <v/>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -8410,7 +8421,7 @@
         <v>Active</v>
       </c>
       <c r="G31" s="18" t="str">
-        <v>LUID_A18IZK18</v>
+        <v>LUID_JL12HZYH</v>
       </c>
       <c r="H31" s="35" t="str">
         <v>Softbank</v>
@@ -8418,8 +8429,8 @@
       <c r="I31" s="35" t="str">
         <v>BBG000CLY2D3</v>
       </c>
-      <c r="J31" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J31" s="52" t="str">
+        <v/>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -8515,7 +8526,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -8545,7 +8556,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -8561,7 +8572,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -8578,7 +8589,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -8594,7 +8605,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8610,7 +8621,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8667,7 +8678,7 @@
     <row r="13" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8699,7 +8710,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="2"/>
       <c r="E15" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8715,7 +8726,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8748,22 +8759,22 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="2"/>
@@ -8788,25 +8799,25 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="K20" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -8816,7 +8827,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>204</v>
@@ -8826,7 +8837,7 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="50" t="str">
@@ -8855,25 +8866,25 @@
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I23" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="J23" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>315</v>
-      </c>
       <c r="K23" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -8883,7 +8894,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>204</v>
@@ -8893,7 +8904,7 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="50" t="str">
@@ -8934,7 +8945,7 @@
     <row r="28" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -8966,7 +8977,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -9043,11 +9054,11 @@
       <c r="I34" s="8" t="str">
         <v>Figi</v>
       </c>
-      <c r="J34" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K34" s="8" t="e">
-        <v>#N/A</v>
+      <c r="J34" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K34" s="8" t="str">
+        <v/>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -9064,7 +9075,7 @@
         <v>Active</v>
       </c>
       <c r="G35" s="13" t="str">
-        <v>LUID_52QAWPO6</v>
+        <v>LUID_JENBWO5H</v>
       </c>
       <c r="H35" s="16" t="str">
         <v>Apple</v>
@@ -9072,11 +9083,11 @@
       <c r="I35" s="16" t="str">
         <v>BBG000B9XRY4</v>
       </c>
-      <c r="J35" s="17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K35" s="17" t="e">
-        <v>#N/A</v>
+      <c r="J35" s="17" t="str">
+        <v/>
+      </c>
+      <c r="K35" s="17" t="str">
+        <v/>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -9093,7 +9104,7 @@
         <v>Active</v>
       </c>
       <c r="G36" s="13" t="str">
-        <v>LUID_3IPLDPSN</v>
+        <v>LUID_58EHIPFX</v>
       </c>
       <c r="H36" s="16" t="str">
         <v>Walt Disney</v>
@@ -9101,11 +9112,11 @@
       <c r="I36" s="16" t="str">
         <v>BBG000BH4R78</v>
       </c>
-      <c r="J36" s="17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K36" s="17" t="e">
-        <v>#N/A</v>
+      <c r="J36" s="17" t="str">
+        <v/>
+      </c>
+      <c r="K36" s="17" t="str">
+        <v/>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -9312,10 +9323,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:M32"/>
+  <dimension ref="B1:M33"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9361,7 +9372,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -9391,7 +9402,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -9407,7 +9418,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -9424,7 +9435,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -9440,7 +9451,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -9456,7 +9467,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -9498,7 +9509,7 @@
     <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -9516,7 +9527,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -9546,7 +9557,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -9576,25 +9587,25 @@
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>315</v>
-      </c>
       <c r="K18" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -9604,20 +9615,20 @@
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
       <c r="E19" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
       <c r="K19" s="50" t="str">
         <f>_xll.flInstrumentsAdd(E18:J19)</f>
-        <v>LUID_SVI3RKHJ</v>
+        <v>LUID_8VIVIFMY</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -9653,7 +9664,7 @@
     <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -9671,7 +9682,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -9734,7 +9745,7 @@
         <v>202</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G28" s="8" t="str">
         <f t="array" ref="G28:L29">_xll.flInstrumentsLookup(F29,E29,"Instrument/default/Ticker")</f>
@@ -9750,10 +9761,10 @@
         <v>Ticker</v>
       </c>
       <c r="K28" s="8" t="str">
+        <v>Isin</v>
+      </c>
+      <c r="L28" s="8" t="str">
         <v>Figi</v>
-      </c>
-      <c r="L28" s="8" t="str">
-        <v>Isin</v>
       </c>
       <c r="M28" s="2"/>
     </row>
@@ -9762,7 +9773,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
       <c r="E29" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>204</v>
@@ -9771,7 +9782,7 @@
         <v>Active</v>
       </c>
       <c r="H29" s="13" t="str">
-        <v>LUID_SVI3RKHJ</v>
+        <v>LUID_8VIVIFMY</v>
       </c>
       <c r="I29" s="13" t="str">
         <v>Spectre</v>
@@ -9780,10 +9791,10 @@
         <v>0</v>
       </c>
       <c r="K29" s="16" t="str">
+        <v>GB007007007B</v>
+      </c>
+      <c r="L29" s="17" t="str">
         <v>BBG007FAKECO</v>
-      </c>
-      <c r="L29" s="17" t="str">
-        <v>GB007007007B</v>
       </c>
       <c r="M29" s="2"/>
     </row>
@@ -9805,10 +9816,10 @@
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
       <c r="E31" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G31" s="18" t="str">
         <f>_xll.flInstrumentsLookup(F31,E31,"Instrument/default/Ticker")</f>
@@ -9823,12 +9834,52 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
+      <c r="G32" s="8" t="str">
+        <f t="array" ref="G32:L33">_xll.flInstrumentsLookup(F33,E33,"Instrument/default/Ticker")</f>
+        <v>State</v>
+      </c>
+      <c r="H32" s="8" t="str">
+        <v>LusidInstrumentId</v>
+      </c>
+      <c r="I32" s="8" t="str">
+        <v>Name</v>
+      </c>
+      <c r="J32" s="7" t="str">
+        <v>Ticker</v>
+      </c>
+      <c r="K32" s="8" t="str">
+        <v>Isin</v>
+      </c>
+      <c r="L32" s="8" t="str">
+        <v>Figi</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="17" t="str">
+        <f>K19</f>
+        <v>LUID_8VIVIFMY</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="23" t="str">
+        <v>Active</v>
+      </c>
+      <c r="H33" s="23" t="str">
+        <v>LUID_8VIVIFMY</v>
+      </c>
+      <c r="I33" s="23" t="str">
+        <v>Spectre</v>
+      </c>
+      <c r="J33" s="23">
+        <v>0</v>
+      </c>
+      <c r="K33" s="23" t="str">
+        <v>GB007007007B</v>
+      </c>
+      <c r="L33" s="23" t="str">
+        <v>BBG007FAKECO</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="18">
@@ -9869,7 +9920,9 @@
   </sheetPr>
   <dimension ref="B1:N46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9915,7 +9968,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -9945,7 +9998,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -9961,7 +10014,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -9977,7 +10030,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -9994,7 +10047,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -10010,7 +10063,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -10026,7 +10079,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -10046,7 +10099,7 @@
         <v>OK</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -10062,25 +10115,25 @@
       <c r="C13" s="2"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -10089,7 +10142,7 @@
     <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -10107,7 +10160,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -10125,25 +10178,25 @@
       <c r="C16" s="2"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="L16" s="6" t="str">
         <f t="array" ref="L16:L19">_xll.flPropertiesAdd(E16:K19)</f>
@@ -10157,13 +10210,13 @@
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
       <c r="E17" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>296</v>
       </c>
       <c r="H17" s="12" t="b">
         <v>0</v>
@@ -10173,13 +10226,13 @@
         <v>PlanType</v>
       </c>
       <c r="J17" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="L17" s="50" t="str">
-        <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/PlanType' because it already exists.</v>
+        <v>Entity already exists</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -10189,28 +10242,28 @@
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H18" s="42" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L18" s="50" t="str">
-        <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/TakeOverWorldDate' because it already exists.</v>
+        <v>Entity already exists</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -10223,25 +10276,25 @@
         <v>180</v>
       </c>
       <c r="F19" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>337</v>
       </c>
       <c r="H19" s="42" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="J19" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>338</v>
-      </c>
       <c r="L19" s="51" t="str">
-        <v>Error creating Property Definition 'Transaction/Finbourne-Examples/IsThisATestTrade' because it already exists.</v>
+        <v>Entity already exists</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -10330,7 +10383,7 @@
         <v>OK</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -10346,16 +10399,16 @@
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="G27" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>332</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>333</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="6"/>
@@ -10367,7 +10420,7 @@
     <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -10385,7 +10438,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -10403,19 +10456,19 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="G30" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H30" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="I30" s="33" t="s">
         <v>299</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>300</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -10430,20 +10483,20 @@
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F31" s="15" t="str">
         <f>'Add instrument'!K19</f>
-        <v>LUID_SVI3RKHJ</v>
+        <v>LUID_8VIVIFMY</v>
       </c>
       <c r="G31" s="46">
         <v>43101</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J31" s="41"/>
       <c r="K31" s="50" t="str">
@@ -10536,7 +10589,7 @@
     <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -10554,7 +10607,7 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -10590,7 +10643,7 @@
         <v>203</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -10624,7 +10677,7 @@
         <v>202</v>
       </c>
       <c r="F42" s="8" t="str">
-        <f t="array" ref="F42:L43">_xll.flInstrumentsLookup(F40,E43:E44,H30&amp;","&amp;I30)</f>
+        <f t="array" ref="F42:L43">_xll.flInstrumentsLookup(F40,E43:E44,I30&amp;","&amp;H30)</f>
         <v>State</v>
       </c>
       <c r="G42" s="8" t="str">
@@ -10640,10 +10693,10 @@
         <v>TakeOverDate</v>
       </c>
       <c r="K42" s="8" t="str">
+        <v>Figi</v>
+      </c>
+      <c r="L42" s="8" t="str">
         <v>Isin</v>
-      </c>
-      <c r="L42" s="8" t="str">
-        <v>Figi</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -10654,13 +10707,13 @@
       <c r="D43" s="9"/>
       <c r="E43" s="15" t="str">
         <f>F31</f>
-        <v>LUID_SVI3RKHJ</v>
+        <v>LUID_8VIVIFMY</v>
       </c>
       <c r="F43" s="42" t="str">
         <v>Active</v>
       </c>
       <c r="G43" s="42" t="str">
-        <v>LUID_SVI3RKHJ</v>
+        <v>LUID_8VIVIFMY</v>
       </c>
       <c r="H43" s="41" t="str">
         <v>Spectre</v>
@@ -10672,10 +10725,10 @@
         <v>2028/12/01T00:00:00.00</v>
       </c>
       <c r="K43" s="41" t="str">
+        <v>BBG007FAKECO</v>
+      </c>
+      <c r="L43" s="50" t="str">
         <v>GB007007007B</v>
-      </c>
-      <c r="L43" s="50" t="str">
-        <v>BBG007FAKECO</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -10762,7 +10815,9 @@
   </sheetPr>
   <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10806,7 +10861,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -10838,7 +10893,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -10855,7 +10910,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -10873,7 +10928,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -10890,7 +10945,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -10907,7 +10962,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -10984,7 +11039,7 @@
     <row r="13" spans="2:21" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -11035,7 +11090,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -11123,7 +11178,7 @@
     <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -11171,34 +11226,34 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>198</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21"/>
@@ -11214,7 +11269,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="16" t="s">
@@ -11227,7 +11282,7 @@
         <v>186</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K22" s="20">
         <v>43570</v>
@@ -11252,7 +11307,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="16" t="s">
@@ -11265,7 +11320,7 @@
         <v>186</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K23" s="20">
         <f>K22+1</f>
@@ -11291,7 +11346,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="16" t="s">
@@ -11304,7 +11359,7 @@
         <v>186</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K24" s="20">
         <f t="shared" ref="K24:K30" si="0">K23+1</f>
@@ -11330,7 +11385,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="16" t="s">
@@ -11343,7 +11398,7 @@
         <v>186</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K25" s="20">
         <f t="shared" si="0"/>
@@ -11369,7 +11424,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="16" t="s">
@@ -11382,7 +11437,7 @@
         <v>186</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K26" s="20">
         <f t="shared" si="0"/>
@@ -11405,7 +11460,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="16" t="s">
@@ -11418,7 +11473,7 @@
         <v>186</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K27" s="20">
         <f t="shared" si="0"/>
@@ -11441,7 +11496,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
       <c r="E28" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="16" t="s">
@@ -11454,7 +11509,7 @@
         <v>186</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K28" s="20">
         <f t="shared" si="0"/>
@@ -11477,7 +11532,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
       <c r="E29" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="16" t="s">
@@ -11490,7 +11545,7 @@
         <v>186</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K29" s="20">
         <f t="shared" si="0"/>
@@ -11513,7 +11568,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16" t="s">
@@ -11526,7 +11581,7 @@
         <v>186</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K30" s="20">
         <f t="shared" si="0"/>
@@ -11627,7 +11682,9 @@
   </sheetPr>
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:J31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11671,7 +11728,7 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -11703,7 +11760,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -11720,7 +11777,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -11738,7 +11795,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -11755,7 +11812,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -11772,7 +11829,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -11817,7 +11874,7 @@
     <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -11854,7 +11911,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -11912,7 +11969,7 @@
     <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -11946,31 +12003,31 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>198</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N21" s="2"/>
       <c r="T21" s="19"/>
@@ -11982,7 +12039,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="16" t="s">
@@ -11995,7 +12052,7 @@
         <v>186</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K22" s="20">
         <v>43570</v>
@@ -12015,7 +12072,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="16" t="s">
@@ -12028,7 +12085,7 @@
         <v>186</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K23" s="20">
         <v>43571</v>
@@ -12048,7 +12105,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="16" t="s">
@@ -12061,7 +12118,7 @@
         <v>186</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K24" s="20">
         <v>43572</v>
@@ -12081,7 +12138,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="16" t="s">
@@ -12094,7 +12151,7 @@
         <v>186</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K25" s="20">
         <v>43573</v>
@@ -12115,7 +12172,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="16" t="s">
@@ -12128,7 +12185,7 @@
         <v>186</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K26" s="20">
         <v>43574</v>
@@ -12146,7 +12203,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="16" t="s">
@@ -12159,7 +12216,7 @@
         <v>186</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K27" s="20">
         <v>43575</v>
@@ -12177,7 +12234,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
       <c r="E28" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="16" t="s">
@@ -12190,7 +12247,7 @@
         <v>186</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K28" s="20">
         <v>43576</v>
@@ -12208,7 +12265,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
       <c r="E29" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="16" t="s">
@@ -12221,7 +12278,7 @@
         <v>186</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K29" s="20">
         <v>43577</v>
@@ -12239,7 +12296,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16" t="s">
@@ -12252,7 +12309,7 @@
         <v>186</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K30" s="20">
         <v>43578</v>
@@ -12270,7 +12327,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
       <c r="E31" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="16" t="s">
@@ -12283,7 +12340,7 @@
         <v>186</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K31" s="20">
         <v>43579</v>
@@ -12331,12 +12388,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12566,19 +12624,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
+    <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12604,19 +12671,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7f1325bc-d786-4e92-924e-74ffe34b2b40"/>
-    <ds:schemaRef ds:uri="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LUSID Excel - Setting up your market data.xlsx
+++ b/LUSID Excel - Setting up your market data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F7AC6C-CB33-4EE6-BCEE-5E4F42A0890F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFC1CE-CA95-4937-AB06-E20B7FB6F6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5047" yWindow="-16297" windowWidth="28995" windowHeight="15794" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" firstSheet="1" activeTab="10" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Datetime format" sheetId="21" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="345">
   <si>
     <t>Base Currency</t>
   </si>
@@ -777,9 +777,6 @@
     <t>Figi</t>
   </si>
   <si>
-    <t>Mid</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scope: </t>
   </si>
   <si>
@@ -834,355 +831,370 @@
     <t>Spectre</t>
   </si>
   <si>
+    <t>Here we can load back our created instrument from LUSID</t>
+  </si>
+  <si>
+    <t>This function returns all instruments created before a specified AsAt or EffectiveDate</t>
+  </si>
+  <si>
+    <t>AsAt</t>
+  </si>
+  <si>
+    <t>N.B AsAt is the system datetime when you last changed an instrument, EffectiveDate needs to have been specified at the instrument level to be searchable</t>
+  </si>
+  <si>
+    <t>Step 1: Specify the scope</t>
+  </si>
+  <si>
+    <t>As part of the instrument mastering, the name of the instrument has been added as</t>
+  </si>
+  <si>
+    <t>Instrument identifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to view instrument identifiers</t>
+  </si>
+  <si>
+    <t>View instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to view all mastered instruments</t>
+  </si>
+  <si>
+    <t>A limit to the size of the results set will be available soon</t>
+  </si>
+  <si>
+    <t>View instrument reference data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to view instrument reference data</t>
+  </si>
+  <si>
+    <t>an instrument property, as a Instrument/default/Ticker. This is recoverable when you ask for instruments</t>
+  </si>
+  <si>
+    <t>We will add more instrument properties here as they are available</t>
+  </si>
+  <si>
+    <t>Step 1: Add an instrument</t>
+  </si>
+  <si>
+    <t>In this step we are adding a new instrument</t>
+  </si>
+  <si>
+    <t>Step 2: View created instrument</t>
+  </si>
+  <si>
+    <t>Here we can load our created instrument from LUSID</t>
+  </si>
+  <si>
+    <t>Amend instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to amend your instrument data</t>
+  </si>
+  <si>
+    <t>Step 1: Amend an instrument</t>
+  </si>
+  <si>
+    <t>Step 2: View amended instrument</t>
+  </si>
+  <si>
+    <t>Prices</t>
+  </si>
+  <si>
+    <t>View market quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet shows you how to view quotes on an instrument by date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet shows you how to view quotes on a date for various instruments</t>
+  </si>
+  <si>
+    <t>Datetimes in LUSID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to format datetimes for use with LUSID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you have any questions please visit our:</t>
+  </si>
+  <si>
+    <t>Getting Started tutorials</t>
+  </si>
+  <si>
+    <t>Knowledge Base articles</t>
+  </si>
+  <si>
+    <t>or Contact us</t>
+  </si>
+  <si>
+    <t>Enter the date to convert</t>
+  </si>
+  <si>
+    <t>This date has no time component</t>
+  </si>
+  <si>
+    <t>Specify time component</t>
+  </si>
+  <si>
+    <t>Add to your date and display the complete datetime</t>
+  </si>
+  <si>
+    <t>Although the date can still appears without time</t>
+  </si>
+  <si>
+    <t>Amend market data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to amend market data in LUSID</t>
+  </si>
+  <si>
+    <t>Get a selection of instruments and their reference data</t>
+  </si>
+  <si>
+    <t>Get all instruments from your LUSID domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Get a list of instrument identifiers</t>
+  </si>
+  <si>
+    <t>Create market data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to add in your own market data in LUSID</t>
+  </si>
+  <si>
+    <t>Step 2: Amend some of the quotes from previous tabs</t>
+  </si>
+  <si>
+    <t>Step 2: Add in your own market data</t>
+  </si>
+  <si>
+    <t>InstrumentType</t>
+  </si>
+  <si>
+    <t>EffectiveAt</t>
+  </si>
+  <si>
+    <t>Lineage</t>
+  </si>
+  <si>
+    <t>AddQuote</t>
+  </si>
+  <si>
+    <t>LiveSource</t>
+  </si>
+  <si>
+    <t>The function fbnQuotesAdd allows for a table of quotes to be added with one call</t>
+  </si>
+  <si>
+    <t>FinbourneMarketData</t>
+  </si>
+  <si>
+    <t>Then populate the property, before recovering the property</t>
+  </si>
+  <si>
+    <t>If you have any questions please visit our:</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>ValueRequired</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>DataTypeId</t>
+  </si>
+  <si>
+    <t>LifeTime</t>
+  </si>
+  <si>
+    <t>system:string</t>
+  </si>
+  <si>
+    <t>TimeVariant</t>
+  </si>
+  <si>
+    <t>system:date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This sheet allows you to create and add an instrument</t>
+  </si>
+  <si>
+    <t>Add a new instrument</t>
+  </si>
+  <si>
+    <t>Add a property definition</t>
+  </si>
+  <si>
+    <t>This sheet allows you to create and add a property definition to LUSID, add it to an instrument (to extend its definition), set its value and then view the result</t>
+  </si>
+  <si>
+    <t>Step 1: Add property definitions</t>
+  </si>
+  <si>
+    <t>FinbourneBondVillains</t>
+  </si>
+  <si>
+    <t>PlanType</t>
+  </si>
+  <si>
+    <t>TakeOverWorldDate</t>
+  </si>
+  <si>
+    <t>TakeOverDate</t>
+  </si>
+  <si>
+    <t>Instrument/FinbourneBondVillains/PlanType</t>
+  </si>
+  <si>
+    <t>Instrument/FinbourneBondVillains/TakeOverWorldDate</t>
+  </si>
+  <si>
+    <t>Laser from satellite</t>
+  </si>
+  <si>
+    <t>Step 3: View created instrument</t>
+  </si>
+  <si>
+    <t>Step 2: Add properties to instrument</t>
+  </si>
+  <si>
+    <t>In this step we add the property definitions to the instrument and set values</t>
+  </si>
+  <si>
+    <t>In this step we create new property definitions and add them to LUSID</t>
+  </si>
+  <si>
+    <t>Here we load back our instrument, specifically asking to decorate our property definitions</t>
+  </si>
+  <si>
+    <t>"YYYY-MM-DDTHH:MM:SS.00Z"</t>
+  </si>
+  <si>
+    <t>Where Z indicates Zulu time (UTC+0), and is equivalent to +00:00</t>
+  </si>
+  <si>
+    <t>Instrument Id Types</t>
+  </si>
+  <si>
+    <t>Instrument Ids</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Definition - InstrumentFormat</t>
+  </si>
+  <si>
+    <t>Definition - Content</t>
+  </si>
+  <si>
+    <t>some-format</t>
+  </si>
+  <si>
+    <t>Effective From</t>
+  </si>
+  <si>
+    <t>2028/12/01T00:00:00.00</t>
+  </si>
+  <si>
+    <t>LUSID accepts datetimes in any recognised Excel format</t>
+  </si>
+  <si>
+    <t>LUSID also accepts UTC, UTS offsets and cutlabels</t>
+  </si>
+  <si>
+    <t>Excel formats to show datetime</t>
+  </si>
+  <si>
+    <t>Additional formats</t>
+  </si>
+  <si>
+    <t>Standard UTC timestamp:</t>
+  </si>
+  <si>
+    <t>Convert date into a string</t>
+  </si>
+  <si>
+    <t>UTC offset (not recognised as an excel date)</t>
+  </si>
+  <si>
+    <t>2019-04-10T13:30:45+04:00</t>
+  </si>
+  <si>
+    <t>Cutlabel</t>
+  </si>
+  <si>
+    <t>Add an hour to your datetime</t>
+  </si>
+  <si>
+    <t>Subtract a minute from your datetime</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>IdentifierType</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Properties...</t>
+  </si>
+  <si>
+    <t>In this case we are adding instrument properties. Don’t forget you can use the template to see a list of the required fields. Click on the returned cells to see tooltips</t>
+  </si>
+  <si>
+    <t>In this case we are adding an instrument definition format. Don’t forget you can use the flInstrumentsAdd_Template to see a list of the required fields. Click on the returned cells to see tooltips</t>
+  </si>
+  <si>
+    <t>Finbourne-Examples</t>
+  </si>
+  <si>
+    <t>IsThisATestTrade</t>
+  </si>
+  <si>
+    <t>Perpetual</t>
+  </si>
+  <si>
+    <t>In this case we are adding instrument and transaction properties. Don’t forget you can use the template to see a list of the required fields. Click on the returned cells to see tooltips</t>
+  </si>
+  <si>
+    <t>BBG007FAKECO, GB007007007B</t>
+  </si>
+  <si>
+    <t>GB007007007B</t>
+  </si>
+  <si>
+    <t>Figi,Isin</t>
+  </si>
+  <si>
+    <t>Isin</t>
+  </si>
+  <si>
     <t>BBG007FAKECO</t>
   </si>
   <si>
-    <t>Here we can load back our created instrument from LUSID</t>
-  </si>
-  <si>
-    <t>This function returns all instruments created before a specified AsAt or EffectiveDate</t>
-  </si>
-  <si>
-    <t>AsAt</t>
-  </si>
-  <si>
-    <t>N.B AsAt is the system datetime when you last changed an instrument, EffectiveDate needs to have been specified at the instrument level to be searchable</t>
-  </si>
-  <si>
-    <t>Step 1: Specify the scope</t>
-  </si>
-  <si>
-    <t>As part of the instrument mastering, the name of the instrument has been added as</t>
-  </si>
-  <si>
-    <t>Instrument identifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to view instrument identifiers</t>
-  </si>
-  <si>
-    <t>View instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to view all mastered instruments</t>
-  </si>
-  <si>
-    <t>A limit to the size of the results set will be available soon</t>
-  </si>
-  <si>
-    <t>View instrument reference data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to view instrument reference data</t>
-  </si>
-  <si>
-    <t>an instrument property, as a Instrument/default/Ticker. This is recoverable when you ask for instruments</t>
-  </si>
-  <si>
-    <t>We will add more instrument properties here as they are available</t>
-  </si>
-  <si>
-    <t>Step 1: Add an instrument</t>
-  </si>
-  <si>
-    <t>In this step we are adding a new instrument</t>
-  </si>
-  <si>
-    <t>Step 2: View created instrument</t>
-  </si>
-  <si>
-    <t>Here we can load our created instrument from LUSID</t>
-  </si>
-  <si>
-    <t>Amend instruments</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to amend your instrument data</t>
-  </si>
-  <si>
-    <t>Step 1: Amend an instrument</t>
-  </si>
-  <si>
-    <t>Step 2: View amended instrument</t>
-  </si>
-  <si>
-    <t>Prices</t>
-  </si>
-  <si>
-    <t>View market quotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet shows you how to view quotes on an instrument by date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet shows you how to view quotes on a date for various instruments</t>
-  </si>
-  <si>
-    <t>Datetimes in LUSID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to format datetimes for use with LUSID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> If you have any questions please visit our:</t>
-  </si>
-  <si>
-    <t>Getting Started tutorials</t>
-  </si>
-  <si>
-    <t>Knowledge Base articles</t>
-  </si>
-  <si>
-    <t>or Contact us</t>
-  </si>
-  <si>
-    <t>Enter the date to convert</t>
-  </si>
-  <si>
-    <t>This date has no time component</t>
-  </si>
-  <si>
-    <t>Specify time component</t>
-  </si>
-  <si>
-    <t>Add to your date and display the complete datetime</t>
-  </si>
-  <si>
-    <t>Although the date can still appears without time</t>
-  </si>
-  <si>
-    <t>Amend market data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to amend market data in LUSID</t>
-  </si>
-  <si>
-    <t>Get a selection of instruments and their reference data</t>
-  </si>
-  <si>
-    <t>Get all instruments from your LUSID domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Get a list of instrument identifiers</t>
-  </si>
-  <si>
-    <t>Create market data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to add in your own market data in LUSID</t>
-  </si>
-  <si>
-    <t>Step 2: Amend some of the quotes from previous tabs</t>
-  </si>
-  <si>
-    <t>Step 2: Add in your own market data</t>
-  </si>
-  <si>
-    <t>InstrumentType</t>
-  </si>
-  <si>
-    <t>EffectiveAt</t>
-  </si>
-  <si>
-    <t>Lineage</t>
-  </si>
-  <si>
-    <t>AddQuote</t>
-  </si>
-  <si>
-    <t>LiveSource</t>
-  </si>
-  <si>
-    <t>The function fbnQuotesAdd allows for a table of quotes to be added with one call</t>
-  </si>
-  <si>
-    <t>FinbourneMarketData</t>
-  </si>
-  <si>
-    <t>Then populate the property, before recovering the property</t>
-  </si>
-  <si>
-    <t>If you have any questions please visit our:</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>ValueRequired</t>
-  </si>
-  <si>
-    <t>DisplayName</t>
-  </si>
-  <si>
-    <t>DataTypeId</t>
-  </si>
-  <si>
-    <t>LifeTime</t>
-  </si>
-  <si>
-    <t>system:string</t>
-  </si>
-  <si>
-    <t>TimeVariant</t>
-  </si>
-  <si>
-    <t>system:date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This sheet allows you to create and add an instrument</t>
-  </si>
-  <si>
-    <t>Add a new instrument</t>
-  </si>
-  <si>
-    <t>Add a property definition</t>
-  </si>
-  <si>
-    <t>This sheet allows you to create and add a property definition to LUSID, add it to an instrument (to extend its definition), set its value and then view the result</t>
-  </si>
-  <si>
-    <t>Step 1: Add property definitions</t>
-  </si>
-  <si>
-    <t>FinbourneBondVillains</t>
-  </si>
-  <si>
-    <t>PlanType</t>
-  </si>
-  <si>
-    <t>TakeOverWorldDate</t>
-  </si>
-  <si>
-    <t>TakeOverDate</t>
-  </si>
-  <si>
-    <t>Instrument/FinbourneBondVillains/PlanType</t>
-  </si>
-  <si>
-    <t>Instrument/FinbourneBondVillains/TakeOverWorldDate</t>
-  </si>
-  <si>
-    <t>Laser from satellite</t>
-  </si>
-  <si>
-    <t>Step 3: View created instrument</t>
-  </si>
-  <si>
-    <t>Step 2: Add properties to instrument</t>
-  </si>
-  <si>
-    <t>In this step we add the property definitions to the instrument and set values</t>
-  </si>
-  <si>
-    <t>In this step we create new property definitions and add them to LUSID</t>
-  </si>
-  <si>
-    <t>Here we load back our instrument, specifically asking to decorate our property definitions</t>
-  </si>
-  <si>
-    <t>"YYYY-MM-DDTHH:MM:SS.00Z"</t>
-  </si>
-  <si>
-    <t>Where Z indicates Zulu time (UTC+0), and is equivalent to +00:00</t>
-  </si>
-  <si>
-    <t>Instrument Id Types</t>
-  </si>
-  <si>
-    <t>Instrument Ids</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Limit</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Definition - InstrumentFormat</t>
-  </si>
-  <si>
-    <t>Definition - Content</t>
-  </si>
-  <si>
-    <t>some-format</t>
-  </si>
-  <si>
-    <t>Effective From</t>
-  </si>
-  <si>
-    <t>2028/12/01T00:00:00.00</t>
-  </si>
-  <si>
-    <t>LUSID accepts datetimes in any recognised Excel format</t>
-  </si>
-  <si>
-    <t>LUSID also accepts UTC, UTS offsets and cutlabels</t>
-  </si>
-  <si>
-    <t>Excel formats to show datetime</t>
-  </si>
-  <si>
-    <t>Additional formats</t>
-  </si>
-  <si>
-    <t>Standard UTC timestamp:</t>
-  </si>
-  <si>
-    <t>Convert date into a string</t>
-  </si>
-  <si>
-    <t>UTC offset (not recognised as an excel date)</t>
-  </si>
-  <si>
-    <t>2019-04-10T13:30:45+04:00</t>
-  </si>
-  <si>
-    <t>Cutlabel</t>
-  </si>
-  <si>
-    <t>Add an hour to your datetime</t>
-  </si>
-  <si>
-    <t>Subtract a minute from your datetime</t>
-  </si>
-  <si>
-    <t>Excel</t>
-  </si>
-  <si>
-    <t>IdentifierType</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Properties...</t>
-  </si>
-  <si>
-    <t>In this case we are adding instrument properties. Don’t forget you can use the template to see a list of the required fields. Click on the returned cells to see tooltips</t>
-  </si>
-  <si>
-    <t>In this case we are adding an instrument definition format. Don’t forget you can use the flInstrumentsAdd_Template to see a list of the required fields. Click on the returned cells to see tooltips</t>
-  </si>
-  <si>
-    <t>Finbourne-Examples</t>
-  </si>
-  <si>
-    <t>IsThisATestTrade</t>
-  </si>
-  <si>
-    <t>Perpetual</t>
-  </si>
-  <si>
-    <t>In this case we are adding instrument and transaction properties. Don’t forget you can use the template to see a list of the required fields. Click on the returned cells to see tooltips</t>
+    <t>mid</t>
   </si>
 </sst>
 </file>
@@ -1518,342 +1530,371 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>026a2182-e451-49ce-9f5c-af98b56f792a</stp>
-        <tr r="N23" s="16"/>
+        <stp>9c58753e-ee55-431c-bc50-24f145f51a03</stp>
+        <tr r="M23" s="17"/>
       </tp>
     </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>7e1ca5cc-f1d6-48e6-ab5b-1ff1e929d405</stp>
-        <tr r="M30" s="17"/>
+        <stp>50b35d4b-128c-497b-ae21-079eb40bb2dd</stp>
+        <tr r="N25" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>11165e86-7c93-4b5c-b92b-1766822d54a1</stp>
+        <tr r="H26" s="10"/>
+        <tr r="G24" s="10"/>
+        <tr r="I30" s="10"/>
+        <tr r="G29" s="10"/>
+        <tr r="H24" s="10"/>
+        <tr r="F23" s="10"/>
+        <tr r="J25" s="10"/>
+        <tr r="F28" s="10"/>
+        <tr r="I26" s="10"/>
+        <tr r="G22" s="10"/>
+        <tr r="I21" s="10"/>
+        <tr r="H30" s="10"/>
+        <tr r="I29" s="10"/>
+        <tr r="G30" s="10"/>
+        <tr r="G31" s="10"/>
+        <tr r="I24" s="10"/>
+        <tr r="G21" s="10"/>
+        <tr r="G27" s="10"/>
+        <tr r="F24" s="10"/>
+        <tr r="H22" s="10"/>
+        <tr r="F25" s="10"/>
+        <tr r="I28" s="10"/>
+        <tr r="I22" s="10"/>
+        <tr r="G23" s="10"/>
+        <tr r="G26" s="10"/>
+        <tr r="H28" s="10"/>
+        <tr r="H27" s="10"/>
+        <tr r="J23" s="10"/>
+        <tr r="F22" s="10"/>
+        <tr r="H23" s="10"/>
+        <tr r="I31" s="10"/>
+        <tr r="F30" s="10"/>
+        <tr r="H25" s="10"/>
+        <tr r="J22" s="10"/>
+        <tr r="H21" s="10"/>
+        <tr r="I25" s="10"/>
+        <tr r="F27" s="10"/>
+        <tr r="J28" s="10"/>
+        <tr r="J27" s="10"/>
+        <tr r="J26" s="10"/>
+        <tr r="I27" s="10"/>
+        <tr r="J29" s="10"/>
+        <tr r="F31" s="10"/>
+        <tr r="J21" s="10"/>
+        <tr r="F29" s="10"/>
+        <tr r="H29" s="10"/>
+        <tr r="I23" s="10"/>
+        <tr r="G28" s="10"/>
+        <tr r="F21" s="10"/>
+        <tr r="F26" s="10"/>
+        <tr r="J30" s="10"/>
+        <tr r="J31" s="10"/>
+        <tr r="H31" s="10"/>
+        <tr r="G25" s="10"/>
+        <tr r="J24" s="10"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>b9e59655-355b-47fd-a249-1299a29c92bd</stp>
-        <tr r="E30" s="12"/>
-        <tr r="F25" s="12"/>
-        <tr r="G28" s="12"/>
-        <tr r="F28" s="12"/>
-        <tr r="E33" s="12"/>
-        <tr r="F33" s="12"/>
-        <tr r="F27" s="12"/>
-        <tr r="E31" s="12"/>
-        <tr r="F32" s="12"/>
-        <tr r="G30" s="12"/>
-        <tr r="F24" s="12"/>
-        <tr r="F31" s="12"/>
-        <tr r="F29" s="12"/>
-        <tr r="G23" s="12"/>
-        <tr r="E26" s="12"/>
-        <tr r="E25" s="12"/>
-        <tr r="G29" s="12"/>
-        <tr r="F26" s="12"/>
-        <tr r="F23" s="12"/>
-        <tr r="E27" s="12"/>
-        <tr r="G24" s="12"/>
-        <tr r="E32" s="12"/>
-        <tr r="E23" s="12"/>
-        <tr r="E28" s="12"/>
-        <tr r="E29" s="12"/>
-        <tr r="E24" s="12"/>
-        <tr r="F30" s="12"/>
-        <tr r="G31" s="12"/>
-        <tr r="G33" s="12"/>
-        <tr r="G27" s="12"/>
-        <tr r="G32" s="12"/>
-        <tr r="G26" s="12"/>
-        <tr r="G25" s="12"/>
+        <stp>56155feb-ba1d-4596-a41d-94f46d127f5d</stp>
+        <tr r="N24" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>5cd26bab-7eec-43c7-80a2-1f37fbca85d7</stp>
-        <tr r="G27" s="11"/>
-        <tr r="E18" s="11"/>
-        <tr r="E25" s="11"/>
-        <tr r="G18" s="11"/>
-        <tr r="G25" s="11"/>
-        <tr r="E24" s="11"/>
-        <tr r="E17" s="11"/>
-        <tr r="E28" s="11"/>
-        <tr r="G17" s="11"/>
-        <tr r="E20" s="11"/>
-        <tr r="E19" s="11"/>
-        <tr r="E21" s="11"/>
-        <tr r="G29" s="11"/>
-        <tr r="F20" s="11"/>
-        <tr r="G26" s="11"/>
-        <tr r="G21" s="11"/>
-        <tr r="F27" s="11"/>
-        <tr r="F19" s="11"/>
-        <tr r="E23" s="11"/>
-        <tr r="E22" s="11"/>
-        <tr r="E29" s="11"/>
-        <tr r="E26" s="11"/>
-        <tr r="G23" s="11"/>
-        <tr r="G19" s="11"/>
-        <tr r="G24" s="11"/>
-        <tr r="F24" s="11"/>
-        <tr r="F26" s="11"/>
-        <tr r="F23" s="11"/>
-        <tr r="E27" s="11"/>
-        <tr r="F25" s="11"/>
-        <tr r="F21" s="11"/>
-        <tr r="F18" s="11"/>
-        <tr r="G28" s="11"/>
-        <tr r="F28" s="11"/>
-        <tr r="F17" s="11"/>
-        <tr r="F29" s="11"/>
-        <tr r="G22" s="11"/>
-        <tr r="F22" s="11"/>
-        <tr r="G20" s="11"/>
+        <stp>10e5e319-55db-4ef0-b5b8-71c55264fef4</stp>
+        <tr r="J42" s="20"/>
+        <tr r="J43" s="20"/>
+        <tr r="I42" s="20"/>
+        <tr r="F43" s="20"/>
+        <tr r="K43" s="20"/>
+        <tr r="H42" s="20"/>
+        <tr r="L42" s="20"/>
+        <tr r="I43" s="20"/>
+        <tr r="L43" s="20"/>
+        <tr r="K42" s="20"/>
+        <tr r="H43" s="20"/>
+        <tr r="G42" s="20"/>
+        <tr r="G43" s="20"/>
+        <tr r="F42" s="20"/>
       </tp>
     </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>1977b163-c445-48f5-be77-f0873399e881</stp>
-        <tr r="N26" s="16"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>67793043-3234-447d-94ee-eecac677d5ca</stp>
-        <tr r="K35" s="13"/>
-        <tr r="H34" s="13"/>
-        <tr r="H35" s="13"/>
-        <tr r="G36" s="13"/>
-        <tr r="G35" s="13"/>
-        <tr r="H36" s="13"/>
-        <tr r="I35" s="13"/>
-        <tr r="G34" s="13"/>
-        <tr r="F36" s="13"/>
-        <tr r="J34" s="13"/>
-        <tr r="I34" s="13"/>
-        <tr r="J36" s="13"/>
-        <tr r="F35" s="13"/>
-        <tr r="K34" s="13"/>
-        <tr r="I36" s="13"/>
-        <tr r="F34" s="13"/>
-        <tr r="K36" s="13"/>
-        <tr r="J35" s="13"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0ba07f47-31c5-4307-a550-8ca47ad7fd0b</stp>
+        <stp>1ca87041-1cfb-4cd6-b637-b23a3a2bf5c8</stp>
         <tr r="M27" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>3185fd14-5361-423e-856c-5d765066938e</stp>
-        <tr r="N24" s="16"/>
+        <stp>4564e3bb-89a7-416d-994c-4e1ba39698b9</stp>
+        <tr r="E28" s="11"/>
+        <tr r="G24" s="11"/>
+        <tr r="G25" s="11"/>
+        <tr r="F20" s="11"/>
+        <tr r="G23" s="11"/>
+        <tr r="E25" s="11"/>
+        <tr r="G17" s="11"/>
+        <tr r="F19" s="11"/>
+        <tr r="G29" s="11"/>
+        <tr r="F21" s="11"/>
+        <tr r="G28" s="11"/>
+        <tr r="F23" s="11"/>
+        <tr r="E21" s="11"/>
+        <tr r="E23" s="11"/>
+        <tr r="G26" s="11"/>
+        <tr r="E20" s="11"/>
+        <tr r="G22" s="11"/>
+        <tr r="E17" s="11"/>
+        <tr r="F29" s="11"/>
+        <tr r="G18" s="11"/>
+        <tr r="F28" s="11"/>
+        <tr r="F18" s="11"/>
+        <tr r="G19" s="11"/>
+        <tr r="F24" s="11"/>
+        <tr r="F25" s="11"/>
+        <tr r="E22" s="11"/>
+        <tr r="G20" s="11"/>
+        <tr r="E29" s="11"/>
+        <tr r="E19" s="11"/>
+        <tr r="G21" s="11"/>
+        <tr r="E26" s="11"/>
+        <tr r="E24" s="11"/>
+        <tr r="G27" s="11"/>
+        <tr r="F22" s="11"/>
+        <tr r="F27" s="11"/>
+        <tr r="F17" s="11"/>
+        <tr r="F26" s="11"/>
+        <tr r="E18" s="11"/>
+        <tr r="E27" s="11"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>e8e91820-d060-437b-bb46-a214ee9f0079</stp>
+        <stp>660ce0c5-0169-4e77-9fa0-33f5bf05d52b</stp>
         <tr r="N29" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>c961da18-0352-4010-8432-6ff469fc4b19</stp>
-        <tr r="N27" s="16"/>
+        <stp>61a72f8a-8ffe-4f30-a9b7-836981e231d9</stp>
+        <tr r="G34" s="13"/>
+        <tr r="I36" s="13"/>
+        <tr r="H36" s="13"/>
+        <tr r="I35" s="13"/>
+        <tr r="F36" s="13"/>
+        <tr r="K36" s="13"/>
+        <tr r="G35" s="13"/>
+        <tr r="J36" s="13"/>
+        <tr r="H34" s="13"/>
+        <tr r="K34" s="13"/>
+        <tr r="H35" s="13"/>
+        <tr r="F35" s="13"/>
+        <tr r="F34" s="13"/>
+        <tr r="J35" s="13"/>
+        <tr r="G36" s="13"/>
+        <tr r="J34" s="13"/>
+        <tr r="I34" s="13"/>
+        <tr r="K35" s="13"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>27dcb340-0803-4419-9268-c97550a06e5d</stp>
-        <tr r="M24" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>18a070c6-9d63-4f30-a2c0-e55dfce8a98e</stp>
-        <tr r="M25" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>048ed6a5-9a68-4d9c-8e7f-ede1a0ead4d4</stp>
-        <tr r="M28" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c3513c8c-606b-4e53-81c1-1b8326309c8d</stp>
-        <tr r="N28" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c1867b72-f5c5-459f-8bee-025817dd11b1</stp>
-        <tr r="G30" s="14"/>
-        <tr r="I30" s="14"/>
-        <tr r="G28" s="14"/>
-        <tr r="H30" s="14"/>
-        <tr r="J30" s="14"/>
-        <tr r="G29" s="14"/>
-        <tr r="I29" s="14"/>
-        <tr r="K30" s="14"/>
-        <tr r="F28" s="14"/>
-        <tr r="F30" s="14"/>
-        <tr r="H29" s="14"/>
-        <tr r="K28" s="14"/>
-        <tr r="J28" s="14"/>
-        <tr r="I28" s="14"/>
-        <tr r="K29" s="14"/>
-        <tr r="F29" s="14"/>
-        <tr r="H28" s="14"/>
-        <tr r="J29" s="14"/>
+        <stp>ff50d9be-8796-46cf-809c-61c9412c7478</stp>
+        <tr r="N23" s="16"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>d9aa6c9c-fb11-4bab-b73d-bdd22841c357</stp>
+        <stp>14023d12-416e-49cf-9df2-55334d6cf913</stp>
+        <tr r="G32" s="14"/>
+        <tr r="J33" s="14"/>
+        <tr r="L32" s="14"/>
+        <tr r="K32" s="14"/>
+        <tr r="H33" s="14"/>
+        <tr r="L33" s="14"/>
+        <tr r="G33" s="14"/>
+        <tr r="J32" s="14"/>
+        <tr r="I33" s="14"/>
+        <tr r="K33" s="14"/>
+        <tr r="I32" s="14"/>
+        <tr r="H32" s="14"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f6fee0f4-bc85-448a-8fd6-bc8471611814</stp>
+        <tr r="N27" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b277a61a-67f2-491e-a8fc-4929196ea86d</stp>
+        <tr r="N26" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>41f95d4e-098d-4ff3-9d2c-3506fd4b6b02</stp>
+        <tr r="M28" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>52bb8e15-0bca-4d46-a9e1-40c4fc50e3db</stp>
         <tr r="M22" s="17"/>
         <tr r="N22" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>9a339039-083f-4dbc-9488-cb2af9e842e2</stp>
+        <tr r="G31" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>05775c0c-3209-4385-a86f-b29f8b105505</stp>
+        <stp>3f89804c-f833-451d-86ae-079bdb523285</stp>
+        <tr r="N28" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b9ad75ad-4b4f-4eda-9fce-7945bbc6a14b</stp>
+        <tr r="M24" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0f8f61c8-c051-41b3-b230-925142abdd92</stp>
+        <tr r="M26" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bd9bf7cf-40da-4972-9975-ba101e1cb9e8</stp>
+        <tr r="H28" s="14"/>
+        <tr r="I29" s="14"/>
+        <tr r="K28" s="14"/>
+        <tr r="G28" s="14"/>
+        <tr r="L28" s="14"/>
+        <tr r="I28" s="14"/>
+        <tr r="J29" s="14"/>
+        <tr r="L29" s="14"/>
+        <tr r="H29" s="14"/>
+        <tr r="J28" s="14"/>
+        <tr r="G29" s="14"/>
+        <tr r="K29" s="14"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0193442e-14bb-43c2-9db1-f13cc82ad37f</stp>
         <tr r="N30" s="16"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>56693399-3a20-498f-8548-143b4e2226f0</stp>
-        <tr r="G28" s="10"/>
-        <tr r="J25" s="10"/>
-        <tr r="G24" s="10"/>
-        <tr r="J22" s="10"/>
-        <tr r="I21" s="10"/>
-        <tr r="J27" s="10"/>
-        <tr r="I28" s="10"/>
-        <tr r="G30" s="10"/>
-        <tr r="J26" s="10"/>
-        <tr r="F23" s="10"/>
-        <tr r="G21" s="10"/>
-        <tr r="H26" s="10"/>
-        <tr r="I24" s="10"/>
-        <tr r="I26" s="10"/>
-        <tr r="I30" s="10"/>
-        <tr r="H29" s="10"/>
-        <tr r="I29" s="10"/>
-        <tr r="J31" s="10"/>
-        <tr r="F24" s="10"/>
-        <tr r="H25" s="10"/>
-        <tr r="J30" s="10"/>
-        <tr r="F29" s="10"/>
-        <tr r="J24" s="10"/>
-        <tr r="H28" s="10"/>
-        <tr r="F27" s="10"/>
-        <tr r="I22" s="10"/>
-        <tr r="I27" s="10"/>
-        <tr r="F30" s="10"/>
-        <tr r="I25" s="10"/>
-        <tr r="J21" s="10"/>
-        <tr r="G25" s="10"/>
-        <tr r="I23" s="10"/>
-        <tr r="F21" s="10"/>
-        <tr r="G27" s="10"/>
-        <tr r="H23" s="10"/>
-        <tr r="G29" s="10"/>
-        <tr r="H22" s="10"/>
-        <tr r="H31" s="10"/>
-        <tr r="J23" s="10"/>
-        <tr r="F25" s="10"/>
-        <tr r="H21" s="10"/>
-        <tr r="F31" s="10"/>
-        <tr r="G31" s="10"/>
-        <tr r="F28" s="10"/>
-        <tr r="F22" s="10"/>
-        <tr r="G22" s="10"/>
-        <tr r="J28" s="10"/>
-        <tr r="I31" s="10"/>
-        <tr r="G26" s="10"/>
-        <tr r="G23" s="10"/>
-        <tr r="H27" s="10"/>
-        <tr r="F26" s="10"/>
-        <tr r="H24" s="10"/>
-        <tr r="J29" s="10"/>
-        <tr r="H30" s="10"/>
+        <stp>58e2aceb-df0b-4d23-bace-2a5b664d1f57</stp>
+        <tr r="M29" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>792a52a0-2195-4176-8b26-4f0bb6fab0d2</stp>
+        <tr r="F32" s="12"/>
+        <tr r="F26" s="12"/>
+        <tr r="F29" s="12"/>
+        <tr r="G31" s="12"/>
+        <tr r="F27" s="12"/>
+        <tr r="E32" s="12"/>
+        <tr r="E26" s="12"/>
+        <tr r="E33" s="12"/>
+        <tr r="E28" s="12"/>
+        <tr r="F30" s="12"/>
+        <tr r="E25" s="12"/>
+        <tr r="E31" s="12"/>
+        <tr r="G26" s="12"/>
+        <tr r="F23" s="12"/>
+        <tr r="F28" s="12"/>
+        <tr r="E24" s="12"/>
+        <tr r="G24" s="12"/>
+        <tr r="E30" s="12"/>
+        <tr r="E29" s="12"/>
+        <tr r="G29" s="12"/>
+        <tr r="F31" s="12"/>
+        <tr r="G32" s="12"/>
+        <tr r="G28" s="12"/>
+        <tr r="E23" s="12"/>
+        <tr r="F25" s="12"/>
+        <tr r="G30" s="12"/>
+        <tr r="F24" s="12"/>
+        <tr r="G33" s="12"/>
+        <tr r="F33" s="12"/>
+        <tr r="G27" s="12"/>
+        <tr r="G25" s="12"/>
+        <tr r="G23" s="12"/>
+        <tr r="E27" s="12"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>6d0dca38-6a98-4b85-9b63-aef7e9afb695</stp>
+        <tr r="M30" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>f3cf562f-667e-474c-b027-4588f991f62c</stp>
+        <tr r="M25" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>cc8ab410-dc0f-45b8-b4df-3254e8ad1a65</stp>
-        <tr r="M26" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c4790b82-17cf-488e-8f14-7d2b1fa3f470</stp>
-        <tr r="M23" s="17"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b571f5f8-c662-4064-8e10-61553b29508c</stp>
+        <stp>d75cdde3-3501-4cf9-9646-55d03a2c1a7e</stp>
         <tr r="M31" s="17"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>cd787768-734b-45b4-8025-449fee2ab6eb</stp>
-        <tr r="F42" s="20"/>
-        <tr r="L43" s="20"/>
-        <tr r="F43" s="20"/>
-        <tr r="J42" s="20"/>
-        <tr r="H42" s="20"/>
-        <tr r="G42" s="20"/>
-        <tr r="K42" s="20"/>
-        <tr r="G43" s="20"/>
-        <tr r="K43" s="20"/>
-        <tr r="L42" s="20"/>
-        <tr r="I42" s="20"/>
-        <tr r="J43" s="20"/>
-        <tr r="H43" s="20"/>
-        <tr r="I43" s="20"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>689f1921-d976-4d2a-98e0-dd790362f0ec</stp>
-        <tr r="M29" s="17"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>611ab6f3-d69c-4207-8730-d33441079cab</stp>
-        <tr r="N25" s="16"/>
       </tp>
     </main>
   </volType>
@@ -2921,35 +2962,35 @@
   </sheetPr>
   <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="50.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.73046875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="23" customWidth="1"/>
     <col min="7" max="7" width="22" style="23" customWidth="1"/>
-    <col min="8" max="8" width="40.73046875" style="23" customWidth="1"/>
-    <col min="9" max="9" width="28.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.59765625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="23" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" customWidth="1"/>
-    <col min="12" max="14" width="24.265625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="3.3984375" style="23" customWidth="1"/>
-    <col min="16" max="16" width="23.59765625" style="23" customWidth="1"/>
-    <col min="17" max="17" width="29.73046875" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.73046875" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.73046875" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1328125" style="23"/>
+    <col min="12" max="14" width="24.28515625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="23.5703125" style="23" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2965,11 +3006,11 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2983,7 +3024,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2999,11 +3040,11 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3017,11 +3058,11 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3035,12 +3076,12 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3053,12 +3094,12 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3071,12 +3112,12 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3089,7 +3130,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3105,17 +3146,17 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3125,7 +3166,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3141,17 +3182,17 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3162,7 +3203,7 @@
       <c r="O15" s="2"/>
       <c r="T15" s="27"/>
     </row>
-    <row r="16" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3179,25 +3220,25 @@
       <c r="O16" s="2"/>
       <c r="T16" s="27"/>
     </row>
-    <row r="17" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F17" s="25">
         <v>43565</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -3206,7 +3247,7 @@
       <c r="O17" s="2"/>
       <c r="T17" s="27"/>
     </row>
-    <row r="18" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3223,12 +3264,12 @@
       <c r="O18" s="2"/>
       <c r="T18" s="27"/>
     </row>
-    <row r="19" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F19" s="28">
         <f>F17</f>
@@ -3236,7 +3277,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I19" s="25" t="str">
         <f>TEXT(F23,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F23," hh:mm:ss.00Z")</f>
@@ -3250,7 +3291,7 @@
       <c r="O19" s="2"/>
       <c r="T19" s="27"/>
     </row>
-    <row r="20" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3267,22 +3308,22 @@
       <c r="O20" s="2"/>
       <c r="T20" s="27"/>
     </row>
-    <row r="21" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F21" s="29">
         <v>0.56302719907407406</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="2"/>
@@ -3292,7 +3333,7 @@
       <c r="O21" s="2"/>
       <c r="T21" s="27"/>
     </row>
-    <row r="22" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3309,12 +3350,12 @@
       <c r="O22" s="2"/>
       <c r="T22" s="27"/>
     </row>
-    <row r="23" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F23" s="30">
         <f>F17 + F21</f>
@@ -3322,7 +3363,7 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I23" s="25" t="str">
         <f>TEXT(F23,"yyyy-mm-dd")&amp;"NSingaporeClose"</f>
@@ -3335,7 +3376,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3351,12 +3392,12 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F25" s="31">
         <f>F23</f>
@@ -3372,7 +3413,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3388,12 +3429,12 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F27" s="30">
         <f>F23+1/24</f>
@@ -3409,7 +3450,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3425,12 +3466,12 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F29" s="30">
         <f>F27-1/1440</f>
@@ -3446,7 +3487,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3462,7 +3503,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3498,34 +3539,34 @@
   <dimension ref="A1:AD55"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" style="23" customWidth="1"/>
-    <col min="7" max="11" width="18.265625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="23" customWidth="1"/>
+    <col min="7" max="11" width="18.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="23" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.3984375" style="23" customWidth="1"/>
-    <col min="18" max="19" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1328125" style="23"/>
+    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="23" customWidth="1"/>
+    <col min="18" max="19" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3543,11 +3584,11 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3563,7 +3604,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3581,11 +3622,11 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3601,11 +3642,11 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3621,12 +3662,12 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3641,12 +3682,12 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3661,12 +3702,12 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3681,7 +3722,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3704,7 +3745,7 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -3714,7 +3755,7 @@
       <c r="U11"/>
       <c r="V11"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3737,10 +3778,10 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="2:22" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:22" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -3762,7 +3803,7 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3785,7 +3826,7 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3793,7 +3834,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -3814,7 +3855,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3837,7 +3878,7 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3865,7 +3906,7 @@
       <c r="AC17"/>
       <c r="AD17"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3896,10 +3937,10 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="2:30" ht="21" x14ac:dyDescent="0.65">
+    <row r="19" spans="2:30" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3929,7 +3970,7 @@
       <c r="AC19"/>
       <c r="AD19"/>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3960,7 +4001,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3999,27 +4040,27 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="I22" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>187</v>
@@ -4028,16 +4069,16 @@
         <v>185</v>
       </c>
       <c r="M22" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="P22" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22"/>
@@ -4054,15 +4095,15 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>204</v>
@@ -4074,7 +4115,7 @@
         <v>186</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K23" s="17">
         <v>100</v>
@@ -4089,7 +4130,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="50" t="str">
         <f>_xll.flQuotesAdd(F15,E22:O23)</f>
-        <v>Added 1 quote(s) as at time 2019-09-03 16:02:48Z</v>
+        <v>Added 1 quote(s) as at time 2020-01-03 14:13:07Z</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23"/>
@@ -4106,7 +4147,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -4137,7 +4178,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
@@ -4168,7 +4209,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
@@ -4199,7 +4240,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
@@ -4230,7 +4271,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
@@ -4261,7 +4302,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -4292,7 +4333,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4323,7 +4364,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -4353,7 +4394,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
@@ -4373,7 +4414,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
@@ -4388,7 +4429,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4420,7 +4461,7 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
@@ -4435,7 +4476,7 @@
       <c r="AC35"/>
       <c r="AD35"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -4450,7 +4491,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
@@ -4465,7 +4506,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
@@ -4480,7 +4521,7 @@
       <c r="AC38"/>
       <c r="AD38"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39"/>
@@ -4495,7 +4536,7 @@
       <c r="AC39"/>
       <c r="AD39"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
@@ -4510,7 +4551,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
@@ -4525,7 +4566,7 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
@@ -4540,7 +4581,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
@@ -4555,7 +4596,7 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R44"/>
       <c r="S44"/>
       <c r="T44"/>
@@ -4570,7 +4611,7 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
@@ -4585,7 +4626,7 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46"/>
@@ -4600,7 +4641,7 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47"/>
@@ -4615,7 +4656,7 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
@@ -4630,7 +4671,7 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="49" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
@@ -4645,7 +4686,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="50" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R50"/>
       <c r="S50"/>
       <c r="T50"/>
@@ -4660,7 +4701,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="51" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51"/>
@@ -4675,7 +4716,7 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="52" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R52"/>
       <c r="S52"/>
       <c r="T52"/>
@@ -4690,7 +4731,7 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="53" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
@@ -4705,7 +4746,7 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="54" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
@@ -4720,7 +4761,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" spans="18:30" x14ac:dyDescent="0.45">
+    <row r="55" spans="18:30" x14ac:dyDescent="0.25">
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55"/>
@@ -4768,33 +4809,33 @@
   </sheetPr>
   <dimension ref="B1:Y43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="18.265625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="18.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.59765625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="23"/>
+    <col min="14" max="14" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4812,11 +4853,11 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:25" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4832,7 +4873,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="2:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4850,11 +4891,11 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4870,11 +4911,11 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4890,12 +4931,12 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4910,12 +4951,12 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4930,12 +4971,12 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4950,7 +4991,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -4968,7 +5009,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4994,10 +5035,10 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="2:25" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -5022,7 +5063,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="2:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5048,7 +5089,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="2:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5056,7 +5097,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -5080,7 +5121,7 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5106,7 +5147,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -5126,7 +5167,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -5152,10 +5193,10 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="2:25" ht="21" x14ac:dyDescent="0.65">
+    <row r="19" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -5180,7 +5221,7 @@
       <c r="X19"/>
       <c r="Y19"/>
     </row>
-    <row r="20" spans="2:25" ht="21" x14ac:dyDescent="0.65">
+    <row r="20" spans="2:25" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="10"/>
       <c r="D20" s="2"/>
@@ -5198,12 +5239,12 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5226,7 +5267,7 @@
       <c r="X21"/>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5260,27 +5301,27 @@
       <c r="X22"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="I23" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>187</v>
@@ -5289,16 +5330,16 @@
         <v>185</v>
       </c>
       <c r="M23" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="P23" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23"/>
@@ -5310,27 +5351,27 @@
       <c r="X23"/>
       <c r="Y23"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>186</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K24" s="17">
         <v>1.3</v>
@@ -5345,7 +5386,7 @@
       <c r="O24" s="32"/>
       <c r="P24" s="50" t="str">
         <f>_xll.flQuotesAdd(F15,E23:O27)</f>
-        <v>Added 4 quote(s) as at time 2019-09-03 16:02:48Z</v>
+        <v>Added 4 quote(s) as at time 2020-01-03 14:13:07Z</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24"/>
@@ -5357,27 +5398,27 @@
       <c r="X24"/>
       <c r="Y24"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>186</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K25" s="17">
         <v>1.29</v>
@@ -5402,27 +5443,27 @@
       <c r="X25"/>
       <c r="Y25"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>186</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K26" s="17">
         <v>1.28</v>
@@ -5447,27 +5488,27 @@
       <c r="X26"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>186</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K27" s="17">
         <v>1.27</v>
@@ -5492,7 +5533,7 @@
       <c r="X27"/>
       <c r="Y27"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
@@ -5518,7 +5559,7 @@
       <c r="X28"/>
       <c r="Y28"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -5544,7 +5585,7 @@
       <c r="X29"/>
       <c r="Y29"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
@@ -5570,7 +5611,7 @@
       <c r="X30"/>
       <c r="Y30"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
@@ -5596,7 +5637,7 @@
       <c r="X31"/>
       <c r="Y31"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="9"/>
@@ -5622,7 +5663,7 @@
       <c r="X32"/>
       <c r="Y32"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="9"/>
@@ -5648,7 +5689,7 @@
       <c r="X33"/>
       <c r="Y33"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5674,7 +5715,7 @@
       <c r="X34"/>
       <c r="Y34"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -5685,7 +5726,7 @@
       <c r="X35"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -5695,7 +5736,7 @@
       <c r="X36"/>
       <c r="Y36"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q43" s="22"/>
     </row>
   </sheetData>
@@ -5734,13 +5775,13 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5748,7 +5789,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -5756,7 +5797,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -5764,882 +5805,882 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>179</v>
       </c>
@@ -6657,35 +6698,35 @@
   <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.86328125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.86328125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9.1328125" style="23"/>
-    <col min="14" max="14" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="23"/>
+    <col min="14" max="14" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="23"/>
+    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6698,11 +6739,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6713,7 +6754,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6726,11 +6767,11 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6741,11 +6782,11 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6756,12 +6797,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -6771,12 +6812,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6786,12 +6827,12 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -6801,7 +6842,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6814,7 +6855,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6829,7 +6870,7 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6845,10 +6886,10 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6860,7 +6901,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6873,7 +6914,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6886,7 +6927,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6899,7 +6940,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6922,18 +6963,18 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="18" t="str">
-        <v>Figi</v>
+        <v>Sedol</v>
       </c>
       <c r="F18" s="18" t="str">
-        <v>Instrument/default/Figi</v>
+        <v>Instrument/default/Sedol</v>
       </c>
       <c r="G18" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -6944,18 +6985,18 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
       <c r="E19" s="36" t="str">
-        <v>RIC</v>
+        <v>EdiKey</v>
       </c>
       <c r="F19" s="18" t="str">
-        <v>Instrument/default/RIC</v>
+        <v>Instrument/default/EdiKey</v>
       </c>
       <c r="G19" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -6966,18 +7007,18 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
       <c r="E20" s="36" t="str">
-        <v>LusidInstrumentId</v>
+        <v>ShareClassFigi</v>
       </c>
       <c r="F20" s="18" t="str">
-        <v>Instrument/default/LusidInstrumentId</v>
+        <v>Instrument/default/ShareClassFigi</v>
       </c>
       <c r="G20" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -6988,18 +7029,18 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="36" t="str">
-        <v>QuotePermId</v>
+        <v>Isin</v>
       </c>
       <c r="F21" s="18" t="str">
-        <v>Instrument/default/QuotePermId</v>
+        <v>Instrument/default/Isin</v>
       </c>
       <c r="G21" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -7010,15 +7051,15 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="36" t="str">
-        <v>Sedol</v>
+        <v>Ticker</v>
       </c>
       <c r="F22" s="18" t="str">
-        <v>Instrument/default/Sedol</v>
+        <v>Instrument/default/Ticker</v>
       </c>
       <c r="G22" s="18" t="b">
         <v>0</v>
@@ -7032,18 +7073,18 @@
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="36" t="str">
-        <v>Wertpapier</v>
+        <v>Figi</v>
       </c>
       <c r="F23" s="18" t="str">
-        <v>Instrument/default/Wertpapier</v>
+        <v>Instrument/default/Figi</v>
       </c>
       <c r="G23" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -7054,18 +7095,18 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="36" t="str">
-        <v>ClientInternal</v>
+        <v>RIC</v>
       </c>
       <c r="F24" s="18" t="str">
-        <v>Instrument/default/ClientInternal</v>
+        <v>Instrument/default/RIC</v>
       </c>
       <c r="G24" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -7075,18 +7116,18 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="36" t="str">
-        <v>ShareClassFigi</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="F25" s="18" t="str">
-        <v>Instrument/default/ShareClassFigi</v>
+        <v>Instrument/default/LusidInstrumentId</v>
       </c>
       <c r="G25" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -7094,18 +7135,18 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="36" t="str">
-        <v>Isin</v>
+        <v>ClientInternal</v>
       </c>
       <c r="F26" s="18" t="str">
-        <v>Instrument/default/Isin</v>
+        <v>Instrument/default/ClientInternal</v>
       </c>
       <c r="G26" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -7113,18 +7154,18 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="36" t="str">
-        <v>Ticker</v>
+        <v>Currency</v>
       </c>
       <c r="F27" s="18" t="str">
-        <v>Instrument/default/Ticker</v>
+        <v>Instrument/default/Currency</v>
       </c>
       <c r="G27" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -7132,18 +7173,18 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="36" t="str">
-        <v>CompositeFigi</v>
+        <v>QuotePermId</v>
       </c>
       <c r="F28" s="18" t="str">
-        <v>Instrument/default/CompositeFigi</v>
+        <v>Instrument/default/QuotePermId</v>
       </c>
       <c r="G28" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -7151,18 +7192,18 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="36" t="str">
-        <v>Cusip</v>
+        <v>[More...]</v>
       </c>
       <c r="F29" s="18" t="str">
-        <v>Instrument/default/Cusip</v>
-      </c>
-      <c r="G29" s="18" t="b">
-        <v>0</v>
+        <v>[More...]</v>
+      </c>
+      <c r="G29" s="18" t="str">
+        <v>[More...]</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -7170,7 +7211,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -7215,34 +7256,34 @@
   <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="23.3984375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="23" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1328125" style="23"/>
-    <col min="13" max="13" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="23"/>
+    <col min="13" max="13" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.1328125" style="23"/>
+    <col min="20" max="23" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7254,11 +7295,11 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7268,7 +7309,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7280,11 +7321,11 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7294,11 +7335,11 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7308,12 +7349,12 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7322,12 +7363,12 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7336,12 +7377,12 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7350,7 +7391,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7362,7 +7403,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -7374,10 +7415,10 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7388,7 +7429,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="10"/>
       <c r="D15" s="2"/>
@@ -7400,12 +7441,12 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -7414,12 +7455,12 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -7428,12 +7469,12 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -7442,7 +7483,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -7454,31 +7495,31 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>198</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="25">
-        <f ca="1">NOW()</f>
-        <v>43739.51511388889</v>
+        <f ca="1">TODAY()</f>
+        <v>43833</v>
       </c>
       <c r="F21" s="25">
         <v>43697</v>
@@ -7491,7 +7532,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -7503,7 +7544,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -7524,7 +7565,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
@@ -7536,18 +7577,18 @@
       </c>
       <c r="F24" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_1IDOGL5H</v>
+        <v>CCY_AED</v>
       </c>
       <c r="G24" s="18" t="str">
         <f ca="1"/>
-        <v>T 2.25% Apr 30, 2021</v>
+        <v>AED</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
@@ -7559,18 +7600,18 @@
       </c>
       <c r="F25" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_2C7J9UP8</v>
+        <v>CCY_AFN</v>
       </c>
       <c r="G25" s="18" t="str">
         <f ca="1"/>
-        <v>T 2.875% Nov 15, 2046</v>
+        <v>AFN</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
@@ -7582,18 +7623,18 @@
       </c>
       <c r="F26" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_388AOHMF</v>
+        <v>CCY_ALL</v>
       </c>
       <c r="G26" s="18" t="str">
         <f ca="1"/>
-        <v>GE 4.418% Nov 15, 2035</v>
+        <v>ALL</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
@@ -7605,18 +7646,18 @@
       </c>
       <c r="F27" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_3IPLDPSN</v>
+        <v>CCY_AMD</v>
       </c>
       <c r="G27" s="18" t="str">
         <f ca="1"/>
-        <v>Walt Disney</v>
+        <v>AMD</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
@@ -7628,133 +7669,133 @@
       </c>
       <c r="F28" s="18" t="str">
         <f ca="1"/>
-        <v>LUID_3MI5BPOM</v>
+        <v>CCY_ANG</v>
       </c>
       <c r="G28" s="18" t="str">
         <f ca="1"/>
-        <v>NATIONAL GRID</v>
+        <v>ANG</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
         <v>6</v>
       </c>
-      <c r="E29" s="36" t="e">
+      <c r="E29" s="36" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F29" s="18" t="e">
+        <v/>
+      </c>
+      <c r="F29" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G29" s="18" t="e">
+        <v/>
+      </c>
+      <c r="G29" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <v>7</v>
       </c>
-      <c r="E30" s="36" t="e">
+      <c r="E30" s="36" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F30" s="18" t="e">
+        <v/>
+      </c>
+      <c r="F30" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="18" t="e">
+        <v/>
+      </c>
+      <c r="G30" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <v>8</v>
       </c>
-      <c r="E31" s="36" t="e">
+      <c r="E31" s="36" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F31" s="18" t="e">
+        <v/>
+      </c>
+      <c r="F31" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G31" s="18" t="e">
+        <v/>
+      </c>
+      <c r="G31" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <v>9</v>
       </c>
-      <c r="E32" s="36" t="e">
+      <c r="E32" s="36" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F32" s="18" t="e">
+        <v/>
+      </c>
+      <c r="F32" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G32" s="18" t="e">
+        <v/>
+      </c>
+      <c r="G32" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
         <v>10</v>
       </c>
-      <c r="E33" s="36" t="e">
+      <c r="E33" s="36" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" s="18" t="e">
+        <v/>
+      </c>
+      <c r="F33" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G33" s="18" t="e">
+        <v/>
+      </c>
+      <c r="G33" s="18" t="str">
         <f ca="1"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -7789,32 +7830,32 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.86328125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9.1328125" style="23"/>
-    <col min="14" max="14" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="23"/>
+    <col min="14" max="14" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="23"/>
+    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7827,11 +7868,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7842,7 +7883,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7855,11 +7896,11 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7870,11 +7911,11 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7885,12 +7926,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7900,12 +7941,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7915,12 +7956,12 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7930,7 +7971,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7943,7 +7984,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -7959,10 +8000,10 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -7974,7 +8015,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -7987,12 +8028,12 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8002,12 +8043,12 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8017,12 +8058,12 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -8032,7 +8073,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -8045,7 +8086,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -8062,7 +8103,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -8075,7 +8116,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -8095,8 +8136,8 @@
       <c r="I21" s="33" t="str">
         <v>Figi</v>
       </c>
-      <c r="J21" s="33" t="e">
-        <v>#N/A</v>
+      <c r="J21" s="33" t="str">
+        <v/>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -8104,7 +8145,7 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9">
@@ -8117,7 +8158,7 @@
         <v>Active</v>
       </c>
       <c r="G22" s="18" t="str">
-        <v>LUID_52QAWPO6</v>
+        <v>LUID_JENBWO5H</v>
       </c>
       <c r="H22" s="35" t="str">
         <v>Apple</v>
@@ -8125,8 +8166,8 @@
       <c r="I22" s="35" t="str">
         <v>BBG000B9XRY4</v>
       </c>
-      <c r="J22" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J22" s="52" t="str">
+        <v/>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -8134,7 +8175,7 @@
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9">
@@ -8147,7 +8188,7 @@
         <v>Active</v>
       </c>
       <c r="G23" s="18" t="str">
-        <v>LUID_8M11ADAC</v>
+        <v>LUID_6IOL49Q5</v>
       </c>
       <c r="H23" s="35" t="str">
         <v>JPMorgan Chase</v>
@@ -8155,8 +8196,8 @@
       <c r="I23" s="35" t="str">
         <v>BBG000DMBXR2</v>
       </c>
-      <c r="J23" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J23" s="52" t="str">
+        <v/>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -8164,7 +8205,7 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9">
@@ -8177,7 +8218,7 @@
         <v>Active</v>
       </c>
       <c r="G24" s="18" t="str">
-        <v>LUID_4JZB9MLP</v>
+        <v>LUID_AHX7SPIA</v>
       </c>
       <c r="H24" s="35" t="str">
         <v>BP</v>
@@ -8185,8 +8226,8 @@
       <c r="I24" s="35" t="str">
         <v>BBG000C059M6</v>
       </c>
-      <c r="J24" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J24" s="52" t="str">
+        <v/>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -8194,7 +8235,7 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9">
@@ -8207,7 +8248,7 @@
         <v>Active</v>
       </c>
       <c r="G25" s="18" t="str">
-        <v>LUID_Z03VAEWV</v>
+        <v>LUID_LNXBDXBB</v>
       </c>
       <c r="H25" s="35" t="str">
         <v>Anheuser-Busch InBev</v>
@@ -8215,8 +8256,8 @@
       <c r="I25" s="35" t="str">
         <v>BBG00DQ4YZ36</v>
       </c>
-      <c r="J25" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J25" s="52" t="str">
+        <v/>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -8224,7 +8265,7 @@
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9">
@@ -8237,7 +8278,7 @@
         <v>Active</v>
       </c>
       <c r="G26" s="18" t="str">
-        <v>LUID_WYX0SDPX</v>
+        <v>LUID_OQEOT1JY</v>
       </c>
       <c r="H26" s="35" t="str">
         <v>Toyota Motor</v>
@@ -8245,8 +8286,8 @@
       <c r="I26" s="35" t="str">
         <v>BBG000BCM915</v>
       </c>
-      <c r="J26" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J26" s="52" t="str">
+        <v/>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -8254,7 +8295,7 @@
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9">
@@ -8267,7 +8308,7 @@
         <v>Active</v>
       </c>
       <c r="G27" s="18" t="str">
-        <v>LUID_F9FDBWL0</v>
+        <v>LUID_L5UE01IN</v>
       </c>
       <c r="H27" s="35" t="str">
         <v>Volkswagen</v>
@@ -8275,8 +8316,8 @@
       <c r="I27" s="35" t="str">
         <v>BBG000BCH458</v>
       </c>
-      <c r="J27" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J27" s="52" t="str">
+        <v/>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -8284,7 +8325,7 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9">
@@ -8297,7 +8338,7 @@
         <v>Active</v>
       </c>
       <c r="G28" s="18" t="str">
-        <v>LUID_816OBQZV</v>
+        <v>LUID_V9OX6CRE</v>
       </c>
       <c r="H28" s="35" t="str">
         <v>HSBC Holdings</v>
@@ -8305,15 +8346,15 @@
       <c r="I28" s="35" t="str">
         <v>BBG000BS1MT4</v>
       </c>
-      <c r="J28" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J28" s="52" t="str">
+        <v/>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9">
@@ -8326,7 +8367,7 @@
         <v>Active</v>
       </c>
       <c r="G29" s="18" t="str">
-        <v>LUID_3IPLDPSN</v>
+        <v>LUID_58EHIPFX</v>
       </c>
       <c r="H29" s="35" t="str">
         <v>Walt Disney</v>
@@ -8334,13 +8375,13 @@
       <c r="I29" s="35" t="str">
         <v>BBG000BH4R78</v>
       </c>
-      <c r="J29" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J29" s="52" t="str">
+        <v/>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9">
@@ -8353,7 +8394,7 @@
         <v>Active</v>
       </c>
       <c r="G30" s="18" t="str">
-        <v>LUID_UW1XTP85</v>
+        <v>LUID_230PNNYD</v>
       </c>
       <c r="H30" s="35" t="str">
         <v>Microsoft</v>
@@ -8361,13 +8402,13 @@
       <c r="I30" s="35" t="str">
         <v>BBG000BPH459</v>
       </c>
-      <c r="J30" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J30" s="52" t="str">
+        <v/>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9">
@@ -8380,7 +8421,7 @@
         <v>Active</v>
       </c>
       <c r="G31" s="18" t="str">
-        <v>LUID_A18IZK18</v>
+        <v>LUID_JL12HZYH</v>
       </c>
       <c r="H31" s="35" t="str">
         <v>Softbank</v>
@@ -8388,13 +8429,13 @@
       <c r="I31" s="35" t="str">
         <v>BBG000CLY2D3</v>
       </c>
-      <c r="J31" s="52" t="e">
-        <v>#N/A</v>
+      <c r="J31" s="52" t="str">
+        <v/>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -8442,32 +8483,32 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
     <col min="11" max="12" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.73046875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.1328125" style="23"/>
-    <col min="15" max="15" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="23"/>
+    <col min="15" max="15" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1328125" style="23"/>
+    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8481,11 +8522,11 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -8497,7 +8538,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -8511,11 +8552,11 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -8527,11 +8568,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -8543,12 +8584,12 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -8559,12 +8600,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8575,12 +8616,12 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8591,7 +8632,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8605,7 +8646,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -8620,7 +8661,7 @@
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -8634,10 +8675,10 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8650,7 +8691,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="10"/>
       <c r="D14" s="2"/>
@@ -8664,12 +8705,12 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:19" ht="21" x14ac:dyDescent="0.65">
+    <row r="15" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="10"/>
       <c r="D15" s="2"/>
       <c r="E15" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8680,12 +8721,12 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="10"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8696,7 +8737,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -8713,33 +8754,33 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -8753,40 +8794,40 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="K20" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>204</v>
@@ -8796,7 +8837,7 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="50" t="str">
@@ -8806,7 +8847,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -8820,40 +8861,40 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="K23" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>204</v>
@@ -8863,7 +8904,7 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="50" t="str">
@@ -8873,7 +8914,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
@@ -8887,7 +8928,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -8901,10 +8942,10 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" ht="21" x14ac:dyDescent="0.65">
+    <row r="28" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -8917,7 +8958,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
       <c r="C29" s="10"/>
       <c r="D29" s="2"/>
@@ -8931,12 +8972,12 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -8947,7 +8988,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -8961,7 +9002,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -8979,7 +9020,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -8993,7 +9034,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -9013,16 +9054,16 @@
       <c r="I34" s="8" t="str">
         <v>Figi</v>
       </c>
-      <c r="J34" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K34" s="8" t="e">
-        <v>#N/A</v>
+      <c r="J34" s="8" t="str">
+        <v/>
+      </c>
+      <c r="K34" s="8" t="str">
+        <v/>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="9"/>
@@ -9034,7 +9075,7 @@
         <v>Active</v>
       </c>
       <c r="G35" s="13" t="str">
-        <v>LUID_52QAWPO6</v>
+        <v>LUID_JENBWO5H</v>
       </c>
       <c r="H35" s="16" t="str">
         <v>Apple</v>
@@ -9042,16 +9083,16 @@
       <c r="I35" s="16" t="str">
         <v>BBG000B9XRY4</v>
       </c>
-      <c r="J35" s="17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K35" s="17" t="e">
-        <v>#N/A</v>
+      <c r="J35" s="17" t="str">
+        <v/>
+      </c>
+      <c r="K35" s="17" t="str">
+        <v/>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="9"/>
@@ -9063,7 +9104,7 @@
         <v>Active</v>
       </c>
       <c r="G36" s="13" t="str">
-        <v>LUID_3IPLDPSN</v>
+        <v>LUID_58EHIPFX</v>
       </c>
       <c r="H36" s="16" t="str">
         <v>Walt Disney</v>
@@ -9071,16 +9112,16 @@
       <c r="I36" s="16" t="str">
         <v>BBG000BH4R78</v>
       </c>
-      <c r="J36" s="17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K36" s="17" t="e">
-        <v>#N/A</v>
+      <c r="J36" s="17" t="str">
+        <v/>
+      </c>
+      <c r="K36" s="17" t="str">
+        <v/>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="9"/>
@@ -9094,7 +9135,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="37"/>
@@ -9108,7 +9149,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -9122,7 +9163,7 @@
       <c r="L39"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -9136,7 +9177,7 @@
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -9150,7 +9191,7 @@
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -9164,7 +9205,7 @@
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -9178,7 +9219,7 @@
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -9192,7 +9233,7 @@
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -9206,7 +9247,7 @@
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -9220,7 +9261,7 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -9234,7 +9275,7 @@
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="37"/>
@@ -9282,38 +9323,38 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:M31"/>
+  <dimension ref="B1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
     <col min="11" max="12" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.59765625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.1328125" style="23"/>
-    <col min="15" max="15" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="23"/>
+    <col min="15" max="15" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1328125" style="23"/>
+    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9327,11 +9368,11 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -9343,7 +9384,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9357,11 +9398,11 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -9373,11 +9414,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -9389,12 +9430,12 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -9405,12 +9446,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -9421,12 +9462,12 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -9437,7 +9478,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -9451,7 +9492,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9465,10 +9506,10 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -9481,12 +9522,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -9497,7 +9538,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9511,12 +9552,12 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -9527,7 +9568,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
@@ -9541,58 +9582,58 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="K18" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
       <c r="E19" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>204</v>
+        <v>341</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>224</v>
+        <v>339</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
       <c r="K19" s="50" t="str">
         <f>_xll.flInstrumentsAdd(E18:J19)</f>
-        <v>LUID_A9RLV8U6</v>
+        <v>LUID_8VIVIFMY</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
@@ -9606,7 +9647,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -9620,10 +9661,10 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.65">
+    <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -9636,12 +9677,12 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -9652,7 +9693,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -9666,16 +9707,14 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>204</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -9684,7 +9723,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -9698,101 +9737,152 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="8" t="str">
-        <f t="array" ref="F28:K30">_xll.flInstrumentsLookup(F26,E29,"Instrument/default/Ticker")</f>
+      <c r="F28" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G28" s="8" t="str">
+        <f t="array" ref="G28:L29">_xll.flInstrumentsLookup(F29,E29,"Instrument/default/Ticker")</f>
         <v>State</v>
       </c>
-      <c r="G28" s="8" t="str">
+      <c r="H28" s="8" t="str">
         <v>LusidInstrumentId</v>
       </c>
-      <c r="H28" s="7" t="str">
+      <c r="I28" s="8" t="str">
         <v>Name</v>
       </c>
-      <c r="I28" s="8" t="str">
+      <c r="J28" s="7" t="str">
         <v>Ticker</v>
       </c>
-      <c r="J28" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K28" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L28" s="2"/>
+      <c r="K28" s="8" t="str">
+        <v>Isin</v>
+      </c>
+      <c r="L28" s="8" t="str">
+        <v>Figi</v>
+      </c>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="12" t="str">
-        <f>G19</f>
+      <c r="E29" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="13" t="str">
+        <v>Active</v>
+      </c>
+      <c r="H29" s="13" t="str">
+        <v>LUID_8VIVIFMY</v>
+      </c>
+      <c r="I29" s="13" t="str">
+        <v>Spectre</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16" t="str">
+        <v>GB007007007B</v>
+      </c>
+      <c r="L29" s="17" t="str">
         <v>BBG007FAKECO</v>
       </c>
-      <c r="F29" s="13" t="str">
-        <v>State</v>
-      </c>
-      <c r="G29" s="13" t="str">
-        <v>LusidInstrumentId</v>
-      </c>
-      <c r="H29" s="16" t="str">
-        <v>Name</v>
-      </c>
-      <c r="I29" s="16" t="str">
-        <v>Ticker</v>
-      </c>
-      <c r="J29" s="17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K29" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="str">
-        <v>State</v>
-      </c>
-      <c r="G30" s="2" t="str">
-        <v>LusidInstrumentId</v>
-      </c>
-      <c r="H30" s="2" t="str">
-        <v>Name</v>
-      </c>
-      <c r="I30" s="2" t="str">
-        <v>Ticker</v>
-      </c>
-      <c r="J30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K30" s="2" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G31" s="18" t="str">
+        <f>_xll.flInstrumentsLookup(F31,E31,"Instrument/default/Ticker")</f>
+        <v>#ERROR: The identifier type of 'Isin' is not configured to be a unique alias on this system. If you think this is an error, please contact your system administrator.</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F32" s="48"/>
+      <c r="G32" s="8" t="str">
+        <f t="array" ref="G32:L33">_xll.flInstrumentsLookup(F33,E33,"Instrument/default/Ticker")</f>
+        <v>State</v>
+      </c>
+      <c r="H32" s="8" t="str">
+        <v>LusidInstrumentId</v>
+      </c>
+      <c r="I32" s="8" t="str">
+        <v>Name</v>
+      </c>
+      <c r="J32" s="7" t="str">
+        <v>Ticker</v>
+      </c>
+      <c r="K32" s="8" t="str">
+        <v>Isin</v>
+      </c>
+      <c r="L32" s="8" t="str">
+        <v>Figi</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E33" s="17" t="str">
+        <f>K19</f>
+        <v>LUID_8VIVIFMY</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="23" t="str">
+        <v>Active</v>
+      </c>
+      <c r="H33" s="23" t="str">
+        <v>LUID_8VIVIFMY</v>
+      </c>
+      <c r="I33" s="23" t="str">
+        <v>Spectre</v>
+      </c>
+      <c r="J33" s="23">
+        <v>0</v>
+      </c>
+      <c r="K33" s="23" t="str">
+        <v>GB007007007B</v>
+      </c>
+      <c r="L33" s="23" t="str">
+        <v>BBG007FAKECO</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations disablePrompts="1" count="18">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Client supplied instrument Id" sqref="O17 O24" xr:uid="{00DDB5B9-AB50-4EB6-A9D1-57ADC0761B97}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument name" sqref="P17 P24" xr:uid="{12ED80DD-1447-4270-897B-A4131EB9C93A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument Id Type" sqref="Q17" xr:uid="{02C3AC28-C26B-4014-94BB-541E43E04CCA}"/>
@@ -9830,37 +9920,37 @@
   </sheetPr>
   <dimension ref="B1:N46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.265625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.59765625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.1328125" style="23"/>
-    <col min="15" max="15" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="23"/>
+    <col min="15" max="15" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1328125" style="23"/>
+    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9874,11 +9964,11 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -9890,7 +9980,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9904,11 +9994,11 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -9920,11 +10010,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -9936,11 +10026,11 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -9952,12 +10042,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -9968,12 +10058,12 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -9984,12 +10074,12 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -10000,7 +10090,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9"/>
@@ -10009,7 +10099,7 @@
         <v>OK</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -10020,39 +10110,39 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="J13" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -10066,11 +10156,11 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -10083,30 +10173,30 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="J16" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>287</v>
       </c>
       <c r="L16" s="6" t="str">
         <f t="array" ref="L16:L19">_xll.flPropertiesAdd(E16:K19)</f>
@@ -10115,18 +10205,18 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
       <c r="E17" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H17" s="12" t="b">
         <v>0</v>
@@ -10136,49 +10226,49 @@
         <v>PlanType</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L17" s="50" t="str">
-        <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/PlanType' because it already exists.</v>
+        <v>Entity already exists</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>298</v>
       </c>
       <c r="H18" s="42" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L18" s="50" t="str">
-        <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/TakeOverWorldDate' because it already exists.</v>
+        <v>Entity already exists</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
@@ -10186,30 +10276,30 @@
         <v>180</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H19" s="42" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L19" s="51" t="str">
-        <v>Error creating Property Definition 'Transaction/Finbourne-Examples/IsThisATestTrade' because it already exists.</v>
+        <v>Entity already exists</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
@@ -10224,7 +10314,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
@@ -10239,7 +10329,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -10254,7 +10344,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
@@ -10269,7 +10359,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -10284,7 +10374,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
@@ -10293,7 +10383,7 @@
         <v>OK</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -10304,21 +10394,21 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>332</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="6"/>
@@ -10327,10 +10417,10 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.65">
+    <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -10344,11 +10434,11 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -10361,24 +10451,24 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -10386,27 +10476,27 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F31" s="15" t="str">
         <f>'Add instrument'!K19</f>
-        <v>LUID_A9RLV8U6</v>
+        <v>LUID_8VIVIFMY</v>
       </c>
       <c r="G31" s="46">
         <v>43101</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J31" s="41"/>
       <c r="K31" s="50" t="str">
@@ -10417,7 +10507,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="9">
@@ -10434,7 +10524,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="9">
@@ -10451,7 +10541,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="9"/>
@@ -10466,7 +10556,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="9"/>
@@ -10481,7 +10571,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -10496,10 +10586,10 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.65">
+    <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -10513,11 +10603,11 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -10530,7 +10620,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -10545,7 +10635,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -10553,7 +10643,7 @@
         <v>203</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -10564,7 +10654,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -10579,7 +10669,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -10587,7 +10677,7 @@
         <v>202</v>
       </c>
       <c r="F42" s="8" t="str">
-        <f t="array" ref="F42:L43">_xll.flInstrumentsLookup(F40,E43:E44,H30&amp;","&amp;I30)</f>
+        <f t="array" ref="F42:L43">_xll.flInstrumentsLookup(F40,E43:E44,I30&amp;","&amp;H30)</f>
         <v>State</v>
       </c>
       <c r="G42" s="8" t="str">
@@ -10602,48 +10692,48 @@
       <c r="J42" s="8" t="str">
         <v>TakeOverDate</v>
       </c>
-      <c r="K42" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L42" s="8" t="e">
-        <v>#N/A</v>
+      <c r="K42" s="8" t="str">
+        <v>Figi</v>
+      </c>
+      <c r="L42" s="8" t="str">
+        <v>Isin</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="9"/>
       <c r="E43" s="15" t="str">
         <f>F31</f>
-        <v>LUID_A9RLV8U6</v>
+        <v>LUID_8VIVIFMY</v>
       </c>
       <c r="F43" s="42" t="str">
-        <v>State</v>
+        <v>Active</v>
       </c>
       <c r="G43" s="42" t="str">
-        <v>LusidInstrumentId</v>
+        <v>LUID_8VIVIFMY</v>
       </c>
       <c r="H43" s="41" t="str">
-        <v>Name</v>
+        <v>Spectre</v>
       </c>
       <c r="I43" s="41" t="str">
-        <v>PlanType</v>
+        <v>Laser from satellite</v>
       </c>
       <c r="J43" s="41" t="str">
-        <v>TakeOverDate</v>
-      </c>
-      <c r="K43" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L43" s="50" t="e">
-        <v>#N/A</v>
+        <v>2028/12/01T00:00:00.00</v>
+      </c>
+      <c r="K43" s="41" t="str">
+        <v>BBG007FAKECO</v>
+      </c>
+      <c r="L43" s="50" t="str">
+        <v>GB007007007B</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="9"/>
@@ -10658,7 +10748,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="9"/>
@@ -10673,7 +10763,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="9"/>
@@ -10725,34 +10815,34 @@
   </sheetPr>
   <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.265625" style="23" customWidth="1"/>
-    <col min="7" max="10" width="18.265625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="22.73046875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="11.265625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="15.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="23"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="23" customWidth="1"/>
+    <col min="7" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -10767,11 +10857,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -10784,7 +10874,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -10799,11 +10889,11 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -10816,11 +10906,11 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -10833,12 +10923,12 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -10850,12 +10940,12 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -10867,12 +10957,12 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -10891,7 +10981,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -10913,7 +11003,7 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -10924,7 +11014,7 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -10946,10 +11036,10 @@
       <c r="T12"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="2:21" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:21" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -10970,7 +11060,7 @@
       <c r="T13"/>
       <c r="U13"/>
     </row>
-    <row r="14" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -10992,7 +11082,7 @@
       <c r="T14"/>
       <c r="U14"/>
     </row>
-    <row r="15" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11000,7 +11090,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -11020,7 +11110,7 @@
       <c r="T15"/>
       <c r="U15"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -11042,7 +11132,7 @@
       <c r="T16"/>
       <c r="U16"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -11063,7 +11153,7 @@
       <c r="T17"/>
       <c r="U17"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -11085,10 +11175,10 @@
       <c r="T18"/>
       <c r="U18"/>
     </row>
-    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.65">
+    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -11109,7 +11199,7 @@
       <c r="T19"/>
       <c r="U19"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -11131,39 +11221,39 @@
       <c r="T20"/>
       <c r="U20"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>198</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21"/>
@@ -11174,12 +11264,12 @@
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="16" t="s">
@@ -11192,16 +11282,16 @@
         <v>186</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K22" s="20">
         <v>43570</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
-      <c r="N22" s="51" t="str">
+      <c r="N22" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,L22,M22)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>199.23</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22"/>
@@ -11212,12 +11302,12 @@
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="16" t="s">
@@ -11230,7 +11320,7 @@
         <v>186</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K23" s="20">
         <f>K22+1</f>
@@ -11238,9 +11328,9 @@
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
-      <c r="N23" s="51" t="str">
+      <c r="N23" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,L23,M23)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>199.25</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23"/>
@@ -11251,12 +11341,12 @@
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="16" t="s">
@@ -11269,7 +11359,7 @@
         <v>186</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K24" s="20">
         <f t="shared" ref="K24:K30" si="0">K23+1</f>
@@ -11277,9 +11367,9 @@
       </c>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
-      <c r="N24" s="51" t="str">
+      <c r="N24" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,L24,M24)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>203.13</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24"/>
@@ -11290,12 +11380,12 @@
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="16" t="s">
@@ -11308,7 +11398,7 @@
         <v>186</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K25" s="20">
         <f t="shared" si="0"/>
@@ -11316,9 +11406,9 @@
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="51" t="str">
+      <c r="N25" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,L25,M25)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>203.86</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25"/>
@@ -11329,12 +11419,12 @@
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="16" t="s">
@@ -11347,7 +11437,7 @@
         <v>186</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K26" s="20">
         <f t="shared" si="0"/>
@@ -11355,9 +11445,9 @@
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
-      <c r="N26" s="51" t="str">
+      <c r="N26" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,L26,M26)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>203.86</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26"/>
@@ -11365,12 +11455,12 @@
       <c r="R26"/>
       <c r="S26"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="16" t="s">
@@ -11383,7 +11473,7 @@
         <v>186</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K27" s="20">
         <f t="shared" si="0"/>
@@ -11391,9 +11481,9 @@
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
-      <c r="N27" s="51" t="str">
+      <c r="N27" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,L27,M27)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>203.86</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27"/>
@@ -11401,12 +11491,12 @@
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
       <c r="E28" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="16" t="s">
@@ -11419,7 +11509,7 @@
         <v>186</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K28" s="20">
         <f t="shared" si="0"/>
@@ -11427,9 +11517,9 @@
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
-      <c r="N28" s="51" t="str">
+      <c r="N28" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,L28,M28)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>203.86</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28"/>
@@ -11437,12 +11527,12 @@
       <c r="R28"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
       <c r="E29" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="16" t="s">
@@ -11455,7 +11545,7 @@
         <v>186</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K29" s="20">
         <f t="shared" si="0"/>
@@ -11463,9 +11553,9 @@
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
-      <c r="N29" s="51" t="str">
+      <c r="N29" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,L29,M29)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>204.53</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29"/>
@@ -11473,12 +11563,12 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16" t="s">
@@ -11491,7 +11581,7 @@
         <v>186</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K30" s="20">
         <f t="shared" si="0"/>
@@ -11499,9 +11589,9 @@
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
-      <c r="N30" s="51" t="str">
+      <c r="N30" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,L30,M30)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>207.48</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30"/>
@@ -11509,7 +11599,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
@@ -11529,7 +11619,7 @@
       <c r="R31"/>
       <c r="S31"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -11549,25 +11639,25 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="34" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="35" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="36" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
     </row>
-    <row r="37" spans="13:16" x14ac:dyDescent="0.45">
+    <row r="37" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
@@ -11593,33 +11683,33 @@
   <dimension ref="B1:V34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="J22" sqref="J22:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="20.86328125" style="23" customWidth="1"/>
-    <col min="7" max="10" width="18.265625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="22.73046875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1328125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="23" customWidth="1"/>
+    <col min="7" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="23" customWidth="1"/>
     <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.59765625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="15.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="23"/>
+    <col min="14" max="14" width="4.5703125" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -11634,11 +11724,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -11651,7 +11741,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -11666,11 +11756,11 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -11683,11 +11773,11 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -11700,12 +11790,12 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -11717,12 +11807,12 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -11734,12 +11824,12 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -11751,7 +11841,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -11766,7 +11856,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -11781,10 +11871,10 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -11798,7 +11888,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -11813,7 +11903,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11821,7 +11911,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -11834,7 +11924,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -11849,7 +11939,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -11861,7 +11951,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -11876,10 +11966,10 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.65">
+    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -11893,7 +11983,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -11908,48 +11998,48 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>198</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N21" s="2"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="16" t="s">
@@ -11962,27 +12052,27 @@
         <v>186</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K22" s="20">
         <v>43570</v>
       </c>
       <c r="L22" s="20"/>
-      <c r="M22" s="51" t="str">
+      <c r="M22" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,F22,L22)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>199.23</v>
       </c>
       <c r="N22" s="2"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="16" t="s">
@@ -11995,27 +12085,27 @@
         <v>186</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K23" s="20">
         <v>43571</v>
       </c>
       <c r="L23" s="17"/>
-      <c r="M23" s="51" t="str">
+      <c r="M23" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,F23,L23)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>111.1</v>
       </c>
       <c r="N23" s="2"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="16" t="s">
@@ -12028,27 +12118,27 @@
         <v>186</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K24" s="20">
         <v>43572</v>
       </c>
       <c r="L24" s="17"/>
-      <c r="M24" s="51" t="str">
+      <c r="M24" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,F24,L24)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>78.36</v>
       </c>
       <c r="N24" s="2"/>
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="16" t="s">
@@ -12061,15 +12151,15 @@
         <v>186</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K25" s="20">
         <v>43573</v>
       </c>
       <c r="L25" s="17"/>
-      <c r="M25" s="51" t="str">
+      <c r="M25" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,F25,L25)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>166.6</v>
       </c>
       <c r="N25" s="2"/>
       <c r="P25"/>
@@ -12077,12 +12167,12 @@
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="16" t="s">
@@ -12095,25 +12185,25 @@
         <v>186</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K26" s="20">
         <v>43574</v>
       </c>
       <c r="L26" s="17"/>
-      <c r="M26" s="51" t="str">
+      <c r="M26" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,F26,L26)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>666.5</v>
       </c>
       <c r="N26" s="2"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="16" t="s">
@@ -12126,25 +12216,25 @@
         <v>186</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K27" s="20">
         <v>43575</v>
       </c>
       <c r="L27" s="17"/>
-      <c r="M27" s="51" t="str">
+      <c r="M27" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,F27,L27)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>132.44999999999999</v>
       </c>
       <c r="N27" s="2"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
       <c r="E28" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="16" t="s">
@@ -12157,25 +12247,25 @@
         <v>186</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K28" s="20">
         <v>43576</v>
       </c>
       <c r="L28" s="17"/>
-      <c r="M28" s="51" t="str">
+      <c r="M28" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,F28,L28)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>123.37</v>
       </c>
       <c r="N28" s="2"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
       <c r="E29" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="16" t="s">
@@ -12188,25 +12278,25 @@
         <v>186</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K29" s="20">
         <v>43577</v>
       </c>
       <c r="L29" s="17"/>
-      <c r="M29" s="51" t="str">
+      <c r="M29" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,F29,L29)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>6963</v>
       </c>
       <c r="N29" s="2"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16" t="s">
@@ -12219,25 +12309,25 @@
         <v>186</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K30" s="20">
         <v>43578</v>
       </c>
       <c r="L30" s="17"/>
-      <c r="M30" s="51" t="str">
+      <c r="M30" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,F30,L30)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>582.5</v>
       </c>
       <c r="N30" s="2"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
       <c r="E31" s="13" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="16" t="s">
@@ -12250,20 +12340,20 @@
         <v>186</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="K31" s="20">
         <v>43579</v>
       </c>
       <c r="L31" s="17"/>
-      <c r="M31" s="51" t="str">
+      <c r="M31" s="51">
         <f>_xll.flQuoteGetForDate($F$15,E31,G31,H31,I31,J31,K31,F31,L31)</f>
-        <v>Either None, or more than 1 quote was found for the specified Id</v>
+        <v>11550</v>
       </c>
       <c r="N31" s="2"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -12279,10 +12369,10 @@
       <c r="N32" s="2"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P33"/>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.45">
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P34"/>
     </row>
   </sheetData>
@@ -12308,15 +12398,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F4F0FA1AC8B142BA5BFAEE01329AF1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51d44e6750016a81140edd9302933050">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7f1325bc-d786-4e92-924e-74ffe34b2b40" xmlns:ns3="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbbf5b69800df541767d824f3fbf5177" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12542,6 +12623,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
   <ds:schemaRefs>
@@ -12561,14 +12651,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EDF347-3168-4BEB-9A6E-9322773C07F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12586,4 +12668,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LUSID Excel - Setting up your market data.xlsx
+++ b/LUSID Excel - Setting up your market data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFC1CE-CA95-4937-AB06-E20B7FB6F6ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F7AC6C-CB33-4EE6-BCEE-5E4F42A0890F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" firstSheet="1" activeTab="10" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
+    <workbookView xWindow="-5047" yWindow="-16297" windowWidth="28995" windowHeight="15794" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Datetime format" sheetId="21" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="341">
   <si>
     <t>Base Currency</t>
   </si>
@@ -777,6 +777,9 @@
     <t>Figi</t>
   </si>
   <si>
+    <t>Mid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scope: </t>
   </si>
   <si>
@@ -831,6 +834,9 @@
     <t>Spectre</t>
   </si>
   <si>
+    <t>BBG007FAKECO</t>
+  </si>
+  <si>
     <t>Here we can load back our created instrument from LUSID</t>
   </si>
   <si>
@@ -1177,24 +1183,6 @@
   </si>
   <si>
     <t>In this case we are adding instrument and transaction properties. Don’t forget you can use the template to see a list of the required fields. Click on the returned cells to see tooltips</t>
-  </si>
-  <si>
-    <t>BBG007FAKECO, GB007007007B</t>
-  </si>
-  <si>
-    <t>GB007007007B</t>
-  </si>
-  <si>
-    <t>Figi,Isin</t>
-  </si>
-  <si>
-    <t>Isin</t>
-  </si>
-  <si>
-    <t>BBG007FAKECO</t>
-  </si>
-  <si>
-    <t>mid</t>
   </si>
 </sst>
 </file>
@@ -1530,371 +1518,342 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>9c58753e-ee55-431c-bc50-24f145f51a03</stp>
-        <tr r="M23" s="17"/>
+        <stp>026a2182-e451-49ce-9f5c-af98b56f792a</stp>
+        <tr r="N23" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>50b35d4b-128c-497b-ae21-079eb40bb2dd</stp>
-        <tr r="N25" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>11165e86-7c93-4b5c-b92b-1766822d54a1</stp>
-        <tr r="H26" s="10"/>
-        <tr r="G24" s="10"/>
-        <tr r="I30" s="10"/>
-        <tr r="G29" s="10"/>
-        <tr r="H24" s="10"/>
-        <tr r="F23" s="10"/>
-        <tr r="J25" s="10"/>
-        <tr r="F28" s="10"/>
-        <tr r="I26" s="10"/>
-        <tr r="G22" s="10"/>
-        <tr r="I21" s="10"/>
-        <tr r="H30" s="10"/>
-        <tr r="I29" s="10"/>
-        <tr r="G30" s="10"/>
-        <tr r="G31" s="10"/>
-        <tr r="I24" s="10"/>
-        <tr r="G21" s="10"/>
-        <tr r="G27" s="10"/>
-        <tr r="F24" s="10"/>
-        <tr r="H22" s="10"/>
-        <tr r="F25" s="10"/>
-        <tr r="I28" s="10"/>
-        <tr r="I22" s="10"/>
-        <tr r="G23" s="10"/>
-        <tr r="G26" s="10"/>
-        <tr r="H28" s="10"/>
-        <tr r="H27" s="10"/>
-        <tr r="J23" s="10"/>
-        <tr r="F22" s="10"/>
-        <tr r="H23" s="10"/>
-        <tr r="I31" s="10"/>
-        <tr r="F30" s="10"/>
-        <tr r="H25" s="10"/>
-        <tr r="J22" s="10"/>
-        <tr r="H21" s="10"/>
-        <tr r="I25" s="10"/>
-        <tr r="F27" s="10"/>
-        <tr r="J28" s="10"/>
-        <tr r="J27" s="10"/>
-        <tr r="J26" s="10"/>
-        <tr r="I27" s="10"/>
-        <tr r="J29" s="10"/>
-        <tr r="F31" s="10"/>
-        <tr r="J21" s="10"/>
-        <tr r="F29" s="10"/>
-        <tr r="H29" s="10"/>
-        <tr r="I23" s="10"/>
-        <tr r="G28" s="10"/>
-        <tr r="F21" s="10"/>
-        <tr r="F26" s="10"/>
-        <tr r="J30" s="10"/>
-        <tr r="J31" s="10"/>
-        <tr r="H31" s="10"/>
-        <tr r="G25" s="10"/>
-        <tr r="J24" s="10"/>
+        <stp>7e1ca5cc-f1d6-48e6-ab5b-1ff1e929d405</stp>
+        <tr r="M30" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>56155feb-ba1d-4596-a41d-94f46d127f5d</stp>
-        <tr r="N24" s="16"/>
+        <stp>b9e59655-355b-47fd-a249-1299a29c92bd</stp>
+        <tr r="E30" s="12"/>
+        <tr r="F25" s="12"/>
+        <tr r="G28" s="12"/>
+        <tr r="F28" s="12"/>
+        <tr r="E33" s="12"/>
+        <tr r="F33" s="12"/>
+        <tr r="F27" s="12"/>
+        <tr r="E31" s="12"/>
+        <tr r="F32" s="12"/>
+        <tr r="G30" s="12"/>
+        <tr r="F24" s="12"/>
+        <tr r="F31" s="12"/>
+        <tr r="F29" s="12"/>
+        <tr r="G23" s="12"/>
+        <tr r="E26" s="12"/>
+        <tr r="E25" s="12"/>
+        <tr r="G29" s="12"/>
+        <tr r="F26" s="12"/>
+        <tr r="F23" s="12"/>
+        <tr r="E27" s="12"/>
+        <tr r="G24" s="12"/>
+        <tr r="E32" s="12"/>
+        <tr r="E23" s="12"/>
+        <tr r="E28" s="12"/>
+        <tr r="E29" s="12"/>
+        <tr r="E24" s="12"/>
+        <tr r="F30" s="12"/>
+        <tr r="G31" s="12"/>
+        <tr r="G33" s="12"/>
+        <tr r="G27" s="12"/>
+        <tr r="G32" s="12"/>
+        <tr r="G26" s="12"/>
+        <tr r="G25" s="12"/>
       </tp>
     </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>10e5e319-55db-4ef0-b5b8-71c55264fef4</stp>
-        <tr r="J42" s="20"/>
-        <tr r="J43" s="20"/>
-        <tr r="I42" s="20"/>
-        <tr r="F43" s="20"/>
-        <tr r="K43" s="20"/>
-        <tr r="H42" s="20"/>
-        <tr r="L42" s="20"/>
-        <tr r="I43" s="20"/>
-        <tr r="L43" s="20"/>
-        <tr r="K42" s="20"/>
-        <tr r="H43" s="20"/>
-        <tr r="G42" s="20"/>
-        <tr r="G43" s="20"/>
-        <tr r="F42" s="20"/>
+        <stp>5cd26bab-7eec-43c7-80a2-1f37fbca85d7</stp>
+        <tr r="G27" s="11"/>
+        <tr r="E18" s="11"/>
+        <tr r="E25" s="11"/>
+        <tr r="G18" s="11"/>
+        <tr r="G25" s="11"/>
+        <tr r="E24" s="11"/>
+        <tr r="E17" s="11"/>
+        <tr r="E28" s="11"/>
+        <tr r="G17" s="11"/>
+        <tr r="E20" s="11"/>
+        <tr r="E19" s="11"/>
+        <tr r="E21" s="11"/>
+        <tr r="G29" s="11"/>
+        <tr r="F20" s="11"/>
+        <tr r="G26" s="11"/>
+        <tr r="G21" s="11"/>
+        <tr r="F27" s="11"/>
+        <tr r="F19" s="11"/>
+        <tr r="E23" s="11"/>
+        <tr r="E22" s="11"/>
+        <tr r="E29" s="11"/>
+        <tr r="E26" s="11"/>
+        <tr r="G23" s="11"/>
+        <tr r="G19" s="11"/>
+        <tr r="G24" s="11"/>
+        <tr r="F24" s="11"/>
+        <tr r="F26" s="11"/>
+        <tr r="F23" s="11"/>
+        <tr r="E27" s="11"/>
+        <tr r="F25" s="11"/>
+        <tr r="F21" s="11"/>
+        <tr r="F18" s="11"/>
+        <tr r="G28" s="11"/>
+        <tr r="F28" s="11"/>
+        <tr r="F17" s="11"/>
+        <tr r="F29" s="11"/>
+        <tr r="G22" s="11"/>
+        <tr r="F22" s="11"/>
+        <tr r="G20" s="11"/>
       </tp>
     </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>1ca87041-1cfb-4cd6-b637-b23a3a2bf5c8</stp>
+        <stp>1977b163-c445-48f5-be77-f0873399e881</stp>
+        <tr r="N26" s="16"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>67793043-3234-447d-94ee-eecac677d5ca</stp>
+        <tr r="K35" s="13"/>
+        <tr r="H34" s="13"/>
+        <tr r="H35" s="13"/>
+        <tr r="G36" s="13"/>
+        <tr r="G35" s="13"/>
+        <tr r="H36" s="13"/>
+        <tr r="I35" s="13"/>
+        <tr r="G34" s="13"/>
+        <tr r="F36" s="13"/>
+        <tr r="J34" s="13"/>
+        <tr r="I34" s="13"/>
+        <tr r="J36" s="13"/>
+        <tr r="F35" s="13"/>
+        <tr r="K34" s="13"/>
+        <tr r="I36" s="13"/>
+        <tr r="F34" s="13"/>
+        <tr r="K36" s="13"/>
+        <tr r="J35" s="13"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>0ba07f47-31c5-4307-a550-8ca47ad7fd0b</stp>
         <tr r="M27" s="17"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>4564e3bb-89a7-416d-994c-4e1ba39698b9</stp>
-        <tr r="E28" s="11"/>
-        <tr r="G24" s="11"/>
-        <tr r="G25" s="11"/>
-        <tr r="F20" s="11"/>
-        <tr r="G23" s="11"/>
-        <tr r="E25" s="11"/>
-        <tr r="G17" s="11"/>
-        <tr r="F19" s="11"/>
-        <tr r="G29" s="11"/>
-        <tr r="F21" s="11"/>
-        <tr r="G28" s="11"/>
-        <tr r="F23" s="11"/>
-        <tr r="E21" s="11"/>
-        <tr r="E23" s="11"/>
-        <tr r="G26" s="11"/>
-        <tr r="E20" s="11"/>
-        <tr r="G22" s="11"/>
-        <tr r="E17" s="11"/>
-        <tr r="F29" s="11"/>
-        <tr r="G18" s="11"/>
-        <tr r="F28" s="11"/>
-        <tr r="F18" s="11"/>
-        <tr r="G19" s="11"/>
-        <tr r="F24" s="11"/>
-        <tr r="F25" s="11"/>
-        <tr r="E22" s="11"/>
-        <tr r="G20" s="11"/>
-        <tr r="E29" s="11"/>
-        <tr r="E19" s="11"/>
-        <tr r="G21" s="11"/>
-        <tr r="E26" s="11"/>
-        <tr r="E24" s="11"/>
-        <tr r="G27" s="11"/>
-        <tr r="F22" s="11"/>
-        <tr r="F27" s="11"/>
-        <tr r="F17" s="11"/>
-        <tr r="F26" s="11"/>
-        <tr r="E18" s="11"/>
-        <tr r="E27" s="11"/>
+        <stp>3185fd14-5361-423e-856c-5d765066938e</stp>
+        <tr r="N24" s="16"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>660ce0c5-0169-4e77-9fa0-33f5bf05d52b</stp>
+        <stp>e8e91820-d060-437b-bb46-a214ee9f0079</stp>
         <tr r="N29" s="16"/>
       </tp>
     </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>61a72f8a-8ffe-4f30-a9b7-836981e231d9</stp>
-        <tr r="G34" s="13"/>
-        <tr r="I36" s="13"/>
-        <tr r="H36" s="13"/>
-        <tr r="I35" s="13"/>
-        <tr r="F36" s="13"/>
-        <tr r="K36" s="13"/>
-        <tr r="G35" s="13"/>
-        <tr r="J36" s="13"/>
-        <tr r="H34" s="13"/>
-        <tr r="K34" s="13"/>
-        <tr r="H35" s="13"/>
-        <tr r="F35" s="13"/>
-        <tr r="F34" s="13"/>
-        <tr r="J35" s="13"/>
-        <tr r="G36" s="13"/>
-        <tr r="J34" s="13"/>
-        <tr r="I34" s="13"/>
-        <tr r="K35" s="13"/>
+        <stp>c961da18-0352-4010-8432-6ff469fc4b19</stp>
+        <tr r="N27" s="16"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>ff50d9be-8796-46cf-809c-61c9412c7478</stp>
-        <tr r="N23" s="16"/>
+        <stp>27dcb340-0803-4419-9268-c97550a06e5d</stp>
+        <tr r="M24" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>18a070c6-9d63-4f30-a2c0-e55dfce8a98e</stp>
+        <tr r="M25" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>048ed6a5-9a68-4d9c-8e7f-ede1a0ead4d4</stp>
+        <tr r="M28" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c3513c8c-606b-4e53-81c1-1b8326309c8d</stp>
+        <tr r="N28" s="16"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c1867b72-f5c5-459f-8bee-025817dd11b1</stp>
+        <tr r="G30" s="14"/>
+        <tr r="I30" s="14"/>
+        <tr r="G28" s="14"/>
+        <tr r="H30" s="14"/>
+        <tr r="J30" s="14"/>
+        <tr r="G29" s="14"/>
+        <tr r="I29" s="14"/>
+        <tr r="K30" s="14"/>
+        <tr r="F28" s="14"/>
+        <tr r="F30" s="14"/>
+        <tr r="H29" s="14"/>
+        <tr r="K28" s="14"/>
+        <tr r="J28" s="14"/>
+        <tr r="I28" s="14"/>
+        <tr r="K29" s="14"/>
+        <tr r="F29" s="14"/>
+        <tr r="H28" s="14"/>
+        <tr r="J29" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>14023d12-416e-49cf-9df2-55334d6cf913</stp>
-        <tr r="G32" s="14"/>
-        <tr r="J33" s="14"/>
-        <tr r="L32" s="14"/>
-        <tr r="K32" s="14"/>
-        <tr r="H33" s="14"/>
-        <tr r="L33" s="14"/>
-        <tr r="G33" s="14"/>
-        <tr r="J32" s="14"/>
-        <tr r="I33" s="14"/>
-        <tr r="K33" s="14"/>
-        <tr r="I32" s="14"/>
-        <tr r="H32" s="14"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f6fee0f4-bc85-448a-8fd6-bc8471611814</stp>
-        <tr r="N27" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b277a61a-67f2-491e-a8fc-4929196ea86d</stp>
-        <tr r="N26" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>41f95d4e-098d-4ff3-9d2c-3506fd4b6b02</stp>
-        <tr r="M28" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>52bb8e15-0bca-4d46-a9e1-40c4fc50e3db</stp>
+        <stp>d9aa6c9c-fb11-4bab-b73d-bdd22841c357</stp>
         <tr r="M22" s="17"/>
         <tr r="N22" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>9a339039-083f-4dbc-9488-cb2af9e842e2</stp>
-        <tr r="G31" s="14"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>3f89804c-f833-451d-86ae-079bdb523285</stp>
-        <tr r="N28" s="16"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>b9ad75ad-4b4f-4eda-9fce-7945bbc6a14b</stp>
-        <tr r="M24" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0f8f61c8-c051-41b3-b230-925142abdd92</stp>
-        <tr r="M26" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>bd9bf7cf-40da-4972-9975-ba101e1cb9e8</stp>
-        <tr r="H28" s="14"/>
-        <tr r="I29" s="14"/>
-        <tr r="K28" s="14"/>
-        <tr r="G28" s="14"/>
-        <tr r="L28" s="14"/>
-        <tr r="I28" s="14"/>
-        <tr r="J29" s="14"/>
-        <tr r="L29" s="14"/>
-        <tr r="H29" s="14"/>
-        <tr r="J28" s="14"/>
-        <tr r="G29" s="14"/>
-        <tr r="K29" s="14"/>
-      </tp>
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>0193442e-14bb-43c2-9db1-f13cc82ad37f</stp>
+        <stp>05775c0c-3209-4385-a86f-b29f8b105505</stp>
         <tr r="N30" s="16"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>58e2aceb-df0b-4d23-bace-2a5b664d1f57</stp>
-        <tr r="M29" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>792a52a0-2195-4176-8b26-4f0bb6fab0d2</stp>
-        <tr r="F32" s="12"/>
-        <tr r="F26" s="12"/>
-        <tr r="F29" s="12"/>
-        <tr r="G31" s="12"/>
-        <tr r="F27" s="12"/>
-        <tr r="E32" s="12"/>
-        <tr r="E26" s="12"/>
-        <tr r="E33" s="12"/>
-        <tr r="E28" s="12"/>
-        <tr r="F30" s="12"/>
-        <tr r="E25" s="12"/>
-        <tr r="E31" s="12"/>
-        <tr r="G26" s="12"/>
-        <tr r="F23" s="12"/>
-        <tr r="F28" s="12"/>
-        <tr r="E24" s="12"/>
-        <tr r="G24" s="12"/>
-        <tr r="E30" s="12"/>
-        <tr r="E29" s="12"/>
-        <tr r="G29" s="12"/>
-        <tr r="F31" s="12"/>
-        <tr r="G32" s="12"/>
-        <tr r="G28" s="12"/>
-        <tr r="E23" s="12"/>
-        <tr r="F25" s="12"/>
-        <tr r="G30" s="12"/>
-        <tr r="F24" s="12"/>
-        <tr r="G33" s="12"/>
-        <tr r="F33" s="12"/>
-        <tr r="G27" s="12"/>
-        <tr r="G25" s="12"/>
-        <tr r="G23" s="12"/>
-        <tr r="E27" s="12"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>6d0dca38-6a98-4b85-9b63-aef7e9afb695</stp>
-        <tr r="M30" s="17"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.bc6abdde865a49fc94a43222412530fe">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>f3cf562f-667e-474c-b027-4588f991f62c</stp>
-        <tr r="M25" s="17"/>
+        <stp>56693399-3a20-498f-8548-143b4e2226f0</stp>
+        <tr r="G28" s="10"/>
+        <tr r="J25" s="10"/>
+        <tr r="G24" s="10"/>
+        <tr r="J22" s="10"/>
+        <tr r="I21" s="10"/>
+        <tr r="J27" s="10"/>
+        <tr r="I28" s="10"/>
+        <tr r="G30" s="10"/>
+        <tr r="J26" s="10"/>
+        <tr r="F23" s="10"/>
+        <tr r="G21" s="10"/>
+        <tr r="H26" s="10"/>
+        <tr r="I24" s="10"/>
+        <tr r="I26" s="10"/>
+        <tr r="I30" s="10"/>
+        <tr r="H29" s="10"/>
+        <tr r="I29" s="10"/>
+        <tr r="J31" s="10"/>
+        <tr r="F24" s="10"/>
+        <tr r="H25" s="10"/>
+        <tr r="J30" s="10"/>
+        <tr r="F29" s="10"/>
+        <tr r="J24" s="10"/>
+        <tr r="H28" s="10"/>
+        <tr r="F27" s="10"/>
+        <tr r="I22" s="10"/>
+        <tr r="I27" s="10"/>
+        <tr r="F30" s="10"/>
+        <tr r="I25" s="10"/>
+        <tr r="J21" s="10"/>
+        <tr r="G25" s="10"/>
+        <tr r="I23" s="10"/>
+        <tr r="F21" s="10"/>
+        <tr r="G27" s="10"/>
+        <tr r="H23" s="10"/>
+        <tr r="G29" s="10"/>
+        <tr r="H22" s="10"/>
+        <tr r="H31" s="10"/>
+        <tr r="J23" s="10"/>
+        <tr r="F25" s="10"/>
+        <tr r="H21" s="10"/>
+        <tr r="F31" s="10"/>
+        <tr r="G31" s="10"/>
+        <tr r="F28" s="10"/>
+        <tr r="F22" s="10"/>
+        <tr r="G22" s="10"/>
+        <tr r="J28" s="10"/>
+        <tr r="I31" s="10"/>
+        <tr r="G26" s="10"/>
+        <tr r="G23" s="10"/>
+        <tr r="H27" s="10"/>
+        <tr r="F26" s="10"/>
+        <tr r="H24" s="10"/>
+        <tr r="J29" s="10"/>
+        <tr r="H30" s="10"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>d75cdde3-3501-4cf9-9646-55d03a2c1a7e</stp>
+        <stp>cc8ab410-dc0f-45b8-b4df-3254e8ad1a65</stp>
+        <tr r="M26" s="17"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>c4790b82-17cf-488e-8f14-7d2b1fa3f470</stp>
+        <tr r="M23" s="17"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>b571f5f8-c662-4064-8e10-61553b29508c</stp>
         <tr r="M31" s="17"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>cd787768-734b-45b4-8025-449fee2ab6eb</stp>
+        <tr r="F42" s="20"/>
+        <tr r="L43" s="20"/>
+        <tr r="F43" s="20"/>
+        <tr r="J42" s="20"/>
+        <tr r="H42" s="20"/>
+        <tr r="G42" s="20"/>
+        <tr r="K42" s="20"/>
+        <tr r="G43" s="20"/>
+        <tr r="K43" s="20"/>
+        <tr r="L42" s="20"/>
+        <tr r="I42" s="20"/>
+        <tr r="J43" s="20"/>
+        <tr r="H43" s="20"/>
+        <tr r="I43" s="20"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.f10289b9b7524eecaccb90f723f1e1d1">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>689f1921-d976-4d2a-98e0-dd790362f0ec</stp>
+        <tr r="M29" s="17"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>611ab6f3-d69c-4207-8730-d33441079cab</stp>
+        <tr r="N25" s="16"/>
       </tp>
     </main>
   </volType>
@@ -2962,35 +2921,35 @@
   </sheetPr>
   <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="50.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.73046875" style="23" customWidth="1"/>
     <col min="7" max="7" width="22" style="23" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" style="23" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="40.73046875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="28.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.59765625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" customWidth="1"/>
-    <col min="12" max="14" width="24.28515625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="23.5703125" style="23" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="23"/>
+    <col min="12" max="14" width="24.265625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="3.3984375" style="23" customWidth="1"/>
+    <col min="16" max="16" width="23.59765625" style="23" customWidth="1"/>
+    <col min="17" max="17" width="29.73046875" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.73046875" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.73046875" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3006,11 +2965,11 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3024,7 +2983,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3040,11 +2999,11 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3058,11 +3017,11 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3076,12 +3035,12 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3094,12 +3053,12 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3112,12 +3071,12 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3130,7 +3089,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3146,17 +3105,17 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="9" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3166,7 +3125,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3182,17 +3141,17 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="9" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3203,7 +3162,7 @@
       <c r="O15" s="2"/>
       <c r="T15" s="27"/>
     </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3220,25 +3179,25 @@
       <c r="O16" s="2"/>
       <c r="T16" s="27"/>
     </row>
-    <row r="17" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F17" s="25">
         <v>43565</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -3247,7 +3206,7 @@
       <c r="O17" s="2"/>
       <c r="T17" s="27"/>
     </row>
-    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3264,12 +3223,12 @@
       <c r="O18" s="2"/>
       <c r="T18" s="27"/>
     </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F19" s="28">
         <f>F17</f>
@@ -3277,7 +3236,7 @@
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I19" s="25" t="str">
         <f>TEXT(F23,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F23," hh:mm:ss.00Z")</f>
@@ -3291,7 +3250,7 @@
       <c r="O19" s="2"/>
       <c r="T19" s="27"/>
     </row>
-    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3308,22 +3267,22 @@
       <c r="O20" s="2"/>
       <c r="T20" s="27"/>
     </row>
-    <row r="21" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F21" s="29">
         <v>0.56302719907407406</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J21" s="49"/>
       <c r="K21" s="2"/>
@@ -3333,7 +3292,7 @@
       <c r="O21" s="2"/>
       <c r="T21" s="27"/>
     </row>
-    <row r="22" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3350,12 +3309,12 @@
       <c r="O22" s="2"/>
       <c r="T22" s="27"/>
     </row>
-    <row r="23" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F23" s="30">
         <f>F17 + F21</f>
@@ -3363,7 +3322,7 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I23" s="25" t="str">
         <f>TEXT(F23,"yyyy-mm-dd")&amp;"NSingaporeClose"</f>
@@ -3376,7 +3335,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3392,12 +3351,12 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F25" s="31">
         <f>F23</f>
@@ -3413,7 +3372,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3429,12 +3388,12 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F27" s="30">
         <f>F23+1/24</f>
@@ -3450,7 +3409,7 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3466,12 +3425,12 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F29" s="30">
         <f>F27-1/1440</f>
@@ -3487,7 +3446,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3503,7 +3462,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3539,34 +3498,34 @@
   <dimension ref="A1:AD55"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="23" customWidth="1"/>
-    <col min="7" max="11" width="18.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" style="23" customWidth="1"/>
+    <col min="7" max="11" width="18.265625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="23" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" style="23" customWidth="1"/>
-    <col min="18" max="19" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="23"/>
+    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.3984375" style="23" customWidth="1"/>
+    <col min="18" max="19" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3584,11 +3543,11 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3604,7 +3563,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3622,11 +3581,11 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3642,11 +3601,11 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3662,12 +3621,12 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3682,12 +3641,12 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3702,12 +3661,12 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3722,7 +3681,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3745,7 +3704,7 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -3755,7 +3714,7 @@
       <c r="U11"/>
       <c r="V11"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -3778,10 +3737,10 @@
       <c r="U12"/>
       <c r="V12"/>
     </row>
-    <row r="13" spans="2:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:22" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -3803,7 +3762,7 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3826,7 +3785,7 @@
       <c r="U14"/>
       <c r="V14"/>
     </row>
-    <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3834,7 +3793,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -3855,7 +3814,7 @@
       <c r="U15"/>
       <c r="V15"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3878,7 +3837,7 @@
       <c r="U16"/>
       <c r="V16"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3906,7 +3865,7 @@
       <c r="AC17"/>
       <c r="AD17"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3937,10 +3896,10 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="2:30" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:30" ht="21" x14ac:dyDescent="0.65">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3970,7 +3929,7 @@
       <c r="AC19"/>
       <c r="AD19"/>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4001,7 +3960,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4040,27 +3999,27 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>187</v>
@@ -4069,16 +4028,16 @@
         <v>185</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22"/>
@@ -4095,15 +4054,15 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>204</v>
@@ -4115,7 +4074,7 @@
         <v>186</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K23" s="17">
         <v>100</v>
@@ -4130,7 +4089,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="50" t="str">
         <f>_xll.flQuotesAdd(F15,E22:O23)</f>
-        <v>Added 1 quote(s) as at time 2020-01-03 14:13:07Z</v>
+        <v>Added 1 quote(s) as at time 2019-09-03 16:02:48Z</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23"/>
@@ -4147,7 +4106,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -4178,7 +4137,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
@@ -4209,7 +4168,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
@@ -4240,7 +4199,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
@@ -4271,7 +4230,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
@@ -4302,7 +4261,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -4333,7 +4292,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4364,7 +4323,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B31" s="5"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -4394,7 +4353,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.45">
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
@@ -4414,7 +4373,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R33"/>
       <c r="S33"/>
       <c r="T33"/>
@@ -4429,7 +4388,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4461,7 +4420,7 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
@@ -4476,7 +4435,7 @@
       <c r="AC35"/>
       <c r="AD35"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -4491,7 +4450,7 @@
       <c r="AC36"/>
       <c r="AD36"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
@@ -4506,7 +4465,7 @@
       <c r="AC37"/>
       <c r="AD37"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R38"/>
       <c r="S38"/>
       <c r="T38"/>
@@ -4521,7 +4480,7 @@
       <c r="AC38"/>
       <c r="AD38"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39"/>
@@ -4536,7 +4495,7 @@
       <c r="AC39"/>
       <c r="AD39"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R40"/>
       <c r="S40"/>
       <c r="T40"/>
@@ -4551,7 +4510,7 @@
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R41"/>
       <c r="S41"/>
       <c r="T41"/>
@@ -4566,7 +4525,7 @@
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R42"/>
       <c r="S42"/>
       <c r="T42"/>
@@ -4581,7 +4540,7 @@
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R43"/>
       <c r="S43"/>
       <c r="T43"/>
@@ -4596,7 +4555,7 @@
       <c r="AC43"/>
       <c r="AD43"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R44"/>
       <c r="S44"/>
       <c r="T44"/>
@@ -4611,7 +4570,7 @@
       <c r="AC44"/>
       <c r="AD44"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R45"/>
       <c r="S45"/>
       <c r="T45"/>
@@ -4626,7 +4585,7 @@
       <c r="AC45"/>
       <c r="AD45"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46"/>
@@ -4641,7 +4600,7 @@
       <c r="AC46"/>
       <c r="AD46"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47"/>
@@ -4656,7 +4615,7 @@
       <c r="AC47"/>
       <c r="AD47"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
@@ -4671,7 +4630,7 @@
       <c r="AC48"/>
       <c r="AD48"/>
     </row>
-    <row r="49" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
@@ -4686,7 +4645,7 @@
       <c r="AC49"/>
       <c r="AD49"/>
     </row>
-    <row r="50" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R50"/>
       <c r="S50"/>
       <c r="T50"/>
@@ -4701,7 +4660,7 @@
       <c r="AC50"/>
       <c r="AD50"/>
     </row>
-    <row r="51" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51"/>
@@ -4716,7 +4675,7 @@
       <c r="AC51"/>
       <c r="AD51"/>
     </row>
-    <row r="52" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R52"/>
       <c r="S52"/>
       <c r="T52"/>
@@ -4731,7 +4690,7 @@
       <c r="AC52"/>
       <c r="AD52"/>
     </row>
-    <row r="53" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
@@ -4746,7 +4705,7 @@
       <c r="AC53"/>
       <c r="AD53"/>
     </row>
-    <row r="54" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
@@ -4761,7 +4720,7 @@
       <c r="AC54"/>
       <c r="AD54"/>
     </row>
-    <row r="55" spans="18:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="18:30" x14ac:dyDescent="0.45">
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55"/>
@@ -4809,33 +4768,33 @@
   </sheetPr>
   <dimension ref="B1:Y43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="18.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="18.265625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" style="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="14" max="14" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.59765625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4853,11 +4812,11 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4873,7 +4832,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="2:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4891,11 +4850,11 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -4911,11 +4870,11 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -4931,12 +4890,12 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4951,12 +4910,12 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4971,12 +4930,12 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4991,7 +4950,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5009,7 +4968,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -5035,10 +4994,10 @@
       <c r="X12"/>
       <c r="Y12"/>
     </row>
-    <row r="13" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:25" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -5063,7 +5022,7 @@
       <c r="X13"/>
       <c r="Y13"/>
     </row>
-    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5089,7 +5048,7 @@
       <c r="X14"/>
       <c r="Y14"/>
     </row>
-    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -5097,7 +5056,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -5121,7 +5080,7 @@
       <c r="X15"/>
       <c r="Y15"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -5147,7 +5106,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -5167,7 +5126,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -5193,10 +5152,10 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:25" ht="21" x14ac:dyDescent="0.65">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -5221,7 +5180,7 @@
       <c r="X19"/>
       <c r="Y19"/>
     </row>
-    <row r="20" spans="2:25" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:25" ht="21" x14ac:dyDescent="0.65">
       <c r="B20" s="2"/>
       <c r="C20" s="10"/>
       <c r="D20" s="2"/>
@@ -5239,12 +5198,12 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5267,7 +5226,7 @@
       <c r="X21"/>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5301,27 +5260,27 @@
       <c r="X22"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>187</v>
@@ -5330,16 +5289,16 @@
         <v>185</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23"/>
@@ -5351,27 +5310,27 @@
       <c r="X23"/>
       <c r="Y23"/>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G24" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>186</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K24" s="17">
         <v>1.3</v>
@@ -5386,7 +5345,7 @@
       <c r="O24" s="32"/>
       <c r="P24" s="50" t="str">
         <f>_xll.flQuotesAdd(F15,E23:O27)</f>
-        <v>Added 4 quote(s) as at time 2020-01-03 14:13:07Z</v>
+        <v>Added 4 quote(s) as at time 2019-09-03 16:02:48Z</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24"/>
@@ -5398,27 +5357,27 @@
       <c r="X24"/>
       <c r="Y24"/>
     </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G25" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>186</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K25" s="17">
         <v>1.29</v>
@@ -5443,27 +5402,27 @@
       <c r="X25"/>
       <c r="Y25"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G26" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>186</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K26" s="17">
         <v>1.28</v>
@@ -5488,27 +5447,27 @@
       <c r="X26"/>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G27" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>186</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K27" s="17">
         <v>1.27</v>
@@ -5533,7 +5492,7 @@
       <c r="X27"/>
       <c r="Y27"/>
     </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
@@ -5559,7 +5518,7 @@
       <c r="X28"/>
       <c r="Y28"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
@@ -5585,7 +5544,7 @@
       <c r="X29"/>
       <c r="Y29"/>
     </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
@@ -5611,7 +5570,7 @@
       <c r="X30"/>
       <c r="Y30"/>
     </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
@@ -5637,7 +5596,7 @@
       <c r="X31"/>
       <c r="Y31"/>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="9"/>
@@ -5663,7 +5622,7 @@
       <c r="X32"/>
       <c r="Y32"/>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="9"/>
@@ -5689,7 +5648,7 @@
       <c r="X33"/>
       <c r="Y33"/>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5715,7 +5674,7 @@
       <c r="X34"/>
       <c r="Y34"/>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.45">
       <c r="B35" s="5"/>
       <c r="R35"/>
       <c r="S35"/>
@@ -5726,7 +5685,7 @@
       <c r="X35"/>
       <c r="Y35"/>
     </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" x14ac:dyDescent="0.45">
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -5736,7 +5695,7 @@
       <c r="X36"/>
       <c r="Y36"/>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.45">
       <c r="Q43" s="22"/>
     </row>
   </sheetData>
@@ -5775,13 +5734,13 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5789,7 +5748,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -5797,7 +5756,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -5805,882 +5764,882 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B180" t="s">
         <v>179</v>
       </c>
@@ -6698,35 +6657,35 @@
   <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.86328125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="23"/>
-    <col min="14" max="14" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.86328125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" style="23"/>
+    <col min="14" max="14" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.265625" style="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6739,11 +6698,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6754,7 +6713,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -6767,11 +6726,11 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6782,11 +6741,11 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6797,12 +6756,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -6812,12 +6771,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6827,12 +6786,12 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -6842,7 +6801,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6855,7 +6814,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -6870,7 +6829,7 @@
       <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6886,10 +6845,10 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6901,7 +6860,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6914,7 +6873,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -6927,7 +6886,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6940,7 +6899,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6963,18 +6922,18 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="18" t="str">
-        <v>Sedol</v>
+        <v>Figi</v>
       </c>
       <c r="F18" s="18" t="str">
-        <v>Instrument/default/Sedol</v>
+        <v>Instrument/default/Figi</v>
       </c>
       <c r="G18" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -6985,18 +6944,18 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
       <c r="E19" s="36" t="str">
-        <v>EdiKey</v>
+        <v>RIC</v>
       </c>
       <c r="F19" s="18" t="str">
-        <v>Instrument/default/EdiKey</v>
+        <v>Instrument/default/RIC</v>
       </c>
       <c r="G19" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -7007,18 +6966,18 @@
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
       <c r="E20" s="36" t="str">
-        <v>ShareClassFigi</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="F20" s="18" t="str">
-        <v>Instrument/default/ShareClassFigi</v>
+        <v>Instrument/default/LusidInstrumentId</v>
       </c>
       <c r="G20" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -7029,18 +6988,18 @@
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="36" t="str">
-        <v>Isin</v>
+        <v>QuotePermId</v>
       </c>
       <c r="F21" s="18" t="str">
-        <v>Instrument/default/Isin</v>
+        <v>Instrument/default/QuotePermId</v>
       </c>
       <c r="G21" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -7051,15 +7010,15 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="36" t="str">
-        <v>Ticker</v>
+        <v>Sedol</v>
       </c>
       <c r="F22" s="18" t="str">
-        <v>Instrument/default/Ticker</v>
+        <v>Instrument/default/Sedol</v>
       </c>
       <c r="G22" s="18" t="b">
         <v>0</v>
@@ -7073,18 +7032,18 @@
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="36" t="str">
-        <v>Figi</v>
+        <v>Wertpapier</v>
       </c>
       <c r="F23" s="18" t="str">
-        <v>Instrument/default/Figi</v>
+        <v>Instrument/default/Wertpapier</v>
       </c>
       <c r="G23" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -7095,18 +7054,18 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="36" t="str">
-        <v>RIC</v>
+        <v>ClientInternal</v>
       </c>
       <c r="F24" s="18" t="str">
-        <v>Instrument/default/RIC</v>
+        <v>Instrument/default/ClientInternal</v>
       </c>
       <c r="G24" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -7116,18 +7075,18 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="36" t="str">
-        <v>LusidInstrumentId</v>
+        <v>ShareClassFigi</v>
       </c>
       <c r="F25" s="18" t="str">
-        <v>Instrument/default/LusidInstrumentId</v>
+        <v>Instrument/default/ShareClassFigi</v>
       </c>
       <c r="G25" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -7135,18 +7094,18 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="36" t="str">
-        <v>ClientInternal</v>
+        <v>Isin</v>
       </c>
       <c r="F26" s="18" t="str">
-        <v>Instrument/default/ClientInternal</v>
+        <v>Instrument/default/Isin</v>
       </c>
       <c r="G26" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -7154,18 +7113,18 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="36" t="str">
-        <v>Currency</v>
+        <v>Ticker</v>
       </c>
       <c r="F27" s="18" t="str">
-        <v>Instrument/default/Currency</v>
+        <v>Instrument/default/Ticker</v>
       </c>
       <c r="G27" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -7173,18 +7132,18 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="36" t="str">
-        <v>QuotePermId</v>
+        <v>CompositeFigi</v>
       </c>
       <c r="F28" s="18" t="str">
-        <v>Instrument/default/QuotePermId</v>
+        <v>Instrument/default/CompositeFigi</v>
       </c>
       <c r="G28" s="18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -7192,18 +7151,18 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="36" t="str">
-        <v>[More...]</v>
+        <v>Cusip</v>
       </c>
       <c r="F29" s="18" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="G29" s="18" t="str">
-        <v>[More...]</v>
+        <v>Instrument/default/Cusip</v>
+      </c>
+      <c r="G29" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -7211,7 +7170,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -7256,34 +7215,34 @@
   <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" style="23" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="23"/>
-    <col min="13" max="13" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="23"/>
+    <col min="13" max="13" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="23"/>
+    <col min="20" max="23" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7295,11 +7254,11 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7309,7 +7268,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7321,11 +7280,11 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7335,11 +7294,11 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7349,12 +7308,12 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7363,12 +7322,12 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7377,12 +7336,12 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7391,7 +7350,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7403,7 +7362,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -7415,10 +7374,10 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="21" x14ac:dyDescent="0.65">
       <c r="B14" s="2"/>
       <c r="C14" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7429,7 +7388,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B15" s="2"/>
       <c r="C15" s="10"/>
       <c r="D15" s="2"/>
@@ -7441,12 +7400,12 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -7455,12 +7414,12 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -7469,12 +7428,12 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -7483,7 +7442,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -7495,31 +7454,31 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>198</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="25">
-        <f ca="1">TODAY()</f>
-        <v>43833</v>
+        <f ca="1">NOW()</f>
+        <v>43739.51511388889</v>
       </c>
       <c r="F21" s="25">
         <v>43697</v>
@@ -7532,7 +7491,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -7544,7 +7503,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -7565,7 +7524,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
@@ -7577,18 +7536,18 @@
       </c>
       <c r="F24" s="18" t="str">
         <f ca="1"/>
-        <v>CCY_AED</v>
+        <v>LUID_1IDOGL5H</v>
       </c>
       <c r="G24" s="18" t="str">
         <f ca="1"/>
-        <v>AED</v>
+        <v>T 2.25% Apr 30, 2021</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
@@ -7600,18 +7559,18 @@
       </c>
       <c r="F25" s="18" t="str">
         <f ca="1"/>
-        <v>CCY_AFN</v>
+        <v>LUID_2C7J9UP8</v>
       </c>
       <c r="G25" s="18" t="str">
         <f ca="1"/>
-        <v>AFN</v>
+        <v>T 2.875% Nov 15, 2046</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
@@ -7623,18 +7582,18 @@
       </c>
       <c r="F26" s="18" t="str">
         <f ca="1"/>
-        <v>CCY_ALL</v>
+        <v>LUID_388AOHMF</v>
       </c>
       <c r="G26" s="18" t="str">
         <f ca="1"/>
-        <v>ALL</v>
+        <v>GE 4.418% Nov 15, 2035</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
@@ -7646,18 +7605,18 @@
       </c>
       <c r="F27" s="18" t="str">
         <f ca="1"/>
-        <v>CCY_AMD</v>
+        <v>LUID_3IPLDPSN</v>
       </c>
       <c r="G27" s="18" t="str">
         <f ca="1"/>
-        <v>AMD</v>
+        <v>Walt Disney</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
@@ -7669,133 +7628,133 @@
       </c>
       <c r="F28" s="18" t="str">
         <f ca="1"/>
-        <v>CCY_ANG</v>
+        <v>LUID_3MI5BPOM</v>
       </c>
       <c r="G28" s="18" t="str">
         <f ca="1"/>
-        <v>ANG</v>
+        <v>NATIONAL GRID</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
         <v>6</v>
       </c>
-      <c r="E29" s="36" t="str">
+      <c r="E29" s="36" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F29" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="18" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G29" s="18" t="e">
         <f ca="1"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <v>7</v>
       </c>
-      <c r="E30" s="36" t="str">
+      <c r="E30" s="36" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F30" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F30" s="18" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G30" s="18" t="e">
         <f ca="1"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <v>8</v>
       </c>
-      <c r="E31" s="36" t="str">
+      <c r="E31" s="36" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F31" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F31" s="18" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="G31" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G31" s="18" t="e">
         <f ca="1"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <v>9</v>
       </c>
-      <c r="E32" s="36" t="str">
+      <c r="E32" s="36" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F32" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" s="18" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G32" s="18" t="e">
         <f ca="1"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
         <v>10</v>
       </c>
-      <c r="E33" s="36" t="str">
+      <c r="E33" s="36" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="F33" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="F33" s="18" t="e">
         <f ca="1"/>
-        <v/>
-      </c>
-      <c r="G33" s="18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="G33" s="18" t="e">
         <f ca="1"/>
-        <v/>
+        <v>#N/A</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -7830,32 +7789,32 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
     <col min="11" max="11" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="23"/>
-    <col min="14" max="14" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.86328125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="9.1328125" style="23"/>
+    <col min="14" max="14" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.265625" style="23" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -7868,11 +7827,11 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -7883,7 +7842,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -7896,11 +7855,11 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7911,11 +7870,11 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7926,12 +7885,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -7941,12 +7900,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7956,12 +7915,12 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -7971,7 +7930,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7984,7 +7943,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -8000,10 +7959,10 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8015,7 +7974,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -8028,12 +7987,12 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8043,12 +8002,12 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8058,12 +8017,12 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -8073,7 +8032,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -8086,7 +8045,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -8103,7 +8062,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -8116,7 +8075,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -8136,8 +8095,8 @@
       <c r="I21" s="33" t="str">
         <v>Figi</v>
       </c>
-      <c r="J21" s="33" t="str">
-        <v/>
+      <c r="J21" s="33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -8145,7 +8104,7 @@
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9">
@@ -8158,7 +8117,7 @@
         <v>Active</v>
       </c>
       <c r="G22" s="18" t="str">
-        <v>LUID_JENBWO5H</v>
+        <v>LUID_52QAWPO6</v>
       </c>
       <c r="H22" s="35" t="str">
         <v>Apple</v>
@@ -8166,8 +8125,8 @@
       <c r="I22" s="35" t="str">
         <v>BBG000B9XRY4</v>
       </c>
-      <c r="J22" s="52" t="str">
-        <v/>
+      <c r="J22" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -8175,7 +8134,7 @@
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9">
@@ -8188,7 +8147,7 @@
         <v>Active</v>
       </c>
       <c r="G23" s="18" t="str">
-        <v>LUID_6IOL49Q5</v>
+        <v>LUID_8M11ADAC</v>
       </c>
       <c r="H23" s="35" t="str">
         <v>JPMorgan Chase</v>
@@ -8196,8 +8155,8 @@
       <c r="I23" s="35" t="str">
         <v>BBG000DMBXR2</v>
       </c>
-      <c r="J23" s="52" t="str">
-        <v/>
+      <c r="J23" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -8205,7 +8164,7 @@
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9">
@@ -8218,7 +8177,7 @@
         <v>Active</v>
       </c>
       <c r="G24" s="18" t="str">
-        <v>LUID_AHX7SPIA</v>
+        <v>LUID_4JZB9MLP</v>
       </c>
       <c r="H24" s="35" t="str">
         <v>BP</v>
@@ -8226,8 +8185,8 @@
       <c r="I24" s="35" t="str">
         <v>BBG000C059M6</v>
       </c>
-      <c r="J24" s="52" t="str">
-        <v/>
+      <c r="J24" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -8235,7 +8194,7 @@
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9">
@@ -8248,7 +8207,7 @@
         <v>Active</v>
       </c>
       <c r="G25" s="18" t="str">
-        <v>LUID_LNXBDXBB</v>
+        <v>LUID_Z03VAEWV</v>
       </c>
       <c r="H25" s="35" t="str">
         <v>Anheuser-Busch InBev</v>
@@ -8256,8 +8215,8 @@
       <c r="I25" s="35" t="str">
         <v>BBG00DQ4YZ36</v>
       </c>
-      <c r="J25" s="52" t="str">
-        <v/>
+      <c r="J25" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -8265,7 +8224,7 @@
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9">
@@ -8278,7 +8237,7 @@
         <v>Active</v>
       </c>
       <c r="G26" s="18" t="str">
-        <v>LUID_OQEOT1JY</v>
+        <v>LUID_WYX0SDPX</v>
       </c>
       <c r="H26" s="35" t="str">
         <v>Toyota Motor</v>
@@ -8286,8 +8245,8 @@
       <c r="I26" s="35" t="str">
         <v>BBG000BCM915</v>
       </c>
-      <c r="J26" s="52" t="str">
-        <v/>
+      <c r="J26" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -8295,7 +8254,7 @@
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9">
@@ -8308,7 +8267,7 @@
         <v>Active</v>
       </c>
       <c r="G27" s="18" t="str">
-        <v>LUID_L5UE01IN</v>
+        <v>LUID_F9FDBWL0</v>
       </c>
       <c r="H27" s="35" t="str">
         <v>Volkswagen</v>
@@ -8316,8 +8275,8 @@
       <c r="I27" s="35" t="str">
         <v>BBG000BCH458</v>
       </c>
-      <c r="J27" s="52" t="str">
-        <v/>
+      <c r="J27" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -8325,7 +8284,7 @@
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9">
@@ -8338,7 +8297,7 @@
         <v>Active</v>
       </c>
       <c r="G28" s="18" t="str">
-        <v>LUID_V9OX6CRE</v>
+        <v>LUID_816OBQZV</v>
       </c>
       <c r="H28" s="35" t="str">
         <v>HSBC Holdings</v>
@@ -8346,15 +8305,15 @@
       <c r="I28" s="35" t="str">
         <v>BBG000BS1MT4</v>
       </c>
-      <c r="J28" s="52" t="str">
-        <v/>
+      <c r="J28" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9">
@@ -8367,7 +8326,7 @@
         <v>Active</v>
       </c>
       <c r="G29" s="18" t="str">
-        <v>LUID_58EHIPFX</v>
+        <v>LUID_3IPLDPSN</v>
       </c>
       <c r="H29" s="35" t="str">
         <v>Walt Disney</v>
@@ -8375,13 +8334,13 @@
       <c r="I29" s="35" t="str">
         <v>BBG000BH4R78</v>
       </c>
-      <c r="J29" s="52" t="str">
-        <v/>
+      <c r="J29" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9">
@@ -8394,7 +8353,7 @@
         <v>Active</v>
       </c>
       <c r="G30" s="18" t="str">
-        <v>LUID_230PNNYD</v>
+        <v>LUID_UW1XTP85</v>
       </c>
       <c r="H30" s="35" t="str">
         <v>Microsoft</v>
@@ -8402,13 +8361,13 @@
       <c r="I30" s="35" t="str">
         <v>BBG000BPH459</v>
       </c>
-      <c r="J30" s="52" t="str">
-        <v/>
+      <c r="J30" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9">
@@ -8421,7 +8380,7 @@
         <v>Active</v>
       </c>
       <c r="G31" s="18" t="str">
-        <v>LUID_JL12HZYH</v>
+        <v>LUID_A18IZK18</v>
       </c>
       <c r="H31" s="35" t="str">
         <v>Softbank</v>
@@ -8429,13 +8388,13 @@
       <c r="I31" s="35" t="str">
         <v>BBG000CLY2D3</v>
       </c>
-      <c r="J31" s="52" t="str">
-        <v/>
+      <c r="J31" s="52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -8483,32 +8442,32 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
     <col min="11" max="12" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="23"/>
-    <col min="15" max="15" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.73046875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" style="23"/>
+    <col min="15" max="15" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.265625" style="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="23"/>
+    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -8522,11 +8481,11 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -8538,7 +8497,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -8552,11 +8511,11 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -8568,11 +8527,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -8584,12 +8543,12 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -8600,12 +8559,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8616,12 +8575,12 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8632,7 +8591,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -8646,7 +8605,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -8661,7 +8620,7 @@
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -8675,10 +8634,10 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -8691,7 +8650,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B14" s="2"/>
       <c r="C14" s="10"/>
       <c r="D14" s="2"/>
@@ -8705,12 +8664,12 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="21" x14ac:dyDescent="0.65">
       <c r="B15" s="2"/>
       <c r="C15" s="10"/>
       <c r="D15" s="2"/>
       <c r="E15" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8721,12 +8680,12 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B16" s="2"/>
       <c r="C16" s="10"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8737,7 +8696,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -8754,33 +8713,33 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -8794,40 +8753,40 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
       <c r="E21" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>204</v>
@@ -8837,7 +8796,7 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="17" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="50" t="str">
@@ -8847,7 +8806,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -8861,40 +8820,40 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>204</v>
@@ -8904,7 +8863,7 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="17" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="50" t="str">
@@ -8914,7 +8873,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
@@ -8928,7 +8887,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -8942,10 +8901,10 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:13" ht="21" x14ac:dyDescent="0.65">
       <c r="B28" s="2"/>
       <c r="C28" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -8958,7 +8917,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B29" s="2"/>
       <c r="C29" s="10"/>
       <c r="D29" s="2"/>
@@ -8972,12 +8931,12 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -8988,7 +8947,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -9002,7 +8961,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -9020,7 +8979,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -9034,7 +8993,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -9054,16 +9013,16 @@
       <c r="I34" s="8" t="str">
         <v>Figi</v>
       </c>
-      <c r="J34" s="8" t="str">
-        <v/>
-      </c>
-      <c r="K34" s="8" t="str">
-        <v/>
+      <c r="J34" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K34" s="8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="9"/>
@@ -9075,7 +9034,7 @@
         <v>Active</v>
       </c>
       <c r="G35" s="13" t="str">
-        <v>LUID_JENBWO5H</v>
+        <v>LUID_52QAWPO6</v>
       </c>
       <c r="H35" s="16" t="str">
         <v>Apple</v>
@@ -9083,16 +9042,16 @@
       <c r="I35" s="16" t="str">
         <v>BBG000B9XRY4</v>
       </c>
-      <c r="J35" s="17" t="str">
-        <v/>
-      </c>
-      <c r="K35" s="17" t="str">
-        <v/>
+      <c r="J35" s="17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K35" s="17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="9"/>
@@ -9104,7 +9063,7 @@
         <v>Active</v>
       </c>
       <c r="G36" s="13" t="str">
-        <v>LUID_58EHIPFX</v>
+        <v>LUID_3IPLDPSN</v>
       </c>
       <c r="H36" s="16" t="str">
         <v>Walt Disney</v>
@@ -9112,16 +9071,16 @@
       <c r="I36" s="16" t="str">
         <v>BBG000BH4R78</v>
       </c>
-      <c r="J36" s="17" t="str">
-        <v/>
-      </c>
-      <c r="K36" s="17" t="str">
-        <v/>
+      <c r="J36" s="17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K36" s="17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="9"/>
@@ -9135,7 +9094,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="37"/>
@@ -9149,7 +9108,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -9163,7 +9122,7 @@
       <c r="L39"/>
       <c r="M39"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -9177,7 +9136,7 @@
       <c r="L40"/>
       <c r="M40"/>
     </row>
-    <row r="41" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -9191,7 +9150,7 @@
       <c r="L41"/>
       <c r="M41"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -9205,7 +9164,7 @@
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -9219,7 +9178,7 @@
       <c r="L43"/>
       <c r="M43"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -9233,7 +9192,7 @@
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -9247,7 +9206,7 @@
       <c r="L45"/>
       <c r="M45"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -9261,7 +9220,7 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -9275,7 +9234,7 @@
       <c r="L47"/>
       <c r="M47"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="37"/>
@@ -9323,38 +9282,38 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:M33"/>
+  <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="23" customWidth="1"/>
-    <col min="8" max="10" width="18.28515625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="25.86328125" style="23" customWidth="1"/>
+    <col min="8" max="10" width="18.265625" style="23" customWidth="1"/>
     <col min="11" max="12" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="23"/>
-    <col min="15" max="15" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.59765625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" style="23"/>
+    <col min="15" max="15" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.265625" style="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="23"/>
+    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9368,11 +9327,11 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -9384,7 +9343,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9398,11 +9357,11 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -9414,11 +9373,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -9430,12 +9389,12 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -9446,12 +9405,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -9462,12 +9421,12 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -9478,7 +9437,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -9492,7 +9451,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9506,10 +9465,10 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -9522,12 +9481,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -9538,7 +9497,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9552,12 +9511,12 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -9568,7 +9527,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
@@ -9582,58 +9541,58 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
       <c r="E19" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>341</v>
+        <v>204</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="16"/>
       <c r="J19" s="17"/>
       <c r="K19" s="50" t="str">
         <f>_xll.flInstrumentsAdd(E18:J19)</f>
-        <v>LUID_8VIVIFMY</v>
+        <v>LUID_A9RLV8U6</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
@@ -9647,7 +9606,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -9661,10 +9620,10 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" ht="21" x14ac:dyDescent="0.65">
       <c r="B23" s="2"/>
       <c r="C23" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -9677,12 +9636,12 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -9693,7 +9652,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -9707,14 +9666,16 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -9723,7 +9684,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -9737,152 +9698,101 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>308</v>
+      <c r="F28" s="8" t="str">
+        <f t="array" ref="F28:K30">_xll.flInstrumentsLookup(F26,E29,"Instrument/default/Ticker")</f>
+        <v>State</v>
       </c>
       <c r="G28" s="8" t="str">
-        <f t="array" ref="G28:L29">_xll.flInstrumentsLookup(F29,E29,"Instrument/default/Ticker")</f>
-        <v>State</v>
-      </c>
-      <c r="H28" s="8" t="str">
         <v>LusidInstrumentId</v>
       </c>
+      <c r="H28" s="7" t="str">
+        <v>Name</v>
+      </c>
       <c r="I28" s="8" t="str">
-        <v>Name</v>
-      </c>
-      <c r="J28" s="7" t="str">
         <v>Ticker</v>
       </c>
-      <c r="K28" s="8" t="str">
-        <v>Isin</v>
-      </c>
-      <c r="L28" s="8" t="str">
-        <v>Figi</v>
-      </c>
+      <c r="J28" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K28" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>204</v>
+      <c r="E29" s="12" t="str">
+        <f>G19</f>
+        <v>BBG007FAKECO</v>
+      </c>
+      <c r="F29" s="13" t="str">
+        <v>State</v>
       </c>
       <c r="G29" s="13" t="str">
-        <v>Active</v>
-      </c>
-      <c r="H29" s="13" t="str">
-        <v>LUID_8VIVIFMY</v>
-      </c>
-      <c r="I29" s="13" t="str">
-        <v>Spectre</v>
-      </c>
-      <c r="J29" s="16">
-        <v>0</v>
-      </c>
-      <c r="K29" s="16" t="str">
-        <v>GB007007007B</v>
-      </c>
-      <c r="L29" s="17" t="str">
-        <v>BBG007FAKECO</v>
-      </c>
+        <v>LusidInstrumentId</v>
+      </c>
+      <c r="H29" s="16" t="str">
+        <v>Name</v>
+      </c>
+      <c r="I29" s="16" t="str">
+        <v>Ticker</v>
+      </c>
+      <c r="J29" s="17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K29" s="50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="str">
+        <v>State</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <v>LusidInstrumentId</v>
+      </c>
+      <c r="H30" s="2" t="str">
+        <v>Name</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <v>Ticker</v>
+      </c>
+      <c r="J30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K30" s="2" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="G31" s="18" t="str">
-        <f>_xll.flInstrumentsLookup(F31,E31,"Instrument/default/Ticker")</f>
-        <v>#ERROR: The identifier type of 'Isin' is not configured to be a unique alias on this system. If you think this is an error, please contact your system administrator.</v>
-      </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F32" s="48"/>
-      <c r="G32" s="8" t="str">
-        <f t="array" ref="G32:L33">_xll.flInstrumentsLookup(F33,E33,"Instrument/default/Ticker")</f>
-        <v>State</v>
-      </c>
-      <c r="H32" s="8" t="str">
-        <v>LusidInstrumentId</v>
-      </c>
-      <c r="I32" s="8" t="str">
-        <v>Name</v>
-      </c>
-      <c r="J32" s="7" t="str">
-        <v>Ticker</v>
-      </c>
-      <c r="K32" s="8" t="str">
-        <v>Isin</v>
-      </c>
-      <c r="L32" s="8" t="str">
-        <v>Figi</v>
-      </c>
-    </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E33" s="17" t="str">
-        <f>K19</f>
-        <v>LUID_8VIVIFMY</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G33" s="23" t="str">
-        <v>Active</v>
-      </c>
-      <c r="H33" s="23" t="str">
-        <v>LUID_8VIVIFMY</v>
-      </c>
-      <c r="I33" s="23" t="str">
-        <v>Spectre</v>
-      </c>
-      <c r="J33" s="23">
-        <v>0</v>
-      </c>
-      <c r="K33" s="23" t="str">
-        <v>GB007007007B</v>
-      </c>
-      <c r="L33" s="23" t="str">
-        <v>BBG007FAKECO</v>
-      </c>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="18">
+  <dataValidations count="18">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Client supplied instrument Id" sqref="O17 O24" xr:uid="{00DDB5B9-AB50-4EB6-A9D1-57ADC0761B97}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument name" sqref="P17 P24" xr:uid="{12ED80DD-1447-4270-897B-A4131EB9C93A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Instrument Id Type" sqref="Q17" xr:uid="{02C3AC28-C26B-4014-94BB-541E43E04CCA}"/>
@@ -9920,37 +9830,37 @@
   </sheetPr>
   <dimension ref="B1:N46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.265625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="23"/>
-    <col min="15" max="15" width="28.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.59765625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" style="23"/>
+    <col min="15" max="15" width="28.86328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.1328125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.86328125" style="23" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.265625" style="23" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="23"/>
+    <col min="22" max="25" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9964,11 +9874,11 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -9980,7 +9890,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9994,11 +9904,11 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -10010,11 +9920,11 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -10026,11 +9936,11 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -10042,12 +9952,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -10058,12 +9968,12 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -10074,12 +9984,12 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -10090,7 +10000,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9"/>
@@ -10099,7 +10009,7 @@
         <v>OK</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -10110,39 +10020,39 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" ht="21" x14ac:dyDescent="0.65">
       <c r="B14" s="2"/>
       <c r="C14" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -10156,11 +10066,11 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -10173,30 +10083,30 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L16" s="6" t="str">
         <f t="array" ref="L16:L19">_xll.flPropertiesAdd(E16:K19)</f>
@@ -10205,18 +10115,18 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
       <c r="E17" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H17" s="12" t="b">
         <v>0</v>
@@ -10226,49 +10136,49 @@
         <v>PlanType</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L17" s="50" t="str">
-        <v>Entity already exists</v>
+        <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/PlanType' because it already exists.</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
       <c r="E18" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H18" s="42" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J18" s="43" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L18" s="50" t="str">
-        <v>Entity already exists</v>
+        <v>Error creating Property Definition 'Instrument/FinbourneBondVillains/TakeOverWorldDate' because it already exists.</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="9"/>
@@ -10276,30 +10186,30 @@
         <v>180</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H19" s="42" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L19" s="51" t="str">
-        <v>Entity already exists</v>
+        <v>Error creating Property Definition 'Transaction/Finbourne-Examples/IsThisATestTrade' because it already exists.</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="9"/>
@@ -10314,7 +10224,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
@@ -10329,7 +10239,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
@@ -10344,7 +10254,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
@@ -10359,7 +10269,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
@@ -10374,7 +10284,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
@@ -10383,7 +10293,7 @@
         <v>OK</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -10394,21 +10304,21 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="6"/>
@@ -10417,10 +10327,10 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" ht="21" x14ac:dyDescent="0.65">
       <c r="B28" s="2"/>
       <c r="C28" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -10434,11 +10344,11 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -10451,24 +10361,24 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -10476,27 +10386,27 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9">
         <v>1</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F31" s="15" t="str">
         <f>'Add instrument'!K19</f>
-        <v>LUID_8VIVIFMY</v>
+        <v>LUID_A9RLV8U6</v>
       </c>
       <c r="G31" s="46">
         <v>43101</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I31" s="45" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J31" s="41"/>
       <c r="K31" s="50" t="str">
@@ -10507,7 +10417,7 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="9">
@@ -10524,7 +10434,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="9">
@@ -10541,7 +10451,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="9"/>
@@ -10556,7 +10466,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="9"/>
@@ -10571,7 +10481,7 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -10586,10 +10496,10 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" ht="21" x14ac:dyDescent="0.65">
       <c r="B37" s="2"/>
       <c r="C37" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -10603,11 +10513,11 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -10620,7 +10530,7 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -10635,7 +10545,7 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -10643,7 +10553,7 @@
         <v>203</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -10654,7 +10564,7 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -10669,7 +10579,7 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -10677,7 +10587,7 @@
         <v>202</v>
       </c>
       <c r="F42" s="8" t="str">
-        <f t="array" ref="F42:L43">_xll.flInstrumentsLookup(F40,E43:E44,I30&amp;","&amp;H30)</f>
+        <f t="array" ref="F42:L43">_xll.flInstrumentsLookup(F40,E43:E44,H30&amp;","&amp;I30)</f>
         <v>State</v>
       </c>
       <c r="G42" s="8" t="str">
@@ -10692,48 +10602,48 @@
       <c r="J42" s="8" t="str">
         <v>TakeOverDate</v>
       </c>
-      <c r="K42" s="8" t="str">
-        <v>Figi</v>
-      </c>
-      <c r="L42" s="8" t="str">
-        <v>Isin</v>
+      <c r="K42" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L42" s="8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="9"/>
       <c r="E43" s="15" t="str">
         <f>F31</f>
-        <v>LUID_8VIVIFMY</v>
+        <v>LUID_A9RLV8U6</v>
       </c>
       <c r="F43" s="42" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G43" s="42" t="str">
-        <v>LUID_8VIVIFMY</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H43" s="41" t="str">
-        <v>Spectre</v>
+        <v>Name</v>
       </c>
       <c r="I43" s="41" t="str">
-        <v>Laser from satellite</v>
+        <v>PlanType</v>
       </c>
       <c r="J43" s="41" t="str">
-        <v>2028/12/01T00:00:00.00</v>
-      </c>
-      <c r="K43" s="41" t="str">
-        <v>BBG007FAKECO</v>
-      </c>
-      <c r="L43" s="50" t="str">
-        <v>GB007007007B</v>
+        <v>TakeOverDate</v>
+      </c>
+      <c r="K43" s="41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L43" s="50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="9"/>
@@ -10748,7 +10658,7 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="9"/>
@@ -10763,7 +10673,7 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="9"/>
@@ -10815,34 +10725,34 @@
   </sheetPr>
   <dimension ref="B1:V37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="23" customWidth="1"/>
-    <col min="7" max="10" width="18.28515625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="23.265625" style="23" customWidth="1"/>
+    <col min="7" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="22.73046875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3984375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="11.265625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -10857,11 +10767,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -10874,7 +10784,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -10889,11 +10799,11 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -10906,11 +10816,11 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -10923,12 +10833,12 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -10940,12 +10850,12 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -10957,12 +10867,12 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -10981,7 +10891,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -11003,7 +10913,7 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
@@ -11014,7 +10924,7 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -11036,10 +10946,10 @@
       <c r="T12"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="2:21" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -11060,7 +10970,7 @@
       <c r="T13"/>
       <c r="U13"/>
     </row>
-    <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -11082,7 +10992,7 @@
       <c r="T14"/>
       <c r="U14"/>
     </row>
-    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11090,7 +11000,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -11110,7 +11020,7 @@
       <c r="T15"/>
       <c r="U15"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -11132,7 +11042,7 @@
       <c r="T16"/>
       <c r="U16"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -11153,7 +11063,7 @@
       <c r="T17"/>
       <c r="U17"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -11175,10 +11085,10 @@
       <c r="T18"/>
       <c r="U18"/>
     </row>
-    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.65">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -11199,7 +11109,7 @@
       <c r="T19"/>
       <c r="U19"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -11221,39 +11131,39 @@
       <c r="T20"/>
       <c r="U20"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="I21" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>198</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21"/>
@@ -11264,12 +11174,12 @@
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="16" t="s">
@@ -11282,16 +11192,16 @@
         <v>186</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K22" s="20">
         <v>43570</v>
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
-      <c r="N22" s="51">
+      <c r="N22" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,L22,M22)</f>
-        <v>199.23</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22"/>
@@ -11302,12 +11212,12 @@
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="16" t="s">
@@ -11320,7 +11230,7 @@
         <v>186</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K23" s="20">
         <f>K22+1</f>
@@ -11328,9 +11238,9 @@
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
-      <c r="N23" s="51">
+      <c r="N23" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,L23,M23)</f>
-        <v>199.25</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23"/>
@@ -11341,12 +11251,12 @@
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="16" t="s">
@@ -11359,7 +11269,7 @@
         <v>186</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K24" s="20">
         <f t="shared" ref="K24:K30" si="0">K23+1</f>
@@ -11367,9 +11277,9 @@
       </c>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
-      <c r="N24" s="51">
+      <c r="N24" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,L24,M24)</f>
-        <v>203.13</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24"/>
@@ -11380,12 +11290,12 @@
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="16" t="s">
@@ -11398,7 +11308,7 @@
         <v>186</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K25" s="20">
         <f t="shared" si="0"/>
@@ -11406,9 +11316,9 @@
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="51">
+      <c r="N25" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,L25,M25)</f>
-        <v>203.86</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25"/>
@@ -11419,12 +11329,12 @@
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="16" t="s">
@@ -11437,7 +11347,7 @@
         <v>186</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K26" s="20">
         <f t="shared" si="0"/>
@@ -11445,9 +11355,9 @@
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
-      <c r="N26" s="51">
+      <c r="N26" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,L26,M26)</f>
-        <v>203.86</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26"/>
@@ -11455,12 +11365,12 @@
       <c r="R26"/>
       <c r="S26"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="16" t="s">
@@ -11473,7 +11383,7 @@
         <v>186</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K27" s="20">
         <f t="shared" si="0"/>
@@ -11481,9 +11391,9 @@
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
-      <c r="N27" s="51">
+      <c r="N27" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,L27,M27)</f>
-        <v>203.86</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27"/>
@@ -11491,12 +11401,12 @@
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
       <c r="E28" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="16" t="s">
@@ -11509,7 +11419,7 @@
         <v>186</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K28" s="20">
         <f t="shared" si="0"/>
@@ -11517,9 +11427,9 @@
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
-      <c r="N28" s="51">
+      <c r="N28" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,L28,M28)</f>
-        <v>203.86</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28"/>
@@ -11527,12 +11437,12 @@
       <c r="R28"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
       <c r="E29" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="16" t="s">
@@ -11545,7 +11455,7 @@
         <v>186</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K29" s="20">
         <f t="shared" si="0"/>
@@ -11553,9 +11463,9 @@
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
-      <c r="N29" s="51">
+      <c r="N29" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,L29,M29)</f>
-        <v>204.53</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29"/>
@@ -11563,12 +11473,12 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16" t="s">
@@ -11581,7 +11491,7 @@
         <v>186</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K30" s="20">
         <f t="shared" si="0"/>
@@ -11589,9 +11499,9 @@
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
-      <c r="N30" s="51">
+      <c r="N30" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,L30,M30)</f>
-        <v>207.48</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30"/>
@@ -11599,7 +11509,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
@@ -11619,7 +11529,7 @@
       <c r="R31"/>
       <c r="S31"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -11639,25 +11549,25 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="34" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
     </row>
-    <row r="36" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
     </row>
-    <row r="37" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:16" x14ac:dyDescent="0.45">
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
@@ -11683,33 +11593,33 @@
   <dimension ref="B1:V34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:J31"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="2.59765625" style="23" customWidth="1"/>
     <col min="3" max="3" width="1" style="23" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="23" customWidth="1"/>
-    <col min="7" max="10" width="18.28515625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.265625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="20.86328125" style="23" customWidth="1"/>
+    <col min="7" max="10" width="18.265625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="22.73046875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1328125" style="23" customWidth="1"/>
     <col min="13" max="13" width="22" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="23" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="19.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="23"/>
+    <col min="14" max="14" width="4.59765625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="19.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="9.265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -11724,11 +11634,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -11741,7 +11651,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -11756,11 +11666,11 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -11773,11 +11683,11 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -11790,12 +11700,12 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -11807,12 +11717,12 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -11824,12 +11734,12 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -11841,7 +11751,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -11856,7 +11766,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -11871,10 +11781,10 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" ht="21" x14ac:dyDescent="0.65">
       <c r="B13" s="2"/>
       <c r="C13" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
@@ -11888,7 +11798,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -11903,7 +11813,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11911,7 +11821,7 @@
         <v>184</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>183</v>
@@ -11924,7 +11834,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -11939,7 +11849,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -11951,7 +11861,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -11966,10 +11876,10 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" ht="21" x14ac:dyDescent="0.65">
       <c r="B19" s="2"/>
       <c r="C19" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -11983,7 +11893,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -11998,48 +11908,48 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>208</v>
-      </c>
       <c r="I21" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>198</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N21" s="2"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
       <c r="E22" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="16" t="s">
@@ -12052,27 +11962,27 @@
         <v>186</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K22" s="20">
         <v>43570</v>
       </c>
       <c r="L22" s="20"/>
-      <c r="M22" s="51">
+      <c r="M22" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E22,G22,H22,I22,J22,K22,F22,L22)</f>
-        <v>199.23</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N22" s="2"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="16" t="s">
@@ -12085,27 +11995,27 @@
         <v>186</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K23" s="20">
         <v>43571</v>
       </c>
       <c r="L23" s="17"/>
-      <c r="M23" s="51">
+      <c r="M23" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E23,G23,H23,I23,J23,K23,F23,L23)</f>
-        <v>111.1</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N23" s="2"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
       <c r="E24" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="16" t="s">
@@ -12118,27 +12028,27 @@
         <v>186</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K24" s="20">
         <v>43572</v>
       </c>
       <c r="L24" s="17"/>
-      <c r="M24" s="51">
+      <c r="M24" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E24,G24,H24,I24,J24,K24,F24,L24)</f>
-        <v>78.36</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N24" s="2"/>
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
       <c r="E25" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="16" t="s">
@@ -12151,15 +12061,15 @@
         <v>186</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K25" s="20">
         <v>43573</v>
       </c>
       <c r="L25" s="17"/>
-      <c r="M25" s="51">
+      <c r="M25" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E25,G25,H25,I25,J25,K25,F25,L25)</f>
-        <v>166.6</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N25" s="2"/>
       <c r="P25"/>
@@ -12167,12 +12077,12 @@
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
       <c r="E26" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="16" t="s">
@@ -12185,25 +12095,25 @@
         <v>186</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K26" s="20">
         <v>43574</v>
       </c>
       <c r="L26" s="17"/>
-      <c r="M26" s="51">
+      <c r="M26" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E26,G26,H26,I26,J26,K26,F26,L26)</f>
-        <v>666.5</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N26" s="2"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
       <c r="E27" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="16" t="s">
@@ -12216,25 +12126,25 @@
         <v>186</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K27" s="20">
         <v>43575</v>
       </c>
       <c r="L27" s="17"/>
-      <c r="M27" s="51">
+      <c r="M27" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E27,G27,H27,I27,J27,K27,F27,L27)</f>
-        <v>132.44999999999999</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N27" s="2"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
       <c r="E28" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="16" t="s">
@@ -12247,25 +12157,25 @@
         <v>186</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K28" s="20">
         <v>43576</v>
       </c>
       <c r="L28" s="17"/>
-      <c r="M28" s="51">
+      <c r="M28" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E28,G28,H28,I28,J28,K28,F28,L28)</f>
-        <v>123.37</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N28" s="2"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
       <c r="E29" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="16" t="s">
@@ -12278,25 +12188,25 @@
         <v>186</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K29" s="20">
         <v>43577</v>
       </c>
       <c r="L29" s="17"/>
-      <c r="M29" s="51">
+      <c r="M29" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E29,G29,H29,I29,J29,K29,F29,L29)</f>
-        <v>6963</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N29" s="2"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
       <c r="E30" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="16" t="s">
@@ -12309,25 +12219,25 @@
         <v>186</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K30" s="20">
         <v>43578</v>
       </c>
       <c r="L30" s="17"/>
-      <c r="M30" s="51">
+      <c r="M30" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E30,G30,H30,I30,J30,K30,F30,L30)</f>
-        <v>582.5</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N30" s="2"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
       <c r="E31" s="13" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="16" t="s">
@@ -12340,20 +12250,20 @@
         <v>186</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>344</v>
+        <v>205</v>
       </c>
       <c r="K31" s="20">
         <v>43579</v>
       </c>
       <c r="L31" s="17"/>
-      <c r="M31" s="51">
+      <c r="M31" s="51" t="str">
         <f>_xll.flQuoteGetForDate($F$15,E31,G31,H31,I31,J31,K31,F31,L31)</f>
-        <v>11550</v>
+        <v>Either None, or more than 1 quote was found for the specified Id</v>
       </c>
       <c r="N31" s="2"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -12369,10 +12279,10 @@
       <c r="N32" s="2"/>
       <c r="P32"/>
     </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P33"/>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:16" x14ac:dyDescent="0.45">
       <c r="P34"/>
     </row>
   </sheetData>
@@ -12398,6 +12308,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F4F0FA1AC8B142BA5BFAEE01329AF1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51d44e6750016a81140edd9302933050">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7f1325bc-d786-4e92-924e-74ffe34b2b40" xmlns:ns3="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbbf5b69800df541767d824f3fbf5177" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12623,15 +12542,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F07F7B26-A8FB-44CC-BC1A-494CF9683469}">
   <ds:schemaRefs>
@@ -12651,6 +12561,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EDF347-3168-4BEB-9A6E-9322773C07F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12668,12 +12586,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>